--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
@@ -351,7 +351,7 @@
     <t>2015-11-12 19:33:45</t>
   </si>
   <si>
-    <t>2016-02-22 08:53:12</t>
+    <t>2016-02-22 08:54:18</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -657,7 +657,7 @@
     <t>2016-01-05 07:27:06</t>
   </si>
   <si>
-    <t>2016-02-22 08:53:23</t>
+    <t>2016-02-22 08:54:29</t>
   </si>
   <si>
     <t>CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.fr-fr.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="734">
   <si>
     <t>File Name</t>
   </si>
@@ -2066,6 +2066,9 @@
   </si>
   <si>
     <t>CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.vi-vn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-29 00:14:57</t>
   </si>
   <si>
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.vi-vn.xlf</t>
@@ -2628,7 +2631,7 @@
         <v>15</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>17</v>
@@ -2669,7 +2672,7 @@
         <v>15</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>17</v>
@@ -2710,7 +2713,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>17</v>
@@ -2751,7 +2754,7 @@
         <v>15</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>17</v>
@@ -2792,7 +2795,7 @@
         <v>15</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>17</v>
@@ -2833,7 +2836,7 @@
         <v>15</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>17</v>
@@ -2874,7 +2877,7 @@
         <v>15</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>17</v>
@@ -2915,7 +2918,7 @@
         <v>15</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>17</v>
@@ -2956,7 +2959,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>17</v>
@@ -2997,7 +3000,7 @@
         <v>15</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>17</v>
@@ -3038,7 +3041,7 @@
         <v>15</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>17</v>
@@ -3079,7 +3082,7 @@
         <v>15</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>17</v>
@@ -3120,7 +3123,7 @@
         <v>15</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>17</v>
@@ -3161,7 +3164,7 @@
         <v>15</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>17</v>
@@ -3202,7 +3205,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>17</v>
@@ -3243,7 +3246,7 @@
         <v>15</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>17</v>
@@ -3284,7 +3287,7 @@
         <v>15</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>17</v>
@@ -3325,7 +3328,7 @@
         <v>15</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>17</v>
@@ -3366,7 +3369,7 @@
         <v>15</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>17</v>
@@ -3407,7 +3410,7 @@
         <v>15</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>17</v>
@@ -3448,7 +3451,7 @@
         <v>15</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>17</v>
@@ -3489,7 +3492,7 @@
         <v>15</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>17</v>
@@ -3530,7 +3533,7 @@
         <v>15</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>17</v>
@@ -3571,7 +3574,7 @@
         <v>15</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>17</v>
@@ -3612,7 +3615,7 @@
         <v>15</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>17</v>
@@ -3653,7 +3656,7 @@
         <v>15</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>17</v>
@@ -3694,7 +3697,7 @@
         <v>15</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>17</v>
@@ -3735,7 +3738,7 @@
         <v>15</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>17</v>
@@ -3776,7 +3779,7 @@
         <v>15</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>17</v>
@@ -3817,7 +3820,7 @@
         <v>15</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>17</v>
@@ -3858,7 +3861,7 @@
         <v>15</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>17</v>
@@ -3899,7 +3902,7 @@
         <v>15</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>17</v>
@@ -3940,7 +3943,7 @@
         <v>15</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>17</v>
@@ -3981,7 +3984,7 @@
         <v>15</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>17</v>
@@ -4022,7 +4025,7 @@
         <v>15</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>17</v>
@@ -4063,7 +4066,7 @@
         <v>15</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>17</v>
@@ -4104,7 +4107,7 @@
         <v>15</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>17</v>
@@ -4145,7 +4148,7 @@
         <v>15</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>17</v>
@@ -4186,7 +4189,7 @@
         <v>15</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>17</v>
@@ -4227,7 +4230,7 @@
         <v>15</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>17</v>
@@ -4268,7 +4271,7 @@
         <v>15</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>17</v>
@@ -4309,7 +4312,7 @@
         <v>15</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>17</v>
@@ -4350,7 +4353,7 @@
         <v>15</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>17</v>
@@ -4391,7 +4394,7 @@
         <v>15</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>17</v>
@@ -4432,7 +4435,7 @@
         <v>15</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>17</v>
@@ -4473,7 +4476,7 @@
         <v>15</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>17</v>
@@ -4514,7 +4517,7 @@
         <v>15</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>17</v>
@@ -4555,7 +4558,7 @@
         <v>15</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>17</v>
@@ -4596,7 +4599,7 @@
         <v>15</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>17</v>
@@ -4637,7 +4640,7 @@
         <v>15</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>17</v>
@@ -4678,7 +4681,7 @@
         <v>15</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>17</v>
@@ -4719,7 +4722,7 @@
         <v>15</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>17</v>
@@ -4760,7 +4763,7 @@
         <v>15</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>17</v>
@@ -4801,7 +4804,7 @@
         <v>15</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>17</v>
@@ -4842,7 +4845,7 @@
         <v>15</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>17</v>
@@ -4883,7 +4886,7 @@
         <v>15</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>73</v>
@@ -4924,7 +4927,7 @@
         <v>15</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>17</v>
@@ -8487,7 +8490,7 @@
         <v>87</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>680</v>
@@ -8495,8 +8498,14 @@
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>680</v>
+      </c>
       <c r="H2" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>91</v>
@@ -8510,16 +8519,22 @@
         <v>87</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>682</v>
+      </c>
       <c r="H3" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>91</v>
@@ -8533,16 +8548,22 @@
         <v>87</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>683</v>
+      </c>
       <c r="H4" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>91</v>
@@ -8556,16 +8577,22 @@
         <v>87</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>684</v>
+      </c>
       <c r="H5" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>91</v>
@@ -8579,16 +8606,22 @@
         <v>87</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>685</v>
+      </c>
       <c r="H6" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>91</v>
@@ -8602,16 +8635,22 @@
         <v>87</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>686</v>
+      </c>
       <c r="H7" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>91</v>
@@ -8625,16 +8664,22 @@
         <v>87</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>687</v>
+      </c>
       <c r="H8" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>91</v>
@@ -8648,16 +8693,22 @@
         <v>87</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>688</v>
+      </c>
       <c r="H9" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>91</v>
@@ -8671,16 +8722,22 @@
         <v>87</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>689</v>
+      </c>
       <c r="H10" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>91</v>
@@ -8694,16 +8751,22 @@
         <v>87</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>690</v>
+      </c>
       <c r="H11" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>91</v>
@@ -8717,16 +8780,22 @@
         <v>87</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>691</v>
+      </c>
       <c r="H12" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>91</v>
@@ -8740,16 +8809,22 @@
         <v>87</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="H13" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>91</v>
@@ -8763,16 +8838,22 @@
         <v>87</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>693</v>
+      </c>
       <c r="H14" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>91</v>
@@ -8786,16 +8867,22 @@
         <v>87</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>694</v>
+      </c>
       <c r="H15" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>91</v>
@@ -8809,16 +8896,22 @@
         <v>87</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>695</v>
+      </c>
       <c r="H16" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>91</v>
@@ -8832,7 +8925,7 @@
         <v>103</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>104</v>
@@ -8840,8 +8933,14 @@
       <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="H17" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>107</v>
@@ -8858,7 +8957,7 @@
         <v>103</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>110</v>
@@ -8866,8 +8965,14 @@
       <c r="E18" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="H18" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>107</v>
@@ -8884,7 +8989,7 @@
         <v>111</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>112</v>
@@ -8892,8 +8997,14 @@
       <c r="E19" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="H19" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>107</v>
@@ -8910,7 +9021,7 @@
         <v>111</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>114</v>
@@ -8918,8 +9029,14 @@
       <c r="E20" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="H20" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>107</v>
@@ -8936,16 +9053,22 @@
         <v>87</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>696</v>
+      </c>
       <c r="H21" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>91</v>
@@ -8959,16 +9082,22 @@
         <v>87</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>697</v>
+      </c>
       <c r="H22" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>91</v>
@@ -8982,16 +9111,22 @@
         <v>87</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>698</v>
+      </c>
       <c r="H23" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>91</v>
@@ -9005,16 +9140,22 @@
         <v>87</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>699</v>
+      </c>
       <c r="H24" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>91</v>
@@ -9028,16 +9169,22 @@
         <v>87</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>700</v>
+      </c>
       <c r="H25" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>91</v>
@@ -9051,16 +9198,22 @@
         <v>87</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>701</v>
+      </c>
       <c r="H26" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>91</v>
@@ -9074,16 +9227,22 @@
         <v>87</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>702</v>
+      </c>
       <c r="H27" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>91</v>
@@ -9097,16 +9256,22 @@
         <v>87</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>703</v>
+      </c>
       <c r="H28" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>91</v>
@@ -9120,16 +9285,22 @@
         <v>87</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>704</v>
+      </c>
       <c r="H29" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>91</v>
@@ -9143,16 +9314,22 @@
         <v>87</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>705</v>
+      </c>
       <c r="H30" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>91</v>
@@ -9166,16 +9343,22 @@
         <v>87</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>706</v>
+      </c>
       <c r="H31" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>91</v>
@@ -9189,16 +9372,22 @@
         <v>87</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>707</v>
+      </c>
       <c r="H32" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>91</v>
@@ -9212,16 +9401,22 @@
         <v>87</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>708</v>
+      </c>
       <c r="H33" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>91</v>
@@ -9235,16 +9430,22 @@
         <v>87</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>709</v>
+      </c>
       <c r="H34" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>91</v>
@@ -9258,16 +9459,22 @@
         <v>87</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>710</v>
+      </c>
       <c r="H35" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>91</v>
@@ -9281,16 +9488,22 @@
         <v>87</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>711</v>
+      </c>
       <c r="H36" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>91</v>
@@ -9304,16 +9517,22 @@
         <v>87</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>712</v>
+      </c>
       <c r="H37" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>91</v>
@@ -9327,16 +9546,22 @@
         <v>87</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>713</v>
+      </c>
       <c r="H38" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>91</v>
@@ -9350,16 +9575,22 @@
         <v>87</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>714</v>
+      </c>
       <c r="H39" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>91</v>
@@ -9373,16 +9604,22 @@
         <v>87</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>715</v>
+      </c>
       <c r="H40" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>91</v>
@@ -9396,16 +9633,22 @@
         <v>87</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>716</v>
+      </c>
       <c r="H41" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>91</v>
@@ -9419,16 +9662,22 @@
         <v>87</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>717</v>
+      </c>
       <c r="H42" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>91</v>
@@ -9442,16 +9691,22 @@
         <v>87</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>718</v>
+      </c>
       <c r="H43" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>91</v>
@@ -9465,16 +9720,22 @@
         <v>87</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>719</v>
+      </c>
       <c r="H44" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>91</v>
@@ -9488,16 +9749,22 @@
         <v>87</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>720</v>
+      </c>
       <c r="H45" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J45" s="0" t="s">
         <v>91</v>
@@ -9511,16 +9778,22 @@
         <v>87</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>721</v>
+      </c>
       <c r="H46" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>91</v>
@@ -9534,16 +9807,22 @@
         <v>87</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>722</v>
+      </c>
       <c r="H47" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>91</v>
@@ -9557,16 +9836,22 @@
         <v>87</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>723</v>
+      </c>
       <c r="H48" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>91</v>
@@ -9580,16 +9865,22 @@
         <v>87</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>724</v>
+      </c>
       <c r="H49" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>91</v>
@@ -9603,16 +9894,22 @@
         <v>87</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>725</v>
+      </c>
       <c r="H50" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>91</v>
@@ -9626,16 +9923,22 @@
         <v>87</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="F51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>726</v>
+      </c>
       <c r="H51" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J51" s="0" t="s">
         <v>91</v>
@@ -9649,16 +9952,22 @@
         <v>87</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>727</v>
+      </c>
       <c r="H52" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J52" s="0" t="s">
         <v>91</v>
@@ -9672,16 +9981,22 @@
         <v>87</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>728</v>
+      </c>
       <c r="H53" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J53" s="0" t="s">
         <v>91</v>
@@ -9695,16 +10010,22 @@
         <v>87</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>729</v>
+      </c>
       <c r="H54" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J54" s="0" t="s">
         <v>91</v>
@@ -9718,16 +10039,22 @@
         <v>87</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>730</v>
+      </c>
       <c r="H55" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J55" s="0" t="s">
         <v>91</v>
@@ -9741,16 +10068,22 @@
         <v>87</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>731</v>
+      </c>
       <c r="H56" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J56" s="0" t="s">
         <v>91</v>
@@ -9764,16 +10097,22 @@
         <v>87</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>732</v>
+      </c>
       <c r="H57" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J57" s="0" t="s">
         <v>91</v>
@@ -9787,16 +10126,22 @@
         <v>87</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>733</v>
+      </c>
       <c r="H58" s="2" t="s">
-        <v>158</v>
+        <v>681</v>
       </c>
       <c r="J58" s="0" t="s">
         <v>91</v>
@@ -9806,118 +10151,232 @@
   <hyperlinks>
     <hyperlink ref="A2" display="CONTRIBUTING.md" r:id="rId2"/>
     <hyperlink ref="D2" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.vi-vn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="archiveResource.md" r:id="rId4"/>
-    <hyperlink ref="D3" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.vi-vn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="authoringResource.md" r:id="rId6"/>
-    <hyperlink ref="D4" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.vi-vn.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="authoringResourceClass.md" r:id="rId8"/>
-    <hyperlink ref="D5" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.vi-vn.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="authoringResourceComposite.md" r:id="rId10"/>
-    <hyperlink ref="D6" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.vi-vn.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="authoringResourceMOF.md" r:id="rId12"/>
-    <hyperlink ref="D7" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.vi-vn.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="authoringResourceMofCS.md" r:id="rId14"/>
-    <hyperlink ref="D8" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.vi-vn.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="authoringResourceMofDesigner.md" r:id="rId16"/>
-    <hyperlink ref="D9" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.vi-vn.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="builtInResource.md" r:id="rId18"/>
-    <hyperlink ref="D10" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.vi-vn.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="configData.md" r:id="rId20"/>
-    <hyperlink ref="D11" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.vi-vn.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="configurations.md" r:id="rId22"/>
-    <hyperlink ref="D12" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.vi-vn.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="enactingConfigurations.md" r:id="rId24"/>
-    <hyperlink ref="D13" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.vi-vn.xlf" r:id="rId25"/>
-    <hyperlink ref="A14" display="environmentResource.md" r:id="rId26"/>
-    <hyperlink ref="D14" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.vi-vn.xlf" r:id="rId27"/>
-    <hyperlink ref="A15" display="fileResource.md" r:id="rId28"/>
-    <hyperlink ref="D15" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.vi-vn.xlf" r:id="rId29"/>
-    <hyperlink ref="A16" display="groupResource.md" r:id="rId30"/>
-    <hyperlink ref="D16" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.vi-vn.xlf" r:id="rId31"/>
-    <hyperlink ref="A17" display="PartialConfig1.jpg" r:id="rId32"/>
-    <hyperlink ref="D17" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId33"/>
-    <hyperlink ref="A18" display="PartialConfigPullServer.jpg" r:id="rId34"/>
-    <hyperlink ref="D18" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId35"/>
-    <hyperlink ref="A19" display="Pull.png" r:id="rId36"/>
-    <hyperlink ref="D19" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId37"/>
-    <hyperlink ref="A20" display="Push.png" r:id="rId38"/>
-    <hyperlink ref="D20" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId39"/>
-    <hyperlink ref="A21" display="lnxArchiveResource.md" r:id="rId40"/>
-    <hyperlink ref="D21" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.vi-vn.xlf" r:id="rId41"/>
-    <hyperlink ref="A22" display="lnxBuiltInResources.md" r:id="rId42"/>
-    <hyperlink ref="D22" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.vi-vn.xlf" r:id="rId43"/>
-    <hyperlink ref="A23" display="lnxEnvironmentResource.md" r:id="rId44"/>
-    <hyperlink ref="D23" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.vi-vn.xlf" r:id="rId45"/>
-    <hyperlink ref="A24" display="lnxFileLineResource.md" r:id="rId46"/>
-    <hyperlink ref="D24" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.vi-vn.xlf" r:id="rId47"/>
-    <hyperlink ref="A25" display="lnxFileResource.md" r:id="rId48"/>
-    <hyperlink ref="D25" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.vi-vn.xlf" r:id="rId49"/>
-    <hyperlink ref="A26" display="lnxGettingStarted.md" r:id="rId50"/>
-    <hyperlink ref="D26" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.vi-vn.xlf" r:id="rId51"/>
-    <hyperlink ref="A27" display="lnxGroupResource.md" r:id="rId52"/>
-    <hyperlink ref="D27" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.vi-vn.xlf" r:id="rId53"/>
-    <hyperlink ref="A28" display="lnxPackageResource.md" r:id="rId54"/>
-    <hyperlink ref="D28" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.vi-vn.xlf" r:id="rId55"/>
-    <hyperlink ref="A29" display="lnxScriptResource.md" r:id="rId56"/>
-    <hyperlink ref="D29" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.vi-vn.xlf" r:id="rId57"/>
-    <hyperlink ref="A30" display="lnxServiceResource.md" r:id="rId58"/>
-    <hyperlink ref="D30" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.vi-vn.xlf" r:id="rId59"/>
-    <hyperlink ref="A31" display="lnxSshAuthorizedKeysResource.md" r:id="rId60"/>
-    <hyperlink ref="D31" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.vi-vn.xlf" r:id="rId61"/>
-    <hyperlink ref="A32" display="lnxUserResource.md" r:id="rId62"/>
-    <hyperlink ref="D32" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.vi-vn.xlf" r:id="rId63"/>
-    <hyperlink ref="A33" display="logResource.md" r:id="rId64"/>
-    <hyperlink ref="D33" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.vi-vn.xlf" r:id="rId65"/>
-    <hyperlink ref="A34" display="metaConfig.md" r:id="rId66"/>
-    <hyperlink ref="D34" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.vi-vn.xlf" r:id="rId67"/>
-    <hyperlink ref="A35" display="metaConfig4.md" r:id="rId68"/>
-    <hyperlink ref="D35" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.vi-vn.xlf" r:id="rId69"/>
-    <hyperlink ref="A36" display="overview.md" r:id="rId70"/>
-    <hyperlink ref="D36" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.vi-vn.xlf" r:id="rId71"/>
-    <hyperlink ref="A37" display="packageResource.md" r:id="rId72"/>
-    <hyperlink ref="D37" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.vi-vn.xlf" r:id="rId73"/>
-    <hyperlink ref="A38" display="partialConfigs.md" r:id="rId74"/>
-    <hyperlink ref="D38" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.vi-vn.xlf" r:id="rId75"/>
-    <hyperlink ref="A39" display="pullClient.md" r:id="rId76"/>
-    <hyperlink ref="D39" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.vi-vn.xlf" r:id="rId77"/>
-    <hyperlink ref="A40" display="pullClientConfigID.md" r:id="rId78"/>
-    <hyperlink ref="D40" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.vi-vn.xlf" r:id="rId79"/>
-    <hyperlink ref="A41" display="pullClientConfigID4.md" r:id="rId80"/>
-    <hyperlink ref="D41" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.vi-vn.xlf" r:id="rId81"/>
-    <hyperlink ref="A42" display="pullClientConfigNames.md" r:id="rId82"/>
-    <hyperlink ref="D42" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.vi-vn.xlf" r:id="rId83"/>
-    <hyperlink ref="A43" display="pullServer.md" r:id="rId84"/>
-    <hyperlink ref="D43" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.vi-vn.xlf" r:id="rId85"/>
-    <hyperlink ref="A44" display="queryServerNodes.md" r:id="rId86"/>
-    <hyperlink ref="D44" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.vi-vn.xlf" r:id="rId87"/>
-    <hyperlink ref="A45" display="registryResource.md" r:id="rId88"/>
-    <hyperlink ref="D45" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.vi-vn.xlf" r:id="rId89"/>
-    <hyperlink ref="A46" display="resources.md" r:id="rId90"/>
-    <hyperlink ref="D46" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.vi-vn.xlf" r:id="rId91"/>
-    <hyperlink ref="A47" display="scriptResource.md" r:id="rId92"/>
-    <hyperlink ref="D47" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.vi-vn.xlf" r:id="rId93"/>
-    <hyperlink ref="A48" display="secureMOF.md" r:id="rId94"/>
-    <hyperlink ref="D48" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.vi-vn.xlf" r:id="rId95"/>
-    <hyperlink ref="A49" display="secureServer.md" r:id="rId96"/>
-    <hyperlink ref="D49" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.vi-vn.xlf" r:id="rId97"/>
-    <hyperlink ref="A50" display="serviceResource.md" r:id="rId98"/>
-    <hyperlink ref="D50" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.vi-vn.xlf" r:id="rId99"/>
-    <hyperlink ref="A51" display="OpenLoc is cool.md" r:id="rId100"/>
-    <hyperlink ref="D51" display="OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.vi-vn.xlf" r:id="rId101"/>
-    <hyperlink ref="A52" display="SonjaTest.md" r:id="rId102"/>
-    <hyperlink ref="D52" display="SonjaTest.bab99385ac372c3ae450ecdd8e590c3ad3219939.vi-vn.xlf" r:id="rId103"/>
-    <hyperlink ref="A53" display="TOC.md" r:id="rId104"/>
-    <hyperlink ref="D53" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.vi-vn.xlf" r:id="rId105"/>
-    <hyperlink ref="A54" display="troubleshooting.md" r:id="rId106"/>
-    <hyperlink ref="D54" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.vi-vn.xlf" r:id="rId107"/>
-    <hyperlink ref="A55" display="userResource.md" r:id="rId108"/>
-    <hyperlink ref="D55" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.vi-vn.xlf" r:id="rId109"/>
-    <hyperlink ref="A56" display="windowsfeatureResource.md" r:id="rId110"/>
-    <hyperlink ref="D56" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.vi-vn.xlf" r:id="rId111"/>
-    <hyperlink ref="A57" display="windowsProcessResource.md" r:id="rId112"/>
-    <hyperlink ref="D57" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.vi-vn.xlf" r:id="rId113"/>
-    <hyperlink ref="A58" display="README.md" r:id="rId114"/>
-    <hyperlink ref="D58" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.vi-vn.xlf" r:id="rId115"/>
+    <hyperlink ref="F2" display="CONTRIBUTING.md" r:id="rId4"/>
+    <hyperlink ref="G2" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.vi-vn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="archiveResource.md" r:id="rId6"/>
+    <hyperlink ref="D3" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.vi-vn.xlf" r:id="rId7"/>
+    <hyperlink ref="F3" display="archiveResource.md" r:id="rId8"/>
+    <hyperlink ref="G3" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.vi-vn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="authoringResource.md" r:id="rId10"/>
+    <hyperlink ref="D4" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.vi-vn.xlf" r:id="rId11"/>
+    <hyperlink ref="F4" display="authoringResource.md" r:id="rId12"/>
+    <hyperlink ref="G4" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.vi-vn.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="authoringResourceClass.md" r:id="rId14"/>
+    <hyperlink ref="D5" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.vi-vn.xlf" r:id="rId15"/>
+    <hyperlink ref="F5" display="authoringResourceClass.md" r:id="rId16"/>
+    <hyperlink ref="G5" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.vi-vn.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="authoringResourceComposite.md" r:id="rId18"/>
+    <hyperlink ref="D6" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.vi-vn.xlf" r:id="rId19"/>
+    <hyperlink ref="F6" display="authoringResourceComposite.md" r:id="rId20"/>
+    <hyperlink ref="G6" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.vi-vn.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display="authoringResourceMOF.md" r:id="rId22"/>
+    <hyperlink ref="D7" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.vi-vn.xlf" r:id="rId23"/>
+    <hyperlink ref="F7" display="authoringResourceMOF.md" r:id="rId24"/>
+    <hyperlink ref="G7" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.vi-vn.xlf" r:id="rId25"/>
+    <hyperlink ref="A8" display="authoringResourceMofCS.md" r:id="rId26"/>
+    <hyperlink ref="D8" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.vi-vn.xlf" r:id="rId27"/>
+    <hyperlink ref="F8" display="authoringResourceMofCS.md" r:id="rId28"/>
+    <hyperlink ref="G8" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.vi-vn.xlf" r:id="rId29"/>
+    <hyperlink ref="A9" display="authoringResourceMofDesigner.md" r:id="rId30"/>
+    <hyperlink ref="D9" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.vi-vn.xlf" r:id="rId31"/>
+    <hyperlink ref="F9" display="authoringResourceMofDesigner.md" r:id="rId32"/>
+    <hyperlink ref="G9" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.vi-vn.xlf" r:id="rId33"/>
+    <hyperlink ref="A10" display="builtInResource.md" r:id="rId34"/>
+    <hyperlink ref="D10" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.vi-vn.xlf" r:id="rId35"/>
+    <hyperlink ref="F10" display="builtInResource.md" r:id="rId36"/>
+    <hyperlink ref="G10" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.vi-vn.xlf" r:id="rId37"/>
+    <hyperlink ref="A11" display="configData.md" r:id="rId38"/>
+    <hyperlink ref="D11" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.vi-vn.xlf" r:id="rId39"/>
+    <hyperlink ref="F11" display="configData.md" r:id="rId40"/>
+    <hyperlink ref="G11" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.vi-vn.xlf" r:id="rId41"/>
+    <hyperlink ref="A12" display="configurations.md" r:id="rId42"/>
+    <hyperlink ref="D12" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.vi-vn.xlf" r:id="rId43"/>
+    <hyperlink ref="F12" display="configurations.md" r:id="rId44"/>
+    <hyperlink ref="G12" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.vi-vn.xlf" r:id="rId45"/>
+    <hyperlink ref="A13" display="enactingConfigurations.md" r:id="rId46"/>
+    <hyperlink ref="D13" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.vi-vn.xlf" r:id="rId47"/>
+    <hyperlink ref="F13" display="enactingConfigurations.md" r:id="rId48"/>
+    <hyperlink ref="G13" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.vi-vn.xlf" r:id="rId49"/>
+    <hyperlink ref="A14" display="environmentResource.md" r:id="rId50"/>
+    <hyperlink ref="D14" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.vi-vn.xlf" r:id="rId51"/>
+    <hyperlink ref="F14" display="environmentResource.md" r:id="rId52"/>
+    <hyperlink ref="G14" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.vi-vn.xlf" r:id="rId53"/>
+    <hyperlink ref="A15" display="fileResource.md" r:id="rId54"/>
+    <hyperlink ref="D15" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.vi-vn.xlf" r:id="rId55"/>
+    <hyperlink ref="F15" display="fileResource.md" r:id="rId56"/>
+    <hyperlink ref="G15" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.vi-vn.xlf" r:id="rId57"/>
+    <hyperlink ref="A16" display="groupResource.md" r:id="rId58"/>
+    <hyperlink ref="D16" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.vi-vn.xlf" r:id="rId59"/>
+    <hyperlink ref="F16" display="groupResource.md" r:id="rId60"/>
+    <hyperlink ref="G16" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.vi-vn.xlf" r:id="rId61"/>
+    <hyperlink ref="A17" display="PartialConfig1.jpg" r:id="rId62"/>
+    <hyperlink ref="D17" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId63"/>
+    <hyperlink ref="F17" display="PartialConfig1.jpg" r:id="rId64"/>
+    <hyperlink ref="G17" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId65"/>
+    <hyperlink ref="A18" display="PartialConfigPullServer.jpg" r:id="rId66"/>
+    <hyperlink ref="D18" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId67"/>
+    <hyperlink ref="F18" display="PartialConfigPullServer.jpg" r:id="rId68"/>
+    <hyperlink ref="G18" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId69"/>
+    <hyperlink ref="A19" display="Pull.png" r:id="rId70"/>
+    <hyperlink ref="D19" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId71"/>
+    <hyperlink ref="F19" display="Pull.png" r:id="rId72"/>
+    <hyperlink ref="G19" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId73"/>
+    <hyperlink ref="A20" display="Push.png" r:id="rId74"/>
+    <hyperlink ref="D20" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId75"/>
+    <hyperlink ref="F20" display="Push.png" r:id="rId76"/>
+    <hyperlink ref="G20" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId77"/>
+    <hyperlink ref="A21" display="lnxArchiveResource.md" r:id="rId78"/>
+    <hyperlink ref="D21" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.vi-vn.xlf" r:id="rId79"/>
+    <hyperlink ref="F21" display="lnxArchiveResource.md" r:id="rId80"/>
+    <hyperlink ref="G21" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.vi-vn.xlf" r:id="rId81"/>
+    <hyperlink ref="A22" display="lnxBuiltInResources.md" r:id="rId82"/>
+    <hyperlink ref="D22" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.vi-vn.xlf" r:id="rId83"/>
+    <hyperlink ref="F22" display="lnxBuiltInResources.md" r:id="rId84"/>
+    <hyperlink ref="G22" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.vi-vn.xlf" r:id="rId85"/>
+    <hyperlink ref="A23" display="lnxEnvironmentResource.md" r:id="rId86"/>
+    <hyperlink ref="D23" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.vi-vn.xlf" r:id="rId87"/>
+    <hyperlink ref="F23" display="lnxEnvironmentResource.md" r:id="rId88"/>
+    <hyperlink ref="G23" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.vi-vn.xlf" r:id="rId89"/>
+    <hyperlink ref="A24" display="lnxFileLineResource.md" r:id="rId90"/>
+    <hyperlink ref="D24" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.vi-vn.xlf" r:id="rId91"/>
+    <hyperlink ref="F24" display="lnxFileLineResource.md" r:id="rId92"/>
+    <hyperlink ref="G24" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.vi-vn.xlf" r:id="rId93"/>
+    <hyperlink ref="A25" display="lnxFileResource.md" r:id="rId94"/>
+    <hyperlink ref="D25" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.vi-vn.xlf" r:id="rId95"/>
+    <hyperlink ref="F25" display="lnxFileResource.md" r:id="rId96"/>
+    <hyperlink ref="G25" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.vi-vn.xlf" r:id="rId97"/>
+    <hyperlink ref="A26" display="lnxGettingStarted.md" r:id="rId98"/>
+    <hyperlink ref="D26" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.vi-vn.xlf" r:id="rId99"/>
+    <hyperlink ref="F26" display="lnxGettingStarted.md" r:id="rId100"/>
+    <hyperlink ref="G26" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.vi-vn.xlf" r:id="rId101"/>
+    <hyperlink ref="A27" display="lnxGroupResource.md" r:id="rId102"/>
+    <hyperlink ref="D27" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.vi-vn.xlf" r:id="rId103"/>
+    <hyperlink ref="F27" display="lnxGroupResource.md" r:id="rId104"/>
+    <hyperlink ref="G27" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.vi-vn.xlf" r:id="rId105"/>
+    <hyperlink ref="A28" display="lnxPackageResource.md" r:id="rId106"/>
+    <hyperlink ref="D28" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.vi-vn.xlf" r:id="rId107"/>
+    <hyperlink ref="F28" display="lnxPackageResource.md" r:id="rId108"/>
+    <hyperlink ref="G28" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.vi-vn.xlf" r:id="rId109"/>
+    <hyperlink ref="A29" display="lnxScriptResource.md" r:id="rId110"/>
+    <hyperlink ref="D29" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.vi-vn.xlf" r:id="rId111"/>
+    <hyperlink ref="F29" display="lnxScriptResource.md" r:id="rId112"/>
+    <hyperlink ref="G29" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.vi-vn.xlf" r:id="rId113"/>
+    <hyperlink ref="A30" display="lnxServiceResource.md" r:id="rId114"/>
+    <hyperlink ref="D30" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.vi-vn.xlf" r:id="rId115"/>
+    <hyperlink ref="F30" display="lnxServiceResource.md" r:id="rId116"/>
+    <hyperlink ref="G30" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.vi-vn.xlf" r:id="rId117"/>
+    <hyperlink ref="A31" display="lnxSshAuthorizedKeysResource.md" r:id="rId118"/>
+    <hyperlink ref="D31" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.vi-vn.xlf" r:id="rId119"/>
+    <hyperlink ref="F31" display="lnxSshAuthorizedKeysResource.md" r:id="rId120"/>
+    <hyperlink ref="G31" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.vi-vn.xlf" r:id="rId121"/>
+    <hyperlink ref="A32" display="lnxUserResource.md" r:id="rId122"/>
+    <hyperlink ref="D32" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.vi-vn.xlf" r:id="rId123"/>
+    <hyperlink ref="F32" display="lnxUserResource.md" r:id="rId124"/>
+    <hyperlink ref="G32" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.vi-vn.xlf" r:id="rId125"/>
+    <hyperlink ref="A33" display="logResource.md" r:id="rId126"/>
+    <hyperlink ref="D33" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.vi-vn.xlf" r:id="rId127"/>
+    <hyperlink ref="F33" display="logResource.md" r:id="rId128"/>
+    <hyperlink ref="G33" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.vi-vn.xlf" r:id="rId129"/>
+    <hyperlink ref="A34" display="metaConfig.md" r:id="rId130"/>
+    <hyperlink ref="D34" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.vi-vn.xlf" r:id="rId131"/>
+    <hyperlink ref="F34" display="metaConfig.md" r:id="rId132"/>
+    <hyperlink ref="G34" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.vi-vn.xlf" r:id="rId133"/>
+    <hyperlink ref="A35" display="metaConfig4.md" r:id="rId134"/>
+    <hyperlink ref="D35" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.vi-vn.xlf" r:id="rId135"/>
+    <hyperlink ref="F35" display="metaConfig4.md" r:id="rId136"/>
+    <hyperlink ref="G35" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.vi-vn.xlf" r:id="rId137"/>
+    <hyperlink ref="A36" display="overview.md" r:id="rId138"/>
+    <hyperlink ref="D36" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.vi-vn.xlf" r:id="rId139"/>
+    <hyperlink ref="F36" display="overview.md" r:id="rId140"/>
+    <hyperlink ref="G36" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.vi-vn.xlf" r:id="rId141"/>
+    <hyperlink ref="A37" display="packageResource.md" r:id="rId142"/>
+    <hyperlink ref="D37" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.vi-vn.xlf" r:id="rId143"/>
+    <hyperlink ref="F37" display="packageResource.md" r:id="rId144"/>
+    <hyperlink ref="G37" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.vi-vn.xlf" r:id="rId145"/>
+    <hyperlink ref="A38" display="partialConfigs.md" r:id="rId146"/>
+    <hyperlink ref="D38" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.vi-vn.xlf" r:id="rId147"/>
+    <hyperlink ref="F38" display="partialConfigs.md" r:id="rId148"/>
+    <hyperlink ref="G38" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.vi-vn.xlf" r:id="rId149"/>
+    <hyperlink ref="A39" display="pullClient.md" r:id="rId150"/>
+    <hyperlink ref="D39" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.vi-vn.xlf" r:id="rId151"/>
+    <hyperlink ref="F39" display="pullClient.md" r:id="rId152"/>
+    <hyperlink ref="G39" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.vi-vn.xlf" r:id="rId153"/>
+    <hyperlink ref="A40" display="pullClientConfigID.md" r:id="rId154"/>
+    <hyperlink ref="D40" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.vi-vn.xlf" r:id="rId155"/>
+    <hyperlink ref="F40" display="pullClientConfigID.md" r:id="rId156"/>
+    <hyperlink ref="G40" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.vi-vn.xlf" r:id="rId157"/>
+    <hyperlink ref="A41" display="pullClientConfigID4.md" r:id="rId158"/>
+    <hyperlink ref="D41" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.vi-vn.xlf" r:id="rId159"/>
+    <hyperlink ref="F41" display="pullClientConfigID4.md" r:id="rId160"/>
+    <hyperlink ref="G41" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.vi-vn.xlf" r:id="rId161"/>
+    <hyperlink ref="A42" display="pullClientConfigNames.md" r:id="rId162"/>
+    <hyperlink ref="D42" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.vi-vn.xlf" r:id="rId163"/>
+    <hyperlink ref="F42" display="pullClientConfigNames.md" r:id="rId164"/>
+    <hyperlink ref="G42" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.vi-vn.xlf" r:id="rId165"/>
+    <hyperlink ref="A43" display="pullServer.md" r:id="rId166"/>
+    <hyperlink ref="D43" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.vi-vn.xlf" r:id="rId167"/>
+    <hyperlink ref="F43" display="pullServer.md" r:id="rId168"/>
+    <hyperlink ref="G43" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.vi-vn.xlf" r:id="rId169"/>
+    <hyperlink ref="A44" display="queryServerNodes.md" r:id="rId170"/>
+    <hyperlink ref="D44" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.vi-vn.xlf" r:id="rId171"/>
+    <hyperlink ref="F44" display="queryServerNodes.md" r:id="rId172"/>
+    <hyperlink ref="G44" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.vi-vn.xlf" r:id="rId173"/>
+    <hyperlink ref="A45" display="registryResource.md" r:id="rId174"/>
+    <hyperlink ref="D45" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.vi-vn.xlf" r:id="rId175"/>
+    <hyperlink ref="F45" display="registryResource.md" r:id="rId176"/>
+    <hyperlink ref="G45" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.vi-vn.xlf" r:id="rId177"/>
+    <hyperlink ref="A46" display="resources.md" r:id="rId178"/>
+    <hyperlink ref="D46" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.vi-vn.xlf" r:id="rId179"/>
+    <hyperlink ref="F46" display="resources.md" r:id="rId180"/>
+    <hyperlink ref="G46" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.vi-vn.xlf" r:id="rId181"/>
+    <hyperlink ref="A47" display="scriptResource.md" r:id="rId182"/>
+    <hyperlink ref="D47" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.vi-vn.xlf" r:id="rId183"/>
+    <hyperlink ref="F47" display="scriptResource.md" r:id="rId184"/>
+    <hyperlink ref="G47" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.vi-vn.xlf" r:id="rId185"/>
+    <hyperlink ref="A48" display="secureMOF.md" r:id="rId186"/>
+    <hyperlink ref="D48" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.vi-vn.xlf" r:id="rId187"/>
+    <hyperlink ref="F48" display="secureMOF.md" r:id="rId188"/>
+    <hyperlink ref="G48" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.vi-vn.xlf" r:id="rId189"/>
+    <hyperlink ref="A49" display="secureServer.md" r:id="rId190"/>
+    <hyperlink ref="D49" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.vi-vn.xlf" r:id="rId191"/>
+    <hyperlink ref="F49" display="secureServer.md" r:id="rId192"/>
+    <hyperlink ref="G49" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.vi-vn.xlf" r:id="rId193"/>
+    <hyperlink ref="A50" display="serviceResource.md" r:id="rId194"/>
+    <hyperlink ref="D50" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.vi-vn.xlf" r:id="rId195"/>
+    <hyperlink ref="F50" display="serviceResource.md" r:id="rId196"/>
+    <hyperlink ref="G50" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.vi-vn.xlf" r:id="rId197"/>
+    <hyperlink ref="A51" display="OpenLoc is cool.md" r:id="rId198"/>
+    <hyperlink ref="D51" display="OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.vi-vn.xlf" r:id="rId199"/>
+    <hyperlink ref="F51" display="OpenLoc is cool.md" r:id="rId200"/>
+    <hyperlink ref="G51" display="OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.vi-vn.xlf" r:id="rId201"/>
+    <hyperlink ref="A52" display="SonjaTest.md" r:id="rId202"/>
+    <hyperlink ref="D52" display="SonjaTest.bab99385ac372c3ae450ecdd8e590c3ad3219939.vi-vn.xlf" r:id="rId203"/>
+    <hyperlink ref="F52" display="SonjaTest.md" r:id="rId204"/>
+    <hyperlink ref="G52" display="SonjaTest.bab99385ac372c3ae450ecdd8e590c3ad3219939.vi-vn.xlf" r:id="rId205"/>
+    <hyperlink ref="A53" display="TOC.md" r:id="rId206"/>
+    <hyperlink ref="D53" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.vi-vn.xlf" r:id="rId207"/>
+    <hyperlink ref="F53" display="TOC.md" r:id="rId208"/>
+    <hyperlink ref="G53" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.vi-vn.xlf" r:id="rId209"/>
+    <hyperlink ref="A54" display="troubleshooting.md" r:id="rId210"/>
+    <hyperlink ref="D54" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.vi-vn.xlf" r:id="rId211"/>
+    <hyperlink ref="F54" display="troubleshooting.md" r:id="rId212"/>
+    <hyperlink ref="G54" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.vi-vn.xlf" r:id="rId213"/>
+    <hyperlink ref="A55" display="userResource.md" r:id="rId214"/>
+    <hyperlink ref="D55" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.vi-vn.xlf" r:id="rId215"/>
+    <hyperlink ref="F55" display="userResource.md" r:id="rId216"/>
+    <hyperlink ref="G55" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.vi-vn.xlf" r:id="rId217"/>
+    <hyperlink ref="A56" display="windowsfeatureResource.md" r:id="rId218"/>
+    <hyperlink ref="D56" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.vi-vn.xlf" r:id="rId219"/>
+    <hyperlink ref="F56" display="windowsfeatureResource.md" r:id="rId220"/>
+    <hyperlink ref="G56" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.vi-vn.xlf" r:id="rId221"/>
+    <hyperlink ref="A57" display="windowsProcessResource.md" r:id="rId222"/>
+    <hyperlink ref="D57" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.vi-vn.xlf" r:id="rId223"/>
+    <hyperlink ref="F57" display="windowsProcessResource.md" r:id="rId224"/>
+    <hyperlink ref="G57" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.vi-vn.xlf" r:id="rId225"/>
+    <hyperlink ref="A58" display="README.md" r:id="rId226"/>
+    <hyperlink ref="D58" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.vi-vn.xlf" r:id="rId227"/>
+    <hyperlink ref="F58" display="README.md" r:id="rId228"/>
+    <hyperlink ref="G58" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.vi-vn.xlf" r:id="rId229"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t>File Name</t>
   </si>
@@ -190,6 +190,9 @@
     <t>OpenLoc is cool.md</t>
   </si>
   <si>
+    <t>2016-04-01 01:53:15</t>
+  </si>
+  <si>
     <t>SonjaFileToo.md</t>
   </si>
   <si>
@@ -422,6 +425,9 @@
   </si>
   <si>
     <t>OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-01 01:53:06</t>
   </si>
   <si>
     <t>SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.pt-br.xlf</t>
@@ -1448,12 +1454,12 @@
         <v>5</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>5</v>
@@ -1467,7 +1473,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>5</v>
@@ -1481,7 +1487,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>5</v>
@@ -1495,7 +1501,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>5</v>
@@ -1509,7 +1515,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>5</v>
@@ -1523,7 +1529,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>5</v>
@@ -1537,7 +1543,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>5</v>
@@ -1551,7 +1557,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>5</v>
@@ -1655,40 +1661,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
@@ -1696,22 +1702,22 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -1719,22 +1725,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
@@ -1742,22 +1748,22 @@
         <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -1765,22 +1771,22 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -1788,22 +1794,22 @@
         <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -1811,22 +1817,22 @@
         <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -1834,22 +1840,22 @@
         <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
@@ -1857,22 +1863,22 @@
         <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
@@ -1880,22 +1886,22 @@
         <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -1903,22 +1909,22 @@
         <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -1926,22 +1932,22 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -1949,22 +1955,22 @@
         <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
@@ -1972,22 +1978,22 @@
         <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
@@ -1995,22 +2001,22 @@
         <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
@@ -2018,22 +2024,22 @@
         <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
@@ -2041,25 +2047,25 @@
         <v>22</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -2067,25 +2073,25 @@
         <v>24</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="19">
@@ -2093,25 +2099,25 @@
         <v>25</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20">
@@ -2119,25 +2125,25 @@
         <v>26</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="K20" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -2145,22 +2151,22 @@
         <v>27</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
@@ -2168,22 +2174,22 @@
         <v>28</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
@@ -2191,22 +2197,22 @@
         <v>29</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
@@ -2214,22 +2220,22 @@
         <v>30</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
@@ -2237,22 +2243,22 @@
         <v>31</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
@@ -2260,22 +2266,22 @@
         <v>32</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27">
@@ -2283,22 +2289,22 @@
         <v>33</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28">
@@ -2306,22 +2312,22 @@
         <v>34</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
@@ -2329,22 +2335,22 @@
         <v>35</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
@@ -2352,22 +2358,22 @@
         <v>36</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
@@ -2375,22 +2381,22 @@
         <v>37</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
@@ -2398,22 +2404,22 @@
         <v>38</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33">
@@ -2421,22 +2427,22 @@
         <v>39</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
@@ -2444,22 +2450,22 @@
         <v>40</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35">
@@ -2467,22 +2473,22 @@
         <v>41</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
@@ -2490,22 +2496,22 @@
         <v>42</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
@@ -2513,22 +2519,22 @@
         <v>43</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38">
@@ -2536,22 +2542,22 @@
         <v>44</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39">
@@ -2559,22 +2565,22 @@
         <v>45</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40">
@@ -2582,22 +2588,22 @@
         <v>46</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41">
@@ -2605,22 +2611,22 @@
         <v>47</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42">
@@ -2628,22 +2634,22 @@
         <v>48</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43">
@@ -2651,22 +2657,22 @@
         <v>49</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44">
@@ -2674,22 +2680,22 @@
         <v>50</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45">
@@ -2697,22 +2703,22 @@
         <v>51</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46">
@@ -2720,22 +2726,22 @@
         <v>52</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47">
@@ -2743,22 +2749,22 @@
         <v>53</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48">
@@ -2766,22 +2772,22 @@
         <v>54</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49">
@@ -2789,22 +2795,22 @@
         <v>55</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50">
@@ -2812,22 +2818,22 @@
         <v>56</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51">
@@ -2835,206 +2841,206 @@
         <v>57</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3187,40 +3193,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
@@ -3228,22 +3234,22 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -3251,22 +3257,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
@@ -3274,22 +3280,22 @@
         <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -3297,22 +3303,22 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -3320,22 +3326,22 @@
         <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -3343,22 +3349,22 @@
         <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -3366,22 +3372,22 @@
         <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
@@ -3389,22 +3395,22 @@
         <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
@@ -3412,22 +3418,22 @@
         <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -3435,22 +3441,22 @@
         <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -3458,22 +3464,22 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -3481,22 +3487,22 @@
         <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
@@ -3504,22 +3510,22 @@
         <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
@@ -3527,22 +3533,22 @@
         <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
@@ -3550,22 +3556,22 @@
         <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
@@ -3573,22 +3579,22 @@
         <v>27</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
@@ -3596,22 +3602,22 @@
         <v>28</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
@@ -3619,22 +3625,22 @@
         <v>29</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -3642,22 +3648,22 @@
         <v>30</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
@@ -3665,22 +3671,22 @@
         <v>31</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
@@ -3688,22 +3694,22 @@
         <v>32</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
@@ -3711,22 +3717,22 @@
         <v>33</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
@@ -3734,22 +3740,22 @@
         <v>34</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
@@ -3757,22 +3763,22 @@
         <v>35</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
@@ -3780,22 +3786,22 @@
         <v>36</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27">
@@ -3803,22 +3809,22 @@
         <v>37</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28">
@@ -3826,22 +3832,22 @@
         <v>38</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
@@ -3849,22 +3855,22 @@
         <v>39</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
@@ -3872,22 +3878,22 @@
         <v>40</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
@@ -3895,22 +3901,22 @@
         <v>41</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
@@ -3918,22 +3924,22 @@
         <v>42</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33">
@@ -3941,22 +3947,22 @@
         <v>43</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
@@ -3964,22 +3970,22 @@
         <v>44</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35">
@@ -3987,22 +3993,22 @@
         <v>45</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
@@ -4010,22 +4016,22 @@
         <v>46</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
@@ -4033,22 +4039,22 @@
         <v>47</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38">
@@ -4056,22 +4062,22 @@
         <v>48</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39">
@@ -4079,22 +4085,22 @@
         <v>49</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40">
@@ -4102,22 +4108,22 @@
         <v>50</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41">
@@ -4125,22 +4131,22 @@
         <v>51</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42">
@@ -4148,22 +4154,22 @@
         <v>52</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43">
@@ -4171,22 +4177,22 @@
         <v>53</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44">
@@ -4194,22 +4200,22 @@
         <v>54</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45">
@@ -4217,22 +4223,22 @@
         <v>55</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46">
@@ -4240,160 +4246,160 @@
         <v>56</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53">
@@ -4401,25 +4407,25 @@
         <v>22</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54">
@@ -4427,25 +4433,25 @@
         <v>24</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55">
@@ -4453,25 +4459,25 @@
         <v>25</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56">
@@ -4479,25 +4485,25 @@
         <v>26</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57">
@@ -4505,68 +4511,68 @@
         <v>57</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
@@ -6,7 +6,7 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="pt-br" sheetId="2" r:id="rId3"/>
+    <sheet name="ja-jp" sheetId="2" r:id="rId3"/>
     <sheet name="zh-cn" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>pt-br</t>
+    <t>ja-jp</t>
   </si>
   <si>
     <t>zh-cn</t>
@@ -31,19 +31,172 @@
     <t>CONTRIBUTING.md</t>
   </si>
   <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2016-01-05 07:28:47</t>
+  </si>
+  <si>
+    <t>authoringResource.md</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.md</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.md</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.md</t>
+  </si>
+  <si>
+    <t>builtInResource.md</t>
+  </si>
+  <si>
+    <t>configData.md</t>
+  </si>
+  <si>
+    <t>configurations.md</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.md</t>
+  </si>
+  <si>
+    <t>environmentResource.md</t>
+  </si>
+  <si>
+    <t>fileResource.md</t>
+  </si>
+  <si>
+    <t>groupResource.md</t>
+  </si>
+  <si>
+    <t>PartialConfig1.jpg</t>
+  </si>
+  <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2016-03-31 09:07:01</t>
+    <t>2016-03-31 09:07:14</t>
+  </si>
+  <si>
+    <t>PartialConfigPullServer.jpg</t>
+  </si>
+  <si>
+    <t>Pull.png</t>
+  </si>
+  <si>
+    <t>Push.png</t>
+  </si>
+  <si>
+    <t>lnxArchiveResource.md</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.md</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.md</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.md</t>
+  </si>
+  <si>
+    <t>lnxFileResource.md</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.md</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.md</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.md</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.md</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.md</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.md</t>
+  </si>
+  <si>
+    <t>lnxUserResource.md</t>
+  </si>
+  <si>
+    <t>logResource.md</t>
+  </si>
+  <si>
+    <t>metaConfig.md</t>
+  </si>
+  <si>
+    <t>metaConfig4.md</t>
+  </si>
+  <si>
+    <t>overview.md</t>
+  </si>
+  <si>
+    <t>packageResource.md</t>
+  </si>
+  <si>
+    <t>partialConfigs.md</t>
+  </si>
+  <si>
+    <t>pullClient.md</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.md</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.md</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.md</t>
+  </si>
+  <si>
+    <t>queryServerNodes.md</t>
+  </si>
+  <si>
+    <t>registryResource.md</t>
+  </si>
+  <si>
+    <t>resources.md</t>
+  </si>
+  <si>
+    <t>scriptResource.md</t>
+  </si>
+  <si>
+    <t>secureMOF.md</t>
+  </si>
+  <si>
+    <t>secureServer.md</t>
+  </si>
+  <si>
+    <t>serviceResource.md</t>
+  </si>
+  <si>
+    <t>TOC.md</t>
+  </si>
+  <si>
+    <t>troubleshooting.md</t>
+  </si>
+  <si>
+    <t>userResource.md</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.md</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.md</t>
   </si>
   <si>
     <t>archiveResource.md</t>
   </si>
   <si>
-    <t>authoringResource.md</t>
+    <t>2016-02-23 18:17:21</t>
   </si>
   <si>
     <t>authoringResourceClass.md</t>
@@ -52,568 +205,442 @@
     <t>authoringResourceComposite.md</t>
   </si>
   <si>
-    <t>authoringResourceMOF.md</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.md</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.md</t>
-  </si>
-  <si>
-    <t>builtInResource.md</t>
-  </si>
-  <si>
-    <t>configData.md</t>
-  </si>
-  <si>
-    <t>configurations.md</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.md</t>
-  </si>
-  <si>
-    <t>environmentResource.md</t>
-  </si>
-  <si>
-    <t>fileResource.md</t>
-  </si>
-  <si>
-    <t>groupResource.md</t>
-  </si>
-  <si>
-    <t>PartialConfig1.jpg</t>
-  </si>
-  <si>
-    <t>2016-03-31 09:07:14</t>
-  </si>
-  <si>
-    <t>PartialConfigPullServer.jpg</t>
-  </si>
-  <si>
-    <t>Pull.png</t>
-  </si>
-  <si>
-    <t>Push.png</t>
-  </si>
-  <si>
-    <t>lnxArchiveResource.md</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.md</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.md</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.md</t>
-  </si>
-  <si>
-    <t>lnxFileResource.md</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.md</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.md</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.md</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.md</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.md</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.md</t>
-  </si>
-  <si>
-    <t>lnxUserResource.md</t>
-  </si>
-  <si>
-    <t>logResource.md</t>
-  </si>
-  <si>
-    <t>metaConfig.md</t>
-  </si>
-  <si>
-    <t>metaConfig4.md</t>
-  </si>
-  <si>
-    <t>overview.md</t>
-  </si>
-  <si>
-    <t>packageResource.md</t>
-  </si>
-  <si>
-    <t>partialConfigs.md</t>
-  </si>
-  <si>
-    <t>pullClient.md</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.md</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.md</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.md</t>
-  </si>
-  <si>
     <t>pullServer.md</t>
   </si>
   <si>
-    <t>queryServerNodes.md</t>
-  </si>
-  <si>
-    <t>registryResource.md</t>
-  </si>
-  <si>
-    <t>resources.md</t>
-  </si>
-  <si>
-    <t>scriptResource.md</t>
-  </si>
-  <si>
-    <t>secureMOF.md</t>
-  </si>
-  <si>
-    <t>secureServer.md</t>
-  </si>
-  <si>
-    <t>serviceResource.md</t>
+    <t>README.md</t>
   </si>
   <si>
     <t>OpenLoc is cool.md</t>
   </si>
   <si>
+    <t>2016-04-01 01:54:45</t>
+  </si>
+  <si>
+    <t>SonjaFileToo.md</t>
+  </si>
+  <si>
+    <t>SonjaTest.md</t>
+  </si>
+  <si>
+    <t>Source File Name</t>
+  </si>
+  <si>
+    <t>File Extension</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Latest Handoff File</t>
+  </si>
+  <si>
+    <t>Latest Handoff Datetime</t>
+  </si>
+  <si>
+    <t>Latest Target File</t>
+  </si>
+  <si>
+    <t>Latest Handback File</t>
+  </si>
+  <si>
+    <t>Latest Handback DateTime</t>
+  </si>
+  <si>
+    <t>Reference Tokens</t>
+  </si>
+  <si>
+    <t>Handoff Reason</t>
+  </si>
+  <si>
+    <t>Dependency From</t>
+  </si>
+  <si>
+    <t>Error Detail</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2015-11-06 03:02:20</t>
+  </si>
+  <si>
+    <t>2015-11-24 23:39:08</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>.jpg</t>
+  </si>
+  <si>
+    <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
+  </si>
+  <si>
+    <t>2015-11-12 19:33:45</t>
+  </si>
+  <si>
+    <t>2016-02-22 08:58:28</t>
+  </si>
+  <si>
+    <t>IsDependency</t>
+  </si>
+  <si>
+    <t>dsc\partialConfigs.md</t>
+  </si>
+  <si>
+    <t>The handback type archive is not match with handoff type null.</t>
+  </si>
+  <si>
+    <t>1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg</t>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
+    <t>86d829b1fcdd41e648ed0594eaf337b3726c143c.png</t>
+  </si>
+  <si>
+    <t>dsc\enactingConfigurations.md</t>
+  </si>
+  <si>
+    <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
+  </si>
+  <si>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 18:15:50</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-05 07:26:19</t>
+  </si>
+  <si>
+    <t>OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-31 00:52:27</t>
+  </si>
+  <si>
+    <t>SonjaTest.bab99385ac372c3ae450ecdd8e590c3ad3219939.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-31 00:22:54</t>
+  </si>
+  <si>
+    <t>CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-04-01 01:53:15</t>
-  </si>
-  <si>
-    <t>SonjaFileToo.md</t>
-  </si>
-  <si>
-    <t>SonjaTest.md</t>
-  </si>
-  <si>
-    <t>TOC.md</t>
-  </si>
-  <si>
-    <t>troubleshooting.md</t>
-  </si>
-  <si>
-    <t>userResource.md</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.md</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.md</t>
-  </si>
-  <si>
-    <t>README.md</t>
-  </si>
-  <si>
-    <t>Source File Name</t>
-  </si>
-  <si>
-    <t>File Extension</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Latest Handoff File</t>
-  </si>
-  <si>
-    <t>Latest Handoff Datetime</t>
-  </si>
-  <si>
-    <t>Latest Target File</t>
-  </si>
-  <si>
-    <t>Latest Handback File</t>
-  </si>
-  <si>
-    <t>Latest Handback DateTime</t>
-  </si>
-  <si>
-    <t>Reference Tokens</t>
-  </si>
-  <si>
-    <t>Handoff Reason</t>
-  </si>
-  <si>
-    <t>Dependency From</t>
-  </si>
-  <si>
-    <t>Error Detail</t>
-  </si>
-  <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>.jpg</t>
-  </si>
-  <si>
-    <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
-  </si>
-  <si>
-    <t>IsDependency</t>
-  </si>
-  <si>
-    <t>dsc\partialConfigs.md</t>
-  </si>
-  <si>
-    <t>1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>86d829b1fcdd41e648ed0594eaf337b3726c143c.png</t>
-  </si>
-  <si>
-    <t>dsc\enactingConfigurations.md</t>
-  </si>
-  <si>
-    <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
-  </si>
-  <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-01 01:53:06</t>
-  </si>
-  <si>
-    <t>SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>SonjaTest.bab99385ac372c3ae450ecdd8e590c3ad3219939.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-05 07:28:47</t>
-  </si>
-  <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 18:17:21</t>
-  </si>
-  <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf</t>
   </si>
   <si>
     <t>SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf</t>
@@ -676,7 +703,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="pt-br" displayName="pt_br" ref="A1:M1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ja-jp" displayName="ja_jp" ref="A1:M1" headerRowCount="0">
   <tableColumns count="13">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -721,7 +748,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:D1" headerRowCount="0">
   <tableColumns count="4">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="pt-br"/>
+    <tableColumn id="2" name="ja-jp"/>
     <tableColumn id="3" name="zh-cn"/>
     <tableColumn id="4" name="Latest Handoff Date"/>
   </tableColumns>
@@ -933,99 +960,99 @@
         <v>5</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>6</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>5</v>
@@ -1039,7 +1066,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>5</v>
@@ -1053,7 +1080,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>5</v>
@@ -1067,7 +1094,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>5</v>
@@ -1081,7 +1108,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>5</v>
@@ -1095,7 +1122,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>5</v>
@@ -1109,7 +1136,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>5</v>
@@ -1123,7 +1150,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>5</v>
@@ -1137,7 +1164,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>5</v>
@@ -1151,7 +1178,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>5</v>
@@ -1165,7 +1192,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>5</v>
@@ -1179,7 +1206,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>5</v>
@@ -1193,7 +1220,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>5</v>
@@ -1207,7 +1234,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>5</v>
@@ -1221,7 +1248,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>5</v>
@@ -1235,7 +1262,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>5</v>
@@ -1249,7 +1276,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>5</v>
@@ -1263,7 +1290,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>5</v>
@@ -1277,7 +1304,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>5</v>
@@ -1291,7 +1318,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>5</v>
@@ -1305,7 +1332,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>5</v>
@@ -1319,7 +1346,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>5</v>
@@ -1333,7 +1360,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>5</v>
@@ -1347,7 +1374,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>5</v>
@@ -1361,7 +1388,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>5</v>
@@ -1375,7 +1402,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>5</v>
@@ -1389,7 +1416,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>5</v>
@@ -1403,7 +1430,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>5</v>
@@ -1417,7 +1444,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>5</v>
@@ -1431,7 +1458,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>5</v>
@@ -1445,16 +1472,16 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -1462,63 +1489,63 @@
         <v>59</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>6</v>
@@ -1529,106 +1556,106 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="CONTRIBUTING.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="archiveResource.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="authoringResource.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="authoringResourceClass.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="authoringResourceComposite.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="authoringResourceMOF.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="authoringResourceMofCS.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="authoringResourceMofDesigner.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="builtInResource.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="configData.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="configurations.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="enactingConfigurations.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="environmentResource.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="fileResource.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="groupResource.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="PartialConfig1.jpg" r:id="rId17"/>
-    <hyperlink ref="A18" display="PartialConfigPullServer.jpg" r:id="rId18"/>
-    <hyperlink ref="A19" display="Pull.png" r:id="rId19"/>
-    <hyperlink ref="A20" display="Push.png" r:id="rId20"/>
-    <hyperlink ref="A21" display="lnxArchiveResource.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="lnxBuiltInResources.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="lnxEnvironmentResource.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="lnxFileLineResource.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="lnxFileResource.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="lnxGettingStarted.md" r:id="rId26"/>
-    <hyperlink ref="A27" display="lnxGroupResource.md" r:id="rId27"/>
-    <hyperlink ref="A28" display="lnxPackageResource.md" r:id="rId28"/>
-    <hyperlink ref="A29" display="lnxScriptResource.md" r:id="rId29"/>
-    <hyperlink ref="A30" display="lnxServiceResource.md" r:id="rId30"/>
-    <hyperlink ref="A31" display="lnxSshAuthorizedKeysResource.md" r:id="rId31"/>
-    <hyperlink ref="A32" display="lnxUserResource.md" r:id="rId32"/>
-    <hyperlink ref="A33" display="logResource.md" r:id="rId33"/>
-    <hyperlink ref="A34" display="metaConfig.md" r:id="rId34"/>
-    <hyperlink ref="A35" display="metaConfig4.md" r:id="rId35"/>
-    <hyperlink ref="A36" display="overview.md" r:id="rId36"/>
-    <hyperlink ref="A37" display="packageResource.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="partialConfigs.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="pullClient.md" r:id="rId39"/>
-    <hyperlink ref="A40" display="pullClientConfigID.md" r:id="rId40"/>
-    <hyperlink ref="A41" display="pullClientConfigID4.md" r:id="rId41"/>
-    <hyperlink ref="A42" display="pullClientConfigNames.md" r:id="rId42"/>
-    <hyperlink ref="A43" display="pullServer.md" r:id="rId43"/>
-    <hyperlink ref="A44" display="queryServerNodes.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="registryResource.md" r:id="rId45"/>
-    <hyperlink ref="A46" display="resources.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="scriptResource.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="secureMOF.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="secureServer.md" r:id="rId49"/>
-    <hyperlink ref="A50" display="serviceResource.md" r:id="rId50"/>
-    <hyperlink ref="A51" display="OpenLoc is cool.md" r:id="rId51"/>
-    <hyperlink ref="A52" display="SonjaFileToo.md" r:id="rId52"/>
-    <hyperlink ref="A53" display="SonjaTest.md" r:id="rId53"/>
-    <hyperlink ref="A54" display="TOC.md" r:id="rId54"/>
-    <hyperlink ref="A55" display="troubleshooting.md" r:id="rId55"/>
-    <hyperlink ref="A56" display="userResource.md" r:id="rId56"/>
-    <hyperlink ref="A57" display="windowsfeatureResource.md" r:id="rId57"/>
-    <hyperlink ref="A58" display="windowsProcessResource.md" r:id="rId58"/>
-    <hyperlink ref="A59" display="README.md" r:id="rId59"/>
+    <hyperlink ref="A3" display="authoringResource.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="authoringResourceMOF.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="authoringResourceMofCS.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="authoringResourceMofDesigner.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="builtInResource.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="configData.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="configurations.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="enactingConfigurations.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="environmentResource.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="fileResource.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="groupResource.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="PartialConfig1.jpg" r:id="rId14"/>
+    <hyperlink ref="A15" display="PartialConfigPullServer.jpg" r:id="rId15"/>
+    <hyperlink ref="A16" display="Pull.png" r:id="rId16"/>
+    <hyperlink ref="A17" display="Push.png" r:id="rId17"/>
+    <hyperlink ref="A18" display="lnxArchiveResource.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="lnxBuiltInResources.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="lnxEnvironmentResource.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="lnxFileLineResource.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="lnxFileResource.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="lnxGettingStarted.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="lnxGroupResource.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="lnxPackageResource.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="lnxScriptResource.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="lnxServiceResource.md" r:id="rId27"/>
+    <hyperlink ref="A28" display="lnxSshAuthorizedKeysResource.md" r:id="rId28"/>
+    <hyperlink ref="A29" display="lnxUserResource.md" r:id="rId29"/>
+    <hyperlink ref="A30" display="logResource.md" r:id="rId30"/>
+    <hyperlink ref="A31" display="metaConfig.md" r:id="rId31"/>
+    <hyperlink ref="A32" display="metaConfig4.md" r:id="rId32"/>
+    <hyperlink ref="A33" display="overview.md" r:id="rId33"/>
+    <hyperlink ref="A34" display="packageResource.md" r:id="rId34"/>
+    <hyperlink ref="A35" display="partialConfigs.md" r:id="rId35"/>
+    <hyperlink ref="A36" display="pullClient.md" r:id="rId36"/>
+    <hyperlink ref="A37" display="pullClientConfigID.md" r:id="rId37"/>
+    <hyperlink ref="A38" display="pullClientConfigID4.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="pullClientConfigNames.md" r:id="rId39"/>
+    <hyperlink ref="A40" display="queryServerNodes.md" r:id="rId40"/>
+    <hyperlink ref="A41" display="registryResource.md" r:id="rId41"/>
+    <hyperlink ref="A42" display="resources.md" r:id="rId42"/>
+    <hyperlink ref="A43" display="scriptResource.md" r:id="rId43"/>
+    <hyperlink ref="A44" display="secureMOF.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="secureServer.md" r:id="rId45"/>
+    <hyperlink ref="A46" display="serviceResource.md" r:id="rId46"/>
+    <hyperlink ref="A47" display="TOC.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="troubleshooting.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="userResource.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="windowsfeatureResource.md" r:id="rId50"/>
+    <hyperlink ref="A51" display="windowsProcessResource.md" r:id="rId51"/>
+    <hyperlink ref="A52" display="archiveResource.md" r:id="rId52"/>
+    <hyperlink ref="A53" display="authoringResourceClass.md" r:id="rId53"/>
+    <hyperlink ref="A54" display="authoringResourceComposite.md" r:id="rId54"/>
+    <hyperlink ref="A55" display="pullServer.md" r:id="rId55"/>
+    <hyperlink ref="A56" display="README.md" r:id="rId56"/>
+    <hyperlink ref="A57" display="OpenLoc is cool.md" r:id="rId57"/>
+    <hyperlink ref="A58" display="SonjaFileToo.md" r:id="rId58"/>
+    <hyperlink ref="A59" display="SonjaTest.md" r:id="rId59"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1661,40 +1688,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2">
@@ -1702,22 +1729,28 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -1725,22 +1758,28 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -1748,22 +1787,28 @@
         <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="J4" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -1771,22 +1816,28 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -1794,22 +1845,28 @@
         <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -1817,22 +1874,28 @@
         <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1840,22 +1903,28 @@
         <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
@@ -1863,22 +1932,28 @@
         <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -1886,22 +1961,28 @@
         <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -1909,22 +1990,28 @@
         <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
@@ -1932,22 +2019,28 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -1955,22 +2048,28 @@
         <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
@@ -1978,885 +2077,1125 @@
         <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>7</v>
+        <v>99</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>82</v>
+        <v>101</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>7</v>
+        <v>99</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>82</v>
+        <v>101</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>7</v>
+        <v>99</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>82</v>
+        <v>101</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>7</v>
+        <v>99</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>137</v>
+        <v>83</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52">
@@ -2864,303 +3203,443 @@
         <v>59</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>7</v>
+        <v>144</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>7</v>
+        <v>144</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>7</v>
+        <v>144</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>7</v>
+        <v>144</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>7</v>
+        <v>155</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="CONTRIBUTING.md" r:id="rId2"/>
-    <hyperlink ref="D2" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.pt-br.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="archiveResource.md" r:id="rId4"/>
-    <hyperlink ref="D3" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.pt-br.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="authoringResource.md" r:id="rId6"/>
-    <hyperlink ref="D4" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.pt-br.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="authoringResourceClass.md" r:id="rId8"/>
-    <hyperlink ref="D5" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.pt-br.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="authoringResourceComposite.md" r:id="rId10"/>
-    <hyperlink ref="D6" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.pt-br.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="authoringResourceMOF.md" r:id="rId12"/>
-    <hyperlink ref="D7" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.pt-br.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="authoringResourceMofCS.md" r:id="rId14"/>
-    <hyperlink ref="D8" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.pt-br.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="authoringResourceMofDesigner.md" r:id="rId16"/>
-    <hyperlink ref="D9" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.pt-br.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="builtInResource.md" r:id="rId18"/>
-    <hyperlink ref="D10" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.pt-br.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="configData.md" r:id="rId20"/>
-    <hyperlink ref="D11" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.pt-br.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="configurations.md" r:id="rId22"/>
-    <hyperlink ref="D12" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.pt-br.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="enactingConfigurations.md" r:id="rId24"/>
-    <hyperlink ref="D13" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.pt-br.xlf" r:id="rId25"/>
-    <hyperlink ref="A14" display="environmentResource.md" r:id="rId26"/>
-    <hyperlink ref="D14" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.pt-br.xlf" r:id="rId27"/>
-    <hyperlink ref="A15" display="fileResource.md" r:id="rId28"/>
-    <hyperlink ref="D15" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.pt-br.xlf" r:id="rId29"/>
-    <hyperlink ref="A16" display="groupResource.md" r:id="rId30"/>
-    <hyperlink ref="D16" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.pt-br.xlf" r:id="rId31"/>
-    <hyperlink ref="A17" display="PartialConfig1.jpg" r:id="rId32"/>
-    <hyperlink ref="D17" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId33"/>
-    <hyperlink ref="A18" display="PartialConfigPullServer.jpg" r:id="rId34"/>
-    <hyperlink ref="D18" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId35"/>
-    <hyperlink ref="A19" display="Pull.png" r:id="rId36"/>
-    <hyperlink ref="D19" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId37"/>
-    <hyperlink ref="A20" display="Push.png" r:id="rId38"/>
-    <hyperlink ref="D20" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId39"/>
-    <hyperlink ref="A21" display="lnxArchiveResource.md" r:id="rId40"/>
-    <hyperlink ref="D21" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.pt-br.xlf" r:id="rId41"/>
-    <hyperlink ref="A22" display="lnxBuiltInResources.md" r:id="rId42"/>
-    <hyperlink ref="D22" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.pt-br.xlf" r:id="rId43"/>
-    <hyperlink ref="A23" display="lnxEnvironmentResource.md" r:id="rId44"/>
-    <hyperlink ref="D23" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.pt-br.xlf" r:id="rId45"/>
-    <hyperlink ref="A24" display="lnxFileLineResource.md" r:id="rId46"/>
-    <hyperlink ref="D24" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.pt-br.xlf" r:id="rId47"/>
-    <hyperlink ref="A25" display="lnxFileResource.md" r:id="rId48"/>
-    <hyperlink ref="D25" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.pt-br.xlf" r:id="rId49"/>
-    <hyperlink ref="A26" display="lnxGettingStarted.md" r:id="rId50"/>
-    <hyperlink ref="D26" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.pt-br.xlf" r:id="rId51"/>
-    <hyperlink ref="A27" display="lnxGroupResource.md" r:id="rId52"/>
-    <hyperlink ref="D27" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.pt-br.xlf" r:id="rId53"/>
-    <hyperlink ref="A28" display="lnxPackageResource.md" r:id="rId54"/>
-    <hyperlink ref="D28" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.pt-br.xlf" r:id="rId55"/>
-    <hyperlink ref="A29" display="lnxScriptResource.md" r:id="rId56"/>
-    <hyperlink ref="D29" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.pt-br.xlf" r:id="rId57"/>
-    <hyperlink ref="A30" display="lnxServiceResource.md" r:id="rId58"/>
-    <hyperlink ref="D30" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.pt-br.xlf" r:id="rId59"/>
-    <hyperlink ref="A31" display="lnxSshAuthorizedKeysResource.md" r:id="rId60"/>
-    <hyperlink ref="D31" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.pt-br.xlf" r:id="rId61"/>
-    <hyperlink ref="A32" display="lnxUserResource.md" r:id="rId62"/>
-    <hyperlink ref="D32" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.pt-br.xlf" r:id="rId63"/>
-    <hyperlink ref="A33" display="logResource.md" r:id="rId64"/>
-    <hyperlink ref="D33" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.pt-br.xlf" r:id="rId65"/>
-    <hyperlink ref="A34" display="metaConfig.md" r:id="rId66"/>
-    <hyperlink ref="D34" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.pt-br.xlf" r:id="rId67"/>
-    <hyperlink ref="A35" display="metaConfig4.md" r:id="rId68"/>
-    <hyperlink ref="D35" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.pt-br.xlf" r:id="rId69"/>
-    <hyperlink ref="A36" display="overview.md" r:id="rId70"/>
-    <hyperlink ref="D36" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.pt-br.xlf" r:id="rId71"/>
-    <hyperlink ref="A37" display="packageResource.md" r:id="rId72"/>
-    <hyperlink ref="D37" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.pt-br.xlf" r:id="rId73"/>
-    <hyperlink ref="A38" display="partialConfigs.md" r:id="rId74"/>
-    <hyperlink ref="D38" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.pt-br.xlf" r:id="rId75"/>
-    <hyperlink ref="A39" display="pullClient.md" r:id="rId76"/>
-    <hyperlink ref="D39" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.pt-br.xlf" r:id="rId77"/>
-    <hyperlink ref="A40" display="pullClientConfigID.md" r:id="rId78"/>
-    <hyperlink ref="D40" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.pt-br.xlf" r:id="rId79"/>
-    <hyperlink ref="A41" display="pullClientConfigID4.md" r:id="rId80"/>
-    <hyperlink ref="D41" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.pt-br.xlf" r:id="rId81"/>
-    <hyperlink ref="A42" display="pullClientConfigNames.md" r:id="rId82"/>
-    <hyperlink ref="D42" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.pt-br.xlf" r:id="rId83"/>
-    <hyperlink ref="A43" display="pullServer.md" r:id="rId84"/>
-    <hyperlink ref="D43" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.pt-br.xlf" r:id="rId85"/>
-    <hyperlink ref="A44" display="queryServerNodes.md" r:id="rId86"/>
-    <hyperlink ref="D44" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.pt-br.xlf" r:id="rId87"/>
-    <hyperlink ref="A45" display="registryResource.md" r:id="rId88"/>
-    <hyperlink ref="D45" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.pt-br.xlf" r:id="rId89"/>
-    <hyperlink ref="A46" display="resources.md" r:id="rId90"/>
-    <hyperlink ref="D46" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.pt-br.xlf" r:id="rId91"/>
-    <hyperlink ref="A47" display="scriptResource.md" r:id="rId92"/>
-    <hyperlink ref="D47" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.pt-br.xlf" r:id="rId93"/>
-    <hyperlink ref="A48" display="secureMOF.md" r:id="rId94"/>
-    <hyperlink ref="D48" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.pt-br.xlf" r:id="rId95"/>
-    <hyperlink ref="A49" display="secureServer.md" r:id="rId96"/>
-    <hyperlink ref="D49" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.pt-br.xlf" r:id="rId97"/>
-    <hyperlink ref="A50" display="serviceResource.md" r:id="rId98"/>
-    <hyperlink ref="D50" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.pt-br.xlf" r:id="rId99"/>
-    <hyperlink ref="A51" display="OpenLoc is cool.md" r:id="rId100"/>
-    <hyperlink ref="D51" display="OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.pt-br.xlf" r:id="rId101"/>
-    <hyperlink ref="A52" display="SonjaFileToo.md" r:id="rId102"/>
-    <hyperlink ref="D52" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.pt-br.xlf" r:id="rId103"/>
-    <hyperlink ref="A53" display="SonjaTest.md" r:id="rId104"/>
-    <hyperlink ref="D53" display="SonjaTest.bab99385ac372c3ae450ecdd8e590c3ad3219939.pt-br.xlf" r:id="rId105"/>
-    <hyperlink ref="A54" display="TOC.md" r:id="rId106"/>
-    <hyperlink ref="D54" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.pt-br.xlf" r:id="rId107"/>
-    <hyperlink ref="A55" display="troubleshooting.md" r:id="rId108"/>
-    <hyperlink ref="D55" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.pt-br.xlf" r:id="rId109"/>
-    <hyperlink ref="A56" display="userResource.md" r:id="rId110"/>
-    <hyperlink ref="D56" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.pt-br.xlf" r:id="rId111"/>
-    <hyperlink ref="A57" display="windowsfeatureResource.md" r:id="rId112"/>
-    <hyperlink ref="D57" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.pt-br.xlf" r:id="rId113"/>
-    <hyperlink ref="A58" display="windowsProcessResource.md" r:id="rId114"/>
-    <hyperlink ref="D58" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.pt-br.xlf" r:id="rId115"/>
-    <hyperlink ref="A59" display="README.md" r:id="rId116"/>
-    <hyperlink ref="D59" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pt-br.xlf" r:id="rId117"/>
+    <hyperlink ref="D2" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.ja-jp.xlf" r:id="rId3"/>
+    <hyperlink ref="F2" display="CONTRIBUTING.md" r:id="rId4"/>
+    <hyperlink ref="G2" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.ja-jp.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="authoringResource.md" r:id="rId6"/>
+    <hyperlink ref="D3" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ja-jp.xlf" r:id="rId7"/>
+    <hyperlink ref="F3" display="authoringResource.md" r:id="rId8"/>
+    <hyperlink ref="G3" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ja-jp.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="authoringResourceMOF.md" r:id="rId10"/>
+    <hyperlink ref="D4" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ja-jp.xlf" r:id="rId11"/>
+    <hyperlink ref="F4" display="authoringResourceMOF.md" r:id="rId12"/>
+    <hyperlink ref="G4" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ja-jp.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="authoringResourceMofCS.md" r:id="rId14"/>
+    <hyperlink ref="D5" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ja-jp.xlf" r:id="rId15"/>
+    <hyperlink ref="F5" display="authoringResourceMofCS.md" r:id="rId16"/>
+    <hyperlink ref="G5" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ja-jp.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="authoringResourceMofDesigner.md" r:id="rId18"/>
+    <hyperlink ref="D6" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ja-jp.xlf" r:id="rId19"/>
+    <hyperlink ref="F6" display="authoringResourceMofDesigner.md" r:id="rId20"/>
+    <hyperlink ref="G6" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ja-jp.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display="builtInResource.md" r:id="rId22"/>
+    <hyperlink ref="D7" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ja-jp.xlf" r:id="rId23"/>
+    <hyperlink ref="F7" display="builtInResource.md" r:id="rId24"/>
+    <hyperlink ref="G7" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ja-jp.xlf" r:id="rId25"/>
+    <hyperlink ref="A8" display="configData.md" r:id="rId26"/>
+    <hyperlink ref="D8" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.ja-jp.xlf" r:id="rId27"/>
+    <hyperlink ref="F8" display="configData.md" r:id="rId28"/>
+    <hyperlink ref="G8" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.ja-jp.xlf" r:id="rId29"/>
+    <hyperlink ref="A9" display="configurations.md" r:id="rId30"/>
+    <hyperlink ref="D9" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ja-jp.xlf" r:id="rId31"/>
+    <hyperlink ref="F9" display="configurations.md" r:id="rId32"/>
+    <hyperlink ref="G9" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ja-jp.xlf" r:id="rId33"/>
+    <hyperlink ref="A10" display="enactingConfigurations.md" r:id="rId34"/>
+    <hyperlink ref="D10" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ja-jp.xlf" r:id="rId35"/>
+    <hyperlink ref="F10" display="enactingConfigurations.md" r:id="rId36"/>
+    <hyperlink ref="G10" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ja-jp.xlf" r:id="rId37"/>
+    <hyperlink ref="A11" display="environmentResource.md" r:id="rId38"/>
+    <hyperlink ref="D11" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ja-jp.xlf" r:id="rId39"/>
+    <hyperlink ref="F11" display="environmentResource.md" r:id="rId40"/>
+    <hyperlink ref="G11" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ja-jp.xlf" r:id="rId41"/>
+    <hyperlink ref="A12" display="fileResource.md" r:id="rId42"/>
+    <hyperlink ref="D12" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ja-jp.xlf" r:id="rId43"/>
+    <hyperlink ref="F12" display="fileResource.md" r:id="rId44"/>
+    <hyperlink ref="G12" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ja-jp.xlf" r:id="rId45"/>
+    <hyperlink ref="A13" display="groupResource.md" r:id="rId46"/>
+    <hyperlink ref="D13" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.ja-jp.xlf" r:id="rId47"/>
+    <hyperlink ref="F13" display="groupResource.md" r:id="rId48"/>
+    <hyperlink ref="G13" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.ja-jp.xlf" r:id="rId49"/>
+    <hyperlink ref="A14" display="PartialConfig1.jpg" r:id="rId50"/>
+    <hyperlink ref="D14" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId51"/>
+    <hyperlink ref="F14" display="PartialConfig1.jpg" r:id="rId52"/>
+    <hyperlink ref="G14" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId53"/>
+    <hyperlink ref="A15" display="PartialConfigPullServer.jpg" r:id="rId54"/>
+    <hyperlink ref="D15" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId55"/>
+    <hyperlink ref="F15" display="PartialConfigPullServer.jpg" r:id="rId56"/>
+    <hyperlink ref="G15" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId57"/>
+    <hyperlink ref="A16" display="Pull.png" r:id="rId58"/>
+    <hyperlink ref="D16" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId59"/>
+    <hyperlink ref="F16" display="Pull.png" r:id="rId60"/>
+    <hyperlink ref="G16" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId61"/>
+    <hyperlink ref="A17" display="Push.png" r:id="rId62"/>
+    <hyperlink ref="D17" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId63"/>
+    <hyperlink ref="F17" display="Push.png" r:id="rId64"/>
+    <hyperlink ref="G17" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId65"/>
+    <hyperlink ref="A18" display="lnxArchiveResource.md" r:id="rId66"/>
+    <hyperlink ref="D18" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ja-jp.xlf" r:id="rId67"/>
+    <hyperlink ref="F18" display="lnxArchiveResource.md" r:id="rId68"/>
+    <hyperlink ref="G18" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ja-jp.xlf" r:id="rId69"/>
+    <hyperlink ref="A19" display="lnxBuiltInResources.md" r:id="rId70"/>
+    <hyperlink ref="D19" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ja-jp.xlf" r:id="rId71"/>
+    <hyperlink ref="F19" display="lnxBuiltInResources.md" r:id="rId72"/>
+    <hyperlink ref="G19" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ja-jp.xlf" r:id="rId73"/>
+    <hyperlink ref="A20" display="lnxEnvironmentResource.md" r:id="rId74"/>
+    <hyperlink ref="D20" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ja-jp.xlf" r:id="rId75"/>
+    <hyperlink ref="F20" display="lnxEnvironmentResource.md" r:id="rId76"/>
+    <hyperlink ref="G20" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ja-jp.xlf" r:id="rId77"/>
+    <hyperlink ref="A21" display="lnxFileLineResource.md" r:id="rId78"/>
+    <hyperlink ref="D21" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ja-jp.xlf" r:id="rId79"/>
+    <hyperlink ref="F21" display="lnxFileLineResource.md" r:id="rId80"/>
+    <hyperlink ref="G21" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ja-jp.xlf" r:id="rId81"/>
+    <hyperlink ref="A22" display="lnxFileResource.md" r:id="rId82"/>
+    <hyperlink ref="D22" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ja-jp.xlf" r:id="rId83"/>
+    <hyperlink ref="F22" display="lnxFileResource.md" r:id="rId84"/>
+    <hyperlink ref="G22" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ja-jp.xlf" r:id="rId85"/>
+    <hyperlink ref="A23" display="lnxGettingStarted.md" r:id="rId86"/>
+    <hyperlink ref="D23" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ja-jp.xlf" r:id="rId87"/>
+    <hyperlink ref="F23" display="lnxGettingStarted.md" r:id="rId88"/>
+    <hyperlink ref="G23" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ja-jp.xlf" r:id="rId89"/>
+    <hyperlink ref="A24" display="lnxGroupResource.md" r:id="rId90"/>
+    <hyperlink ref="D24" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ja-jp.xlf" r:id="rId91"/>
+    <hyperlink ref="F24" display="lnxGroupResource.md" r:id="rId92"/>
+    <hyperlink ref="G24" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ja-jp.xlf" r:id="rId93"/>
+    <hyperlink ref="A25" display="lnxPackageResource.md" r:id="rId94"/>
+    <hyperlink ref="D25" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ja-jp.xlf" r:id="rId95"/>
+    <hyperlink ref="F25" display="lnxPackageResource.md" r:id="rId96"/>
+    <hyperlink ref="G25" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ja-jp.xlf" r:id="rId97"/>
+    <hyperlink ref="A26" display="lnxScriptResource.md" r:id="rId98"/>
+    <hyperlink ref="D26" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ja-jp.xlf" r:id="rId99"/>
+    <hyperlink ref="F26" display="lnxScriptResource.md" r:id="rId100"/>
+    <hyperlink ref="G26" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ja-jp.xlf" r:id="rId101"/>
+    <hyperlink ref="A27" display="lnxServiceResource.md" r:id="rId102"/>
+    <hyperlink ref="D27" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ja-jp.xlf" r:id="rId103"/>
+    <hyperlink ref="F27" display="lnxServiceResource.md" r:id="rId104"/>
+    <hyperlink ref="G27" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ja-jp.xlf" r:id="rId105"/>
+    <hyperlink ref="A28" display="lnxSshAuthorizedKeysResource.md" r:id="rId106"/>
+    <hyperlink ref="D28" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ja-jp.xlf" r:id="rId107"/>
+    <hyperlink ref="F28" display="lnxSshAuthorizedKeysResource.md" r:id="rId108"/>
+    <hyperlink ref="G28" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ja-jp.xlf" r:id="rId109"/>
+    <hyperlink ref="A29" display="lnxUserResource.md" r:id="rId110"/>
+    <hyperlink ref="D29" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ja-jp.xlf" r:id="rId111"/>
+    <hyperlink ref="F29" display="lnxUserResource.md" r:id="rId112"/>
+    <hyperlink ref="G29" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ja-jp.xlf" r:id="rId113"/>
+    <hyperlink ref="A30" display="logResource.md" r:id="rId114"/>
+    <hyperlink ref="D30" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.ja-jp.xlf" r:id="rId115"/>
+    <hyperlink ref="F30" display="logResource.md" r:id="rId116"/>
+    <hyperlink ref="G30" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.ja-jp.xlf" r:id="rId117"/>
+    <hyperlink ref="A31" display="metaConfig.md" r:id="rId118"/>
+    <hyperlink ref="D31" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ja-jp.xlf" r:id="rId119"/>
+    <hyperlink ref="F31" display="metaConfig.md" r:id="rId120"/>
+    <hyperlink ref="G31" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ja-jp.xlf" r:id="rId121"/>
+    <hyperlink ref="A32" display="metaConfig4.md" r:id="rId122"/>
+    <hyperlink ref="D32" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ja-jp.xlf" r:id="rId123"/>
+    <hyperlink ref="F32" display="metaConfig4.md" r:id="rId124"/>
+    <hyperlink ref="G32" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ja-jp.xlf" r:id="rId125"/>
+    <hyperlink ref="A33" display="overview.md" r:id="rId126"/>
+    <hyperlink ref="D33" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ja-jp.xlf" r:id="rId127"/>
+    <hyperlink ref="F33" display="overview.md" r:id="rId128"/>
+    <hyperlink ref="G33" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ja-jp.xlf" r:id="rId129"/>
+    <hyperlink ref="A34" display="packageResource.md" r:id="rId130"/>
+    <hyperlink ref="D34" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ja-jp.xlf" r:id="rId131"/>
+    <hyperlink ref="F34" display="packageResource.md" r:id="rId132"/>
+    <hyperlink ref="G34" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ja-jp.xlf" r:id="rId133"/>
+    <hyperlink ref="A35" display="partialConfigs.md" r:id="rId134"/>
+    <hyperlink ref="D35" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ja-jp.xlf" r:id="rId135"/>
+    <hyperlink ref="F35" display="partialConfigs.md" r:id="rId136"/>
+    <hyperlink ref="G35" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ja-jp.xlf" r:id="rId137"/>
+    <hyperlink ref="A36" display="pullClient.md" r:id="rId138"/>
+    <hyperlink ref="D36" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ja-jp.xlf" r:id="rId139"/>
+    <hyperlink ref="F36" display="pullClient.md" r:id="rId140"/>
+    <hyperlink ref="G36" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ja-jp.xlf" r:id="rId141"/>
+    <hyperlink ref="A37" display="pullClientConfigID.md" r:id="rId142"/>
+    <hyperlink ref="D37" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ja-jp.xlf" r:id="rId143"/>
+    <hyperlink ref="F37" display="pullClientConfigID.md" r:id="rId144"/>
+    <hyperlink ref="G37" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ja-jp.xlf" r:id="rId145"/>
+    <hyperlink ref="A38" display="pullClientConfigID4.md" r:id="rId146"/>
+    <hyperlink ref="D38" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ja-jp.xlf" r:id="rId147"/>
+    <hyperlink ref="F38" display="pullClientConfigID4.md" r:id="rId148"/>
+    <hyperlink ref="G38" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ja-jp.xlf" r:id="rId149"/>
+    <hyperlink ref="A39" display="pullClientConfigNames.md" r:id="rId150"/>
+    <hyperlink ref="D39" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ja-jp.xlf" r:id="rId151"/>
+    <hyperlink ref="F39" display="pullClientConfigNames.md" r:id="rId152"/>
+    <hyperlink ref="G39" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ja-jp.xlf" r:id="rId153"/>
+    <hyperlink ref="A40" display="queryServerNodes.md" r:id="rId154"/>
+    <hyperlink ref="D40" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ja-jp.xlf" r:id="rId155"/>
+    <hyperlink ref="F40" display="queryServerNodes.md" r:id="rId156"/>
+    <hyperlink ref="G40" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ja-jp.xlf" r:id="rId157"/>
+    <hyperlink ref="A41" display="registryResource.md" r:id="rId158"/>
+    <hyperlink ref="D41" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ja-jp.xlf" r:id="rId159"/>
+    <hyperlink ref="F41" display="registryResource.md" r:id="rId160"/>
+    <hyperlink ref="G41" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ja-jp.xlf" r:id="rId161"/>
+    <hyperlink ref="A42" display="resources.md" r:id="rId162"/>
+    <hyperlink ref="D42" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ja-jp.xlf" r:id="rId163"/>
+    <hyperlink ref="F42" display="resources.md" r:id="rId164"/>
+    <hyperlink ref="G42" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ja-jp.xlf" r:id="rId165"/>
+    <hyperlink ref="A43" display="scriptResource.md" r:id="rId166"/>
+    <hyperlink ref="D43" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ja-jp.xlf" r:id="rId167"/>
+    <hyperlink ref="F43" display="scriptResource.md" r:id="rId168"/>
+    <hyperlink ref="G43" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ja-jp.xlf" r:id="rId169"/>
+    <hyperlink ref="A44" display="secureMOF.md" r:id="rId170"/>
+    <hyperlink ref="D44" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ja-jp.xlf" r:id="rId171"/>
+    <hyperlink ref="F44" display="secureMOF.md" r:id="rId172"/>
+    <hyperlink ref="G44" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ja-jp.xlf" r:id="rId173"/>
+    <hyperlink ref="A45" display="secureServer.md" r:id="rId174"/>
+    <hyperlink ref="D45" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ja-jp.xlf" r:id="rId175"/>
+    <hyperlink ref="F45" display="secureServer.md" r:id="rId176"/>
+    <hyperlink ref="G45" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ja-jp.xlf" r:id="rId177"/>
+    <hyperlink ref="A46" display="serviceResource.md" r:id="rId178"/>
+    <hyperlink ref="D46" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ja-jp.xlf" r:id="rId179"/>
+    <hyperlink ref="F46" display="serviceResource.md" r:id="rId180"/>
+    <hyperlink ref="G46" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ja-jp.xlf" r:id="rId181"/>
+    <hyperlink ref="A47" display="TOC.md" r:id="rId182"/>
+    <hyperlink ref="D47" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ja-jp.xlf" r:id="rId183"/>
+    <hyperlink ref="F47" display="TOC.md" r:id="rId184"/>
+    <hyperlink ref="G47" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ja-jp.xlf" r:id="rId185"/>
+    <hyperlink ref="A48" display="troubleshooting.md" r:id="rId186"/>
+    <hyperlink ref="D48" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ja-jp.xlf" r:id="rId187"/>
+    <hyperlink ref="F48" display="troubleshooting.md" r:id="rId188"/>
+    <hyperlink ref="G48" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ja-jp.xlf" r:id="rId189"/>
+    <hyperlink ref="A49" display="userResource.md" r:id="rId190"/>
+    <hyperlink ref="D49" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ja-jp.xlf" r:id="rId191"/>
+    <hyperlink ref="F49" display="userResource.md" r:id="rId192"/>
+    <hyperlink ref="G49" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ja-jp.xlf" r:id="rId193"/>
+    <hyperlink ref="A50" display="windowsfeatureResource.md" r:id="rId194"/>
+    <hyperlink ref="D50" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ja-jp.xlf" r:id="rId195"/>
+    <hyperlink ref="F50" display="windowsfeatureResource.md" r:id="rId196"/>
+    <hyperlink ref="G50" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ja-jp.xlf" r:id="rId197"/>
+    <hyperlink ref="A51" display="windowsProcessResource.md" r:id="rId198"/>
+    <hyperlink ref="D51" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ja-jp.xlf" r:id="rId199"/>
+    <hyperlink ref="F51" display="windowsProcessResource.md" r:id="rId200"/>
+    <hyperlink ref="G51" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ja-jp.xlf" r:id="rId201"/>
+    <hyperlink ref="A52" display="archiveResource.md" r:id="rId202"/>
+    <hyperlink ref="D52" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ja-jp.xlf" r:id="rId203"/>
+    <hyperlink ref="F52" display="archiveResource.md" r:id="rId204"/>
+    <hyperlink ref="G52" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ja-jp.xlf" r:id="rId205"/>
+    <hyperlink ref="A53" display="authoringResourceClass.md" r:id="rId206"/>
+    <hyperlink ref="D53" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ja-jp.xlf" r:id="rId207"/>
+    <hyperlink ref="F53" display="authoringResourceClass.md" r:id="rId208"/>
+    <hyperlink ref="G53" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ja-jp.xlf" r:id="rId209"/>
+    <hyperlink ref="A54" display="authoringResourceComposite.md" r:id="rId210"/>
+    <hyperlink ref="D54" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ja-jp.xlf" r:id="rId211"/>
+    <hyperlink ref="F54" display="authoringResourceComposite.md" r:id="rId212"/>
+    <hyperlink ref="G54" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ja-jp.xlf" r:id="rId213"/>
+    <hyperlink ref="A55" display="pullServer.md" r:id="rId214"/>
+    <hyperlink ref="D55" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ja-jp.xlf" r:id="rId215"/>
+    <hyperlink ref="F55" display="pullServer.md" r:id="rId216"/>
+    <hyperlink ref="G55" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ja-jp.xlf" r:id="rId217"/>
+    <hyperlink ref="A56" display="README.md" r:id="rId218"/>
+    <hyperlink ref="D56" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.ja-jp.xlf" r:id="rId219"/>
+    <hyperlink ref="F56" display="README.md" r:id="rId220"/>
+    <hyperlink ref="G56" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.ja-jp.xlf" r:id="rId221"/>
+    <hyperlink ref="A57" display="OpenLoc is cool.md" r:id="rId222"/>
+    <hyperlink ref="D57" display="OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.ja-jp.xlf" r:id="rId223"/>
+    <hyperlink ref="A58" display="SonjaFileToo.md" r:id="rId224"/>
+    <hyperlink ref="D58" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.ja-jp.xlf" r:id="rId225"/>
+    <hyperlink ref="A59" display="SonjaTest.md" r:id="rId226"/>
+    <hyperlink ref="D59" display="SonjaTest.bab99385ac372c3ae450ecdd8e590c3ad3219939.ja-jp.xlf" r:id="rId227"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -3193,40 +3672,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2">
@@ -3234,1345 +3713,1345 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>97</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>97</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J54" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J54" s="0" t="s">
-        <v>99</v>
-      </c>
       <c r="K54" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>58</v>
+        <v>208</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
@@ -6,7 +6,7 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="ja-jp" sheetId="2" r:id="rId3"/>
+    <sheet name="pt-br" sheetId="2" r:id="rId3"/>
     <sheet name="zh-cn" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>ja-jp</t>
+    <t>pt-br</t>
   </si>
   <si>
     <t>zh-cn</t>
@@ -31,616 +31,595 @@
     <t>CONTRIBUTING.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
+    <t>Ready for handoff</t>
   </si>
   <si>
     <t>In Translation</t>
   </si>
   <si>
+    <t>2016-03-31 09:07:01</t>
+  </si>
+  <si>
+    <t>archiveResource.md</t>
+  </si>
+  <si>
+    <t>2016-04-01 08:28:37</t>
+  </si>
+  <si>
+    <t>authoringResource.md</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.md</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.md</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.md</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.md</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.md</t>
+  </si>
+  <si>
+    <t>builtInResource.md</t>
+  </si>
+  <si>
+    <t>configData.md</t>
+  </si>
+  <si>
+    <t>configurations.md</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.md</t>
+  </si>
+  <si>
+    <t>environmentResource.md</t>
+  </si>
+  <si>
+    <t>fileResource.md</t>
+  </si>
+  <si>
+    <t>groupResource.md</t>
+  </si>
+  <si>
+    <t>PartialConfig1.jpg</t>
+  </si>
+  <si>
+    <t>2016-03-31 09:07:14</t>
+  </si>
+  <si>
+    <t>PartialConfigPullServer.jpg</t>
+  </si>
+  <si>
+    <t>Pull.png</t>
+  </si>
+  <si>
+    <t>Push.png</t>
+  </si>
+  <si>
+    <t>lnxArchiveResource.md</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.md</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.md</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.md</t>
+  </si>
+  <si>
+    <t>lnxFileResource.md</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.md</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.md</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.md</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.md</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.md</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.md</t>
+  </si>
+  <si>
+    <t>lnxUserResource.md</t>
+  </si>
+  <si>
+    <t>logResource.md</t>
+  </si>
+  <si>
+    <t>metaConfig.md</t>
+  </si>
+  <si>
+    <t>metaConfig4.md</t>
+  </si>
+  <si>
+    <t>overview.md</t>
+  </si>
+  <si>
+    <t>packageResource.md</t>
+  </si>
+  <si>
+    <t>partialConfigs.md</t>
+  </si>
+  <si>
+    <t>pullClient.md</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.md</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.md</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.md</t>
+  </si>
+  <si>
+    <t>pullServer.md</t>
+  </si>
+  <si>
+    <t>queryServerNodes.md</t>
+  </si>
+  <si>
+    <t>registryResource.md</t>
+  </si>
+  <si>
+    <t>resources.md</t>
+  </si>
+  <si>
+    <t>scriptResource.md</t>
+  </si>
+  <si>
+    <t>secureMOF.md</t>
+  </si>
+  <si>
+    <t>secureServer.md</t>
+  </si>
+  <si>
+    <t>serviceResource.md</t>
+  </si>
+  <si>
+    <t>OpenLoc is cool.md</t>
+  </si>
+  <si>
+    <t>2016-04-01 01:53:15</t>
+  </si>
+  <si>
+    <t>SonjaFileToo.md</t>
+  </si>
+  <si>
+    <t>SonjaTest.md</t>
+  </si>
+  <si>
+    <t>TOC.md</t>
+  </si>
+  <si>
+    <t>troubleshooting.md</t>
+  </si>
+  <si>
+    <t>userResource.md</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.md</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.md</t>
+  </si>
+  <si>
+    <t>README.md</t>
+  </si>
+  <si>
+    <t>Source File Name</t>
+  </si>
+  <si>
+    <t>File Extension</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Latest Handoff File</t>
+  </si>
+  <si>
+    <t>Latest Handoff Datetime</t>
+  </si>
+  <si>
+    <t>Latest Target File</t>
+  </si>
+  <si>
+    <t>Latest Handback File</t>
+  </si>
+  <si>
+    <t>Latest Handback DateTime</t>
+  </si>
+  <si>
+    <t>Reference Tokens</t>
+  </si>
+  <si>
+    <t>Handoff Reason</t>
+  </si>
+  <si>
+    <t>Dependency From</t>
+  </si>
+  <si>
+    <t>Error Detail</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-01 08:28:27</t>
+  </si>
+  <si>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>.jpg</t>
+  </si>
+  <si>
+    <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
+  </si>
+  <si>
+    <t>IsDependency</t>
+  </si>
+  <si>
+    <t>dsc\partialConfigs.md</t>
+  </si>
+  <si>
+    <t>1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg</t>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
+    <t>86d829b1fcdd41e648ed0594eaf337b3726c143c.png</t>
+  </si>
+  <si>
+    <t>dsc\enactingConfigurations.md</t>
+  </si>
+  <si>
+    <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
+  </si>
+  <si>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-01 01:53:06</t>
+  </si>
+  <si>
+    <t>SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>SonjaTest.bab99385ac372c3ae450ecdd8e590c3ad3219939.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-01-05 07:28:47</t>
   </si>
   <si>
-    <t>authoringResource.md</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.md</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.md</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.md</t>
-  </si>
-  <si>
-    <t>builtInResource.md</t>
-  </si>
-  <si>
-    <t>configData.md</t>
-  </si>
-  <si>
-    <t>configurations.md</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.md</t>
-  </si>
-  <si>
-    <t>environmentResource.md</t>
-  </si>
-  <si>
-    <t>fileResource.md</t>
-  </si>
-  <si>
-    <t>groupResource.md</t>
-  </si>
-  <si>
-    <t>PartialConfig1.jpg</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-03-31 09:07:14</t>
-  </si>
-  <si>
-    <t>PartialConfigPullServer.jpg</t>
-  </si>
-  <si>
-    <t>Pull.png</t>
-  </si>
-  <si>
-    <t>Push.png</t>
-  </si>
-  <si>
-    <t>lnxArchiveResource.md</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.md</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.md</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.md</t>
-  </si>
-  <si>
-    <t>lnxFileResource.md</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.md</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.md</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.md</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.md</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.md</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.md</t>
-  </si>
-  <si>
-    <t>lnxUserResource.md</t>
-  </si>
-  <si>
-    <t>logResource.md</t>
-  </si>
-  <si>
-    <t>metaConfig.md</t>
-  </si>
-  <si>
-    <t>metaConfig4.md</t>
-  </si>
-  <si>
-    <t>overview.md</t>
-  </si>
-  <si>
-    <t>packageResource.md</t>
-  </si>
-  <si>
-    <t>partialConfigs.md</t>
-  </si>
-  <si>
-    <t>pullClient.md</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.md</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.md</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.md</t>
-  </si>
-  <si>
-    <t>queryServerNodes.md</t>
-  </si>
-  <si>
-    <t>registryResource.md</t>
-  </si>
-  <si>
-    <t>resources.md</t>
-  </si>
-  <si>
-    <t>scriptResource.md</t>
-  </si>
-  <si>
-    <t>secureMOF.md</t>
-  </si>
-  <si>
-    <t>secureServer.md</t>
-  </si>
-  <si>
-    <t>serviceResource.md</t>
-  </si>
-  <si>
-    <t>TOC.md</t>
-  </si>
-  <si>
-    <t>troubleshooting.md</t>
-  </si>
-  <si>
-    <t>userResource.md</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.md</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.md</t>
-  </si>
-  <si>
-    <t>archiveResource.md</t>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-02-23 18:17:21</t>
   </si>
   <si>
-    <t>authoringResourceClass.md</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.md</t>
-  </si>
-  <si>
-    <t>pullServer.md</t>
-  </si>
-  <si>
-    <t>README.md</t>
-  </si>
-  <si>
-    <t>OpenLoc is cool.md</t>
-  </si>
-  <si>
-    <t>2016-04-01 01:54:45</t>
-  </si>
-  <si>
-    <t>SonjaFileToo.md</t>
-  </si>
-  <si>
-    <t>SonjaTest.md</t>
-  </si>
-  <si>
-    <t>Source File Name</t>
-  </si>
-  <si>
-    <t>File Extension</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Latest Handoff File</t>
-  </si>
-  <si>
-    <t>Latest Handoff Datetime</t>
-  </si>
-  <si>
-    <t>Latest Target File</t>
-  </si>
-  <si>
-    <t>Latest Handback File</t>
-  </si>
-  <si>
-    <t>Latest Handback DateTime</t>
-  </si>
-  <si>
-    <t>Reference Tokens</t>
-  </si>
-  <si>
-    <t>Handoff Reason</t>
-  </si>
-  <si>
-    <t>Dependency From</t>
-  </si>
-  <si>
-    <t>Error Detail</t>
-  </si>
-  <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2015-11-06 03:02:20</t>
-  </si>
-  <si>
-    <t>2015-11-24 23:39:08</t>
-  </si>
-  <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>.jpg</t>
-  </si>
-  <si>
-    <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
-  </si>
-  <si>
-    <t>2015-11-12 19:33:45</t>
-  </si>
-  <si>
-    <t>2016-02-22 08:58:28</t>
-  </si>
-  <si>
-    <t>IsDependency</t>
-  </si>
-  <si>
-    <t>dsc\partialConfigs.md</t>
-  </si>
-  <si>
-    <t>The handback type archive is not match with handoff type null.</t>
-  </si>
-  <si>
-    <t>1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>86d829b1fcdd41e648ed0594eaf337b3726c143c.png</t>
-  </si>
-  <si>
-    <t>dsc\enactingConfigurations.md</t>
-  </si>
-  <si>
-    <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
-  </si>
-  <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 18:15:50</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-05 07:26:19</t>
-  </si>
-  <si>
-    <t>OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-31 00:52:27</t>
-  </si>
-  <si>
-    <t>SonjaTest.bab99385ac372c3ae450ecdd8e590c3ad3219939.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-31 00:22:54</t>
-  </si>
-  <si>
-    <t>CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf</t>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
   </si>
   <si>
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf</t>
   </si>
   <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-01 01:53:15</t>
   </si>
   <si>
     <t>SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf</t>
@@ -703,8 +682,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ja-jp" displayName="ja_jp" ref="A1:M1" headerRowCount="0">
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="pt-br" displayName="pt_br" ref="A1:L59" headerRowCount="1">
+  <autoFilter ref="A1:L59"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
     <tableColumn id="3" name="Status"/>
@@ -717,15 +697,15 @@
     <tableColumn id="10" name="Handoff Reason"/>
     <tableColumn id="11" name="Dependency From"/>
     <tableColumn id="12" name="Error Detail"/>
-    <tableColumn id="13" name="Column13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="zh-cn" displayName="zh_cn" ref="A1:M1" headerRowCount="0">
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="zh-cn" displayName="zh_cn" ref="A1:L59" headerRowCount="1">
+  <autoFilter ref="A1:L59"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
     <tableColumn id="3" name="Status"/>
@@ -738,17 +718,17 @@
     <tableColumn id="10" name="Handoff Reason"/>
     <tableColumn id="11" name="Dependency From"/>
     <tableColumn id="12" name="Error Detail"/>
-    <tableColumn id="13" name="Column13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:D1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:D59" headerRowCount="1">
+  <autoFilter ref="A1:D59"/>
   <tableColumns count="4">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="ja-jp"/>
+    <tableColumn id="2" name="pt-br"/>
     <tableColumn id="3" name="zh-cn"/>
     <tableColumn id="4" name="Latest Handoff Date"/>
   </tableColumns>
@@ -806,15 +786,15 @@
         <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>5</v>
@@ -828,7 +808,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>5</v>
@@ -842,7 +822,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>5</v>
@@ -856,7 +836,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>5</v>
@@ -870,7 +850,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>5</v>
@@ -884,7 +864,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>5</v>
@@ -898,7 +878,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>5</v>
@@ -912,7 +892,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>5</v>
@@ -926,7 +906,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>5</v>
@@ -940,7 +920,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>5</v>
@@ -954,58 +934,58 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="18">
@@ -1016,10 +996,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
@@ -1030,10 +1010,10 @@
         <v>5</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
@@ -1044,10 +1024,10 @@
         <v>5</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
@@ -1478,24 +1458,24 @@
         <v>5</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53">
@@ -1503,13 +1483,13 @@
         <v>61</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
@@ -1517,13 +1497,13 @@
         <v>62</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -1531,13 +1511,13 @@
         <v>63</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -1545,7 +1525,7 @@
         <v>64</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>6</v>
@@ -1559,103 +1539,103 @@
         <v>65</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="CONTRIBUTING.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="authoringResource.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="authoringResourceMOF.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="authoringResourceMofCS.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="authoringResourceMofDesigner.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="builtInResource.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="configData.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="configurations.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="enactingConfigurations.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="environmentResource.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="fileResource.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="groupResource.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="PartialConfig1.jpg" r:id="rId14"/>
-    <hyperlink ref="A15" display="PartialConfigPullServer.jpg" r:id="rId15"/>
-    <hyperlink ref="A16" display="Pull.png" r:id="rId16"/>
-    <hyperlink ref="A17" display="Push.png" r:id="rId17"/>
-    <hyperlink ref="A18" display="lnxArchiveResource.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="lnxBuiltInResources.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="lnxEnvironmentResource.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="lnxFileLineResource.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="lnxFileResource.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="lnxGettingStarted.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="lnxGroupResource.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="lnxPackageResource.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="lnxScriptResource.md" r:id="rId26"/>
-    <hyperlink ref="A27" display="lnxServiceResource.md" r:id="rId27"/>
-    <hyperlink ref="A28" display="lnxSshAuthorizedKeysResource.md" r:id="rId28"/>
-    <hyperlink ref="A29" display="lnxUserResource.md" r:id="rId29"/>
-    <hyperlink ref="A30" display="logResource.md" r:id="rId30"/>
-    <hyperlink ref="A31" display="metaConfig.md" r:id="rId31"/>
-    <hyperlink ref="A32" display="metaConfig4.md" r:id="rId32"/>
-    <hyperlink ref="A33" display="overview.md" r:id="rId33"/>
-    <hyperlink ref="A34" display="packageResource.md" r:id="rId34"/>
-    <hyperlink ref="A35" display="partialConfigs.md" r:id="rId35"/>
-    <hyperlink ref="A36" display="pullClient.md" r:id="rId36"/>
-    <hyperlink ref="A37" display="pullClientConfigID.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="pullClientConfigID4.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="pullClientConfigNames.md" r:id="rId39"/>
-    <hyperlink ref="A40" display="queryServerNodes.md" r:id="rId40"/>
-    <hyperlink ref="A41" display="registryResource.md" r:id="rId41"/>
-    <hyperlink ref="A42" display="resources.md" r:id="rId42"/>
-    <hyperlink ref="A43" display="scriptResource.md" r:id="rId43"/>
-    <hyperlink ref="A44" display="secureMOF.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="secureServer.md" r:id="rId45"/>
-    <hyperlink ref="A46" display="serviceResource.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="TOC.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="troubleshooting.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="userResource.md" r:id="rId49"/>
-    <hyperlink ref="A50" display="windowsfeatureResource.md" r:id="rId50"/>
-    <hyperlink ref="A51" display="windowsProcessResource.md" r:id="rId51"/>
-    <hyperlink ref="A52" display="archiveResource.md" r:id="rId52"/>
-    <hyperlink ref="A53" display="authoringResourceClass.md" r:id="rId53"/>
-    <hyperlink ref="A54" display="authoringResourceComposite.md" r:id="rId54"/>
-    <hyperlink ref="A55" display="pullServer.md" r:id="rId55"/>
-    <hyperlink ref="A56" display="README.md" r:id="rId56"/>
-    <hyperlink ref="A57" display="OpenLoc is cool.md" r:id="rId57"/>
-    <hyperlink ref="A58" display="SonjaFileToo.md" r:id="rId58"/>
-    <hyperlink ref="A59" display="SonjaTest.md" r:id="rId59"/>
+    <hyperlink ref="A3" display="archiveResource.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="authoringResource.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="authoringResourceClass.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="authoringResourceComposite.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="authoringResourceMOF.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="authoringResourceMofCS.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="authoringResourceMofDesigner.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="builtInResource.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="configData.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="configurations.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="enactingConfigurations.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="environmentResource.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="fileResource.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="groupResource.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="PartialConfig1.jpg" r:id="rId17"/>
+    <hyperlink ref="A18" display="PartialConfigPullServer.jpg" r:id="rId18"/>
+    <hyperlink ref="A19" display="Pull.png" r:id="rId19"/>
+    <hyperlink ref="A20" display="Push.png" r:id="rId20"/>
+    <hyperlink ref="A21" display="lnxArchiveResource.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="lnxBuiltInResources.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="lnxEnvironmentResource.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="lnxFileLineResource.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="lnxFileResource.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="lnxGettingStarted.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="lnxGroupResource.md" r:id="rId27"/>
+    <hyperlink ref="A28" display="lnxPackageResource.md" r:id="rId28"/>
+    <hyperlink ref="A29" display="lnxScriptResource.md" r:id="rId29"/>
+    <hyperlink ref="A30" display="lnxServiceResource.md" r:id="rId30"/>
+    <hyperlink ref="A31" display="lnxSshAuthorizedKeysResource.md" r:id="rId31"/>
+    <hyperlink ref="A32" display="lnxUserResource.md" r:id="rId32"/>
+    <hyperlink ref="A33" display="logResource.md" r:id="rId33"/>
+    <hyperlink ref="A34" display="metaConfig.md" r:id="rId34"/>
+    <hyperlink ref="A35" display="metaConfig4.md" r:id="rId35"/>
+    <hyperlink ref="A36" display="overview.md" r:id="rId36"/>
+    <hyperlink ref="A37" display="packageResource.md" r:id="rId37"/>
+    <hyperlink ref="A38" display="partialConfigs.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="pullClient.md" r:id="rId39"/>
+    <hyperlink ref="A40" display="pullClientConfigID.md" r:id="rId40"/>
+    <hyperlink ref="A41" display="pullClientConfigID4.md" r:id="rId41"/>
+    <hyperlink ref="A42" display="pullClientConfigNames.md" r:id="rId42"/>
+    <hyperlink ref="A43" display="pullServer.md" r:id="rId43"/>
+    <hyperlink ref="A44" display="queryServerNodes.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="registryResource.md" r:id="rId45"/>
+    <hyperlink ref="A46" display="resources.md" r:id="rId46"/>
+    <hyperlink ref="A47" display="scriptResource.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="secureMOF.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="secureServer.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="serviceResource.md" r:id="rId50"/>
+    <hyperlink ref="A51" display="OpenLoc is cool.md" r:id="rId51"/>
+    <hyperlink ref="A52" display="SonjaFileToo.md" r:id="rId52"/>
+    <hyperlink ref="A53" display="SonjaTest.md" r:id="rId53"/>
+    <hyperlink ref="A54" display="TOC.md" r:id="rId54"/>
+    <hyperlink ref="A55" display="troubleshooting.md" r:id="rId55"/>
+    <hyperlink ref="A56" display="userResource.md" r:id="rId56"/>
+    <hyperlink ref="A57" display="windowsfeatureResource.md" r:id="rId57"/>
+    <hyperlink ref="A58" display="windowsProcessResource.md" r:id="rId58"/>
+    <hyperlink ref="A59" display="README.md" r:id="rId59"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1688,40 +1668,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2">
@@ -1729,28 +1709,22 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -1758,458 +1732,347 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="L16" s="0" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>101</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18">
@@ -2217,28 +2080,25 @@
         <v>25</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>85</v>
+        <v>101</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="19">
@@ -2246,28 +2106,25 @@
         <v>26</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>85</v>
+        <v>101</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="20">
@@ -2275,28 +2132,25 @@
         <v>27</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>85</v>
+        <v>101</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="21">
@@ -2304,28 +2158,22 @@
         <v>28</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
@@ -2333,28 +2181,22 @@
         <v>29</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
@@ -2362,28 +2204,22 @@
         <v>30</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
@@ -2391,28 +2227,22 @@
         <v>31</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
@@ -2420,28 +2250,22 @@
         <v>32</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26">
@@ -2449,28 +2273,22 @@
         <v>33</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
@@ -2478,28 +2296,22 @@
         <v>34</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28">
@@ -2507,28 +2319,22 @@
         <v>35</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
@@ -2536,28 +2342,22 @@
         <v>36</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
@@ -2565,28 +2365,22 @@
         <v>37</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31">
@@ -2594,28 +2388,22 @@
         <v>38</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>122</v>
+        <v>7</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32">
@@ -2623,28 +2411,22 @@
         <v>39</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33">
@@ -2652,28 +2434,22 @@
         <v>40</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34">
@@ -2681,28 +2457,22 @@
         <v>41</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35">
@@ -2710,28 +2480,22 @@
         <v>42</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36">
@@ -2739,28 +2503,22 @@
         <v>43</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37">
@@ -2768,28 +2526,22 @@
         <v>44</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38">
@@ -2797,28 +2549,22 @@
         <v>45</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39">
@@ -2826,28 +2572,22 @@
         <v>46</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
@@ -2855,28 +2595,22 @@
         <v>47</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41">
@@ -2884,28 +2618,22 @@
         <v>48</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42">
@@ -2913,28 +2641,22 @@
         <v>49</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43">
@@ -2942,28 +2664,22 @@
         <v>50</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44">
@@ -2971,28 +2687,22 @@
         <v>51</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45">
@@ -3000,28 +2710,22 @@
         <v>52</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46">
@@ -3029,28 +2733,22 @@
         <v>53</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47">
@@ -3058,28 +2756,22 @@
         <v>54</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48">
@@ -3087,28 +2779,22 @@
         <v>55</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49">
@@ -3116,28 +2802,22 @@
         <v>56</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50">
@@ -3145,28 +2825,22 @@
         <v>57</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>141</v>
+        <v>7</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51">
@@ -3174,57 +2848,45 @@
         <v>58</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53">
@@ -3232,28 +2894,22 @@
         <v>61</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54">
@@ -3261,28 +2917,22 @@
         <v>62</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55">
@@ -3290,28 +2940,22 @@
         <v>63</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56">
@@ -3319,28 +2963,22 @@
         <v>64</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>148</v>
+        <v>7</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57">
@@ -3348,298 +2986,188 @@
         <v>65</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>155</v>
+        <v>7</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="CONTRIBUTING.md" r:id="rId2"/>
-    <hyperlink ref="D2" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.ja-jp.xlf" r:id="rId3"/>
-    <hyperlink ref="F2" display="CONTRIBUTING.md" r:id="rId4"/>
-    <hyperlink ref="G2" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.ja-jp.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="authoringResource.md" r:id="rId6"/>
-    <hyperlink ref="D3" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ja-jp.xlf" r:id="rId7"/>
-    <hyperlink ref="F3" display="authoringResource.md" r:id="rId8"/>
-    <hyperlink ref="G3" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ja-jp.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="authoringResourceMOF.md" r:id="rId10"/>
-    <hyperlink ref="D4" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ja-jp.xlf" r:id="rId11"/>
-    <hyperlink ref="F4" display="authoringResourceMOF.md" r:id="rId12"/>
-    <hyperlink ref="G4" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ja-jp.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="authoringResourceMofCS.md" r:id="rId14"/>
-    <hyperlink ref="D5" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ja-jp.xlf" r:id="rId15"/>
-    <hyperlink ref="F5" display="authoringResourceMofCS.md" r:id="rId16"/>
-    <hyperlink ref="G5" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ja-jp.xlf" r:id="rId17"/>
-    <hyperlink ref="A6" display="authoringResourceMofDesigner.md" r:id="rId18"/>
-    <hyperlink ref="D6" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ja-jp.xlf" r:id="rId19"/>
-    <hyperlink ref="F6" display="authoringResourceMofDesigner.md" r:id="rId20"/>
-    <hyperlink ref="G6" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ja-jp.xlf" r:id="rId21"/>
-    <hyperlink ref="A7" display="builtInResource.md" r:id="rId22"/>
-    <hyperlink ref="D7" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ja-jp.xlf" r:id="rId23"/>
-    <hyperlink ref="F7" display="builtInResource.md" r:id="rId24"/>
-    <hyperlink ref="G7" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ja-jp.xlf" r:id="rId25"/>
-    <hyperlink ref="A8" display="configData.md" r:id="rId26"/>
-    <hyperlink ref="D8" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.ja-jp.xlf" r:id="rId27"/>
-    <hyperlink ref="F8" display="configData.md" r:id="rId28"/>
-    <hyperlink ref="G8" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.ja-jp.xlf" r:id="rId29"/>
-    <hyperlink ref="A9" display="configurations.md" r:id="rId30"/>
-    <hyperlink ref="D9" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ja-jp.xlf" r:id="rId31"/>
-    <hyperlink ref="F9" display="configurations.md" r:id="rId32"/>
-    <hyperlink ref="G9" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ja-jp.xlf" r:id="rId33"/>
-    <hyperlink ref="A10" display="enactingConfigurations.md" r:id="rId34"/>
-    <hyperlink ref="D10" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ja-jp.xlf" r:id="rId35"/>
-    <hyperlink ref="F10" display="enactingConfigurations.md" r:id="rId36"/>
-    <hyperlink ref="G10" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ja-jp.xlf" r:id="rId37"/>
-    <hyperlink ref="A11" display="environmentResource.md" r:id="rId38"/>
-    <hyperlink ref="D11" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ja-jp.xlf" r:id="rId39"/>
-    <hyperlink ref="F11" display="environmentResource.md" r:id="rId40"/>
-    <hyperlink ref="G11" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ja-jp.xlf" r:id="rId41"/>
-    <hyperlink ref="A12" display="fileResource.md" r:id="rId42"/>
-    <hyperlink ref="D12" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ja-jp.xlf" r:id="rId43"/>
-    <hyperlink ref="F12" display="fileResource.md" r:id="rId44"/>
-    <hyperlink ref="G12" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ja-jp.xlf" r:id="rId45"/>
-    <hyperlink ref="A13" display="groupResource.md" r:id="rId46"/>
-    <hyperlink ref="D13" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.ja-jp.xlf" r:id="rId47"/>
-    <hyperlink ref="F13" display="groupResource.md" r:id="rId48"/>
-    <hyperlink ref="G13" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.ja-jp.xlf" r:id="rId49"/>
-    <hyperlink ref="A14" display="PartialConfig1.jpg" r:id="rId50"/>
-    <hyperlink ref="D14" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId51"/>
-    <hyperlink ref="F14" display="PartialConfig1.jpg" r:id="rId52"/>
-    <hyperlink ref="G14" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId53"/>
-    <hyperlink ref="A15" display="PartialConfigPullServer.jpg" r:id="rId54"/>
-    <hyperlink ref="D15" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId55"/>
-    <hyperlink ref="F15" display="PartialConfigPullServer.jpg" r:id="rId56"/>
-    <hyperlink ref="G15" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId57"/>
-    <hyperlink ref="A16" display="Pull.png" r:id="rId58"/>
-    <hyperlink ref="D16" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId59"/>
-    <hyperlink ref="F16" display="Pull.png" r:id="rId60"/>
-    <hyperlink ref="G16" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId61"/>
-    <hyperlink ref="A17" display="Push.png" r:id="rId62"/>
-    <hyperlink ref="D17" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId63"/>
-    <hyperlink ref="F17" display="Push.png" r:id="rId64"/>
-    <hyperlink ref="G17" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId65"/>
-    <hyperlink ref="A18" display="lnxArchiveResource.md" r:id="rId66"/>
-    <hyperlink ref="D18" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ja-jp.xlf" r:id="rId67"/>
-    <hyperlink ref="F18" display="lnxArchiveResource.md" r:id="rId68"/>
-    <hyperlink ref="G18" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ja-jp.xlf" r:id="rId69"/>
-    <hyperlink ref="A19" display="lnxBuiltInResources.md" r:id="rId70"/>
-    <hyperlink ref="D19" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ja-jp.xlf" r:id="rId71"/>
-    <hyperlink ref="F19" display="lnxBuiltInResources.md" r:id="rId72"/>
-    <hyperlink ref="G19" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ja-jp.xlf" r:id="rId73"/>
-    <hyperlink ref="A20" display="lnxEnvironmentResource.md" r:id="rId74"/>
-    <hyperlink ref="D20" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ja-jp.xlf" r:id="rId75"/>
-    <hyperlink ref="F20" display="lnxEnvironmentResource.md" r:id="rId76"/>
-    <hyperlink ref="G20" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ja-jp.xlf" r:id="rId77"/>
-    <hyperlink ref="A21" display="lnxFileLineResource.md" r:id="rId78"/>
-    <hyperlink ref="D21" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ja-jp.xlf" r:id="rId79"/>
-    <hyperlink ref="F21" display="lnxFileLineResource.md" r:id="rId80"/>
-    <hyperlink ref="G21" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ja-jp.xlf" r:id="rId81"/>
-    <hyperlink ref="A22" display="lnxFileResource.md" r:id="rId82"/>
-    <hyperlink ref="D22" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ja-jp.xlf" r:id="rId83"/>
-    <hyperlink ref="F22" display="lnxFileResource.md" r:id="rId84"/>
-    <hyperlink ref="G22" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ja-jp.xlf" r:id="rId85"/>
-    <hyperlink ref="A23" display="lnxGettingStarted.md" r:id="rId86"/>
-    <hyperlink ref="D23" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ja-jp.xlf" r:id="rId87"/>
-    <hyperlink ref="F23" display="lnxGettingStarted.md" r:id="rId88"/>
-    <hyperlink ref="G23" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ja-jp.xlf" r:id="rId89"/>
-    <hyperlink ref="A24" display="lnxGroupResource.md" r:id="rId90"/>
-    <hyperlink ref="D24" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ja-jp.xlf" r:id="rId91"/>
-    <hyperlink ref="F24" display="lnxGroupResource.md" r:id="rId92"/>
-    <hyperlink ref="G24" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ja-jp.xlf" r:id="rId93"/>
-    <hyperlink ref="A25" display="lnxPackageResource.md" r:id="rId94"/>
-    <hyperlink ref="D25" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ja-jp.xlf" r:id="rId95"/>
-    <hyperlink ref="F25" display="lnxPackageResource.md" r:id="rId96"/>
-    <hyperlink ref="G25" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ja-jp.xlf" r:id="rId97"/>
-    <hyperlink ref="A26" display="lnxScriptResource.md" r:id="rId98"/>
-    <hyperlink ref="D26" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ja-jp.xlf" r:id="rId99"/>
-    <hyperlink ref="F26" display="lnxScriptResource.md" r:id="rId100"/>
-    <hyperlink ref="G26" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ja-jp.xlf" r:id="rId101"/>
-    <hyperlink ref="A27" display="lnxServiceResource.md" r:id="rId102"/>
-    <hyperlink ref="D27" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ja-jp.xlf" r:id="rId103"/>
-    <hyperlink ref="F27" display="lnxServiceResource.md" r:id="rId104"/>
-    <hyperlink ref="G27" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ja-jp.xlf" r:id="rId105"/>
-    <hyperlink ref="A28" display="lnxSshAuthorizedKeysResource.md" r:id="rId106"/>
-    <hyperlink ref="D28" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ja-jp.xlf" r:id="rId107"/>
-    <hyperlink ref="F28" display="lnxSshAuthorizedKeysResource.md" r:id="rId108"/>
-    <hyperlink ref="G28" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ja-jp.xlf" r:id="rId109"/>
-    <hyperlink ref="A29" display="lnxUserResource.md" r:id="rId110"/>
-    <hyperlink ref="D29" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ja-jp.xlf" r:id="rId111"/>
-    <hyperlink ref="F29" display="lnxUserResource.md" r:id="rId112"/>
-    <hyperlink ref="G29" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ja-jp.xlf" r:id="rId113"/>
-    <hyperlink ref="A30" display="logResource.md" r:id="rId114"/>
-    <hyperlink ref="D30" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.ja-jp.xlf" r:id="rId115"/>
-    <hyperlink ref="F30" display="logResource.md" r:id="rId116"/>
-    <hyperlink ref="G30" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.ja-jp.xlf" r:id="rId117"/>
-    <hyperlink ref="A31" display="metaConfig.md" r:id="rId118"/>
-    <hyperlink ref="D31" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ja-jp.xlf" r:id="rId119"/>
-    <hyperlink ref="F31" display="metaConfig.md" r:id="rId120"/>
-    <hyperlink ref="G31" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ja-jp.xlf" r:id="rId121"/>
-    <hyperlink ref="A32" display="metaConfig4.md" r:id="rId122"/>
-    <hyperlink ref="D32" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ja-jp.xlf" r:id="rId123"/>
-    <hyperlink ref="F32" display="metaConfig4.md" r:id="rId124"/>
-    <hyperlink ref="G32" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ja-jp.xlf" r:id="rId125"/>
-    <hyperlink ref="A33" display="overview.md" r:id="rId126"/>
-    <hyperlink ref="D33" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ja-jp.xlf" r:id="rId127"/>
-    <hyperlink ref="F33" display="overview.md" r:id="rId128"/>
-    <hyperlink ref="G33" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ja-jp.xlf" r:id="rId129"/>
-    <hyperlink ref="A34" display="packageResource.md" r:id="rId130"/>
-    <hyperlink ref="D34" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ja-jp.xlf" r:id="rId131"/>
-    <hyperlink ref="F34" display="packageResource.md" r:id="rId132"/>
-    <hyperlink ref="G34" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ja-jp.xlf" r:id="rId133"/>
-    <hyperlink ref="A35" display="partialConfigs.md" r:id="rId134"/>
-    <hyperlink ref="D35" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ja-jp.xlf" r:id="rId135"/>
-    <hyperlink ref="F35" display="partialConfigs.md" r:id="rId136"/>
-    <hyperlink ref="G35" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ja-jp.xlf" r:id="rId137"/>
-    <hyperlink ref="A36" display="pullClient.md" r:id="rId138"/>
-    <hyperlink ref="D36" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ja-jp.xlf" r:id="rId139"/>
-    <hyperlink ref="F36" display="pullClient.md" r:id="rId140"/>
-    <hyperlink ref="G36" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ja-jp.xlf" r:id="rId141"/>
-    <hyperlink ref="A37" display="pullClientConfigID.md" r:id="rId142"/>
-    <hyperlink ref="D37" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ja-jp.xlf" r:id="rId143"/>
-    <hyperlink ref="F37" display="pullClientConfigID.md" r:id="rId144"/>
-    <hyperlink ref="G37" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ja-jp.xlf" r:id="rId145"/>
-    <hyperlink ref="A38" display="pullClientConfigID4.md" r:id="rId146"/>
-    <hyperlink ref="D38" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ja-jp.xlf" r:id="rId147"/>
-    <hyperlink ref="F38" display="pullClientConfigID4.md" r:id="rId148"/>
-    <hyperlink ref="G38" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ja-jp.xlf" r:id="rId149"/>
-    <hyperlink ref="A39" display="pullClientConfigNames.md" r:id="rId150"/>
-    <hyperlink ref="D39" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ja-jp.xlf" r:id="rId151"/>
-    <hyperlink ref="F39" display="pullClientConfigNames.md" r:id="rId152"/>
-    <hyperlink ref="G39" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ja-jp.xlf" r:id="rId153"/>
-    <hyperlink ref="A40" display="queryServerNodes.md" r:id="rId154"/>
-    <hyperlink ref="D40" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ja-jp.xlf" r:id="rId155"/>
-    <hyperlink ref="F40" display="queryServerNodes.md" r:id="rId156"/>
-    <hyperlink ref="G40" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ja-jp.xlf" r:id="rId157"/>
-    <hyperlink ref="A41" display="registryResource.md" r:id="rId158"/>
-    <hyperlink ref="D41" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ja-jp.xlf" r:id="rId159"/>
-    <hyperlink ref="F41" display="registryResource.md" r:id="rId160"/>
-    <hyperlink ref="G41" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ja-jp.xlf" r:id="rId161"/>
-    <hyperlink ref="A42" display="resources.md" r:id="rId162"/>
-    <hyperlink ref="D42" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ja-jp.xlf" r:id="rId163"/>
-    <hyperlink ref="F42" display="resources.md" r:id="rId164"/>
-    <hyperlink ref="G42" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ja-jp.xlf" r:id="rId165"/>
-    <hyperlink ref="A43" display="scriptResource.md" r:id="rId166"/>
-    <hyperlink ref="D43" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ja-jp.xlf" r:id="rId167"/>
-    <hyperlink ref="F43" display="scriptResource.md" r:id="rId168"/>
-    <hyperlink ref="G43" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ja-jp.xlf" r:id="rId169"/>
-    <hyperlink ref="A44" display="secureMOF.md" r:id="rId170"/>
-    <hyperlink ref="D44" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ja-jp.xlf" r:id="rId171"/>
-    <hyperlink ref="F44" display="secureMOF.md" r:id="rId172"/>
-    <hyperlink ref="G44" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ja-jp.xlf" r:id="rId173"/>
-    <hyperlink ref="A45" display="secureServer.md" r:id="rId174"/>
-    <hyperlink ref="D45" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ja-jp.xlf" r:id="rId175"/>
-    <hyperlink ref="F45" display="secureServer.md" r:id="rId176"/>
-    <hyperlink ref="G45" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ja-jp.xlf" r:id="rId177"/>
-    <hyperlink ref="A46" display="serviceResource.md" r:id="rId178"/>
-    <hyperlink ref="D46" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ja-jp.xlf" r:id="rId179"/>
-    <hyperlink ref="F46" display="serviceResource.md" r:id="rId180"/>
-    <hyperlink ref="G46" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ja-jp.xlf" r:id="rId181"/>
-    <hyperlink ref="A47" display="TOC.md" r:id="rId182"/>
-    <hyperlink ref="D47" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ja-jp.xlf" r:id="rId183"/>
-    <hyperlink ref="F47" display="TOC.md" r:id="rId184"/>
-    <hyperlink ref="G47" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ja-jp.xlf" r:id="rId185"/>
-    <hyperlink ref="A48" display="troubleshooting.md" r:id="rId186"/>
-    <hyperlink ref="D48" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ja-jp.xlf" r:id="rId187"/>
-    <hyperlink ref="F48" display="troubleshooting.md" r:id="rId188"/>
-    <hyperlink ref="G48" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ja-jp.xlf" r:id="rId189"/>
-    <hyperlink ref="A49" display="userResource.md" r:id="rId190"/>
-    <hyperlink ref="D49" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ja-jp.xlf" r:id="rId191"/>
-    <hyperlink ref="F49" display="userResource.md" r:id="rId192"/>
-    <hyperlink ref="G49" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ja-jp.xlf" r:id="rId193"/>
-    <hyperlink ref="A50" display="windowsfeatureResource.md" r:id="rId194"/>
-    <hyperlink ref="D50" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ja-jp.xlf" r:id="rId195"/>
-    <hyperlink ref="F50" display="windowsfeatureResource.md" r:id="rId196"/>
-    <hyperlink ref="G50" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ja-jp.xlf" r:id="rId197"/>
-    <hyperlink ref="A51" display="windowsProcessResource.md" r:id="rId198"/>
-    <hyperlink ref="D51" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ja-jp.xlf" r:id="rId199"/>
-    <hyperlink ref="F51" display="windowsProcessResource.md" r:id="rId200"/>
-    <hyperlink ref="G51" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ja-jp.xlf" r:id="rId201"/>
-    <hyperlink ref="A52" display="archiveResource.md" r:id="rId202"/>
-    <hyperlink ref="D52" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ja-jp.xlf" r:id="rId203"/>
-    <hyperlink ref="F52" display="archiveResource.md" r:id="rId204"/>
-    <hyperlink ref="G52" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ja-jp.xlf" r:id="rId205"/>
-    <hyperlink ref="A53" display="authoringResourceClass.md" r:id="rId206"/>
-    <hyperlink ref="D53" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ja-jp.xlf" r:id="rId207"/>
-    <hyperlink ref="F53" display="authoringResourceClass.md" r:id="rId208"/>
-    <hyperlink ref="G53" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ja-jp.xlf" r:id="rId209"/>
-    <hyperlink ref="A54" display="authoringResourceComposite.md" r:id="rId210"/>
-    <hyperlink ref="D54" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ja-jp.xlf" r:id="rId211"/>
-    <hyperlink ref="F54" display="authoringResourceComposite.md" r:id="rId212"/>
-    <hyperlink ref="G54" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ja-jp.xlf" r:id="rId213"/>
-    <hyperlink ref="A55" display="pullServer.md" r:id="rId214"/>
-    <hyperlink ref="D55" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ja-jp.xlf" r:id="rId215"/>
-    <hyperlink ref="F55" display="pullServer.md" r:id="rId216"/>
-    <hyperlink ref="G55" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ja-jp.xlf" r:id="rId217"/>
-    <hyperlink ref="A56" display="README.md" r:id="rId218"/>
-    <hyperlink ref="D56" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.ja-jp.xlf" r:id="rId219"/>
-    <hyperlink ref="F56" display="README.md" r:id="rId220"/>
-    <hyperlink ref="G56" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.ja-jp.xlf" r:id="rId221"/>
-    <hyperlink ref="A57" display="OpenLoc is cool.md" r:id="rId222"/>
-    <hyperlink ref="D57" display="OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.ja-jp.xlf" r:id="rId223"/>
-    <hyperlink ref="A58" display="SonjaFileToo.md" r:id="rId224"/>
-    <hyperlink ref="D58" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.ja-jp.xlf" r:id="rId225"/>
-    <hyperlink ref="A59" display="SonjaTest.md" r:id="rId226"/>
-    <hyperlink ref="D59" display="SonjaTest.bab99385ac372c3ae450ecdd8e590c3ad3219939.ja-jp.xlf" r:id="rId227"/>
+    <hyperlink ref="D2" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.pt-br.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="archiveResource.md" r:id="rId4"/>
+    <hyperlink ref="D3" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.pt-br.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="authoringResource.md" r:id="rId6"/>
+    <hyperlink ref="D4" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.pt-br.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="authoringResourceClass.md" r:id="rId8"/>
+    <hyperlink ref="D5" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.pt-br.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display="authoringResourceComposite.md" r:id="rId10"/>
+    <hyperlink ref="D6" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.pt-br.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="authoringResourceMOF.md" r:id="rId12"/>
+    <hyperlink ref="D7" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.pt-br.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="authoringResourceMofCS.md" r:id="rId14"/>
+    <hyperlink ref="D8" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.pt-br.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="authoringResourceMofDesigner.md" r:id="rId16"/>
+    <hyperlink ref="D9" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.pt-br.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="builtInResource.md" r:id="rId18"/>
+    <hyperlink ref="D10" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.pt-br.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="configData.md" r:id="rId20"/>
+    <hyperlink ref="D11" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.pt-br.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="configurations.md" r:id="rId22"/>
+    <hyperlink ref="D12" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.pt-br.xlf" r:id="rId23"/>
+    <hyperlink ref="A13" display="enactingConfigurations.md" r:id="rId24"/>
+    <hyperlink ref="D13" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.pt-br.xlf" r:id="rId25"/>
+    <hyperlink ref="A14" display="environmentResource.md" r:id="rId26"/>
+    <hyperlink ref="D14" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.pt-br.xlf" r:id="rId27"/>
+    <hyperlink ref="A15" display="fileResource.md" r:id="rId28"/>
+    <hyperlink ref="D15" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.pt-br.xlf" r:id="rId29"/>
+    <hyperlink ref="A16" display="groupResource.md" r:id="rId30"/>
+    <hyperlink ref="D16" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.pt-br.xlf" r:id="rId31"/>
+    <hyperlink ref="A17" display="PartialConfig1.jpg" r:id="rId32"/>
+    <hyperlink ref="D17" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId33"/>
+    <hyperlink ref="A18" display="PartialConfigPullServer.jpg" r:id="rId34"/>
+    <hyperlink ref="D18" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId35"/>
+    <hyperlink ref="A19" display="Pull.png" r:id="rId36"/>
+    <hyperlink ref="D19" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId37"/>
+    <hyperlink ref="A20" display="Push.png" r:id="rId38"/>
+    <hyperlink ref="D20" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId39"/>
+    <hyperlink ref="A21" display="lnxArchiveResource.md" r:id="rId40"/>
+    <hyperlink ref="D21" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.pt-br.xlf" r:id="rId41"/>
+    <hyperlink ref="A22" display="lnxBuiltInResources.md" r:id="rId42"/>
+    <hyperlink ref="D22" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.pt-br.xlf" r:id="rId43"/>
+    <hyperlink ref="A23" display="lnxEnvironmentResource.md" r:id="rId44"/>
+    <hyperlink ref="D23" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.pt-br.xlf" r:id="rId45"/>
+    <hyperlink ref="A24" display="lnxFileLineResource.md" r:id="rId46"/>
+    <hyperlink ref="D24" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.pt-br.xlf" r:id="rId47"/>
+    <hyperlink ref="A25" display="lnxFileResource.md" r:id="rId48"/>
+    <hyperlink ref="D25" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.pt-br.xlf" r:id="rId49"/>
+    <hyperlink ref="A26" display="lnxGettingStarted.md" r:id="rId50"/>
+    <hyperlink ref="D26" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.pt-br.xlf" r:id="rId51"/>
+    <hyperlink ref="A27" display="lnxGroupResource.md" r:id="rId52"/>
+    <hyperlink ref="D27" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.pt-br.xlf" r:id="rId53"/>
+    <hyperlink ref="A28" display="lnxPackageResource.md" r:id="rId54"/>
+    <hyperlink ref="D28" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.pt-br.xlf" r:id="rId55"/>
+    <hyperlink ref="A29" display="lnxScriptResource.md" r:id="rId56"/>
+    <hyperlink ref="D29" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.pt-br.xlf" r:id="rId57"/>
+    <hyperlink ref="A30" display="lnxServiceResource.md" r:id="rId58"/>
+    <hyperlink ref="D30" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.pt-br.xlf" r:id="rId59"/>
+    <hyperlink ref="A31" display="lnxSshAuthorizedKeysResource.md" r:id="rId60"/>
+    <hyperlink ref="D31" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.pt-br.xlf" r:id="rId61"/>
+    <hyperlink ref="A32" display="lnxUserResource.md" r:id="rId62"/>
+    <hyperlink ref="D32" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.pt-br.xlf" r:id="rId63"/>
+    <hyperlink ref="A33" display="logResource.md" r:id="rId64"/>
+    <hyperlink ref="D33" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.pt-br.xlf" r:id="rId65"/>
+    <hyperlink ref="A34" display="metaConfig.md" r:id="rId66"/>
+    <hyperlink ref="D34" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.pt-br.xlf" r:id="rId67"/>
+    <hyperlink ref="A35" display="metaConfig4.md" r:id="rId68"/>
+    <hyperlink ref="D35" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.pt-br.xlf" r:id="rId69"/>
+    <hyperlink ref="A36" display="overview.md" r:id="rId70"/>
+    <hyperlink ref="D36" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.pt-br.xlf" r:id="rId71"/>
+    <hyperlink ref="A37" display="packageResource.md" r:id="rId72"/>
+    <hyperlink ref="D37" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.pt-br.xlf" r:id="rId73"/>
+    <hyperlink ref="A38" display="partialConfigs.md" r:id="rId74"/>
+    <hyperlink ref="D38" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.pt-br.xlf" r:id="rId75"/>
+    <hyperlink ref="A39" display="pullClient.md" r:id="rId76"/>
+    <hyperlink ref="D39" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.pt-br.xlf" r:id="rId77"/>
+    <hyperlink ref="A40" display="pullClientConfigID.md" r:id="rId78"/>
+    <hyperlink ref="D40" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.pt-br.xlf" r:id="rId79"/>
+    <hyperlink ref="A41" display="pullClientConfigID4.md" r:id="rId80"/>
+    <hyperlink ref="D41" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.pt-br.xlf" r:id="rId81"/>
+    <hyperlink ref="A42" display="pullClientConfigNames.md" r:id="rId82"/>
+    <hyperlink ref="D42" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.pt-br.xlf" r:id="rId83"/>
+    <hyperlink ref="A43" display="pullServer.md" r:id="rId84"/>
+    <hyperlink ref="D43" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.pt-br.xlf" r:id="rId85"/>
+    <hyperlink ref="A44" display="queryServerNodes.md" r:id="rId86"/>
+    <hyperlink ref="D44" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.pt-br.xlf" r:id="rId87"/>
+    <hyperlink ref="A45" display="registryResource.md" r:id="rId88"/>
+    <hyperlink ref="D45" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.pt-br.xlf" r:id="rId89"/>
+    <hyperlink ref="A46" display="resources.md" r:id="rId90"/>
+    <hyperlink ref="D46" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.pt-br.xlf" r:id="rId91"/>
+    <hyperlink ref="A47" display="scriptResource.md" r:id="rId92"/>
+    <hyperlink ref="D47" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.pt-br.xlf" r:id="rId93"/>
+    <hyperlink ref="A48" display="secureMOF.md" r:id="rId94"/>
+    <hyperlink ref="D48" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.pt-br.xlf" r:id="rId95"/>
+    <hyperlink ref="A49" display="secureServer.md" r:id="rId96"/>
+    <hyperlink ref="D49" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.pt-br.xlf" r:id="rId97"/>
+    <hyperlink ref="A50" display="serviceResource.md" r:id="rId98"/>
+    <hyperlink ref="D50" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.pt-br.xlf" r:id="rId99"/>
+    <hyperlink ref="A51" display="OpenLoc is cool.md" r:id="rId100"/>
+    <hyperlink ref="D51" display="OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.pt-br.xlf" r:id="rId101"/>
+    <hyperlink ref="A52" display="SonjaFileToo.md" r:id="rId102"/>
+    <hyperlink ref="D52" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.pt-br.xlf" r:id="rId103"/>
+    <hyperlink ref="A53" display="SonjaTest.md" r:id="rId104"/>
+    <hyperlink ref="D53" display="SonjaTest.bab99385ac372c3ae450ecdd8e590c3ad3219939.pt-br.xlf" r:id="rId105"/>
+    <hyperlink ref="A54" display="TOC.md" r:id="rId106"/>
+    <hyperlink ref="D54" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.pt-br.xlf" r:id="rId107"/>
+    <hyperlink ref="A55" display="troubleshooting.md" r:id="rId108"/>
+    <hyperlink ref="D55" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.pt-br.xlf" r:id="rId109"/>
+    <hyperlink ref="A56" display="userResource.md" r:id="rId110"/>
+    <hyperlink ref="D56" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.pt-br.xlf" r:id="rId111"/>
+    <hyperlink ref="A57" display="windowsfeatureResource.md" r:id="rId112"/>
+    <hyperlink ref="D57" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.pt-br.xlf" r:id="rId113"/>
+    <hyperlink ref="A58" display="windowsProcessResource.md" r:id="rId114"/>
+    <hyperlink ref="D58" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.pt-br.xlf" r:id="rId115"/>
+    <hyperlink ref="A59" display="README.md" r:id="rId116"/>
+    <hyperlink ref="D59" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pt-br.xlf" r:id="rId117"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -3672,40 +3200,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2">
@@ -3713,1192 +3241,1192 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>152</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>7</v>
+        <v>152</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J53" s="0" t="s">
         <v>101</v>
@@ -4909,22 +4437,22 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J54" s="0" t="s">
         <v>101</v>
@@ -4935,229 +4463,229 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B55" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C55" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J55" s="0" t="s">
         <v>101</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="H56" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J56" s="0" t="s">
         <v>101</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="CONTRIBUTING.md" r:id="rId2"/>
     <hyperlink ref="D2" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="archiveResource.md" r:id="rId4"/>
-    <hyperlink ref="D3" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="authoringResource.md" r:id="rId6"/>
-    <hyperlink ref="D4" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="authoringResourceClass.md" r:id="rId8"/>
-    <hyperlink ref="D5" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="authoringResourceComposite.md" r:id="rId10"/>
-    <hyperlink ref="D6" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="authoringResourceMOF.md" r:id="rId12"/>
-    <hyperlink ref="D7" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="authoringResourceMofCS.md" r:id="rId14"/>
-    <hyperlink ref="D8" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="authoringResourceMofDesigner.md" r:id="rId16"/>
-    <hyperlink ref="D9" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="builtInResource.md" r:id="rId18"/>
-    <hyperlink ref="D10" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="configData.md" r:id="rId20"/>
-    <hyperlink ref="D11" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="configurations.md" r:id="rId22"/>
-    <hyperlink ref="D12" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="enactingConfigurations.md" r:id="rId24"/>
-    <hyperlink ref="D13" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId25"/>
-    <hyperlink ref="A14" display="environmentResource.md" r:id="rId26"/>
-    <hyperlink ref="D14" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId27"/>
-    <hyperlink ref="A15" display="fileResource.md" r:id="rId28"/>
-    <hyperlink ref="D15" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId29"/>
-    <hyperlink ref="A16" display="groupResource.md" r:id="rId30"/>
-    <hyperlink ref="D16" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId31"/>
-    <hyperlink ref="A17" display="lnxArchiveResource.md" r:id="rId32"/>
-    <hyperlink ref="D17" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId33"/>
-    <hyperlink ref="A18" display="lnxBuiltInResources.md" r:id="rId34"/>
-    <hyperlink ref="D18" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId35"/>
-    <hyperlink ref="A19" display="lnxEnvironmentResource.md" r:id="rId36"/>
-    <hyperlink ref="D19" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId37"/>
-    <hyperlink ref="A20" display="lnxFileLineResource.md" r:id="rId38"/>
-    <hyperlink ref="D20" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId39"/>
-    <hyperlink ref="A21" display="lnxFileResource.md" r:id="rId40"/>
-    <hyperlink ref="D21" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId41"/>
-    <hyperlink ref="A22" display="lnxGettingStarted.md" r:id="rId42"/>
-    <hyperlink ref="D22" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId43"/>
-    <hyperlink ref="A23" display="lnxGroupResource.md" r:id="rId44"/>
-    <hyperlink ref="D23" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId45"/>
-    <hyperlink ref="A24" display="lnxPackageResource.md" r:id="rId46"/>
-    <hyperlink ref="D24" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId47"/>
-    <hyperlink ref="A25" display="lnxScriptResource.md" r:id="rId48"/>
-    <hyperlink ref="D25" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId49"/>
-    <hyperlink ref="A26" display="lnxServiceResource.md" r:id="rId50"/>
-    <hyperlink ref="D26" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId51"/>
-    <hyperlink ref="A27" display="lnxSshAuthorizedKeysResource.md" r:id="rId52"/>
-    <hyperlink ref="D27" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId53"/>
-    <hyperlink ref="A28" display="lnxUserResource.md" r:id="rId54"/>
-    <hyperlink ref="D28" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId55"/>
-    <hyperlink ref="A29" display="logResource.md" r:id="rId56"/>
-    <hyperlink ref="D29" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId57"/>
-    <hyperlink ref="A30" display="metaConfig.md" r:id="rId58"/>
-    <hyperlink ref="D30" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId59"/>
-    <hyperlink ref="A31" display="metaConfig4.md" r:id="rId60"/>
-    <hyperlink ref="D31" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId61"/>
-    <hyperlink ref="A32" display="overview.md" r:id="rId62"/>
-    <hyperlink ref="D32" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId63"/>
-    <hyperlink ref="A33" display="packageResource.md" r:id="rId64"/>
-    <hyperlink ref="D33" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId65"/>
-    <hyperlink ref="A34" display="partialConfigs.md" r:id="rId66"/>
-    <hyperlink ref="D34" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId67"/>
-    <hyperlink ref="A35" display="pullClient.md" r:id="rId68"/>
-    <hyperlink ref="D35" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId69"/>
-    <hyperlink ref="A36" display="pullClientConfigID.md" r:id="rId70"/>
-    <hyperlink ref="D36" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId71"/>
-    <hyperlink ref="A37" display="pullClientConfigID4.md" r:id="rId72"/>
-    <hyperlink ref="D37" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId73"/>
-    <hyperlink ref="A38" display="pullClientConfigNames.md" r:id="rId74"/>
-    <hyperlink ref="D38" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId75"/>
-    <hyperlink ref="A39" display="pullServer.md" r:id="rId76"/>
-    <hyperlink ref="D39" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId77"/>
-    <hyperlink ref="A40" display="queryServerNodes.md" r:id="rId78"/>
-    <hyperlink ref="D40" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId79"/>
-    <hyperlink ref="A41" display="registryResource.md" r:id="rId80"/>
-    <hyperlink ref="D41" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId81"/>
-    <hyperlink ref="A42" display="resources.md" r:id="rId82"/>
-    <hyperlink ref="D42" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId83"/>
-    <hyperlink ref="A43" display="scriptResource.md" r:id="rId84"/>
-    <hyperlink ref="D43" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId85"/>
-    <hyperlink ref="A44" display="secureMOF.md" r:id="rId86"/>
-    <hyperlink ref="D44" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId87"/>
-    <hyperlink ref="A45" display="secureServer.md" r:id="rId88"/>
-    <hyperlink ref="D45" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId89"/>
-    <hyperlink ref="A46" display="serviceResource.md" r:id="rId90"/>
-    <hyperlink ref="D46" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId91"/>
-    <hyperlink ref="A47" display="TOC.md" r:id="rId92"/>
-    <hyperlink ref="D47" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId93"/>
-    <hyperlink ref="A48" display="troubleshooting.md" r:id="rId94"/>
-    <hyperlink ref="D48" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId95"/>
-    <hyperlink ref="A49" display="userResource.md" r:id="rId96"/>
-    <hyperlink ref="D49" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId97"/>
-    <hyperlink ref="A50" display="windowsfeatureResource.md" r:id="rId98"/>
-    <hyperlink ref="D50" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId99"/>
-    <hyperlink ref="A51" display="windowsProcessResource.md" r:id="rId100"/>
-    <hyperlink ref="D51" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId101"/>
-    <hyperlink ref="A52" display="README.md" r:id="rId102"/>
-    <hyperlink ref="D52" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId103"/>
+    <hyperlink ref="A3" display="authoringResource.md" r:id="rId4"/>
+    <hyperlink ref="D3" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="authoringResourceClass.md" r:id="rId6"/>
+    <hyperlink ref="D4" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="authoringResourceComposite.md" r:id="rId8"/>
+    <hyperlink ref="D5" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display="authoringResourceMOF.md" r:id="rId10"/>
+    <hyperlink ref="D6" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="authoringResourceMofCS.md" r:id="rId12"/>
+    <hyperlink ref="D7" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="authoringResourceMofDesigner.md" r:id="rId14"/>
+    <hyperlink ref="D8" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="builtInResource.md" r:id="rId16"/>
+    <hyperlink ref="D9" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="configData.md" r:id="rId18"/>
+    <hyperlink ref="D10" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="configurations.md" r:id="rId20"/>
+    <hyperlink ref="D11" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="enactingConfigurations.md" r:id="rId22"/>
+    <hyperlink ref="D12" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A13" display="environmentResource.md" r:id="rId24"/>
+    <hyperlink ref="D13" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A14" display="fileResource.md" r:id="rId26"/>
+    <hyperlink ref="D14" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="A15" display="groupResource.md" r:id="rId28"/>
+    <hyperlink ref="D15" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId29"/>
+    <hyperlink ref="A16" display="lnxArchiveResource.md" r:id="rId30"/>
+    <hyperlink ref="D16" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId31"/>
+    <hyperlink ref="A17" display="lnxBuiltInResources.md" r:id="rId32"/>
+    <hyperlink ref="D17" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId33"/>
+    <hyperlink ref="A18" display="lnxEnvironmentResource.md" r:id="rId34"/>
+    <hyperlink ref="D18" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId35"/>
+    <hyperlink ref="A19" display="lnxFileLineResource.md" r:id="rId36"/>
+    <hyperlink ref="D19" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId37"/>
+    <hyperlink ref="A20" display="lnxFileResource.md" r:id="rId38"/>
+    <hyperlink ref="D20" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId39"/>
+    <hyperlink ref="A21" display="lnxGettingStarted.md" r:id="rId40"/>
+    <hyperlink ref="D21" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId41"/>
+    <hyperlink ref="A22" display="lnxGroupResource.md" r:id="rId42"/>
+    <hyperlink ref="D22" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId43"/>
+    <hyperlink ref="A23" display="lnxPackageResource.md" r:id="rId44"/>
+    <hyperlink ref="D23" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId45"/>
+    <hyperlink ref="A24" display="lnxScriptResource.md" r:id="rId46"/>
+    <hyperlink ref="D24" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId47"/>
+    <hyperlink ref="A25" display="lnxServiceResource.md" r:id="rId48"/>
+    <hyperlink ref="D25" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId49"/>
+    <hyperlink ref="A26" display="lnxSshAuthorizedKeysResource.md" r:id="rId50"/>
+    <hyperlink ref="D26" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId51"/>
+    <hyperlink ref="A27" display="lnxUserResource.md" r:id="rId52"/>
+    <hyperlink ref="D27" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId53"/>
+    <hyperlink ref="A28" display="logResource.md" r:id="rId54"/>
+    <hyperlink ref="D28" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId55"/>
+    <hyperlink ref="A29" display="metaConfig.md" r:id="rId56"/>
+    <hyperlink ref="D29" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId57"/>
+    <hyperlink ref="A30" display="metaConfig4.md" r:id="rId58"/>
+    <hyperlink ref="D30" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId59"/>
+    <hyperlink ref="A31" display="overview.md" r:id="rId60"/>
+    <hyperlink ref="D31" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId61"/>
+    <hyperlink ref="A32" display="packageResource.md" r:id="rId62"/>
+    <hyperlink ref="D32" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId63"/>
+    <hyperlink ref="A33" display="partialConfigs.md" r:id="rId64"/>
+    <hyperlink ref="D33" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId65"/>
+    <hyperlink ref="A34" display="pullClient.md" r:id="rId66"/>
+    <hyperlink ref="D34" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId67"/>
+    <hyperlink ref="A35" display="pullClientConfigID.md" r:id="rId68"/>
+    <hyperlink ref="D35" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId69"/>
+    <hyperlink ref="A36" display="pullClientConfigID4.md" r:id="rId70"/>
+    <hyperlink ref="D36" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId71"/>
+    <hyperlink ref="A37" display="pullClientConfigNames.md" r:id="rId72"/>
+    <hyperlink ref="D37" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId73"/>
+    <hyperlink ref="A38" display="pullServer.md" r:id="rId74"/>
+    <hyperlink ref="D38" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId75"/>
+    <hyperlink ref="A39" display="queryServerNodes.md" r:id="rId76"/>
+    <hyperlink ref="D39" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId77"/>
+    <hyperlink ref="A40" display="registryResource.md" r:id="rId78"/>
+    <hyperlink ref="D40" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId79"/>
+    <hyperlink ref="A41" display="resources.md" r:id="rId80"/>
+    <hyperlink ref="D41" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId81"/>
+    <hyperlink ref="A42" display="scriptResource.md" r:id="rId82"/>
+    <hyperlink ref="D42" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId83"/>
+    <hyperlink ref="A43" display="secureMOF.md" r:id="rId84"/>
+    <hyperlink ref="D43" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId85"/>
+    <hyperlink ref="A44" display="secureServer.md" r:id="rId86"/>
+    <hyperlink ref="D44" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId87"/>
+    <hyperlink ref="A45" display="serviceResource.md" r:id="rId88"/>
+    <hyperlink ref="D45" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId89"/>
+    <hyperlink ref="A46" display="TOC.md" r:id="rId90"/>
+    <hyperlink ref="D46" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId91"/>
+    <hyperlink ref="A47" display="troubleshooting.md" r:id="rId92"/>
+    <hyperlink ref="D47" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId93"/>
+    <hyperlink ref="A48" display="userResource.md" r:id="rId94"/>
+    <hyperlink ref="D48" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId95"/>
+    <hyperlink ref="A49" display="windowsfeatureResource.md" r:id="rId96"/>
+    <hyperlink ref="D49" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId97"/>
+    <hyperlink ref="A50" display="windowsProcessResource.md" r:id="rId98"/>
+    <hyperlink ref="D50" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId99"/>
+    <hyperlink ref="A51" display="README.md" r:id="rId100"/>
+    <hyperlink ref="D51" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId101"/>
+    <hyperlink ref="A52" display="archiveResource.md" r:id="rId102"/>
+    <hyperlink ref="D52" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId103"/>
     <hyperlink ref="A53" display="PartialConfig1.jpg" r:id="rId104"/>
     <hyperlink ref="D53" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId105"/>
     <hyperlink ref="A54" display="PartialConfigPullServer.jpg" r:id="rId106"/>

--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
@@ -466,6 +466,9 @@
     <t>2016-01-05 07:28:47</t>
   </si>
   <si>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf</t>
   </si>
   <si>
@@ -598,6 +601,15 @@
     <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf</t>
   </si>
   <si>
+    <t>OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>SonjaTest.bab99385ac372c3ae450ecdd8e590c3ad3219939.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf</t>
   </si>
   <si>
@@ -614,18 +626,6 @@
   </si>
   <si>
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>SonjaTest.bab99385ac372c3ae450ecdd8e590c3ad3219939.zh-cn.xlf</t>
   </si>
 </sst>
 </file>
@@ -786,7 +786,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -982,7 +982,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>24</v>
@@ -996,7 +996,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>24</v>
@@ -1010,7 +1010,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>24</v>
@@ -1024,7 +1024,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>24</v>
@@ -1458,7 +1458,7 @@
         <v>5</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>59</v>
@@ -1472,7 +1472,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>24</v>
@@ -1486,7 +1486,7 @@
         <v>5</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>24</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>80</v>
@@ -3273,7 +3273,7 @@
         <v>150</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>149</v>
+        <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>82</v>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>80</v>
@@ -3296,7 +3296,7 @@
         <v>151</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>82</v>
@@ -3307,7 +3307,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>80</v>
@@ -3316,10 +3316,10 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>82</v>
@@ -3330,7 +3330,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>80</v>
@@ -3342,7 +3342,7 @@
         <v>154</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>82</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>80</v>
@@ -3376,7 +3376,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>80</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>80</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>80</v>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>80</v>
@@ -3468,7 +3468,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>80</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>80</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>80</v>
@@ -3537,7 +3537,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>80</v>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>80</v>
@@ -3583,99 +3583,111 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>82</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>83</v>
+        <v>101</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>82</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>83</v>
+        <v>101</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>82</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>83</v>
+        <v>101</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>82</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>83</v>
+        <v>101</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>80</v>
@@ -3684,7 +3696,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>149</v>
@@ -3698,7 +3710,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>80</v>
@@ -3707,7 +3719,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>149</v>
@@ -3721,7 +3733,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>80</v>
@@ -3730,7 +3742,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>149</v>
@@ -3744,7 +3756,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>80</v>
@@ -3753,7 +3765,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>149</v>
@@ -3767,7 +3779,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>80</v>
@@ -3776,7 +3788,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>149</v>
@@ -3790,7 +3802,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>80</v>
@@ -3799,7 +3811,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>149</v>
@@ -3813,7 +3825,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>80</v>
@@ -3822,7 +3834,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>149</v>
@@ -3836,7 +3848,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>80</v>
@@ -3845,7 +3857,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>149</v>
@@ -3859,7 +3871,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>80</v>
@@ -3868,7 +3880,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>149</v>
@@ -3882,7 +3894,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>80</v>
@@ -3891,7 +3903,7 @@
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>149</v>
@@ -3905,7 +3917,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>80</v>
@@ -3914,7 +3926,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>149</v>
@@ -3928,7 +3940,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>80</v>
@@ -3937,7 +3949,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>149</v>
@@ -3951,7 +3963,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>80</v>
@@ -3960,7 +3972,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>149</v>
@@ -3974,7 +3986,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>80</v>
@@ -3983,7 +3995,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>149</v>
@@ -3997,7 +4009,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>80</v>
@@ -4006,7 +4018,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>149</v>
@@ -4020,7 +4032,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>80</v>
@@ -4029,7 +4041,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>149</v>
@@ -4043,7 +4055,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>80</v>
@@ -4052,7 +4064,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>149</v>
@@ -4066,7 +4078,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>80</v>
@@ -4075,10 +4087,10 @@
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>82</v>
@@ -4089,7 +4101,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>80</v>
@@ -4098,7 +4110,7 @@
         <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>149</v>
@@ -4112,7 +4124,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>80</v>
@@ -4121,7 +4133,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>149</v>
@@ -4135,7 +4147,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>80</v>
@@ -4144,7 +4156,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>149</v>
@@ -4158,7 +4170,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>80</v>
@@ -4167,7 +4179,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>149</v>
@@ -4181,7 +4193,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>80</v>
@@ -4190,10 +4202,10 @@
         <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>82</v>
@@ -4204,7 +4216,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>80</v>
@@ -4213,7 +4225,7 @@
         <v>6</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>149</v>
@@ -4227,7 +4239,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>80</v>
@@ -4236,7 +4248,7 @@
         <v>6</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>149</v>
@@ -4250,7 +4262,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>80</v>
@@ -4259,7 +4271,7 @@
         <v>6</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>149</v>
@@ -4273,7 +4285,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>80</v>
@@ -4282,7 +4294,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>149</v>
@@ -4296,7 +4308,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>80</v>
@@ -4305,7 +4317,7 @@
         <v>6</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>149</v>
@@ -4319,7 +4331,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>80</v>
@@ -4328,7 +4340,7 @@
         <v>6</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>149</v>
@@ -4342,7 +4354,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>80</v>
@@ -4351,7 +4363,7 @@
         <v>6</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>149</v>
@@ -4365,7 +4377,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>80</v>
@@ -4374,10 +4386,10 @@
         <v>6</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>82</v>
@@ -4388,19 +4400,19 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>80</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>82</v>
@@ -4411,16 +4423,16 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>24</v>
@@ -4429,105 +4441,93 @@
         <v>82</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="K53" s="0" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>103</v>
+        <v>198</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>82</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="K54" s="0" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>105</v>
+        <v>199</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>82</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="K55" s="0" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>82</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="K56" s="0" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>80</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>201</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>82</v>
@@ -4538,19 +4538,19 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>80</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>202</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>82</v>
@@ -4561,19 +4561,19 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>80</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>203</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>82</v>
@@ -4586,120 +4586,120 @@
   <hyperlinks>
     <hyperlink ref="A2" display="CONTRIBUTING.md" r:id="rId2"/>
     <hyperlink ref="D2" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="authoringResource.md" r:id="rId4"/>
-    <hyperlink ref="D3" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="authoringResourceClass.md" r:id="rId6"/>
-    <hyperlink ref="D4" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="authoringResourceComposite.md" r:id="rId8"/>
-    <hyperlink ref="D5" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="authoringResourceMOF.md" r:id="rId10"/>
-    <hyperlink ref="D6" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="authoringResourceMofCS.md" r:id="rId12"/>
-    <hyperlink ref="D7" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="authoringResourceMofDesigner.md" r:id="rId14"/>
-    <hyperlink ref="D8" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="builtInResource.md" r:id="rId16"/>
-    <hyperlink ref="D9" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="configData.md" r:id="rId18"/>
-    <hyperlink ref="D10" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="configurations.md" r:id="rId20"/>
-    <hyperlink ref="D11" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="enactingConfigurations.md" r:id="rId22"/>
-    <hyperlink ref="D12" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="environmentResource.md" r:id="rId24"/>
-    <hyperlink ref="D13" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId25"/>
-    <hyperlink ref="A14" display="fileResource.md" r:id="rId26"/>
-    <hyperlink ref="D14" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId27"/>
-    <hyperlink ref="A15" display="groupResource.md" r:id="rId28"/>
-    <hyperlink ref="D15" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId29"/>
-    <hyperlink ref="A16" display="lnxArchiveResource.md" r:id="rId30"/>
-    <hyperlink ref="D16" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId31"/>
-    <hyperlink ref="A17" display="lnxBuiltInResources.md" r:id="rId32"/>
-    <hyperlink ref="D17" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId33"/>
-    <hyperlink ref="A18" display="lnxEnvironmentResource.md" r:id="rId34"/>
-    <hyperlink ref="D18" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId35"/>
-    <hyperlink ref="A19" display="lnxFileLineResource.md" r:id="rId36"/>
-    <hyperlink ref="D19" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId37"/>
-    <hyperlink ref="A20" display="lnxFileResource.md" r:id="rId38"/>
-    <hyperlink ref="D20" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId39"/>
-    <hyperlink ref="A21" display="lnxGettingStarted.md" r:id="rId40"/>
-    <hyperlink ref="D21" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId41"/>
-    <hyperlink ref="A22" display="lnxGroupResource.md" r:id="rId42"/>
-    <hyperlink ref="D22" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId43"/>
-    <hyperlink ref="A23" display="lnxPackageResource.md" r:id="rId44"/>
-    <hyperlink ref="D23" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId45"/>
-    <hyperlink ref="A24" display="lnxScriptResource.md" r:id="rId46"/>
-    <hyperlink ref="D24" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId47"/>
-    <hyperlink ref="A25" display="lnxServiceResource.md" r:id="rId48"/>
-    <hyperlink ref="D25" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId49"/>
-    <hyperlink ref="A26" display="lnxSshAuthorizedKeysResource.md" r:id="rId50"/>
-    <hyperlink ref="D26" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId51"/>
-    <hyperlink ref="A27" display="lnxUserResource.md" r:id="rId52"/>
-    <hyperlink ref="D27" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId53"/>
-    <hyperlink ref="A28" display="logResource.md" r:id="rId54"/>
-    <hyperlink ref="D28" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId55"/>
-    <hyperlink ref="A29" display="metaConfig.md" r:id="rId56"/>
-    <hyperlink ref="D29" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId57"/>
-    <hyperlink ref="A30" display="metaConfig4.md" r:id="rId58"/>
-    <hyperlink ref="D30" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId59"/>
-    <hyperlink ref="A31" display="overview.md" r:id="rId60"/>
-    <hyperlink ref="D31" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId61"/>
-    <hyperlink ref="A32" display="packageResource.md" r:id="rId62"/>
-    <hyperlink ref="D32" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId63"/>
-    <hyperlink ref="A33" display="partialConfigs.md" r:id="rId64"/>
-    <hyperlink ref="D33" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId65"/>
-    <hyperlink ref="A34" display="pullClient.md" r:id="rId66"/>
-    <hyperlink ref="D34" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId67"/>
-    <hyperlink ref="A35" display="pullClientConfigID.md" r:id="rId68"/>
-    <hyperlink ref="D35" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId69"/>
-    <hyperlink ref="A36" display="pullClientConfigID4.md" r:id="rId70"/>
-    <hyperlink ref="D36" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId71"/>
-    <hyperlink ref="A37" display="pullClientConfigNames.md" r:id="rId72"/>
-    <hyperlink ref="D37" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId73"/>
-    <hyperlink ref="A38" display="pullServer.md" r:id="rId74"/>
-    <hyperlink ref="D38" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId75"/>
-    <hyperlink ref="A39" display="queryServerNodes.md" r:id="rId76"/>
-    <hyperlink ref="D39" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId77"/>
-    <hyperlink ref="A40" display="registryResource.md" r:id="rId78"/>
-    <hyperlink ref="D40" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId79"/>
-    <hyperlink ref="A41" display="resources.md" r:id="rId80"/>
-    <hyperlink ref="D41" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId81"/>
-    <hyperlink ref="A42" display="scriptResource.md" r:id="rId82"/>
-    <hyperlink ref="D42" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId83"/>
-    <hyperlink ref="A43" display="secureMOF.md" r:id="rId84"/>
-    <hyperlink ref="D43" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId85"/>
-    <hyperlink ref="A44" display="secureServer.md" r:id="rId86"/>
-    <hyperlink ref="D44" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId87"/>
-    <hyperlink ref="A45" display="serviceResource.md" r:id="rId88"/>
-    <hyperlink ref="D45" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId89"/>
-    <hyperlink ref="A46" display="TOC.md" r:id="rId90"/>
-    <hyperlink ref="D46" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId91"/>
-    <hyperlink ref="A47" display="troubleshooting.md" r:id="rId92"/>
-    <hyperlink ref="D47" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId93"/>
-    <hyperlink ref="A48" display="userResource.md" r:id="rId94"/>
-    <hyperlink ref="D48" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId95"/>
-    <hyperlink ref="A49" display="windowsfeatureResource.md" r:id="rId96"/>
-    <hyperlink ref="D49" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId97"/>
-    <hyperlink ref="A50" display="windowsProcessResource.md" r:id="rId98"/>
-    <hyperlink ref="D50" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId99"/>
-    <hyperlink ref="A51" display="README.md" r:id="rId100"/>
-    <hyperlink ref="D51" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId101"/>
-    <hyperlink ref="A52" display="archiveResource.md" r:id="rId102"/>
-    <hyperlink ref="D52" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId103"/>
-    <hyperlink ref="A53" display="PartialConfig1.jpg" r:id="rId104"/>
-    <hyperlink ref="D53" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId105"/>
-    <hyperlink ref="A54" display="PartialConfigPullServer.jpg" r:id="rId106"/>
-    <hyperlink ref="D54" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId107"/>
-    <hyperlink ref="A55" display="Pull.png" r:id="rId108"/>
-    <hyperlink ref="D55" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId109"/>
-    <hyperlink ref="A56" display="Push.png" r:id="rId110"/>
-    <hyperlink ref="D56" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId111"/>
-    <hyperlink ref="A57" display="OpenLoc is cool.md" r:id="rId112"/>
-    <hyperlink ref="D57" display="OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf" r:id="rId113"/>
-    <hyperlink ref="A58" display="SonjaFileToo.md" r:id="rId114"/>
-    <hyperlink ref="D58" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf" r:id="rId115"/>
-    <hyperlink ref="A59" display="SonjaTest.md" r:id="rId116"/>
-    <hyperlink ref="D59" display="SonjaTest.bab99385ac372c3ae450ecdd8e590c3ad3219939.zh-cn.xlf" r:id="rId117"/>
+    <hyperlink ref="A3" display="archiveResource.md" r:id="rId4"/>
+    <hyperlink ref="D3" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="authoringResource.md" r:id="rId6"/>
+    <hyperlink ref="D4" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="authoringResourceClass.md" r:id="rId8"/>
+    <hyperlink ref="D5" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display="authoringResourceComposite.md" r:id="rId10"/>
+    <hyperlink ref="D6" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="authoringResourceMOF.md" r:id="rId12"/>
+    <hyperlink ref="D7" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="authoringResourceMofCS.md" r:id="rId14"/>
+    <hyperlink ref="D8" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="authoringResourceMofDesigner.md" r:id="rId16"/>
+    <hyperlink ref="D9" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="builtInResource.md" r:id="rId18"/>
+    <hyperlink ref="D10" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="configData.md" r:id="rId20"/>
+    <hyperlink ref="D11" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="configurations.md" r:id="rId22"/>
+    <hyperlink ref="D12" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A13" display="enactingConfigurations.md" r:id="rId24"/>
+    <hyperlink ref="D13" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A14" display="environmentResource.md" r:id="rId26"/>
+    <hyperlink ref="D14" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="A15" display="fileResource.md" r:id="rId28"/>
+    <hyperlink ref="D15" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId29"/>
+    <hyperlink ref="A16" display="groupResource.md" r:id="rId30"/>
+    <hyperlink ref="D16" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId31"/>
+    <hyperlink ref="A17" display="PartialConfig1.jpg" r:id="rId32"/>
+    <hyperlink ref="D17" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId33"/>
+    <hyperlink ref="A18" display="PartialConfigPullServer.jpg" r:id="rId34"/>
+    <hyperlink ref="D18" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId35"/>
+    <hyperlink ref="A19" display="Pull.png" r:id="rId36"/>
+    <hyperlink ref="D19" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId37"/>
+    <hyperlink ref="A20" display="Push.png" r:id="rId38"/>
+    <hyperlink ref="D20" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId39"/>
+    <hyperlink ref="A21" display="lnxArchiveResource.md" r:id="rId40"/>
+    <hyperlink ref="D21" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId41"/>
+    <hyperlink ref="A22" display="lnxBuiltInResources.md" r:id="rId42"/>
+    <hyperlink ref="D22" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId43"/>
+    <hyperlink ref="A23" display="lnxEnvironmentResource.md" r:id="rId44"/>
+    <hyperlink ref="D23" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId45"/>
+    <hyperlink ref="A24" display="lnxFileLineResource.md" r:id="rId46"/>
+    <hyperlink ref="D24" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId47"/>
+    <hyperlink ref="A25" display="lnxFileResource.md" r:id="rId48"/>
+    <hyperlink ref="D25" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId49"/>
+    <hyperlink ref="A26" display="lnxGettingStarted.md" r:id="rId50"/>
+    <hyperlink ref="D26" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId51"/>
+    <hyperlink ref="A27" display="lnxGroupResource.md" r:id="rId52"/>
+    <hyperlink ref="D27" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId53"/>
+    <hyperlink ref="A28" display="lnxPackageResource.md" r:id="rId54"/>
+    <hyperlink ref="D28" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId55"/>
+    <hyperlink ref="A29" display="lnxScriptResource.md" r:id="rId56"/>
+    <hyperlink ref="D29" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId57"/>
+    <hyperlink ref="A30" display="lnxServiceResource.md" r:id="rId58"/>
+    <hyperlink ref="D30" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId59"/>
+    <hyperlink ref="A31" display="lnxSshAuthorizedKeysResource.md" r:id="rId60"/>
+    <hyperlink ref="D31" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId61"/>
+    <hyperlink ref="A32" display="lnxUserResource.md" r:id="rId62"/>
+    <hyperlink ref="D32" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId63"/>
+    <hyperlink ref="A33" display="logResource.md" r:id="rId64"/>
+    <hyperlink ref="D33" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId65"/>
+    <hyperlink ref="A34" display="metaConfig.md" r:id="rId66"/>
+    <hyperlink ref="D34" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId67"/>
+    <hyperlink ref="A35" display="metaConfig4.md" r:id="rId68"/>
+    <hyperlink ref="D35" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId69"/>
+    <hyperlink ref="A36" display="overview.md" r:id="rId70"/>
+    <hyperlink ref="D36" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId71"/>
+    <hyperlink ref="A37" display="packageResource.md" r:id="rId72"/>
+    <hyperlink ref="D37" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId73"/>
+    <hyperlink ref="A38" display="partialConfigs.md" r:id="rId74"/>
+    <hyperlink ref="D38" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId75"/>
+    <hyperlink ref="A39" display="pullClient.md" r:id="rId76"/>
+    <hyperlink ref="D39" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId77"/>
+    <hyperlink ref="A40" display="pullClientConfigID.md" r:id="rId78"/>
+    <hyperlink ref="D40" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId79"/>
+    <hyperlink ref="A41" display="pullClientConfigID4.md" r:id="rId80"/>
+    <hyperlink ref="D41" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId81"/>
+    <hyperlink ref="A42" display="pullClientConfigNames.md" r:id="rId82"/>
+    <hyperlink ref="D42" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId83"/>
+    <hyperlink ref="A43" display="pullServer.md" r:id="rId84"/>
+    <hyperlink ref="D43" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId85"/>
+    <hyperlink ref="A44" display="queryServerNodes.md" r:id="rId86"/>
+    <hyperlink ref="D44" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId87"/>
+    <hyperlink ref="A45" display="registryResource.md" r:id="rId88"/>
+    <hyperlink ref="D45" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId89"/>
+    <hyperlink ref="A46" display="resources.md" r:id="rId90"/>
+    <hyperlink ref="D46" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId91"/>
+    <hyperlink ref="A47" display="scriptResource.md" r:id="rId92"/>
+    <hyperlink ref="D47" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId93"/>
+    <hyperlink ref="A48" display="secureMOF.md" r:id="rId94"/>
+    <hyperlink ref="D48" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId95"/>
+    <hyperlink ref="A49" display="secureServer.md" r:id="rId96"/>
+    <hyperlink ref="D49" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId97"/>
+    <hyperlink ref="A50" display="serviceResource.md" r:id="rId98"/>
+    <hyperlink ref="D50" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId99"/>
+    <hyperlink ref="A51" display="OpenLoc is cool.md" r:id="rId100"/>
+    <hyperlink ref="D51" display="OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf" r:id="rId101"/>
+    <hyperlink ref="A52" display="SonjaFileToo.md" r:id="rId102"/>
+    <hyperlink ref="D52" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf" r:id="rId103"/>
+    <hyperlink ref="A53" display="SonjaTest.md" r:id="rId104"/>
+    <hyperlink ref="D53" display="SonjaTest.bab99385ac372c3ae450ecdd8e590c3ad3219939.zh-cn.xlf" r:id="rId105"/>
+    <hyperlink ref="A54" display="TOC.md" r:id="rId106"/>
+    <hyperlink ref="D54" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId107"/>
+    <hyperlink ref="A55" display="troubleshooting.md" r:id="rId108"/>
+    <hyperlink ref="D55" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId109"/>
+    <hyperlink ref="A56" display="userResource.md" r:id="rId110"/>
+    <hyperlink ref="D56" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId111"/>
+    <hyperlink ref="A57" display="windowsfeatureResource.md" r:id="rId112"/>
+    <hyperlink ref="D57" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId113"/>
+    <hyperlink ref="A58" display="windowsProcessResource.md" r:id="rId114"/>
+    <hyperlink ref="D58" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId115"/>
+    <hyperlink ref="A59" display="README.md" r:id="rId116"/>
+    <hyperlink ref="D59" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId117"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t>File Name</t>
   </si>
@@ -148,6 +148,9 @@
     <t>overview.md</t>
   </si>
   <si>
+    <t>Handback transform failed</t>
+  </si>
+  <si>
     <t>2016-04-12 05:41:03</t>
   </si>
   <si>
@@ -460,6 +463,12 @@
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pt-br.xlf</t>
   </si>
   <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handback file name:  overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn is different with handoff file name: overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.</t>
+  </si>
+  <si>
     <t>CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf</t>
   </si>
   <si>
@@ -620,9 +629,6 @@
   </si>
   <si>
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf</t>
   </si>
 </sst>
 </file>
@@ -1245,15 +1251,15 @@
         <v>5</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>5</v>
@@ -1267,7 +1273,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>5</v>
@@ -1281,7 +1287,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>5</v>
@@ -1295,7 +1301,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>5</v>
@@ -1309,7 +1315,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>5</v>
@@ -1323,7 +1329,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>5</v>
@@ -1337,7 +1343,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>5</v>
@@ -1351,7 +1357,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>5</v>
@@ -1365,7 +1371,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>5</v>
@@ -1379,7 +1385,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>5</v>
@@ -1393,7 +1399,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>5</v>
@@ -1407,7 +1413,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>5</v>
@@ -1421,7 +1427,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>5</v>
@@ -1435,7 +1441,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>5</v>
@@ -1449,7 +1455,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>5</v>
@@ -1458,12 +1464,12 @@
         <v>6</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>5</v>
@@ -1477,7 +1483,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>5</v>
@@ -1491,7 +1497,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>5</v>
@@ -1505,7 +1511,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>5</v>
@@ -1519,7 +1525,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>5</v>
@@ -1533,7 +1539,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>5</v>
@@ -1547,7 +1553,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>5</v>
@@ -1650,40 +1656,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2">
@@ -1691,22 +1697,22 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
@@ -1714,22 +1720,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
@@ -1737,22 +1743,22 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
@@ -1760,22 +1766,22 @@
         <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -1783,22 +1789,22 @@
         <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -1806,22 +1812,22 @@
         <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -1829,22 +1835,22 @@
         <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
@@ -1852,22 +1858,22 @@
         <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10">
@@ -1875,22 +1881,22 @@
         <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
@@ -1898,22 +1904,22 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
@@ -1921,22 +1927,22 @@
         <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
@@ -1944,22 +1950,22 @@
         <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
@@ -1967,22 +1973,22 @@
         <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
@@ -1990,22 +1996,22 @@
         <v>21</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
@@ -2013,22 +2019,22 @@
         <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
@@ -2036,25 +2042,25 @@
         <v>23</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
@@ -2062,25 +2068,25 @@
         <v>25</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="19">
@@ -2088,25 +2094,25 @@
         <v>26</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
@@ -2114,25 +2120,25 @@
         <v>27</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21">
@@ -2140,22 +2146,22 @@
         <v>28</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
@@ -2163,22 +2169,22 @@
         <v>29</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
@@ -2186,22 +2192,22 @@
         <v>30</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
@@ -2209,22 +2215,22 @@
         <v>31</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25">
@@ -2232,22 +2238,22 @@
         <v>32</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
@@ -2255,22 +2261,22 @@
         <v>33</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27">
@@ -2278,22 +2284,22 @@
         <v>34</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
@@ -2301,22 +2307,22 @@
         <v>35</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
@@ -2324,22 +2330,22 @@
         <v>36</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
@@ -2347,22 +2353,22 @@
         <v>37</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
@@ -2370,22 +2376,22 @@
         <v>38</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
@@ -2393,22 +2399,22 @@
         <v>39</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33">
@@ -2416,22 +2422,22 @@
         <v>40</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34">
@@ -2439,22 +2445,22 @@
         <v>41</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35">
@@ -2462,22 +2468,22 @@
         <v>42</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36">
@@ -2485,528 +2491,528 @@
         <v>43</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3157,857 +3163,860 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>149</v>
+        <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>83</v>
+        <v>102</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37">
@@ -4015,22 +4024,22 @@
         <v>46</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
@@ -4038,22 +4047,22 @@
         <v>47</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39">
@@ -4061,22 +4070,22 @@
         <v>48</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40">
@@ -4084,22 +4093,22 @@
         <v>49</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41">
@@ -4107,22 +4116,22 @@
         <v>50</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42">
@@ -4130,22 +4139,22 @@
         <v>51</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
@@ -4153,22 +4162,22 @@
         <v>52</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44">
@@ -4176,22 +4185,22 @@
         <v>53</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45">
@@ -4199,22 +4208,22 @@
         <v>54</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46">
@@ -4222,22 +4231,22 @@
         <v>55</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47">
@@ -4245,22 +4254,22 @@
         <v>56</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48">
@@ -4268,22 +4277,22 @@
         <v>57</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49">
@@ -4291,22 +4300,22 @@
         <v>58</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50">
@@ -4314,45 +4323,45 @@
         <v>59</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H51" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52">
@@ -4360,22 +4369,22 @@
         <v>62</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53">
@@ -4383,22 +4392,22 @@
         <v>63</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54">
@@ -4406,22 +4415,22 @@
         <v>64</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55">
@@ -4429,22 +4438,22 @@
         <v>65</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56">
@@ -4452,22 +4461,22 @@
         <v>66</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57">
@@ -4475,163 +4484,163 @@
         <v>67</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="CONTRIBUTING.md" r:id="rId2"/>
-    <hyperlink ref="D2" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="archiveResource.md" r:id="rId4"/>
-    <hyperlink ref="D3" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="authoringResource.md" r:id="rId6"/>
-    <hyperlink ref="D4" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="authoringResourceClass.md" r:id="rId8"/>
-    <hyperlink ref="D5" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="authoringResourceComposite.md" r:id="rId10"/>
-    <hyperlink ref="D6" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="authoringResourceMOF.md" r:id="rId12"/>
-    <hyperlink ref="D7" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="authoringResourceMofCS.md" r:id="rId14"/>
-    <hyperlink ref="D8" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="authoringResourceMofDesigner.md" r:id="rId16"/>
-    <hyperlink ref="D9" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="builtInResource.md" r:id="rId18"/>
-    <hyperlink ref="D10" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="configData.md" r:id="rId20"/>
-    <hyperlink ref="D11" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="configurations.md" r:id="rId22"/>
-    <hyperlink ref="D12" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="enactingConfigurations.md" r:id="rId24"/>
-    <hyperlink ref="D13" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId25"/>
-    <hyperlink ref="A14" display="environmentResource.md" r:id="rId26"/>
-    <hyperlink ref="D14" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId27"/>
-    <hyperlink ref="A15" display="fileResource.md" r:id="rId28"/>
-    <hyperlink ref="D15" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId29"/>
-    <hyperlink ref="A16" display="groupResource.md" r:id="rId30"/>
-    <hyperlink ref="D16" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId31"/>
-    <hyperlink ref="A17" display="PartialConfig1.jpg" r:id="rId32"/>
-    <hyperlink ref="D17" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId33"/>
-    <hyperlink ref="A18" display="PartialConfigPullServer.jpg" r:id="rId34"/>
-    <hyperlink ref="D18" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId35"/>
-    <hyperlink ref="A19" display="Pull.png" r:id="rId36"/>
-    <hyperlink ref="D19" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId37"/>
-    <hyperlink ref="A20" display="Push.png" r:id="rId38"/>
-    <hyperlink ref="D20" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId39"/>
-    <hyperlink ref="A21" display="lnxArchiveResource.md" r:id="rId40"/>
-    <hyperlink ref="D21" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId41"/>
-    <hyperlink ref="A22" display="lnxBuiltInResources.md" r:id="rId42"/>
-    <hyperlink ref="D22" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId43"/>
-    <hyperlink ref="A23" display="lnxEnvironmentResource.md" r:id="rId44"/>
-    <hyperlink ref="D23" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId45"/>
-    <hyperlink ref="A24" display="lnxFileLineResource.md" r:id="rId46"/>
-    <hyperlink ref="D24" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId47"/>
-    <hyperlink ref="A25" display="lnxFileResource.md" r:id="rId48"/>
-    <hyperlink ref="D25" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId49"/>
-    <hyperlink ref="A26" display="lnxGettingStarted.md" r:id="rId50"/>
-    <hyperlink ref="D26" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId51"/>
-    <hyperlink ref="A27" display="lnxGroupResource.md" r:id="rId52"/>
-    <hyperlink ref="D27" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId53"/>
-    <hyperlink ref="A28" display="lnxPackageResource.md" r:id="rId54"/>
-    <hyperlink ref="D28" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId55"/>
-    <hyperlink ref="A29" display="lnxScriptResource.md" r:id="rId56"/>
-    <hyperlink ref="D29" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId57"/>
-    <hyperlink ref="A30" display="lnxServiceResource.md" r:id="rId58"/>
-    <hyperlink ref="D30" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId59"/>
-    <hyperlink ref="A31" display="lnxSshAuthorizedKeysResource.md" r:id="rId60"/>
-    <hyperlink ref="D31" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId61"/>
-    <hyperlink ref="A32" display="lnxUserResource.md" r:id="rId62"/>
-    <hyperlink ref="D32" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId63"/>
-    <hyperlink ref="A33" display="logResource.md" r:id="rId64"/>
-    <hyperlink ref="D33" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId65"/>
-    <hyperlink ref="A34" display="metaConfig.md" r:id="rId66"/>
-    <hyperlink ref="D34" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId67"/>
-    <hyperlink ref="A35" display="metaConfig4.md" r:id="rId68"/>
-    <hyperlink ref="D35" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId69"/>
-    <hyperlink ref="A36" display="packageResource.md" r:id="rId70"/>
-    <hyperlink ref="D36" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId71"/>
-    <hyperlink ref="A37" display="partialConfigs.md" r:id="rId72"/>
-    <hyperlink ref="D37" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId73"/>
-    <hyperlink ref="A38" display="pullClient.md" r:id="rId74"/>
-    <hyperlink ref="D38" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId75"/>
-    <hyperlink ref="A39" display="pullClientConfigID.md" r:id="rId76"/>
-    <hyperlink ref="D39" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId77"/>
-    <hyperlink ref="A40" display="pullClientConfigID4.md" r:id="rId78"/>
-    <hyperlink ref="D40" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId79"/>
-    <hyperlink ref="A41" display="pullClientConfigNames.md" r:id="rId80"/>
-    <hyperlink ref="D41" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId81"/>
-    <hyperlink ref="A42" display="pullServer.md" r:id="rId82"/>
-    <hyperlink ref="D42" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId83"/>
-    <hyperlink ref="A43" display="queryServerNodes.md" r:id="rId84"/>
-    <hyperlink ref="D43" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId85"/>
-    <hyperlink ref="A44" display="registryResource.md" r:id="rId86"/>
-    <hyperlink ref="D44" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId87"/>
-    <hyperlink ref="A45" display="resources.md" r:id="rId88"/>
-    <hyperlink ref="D45" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId89"/>
-    <hyperlink ref="A46" display="scriptResource.md" r:id="rId90"/>
-    <hyperlink ref="D46" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId91"/>
-    <hyperlink ref="A47" display="secureMOF.md" r:id="rId92"/>
-    <hyperlink ref="D47" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId93"/>
-    <hyperlink ref="A48" display="secureServer.md" r:id="rId94"/>
-    <hyperlink ref="D48" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId95"/>
-    <hyperlink ref="A49" display="serviceResource.md" r:id="rId96"/>
-    <hyperlink ref="D49" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId97"/>
-    <hyperlink ref="A50" display="OpenLoc is cool.md" r:id="rId98"/>
-    <hyperlink ref="D50" display="OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf" r:id="rId99"/>
-    <hyperlink ref="A51" display="SonjaFileToo.md" r:id="rId100"/>
-    <hyperlink ref="D51" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf" r:id="rId101"/>
-    <hyperlink ref="A52" display="TOC.md" r:id="rId102"/>
-    <hyperlink ref="D52" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId103"/>
-    <hyperlink ref="A53" display="troubleshooting.md" r:id="rId104"/>
-    <hyperlink ref="D53" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId105"/>
-    <hyperlink ref="A54" display="userResource.md" r:id="rId106"/>
-    <hyperlink ref="D54" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId107"/>
-    <hyperlink ref="A55" display="windowsfeatureResource.md" r:id="rId108"/>
-    <hyperlink ref="D55" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId109"/>
-    <hyperlink ref="A56" display="windowsProcessResource.md" r:id="rId110"/>
-    <hyperlink ref="D56" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId111"/>
-    <hyperlink ref="A57" display="README.md" r:id="rId112"/>
-    <hyperlink ref="D57" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId113"/>
-    <hyperlink ref="A58" display="overview.md" r:id="rId114"/>
-    <hyperlink ref="D58" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId115"/>
+    <hyperlink ref="A2" display="overview.md" r:id="rId2"/>
+    <hyperlink ref="D2" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="CONTRIBUTING.md" r:id="rId4"/>
+    <hyperlink ref="D3" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="archiveResource.md" r:id="rId6"/>
+    <hyperlink ref="D4" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="authoringResource.md" r:id="rId8"/>
+    <hyperlink ref="D5" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display="authoringResourceClass.md" r:id="rId10"/>
+    <hyperlink ref="D6" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="authoringResourceComposite.md" r:id="rId12"/>
+    <hyperlink ref="D7" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="authoringResourceMOF.md" r:id="rId14"/>
+    <hyperlink ref="D8" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="authoringResourceMofCS.md" r:id="rId16"/>
+    <hyperlink ref="D9" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="authoringResourceMofDesigner.md" r:id="rId18"/>
+    <hyperlink ref="D10" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="builtInResource.md" r:id="rId20"/>
+    <hyperlink ref="D11" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="configData.md" r:id="rId22"/>
+    <hyperlink ref="D12" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A13" display="configurations.md" r:id="rId24"/>
+    <hyperlink ref="D13" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A14" display="enactingConfigurations.md" r:id="rId26"/>
+    <hyperlink ref="D14" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="A15" display="environmentResource.md" r:id="rId28"/>
+    <hyperlink ref="D15" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId29"/>
+    <hyperlink ref="A16" display="fileResource.md" r:id="rId30"/>
+    <hyperlink ref="D16" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId31"/>
+    <hyperlink ref="A17" display="groupResource.md" r:id="rId32"/>
+    <hyperlink ref="D17" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId33"/>
+    <hyperlink ref="A18" display="PartialConfig1.jpg" r:id="rId34"/>
+    <hyperlink ref="D18" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId35"/>
+    <hyperlink ref="A19" display="PartialConfigPullServer.jpg" r:id="rId36"/>
+    <hyperlink ref="D19" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId37"/>
+    <hyperlink ref="A20" display="Pull.png" r:id="rId38"/>
+    <hyperlink ref="D20" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId39"/>
+    <hyperlink ref="A21" display="Push.png" r:id="rId40"/>
+    <hyperlink ref="D21" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId41"/>
+    <hyperlink ref="A22" display="lnxArchiveResource.md" r:id="rId42"/>
+    <hyperlink ref="D22" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId43"/>
+    <hyperlink ref="A23" display="lnxBuiltInResources.md" r:id="rId44"/>
+    <hyperlink ref="D23" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId45"/>
+    <hyperlink ref="A24" display="lnxEnvironmentResource.md" r:id="rId46"/>
+    <hyperlink ref="D24" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId47"/>
+    <hyperlink ref="A25" display="lnxFileLineResource.md" r:id="rId48"/>
+    <hyperlink ref="D25" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId49"/>
+    <hyperlink ref="A26" display="lnxFileResource.md" r:id="rId50"/>
+    <hyperlink ref="D26" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId51"/>
+    <hyperlink ref="A27" display="lnxGettingStarted.md" r:id="rId52"/>
+    <hyperlink ref="D27" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId53"/>
+    <hyperlink ref="A28" display="lnxGroupResource.md" r:id="rId54"/>
+    <hyperlink ref="D28" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId55"/>
+    <hyperlink ref="A29" display="lnxPackageResource.md" r:id="rId56"/>
+    <hyperlink ref="D29" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId57"/>
+    <hyperlink ref="A30" display="lnxScriptResource.md" r:id="rId58"/>
+    <hyperlink ref="D30" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId59"/>
+    <hyperlink ref="A31" display="lnxServiceResource.md" r:id="rId60"/>
+    <hyperlink ref="D31" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId61"/>
+    <hyperlink ref="A32" display="lnxSshAuthorizedKeysResource.md" r:id="rId62"/>
+    <hyperlink ref="D32" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId63"/>
+    <hyperlink ref="A33" display="lnxUserResource.md" r:id="rId64"/>
+    <hyperlink ref="D33" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId65"/>
+    <hyperlink ref="A34" display="logResource.md" r:id="rId66"/>
+    <hyperlink ref="D34" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId67"/>
+    <hyperlink ref="A35" display="metaConfig.md" r:id="rId68"/>
+    <hyperlink ref="D35" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId69"/>
+    <hyperlink ref="A36" display="metaConfig4.md" r:id="rId70"/>
+    <hyperlink ref="D36" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId71"/>
+    <hyperlink ref="A37" display="packageResource.md" r:id="rId72"/>
+    <hyperlink ref="D37" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId73"/>
+    <hyperlink ref="A38" display="partialConfigs.md" r:id="rId74"/>
+    <hyperlink ref="D38" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId75"/>
+    <hyperlink ref="A39" display="pullClient.md" r:id="rId76"/>
+    <hyperlink ref="D39" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId77"/>
+    <hyperlink ref="A40" display="pullClientConfigID.md" r:id="rId78"/>
+    <hyperlink ref="D40" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId79"/>
+    <hyperlink ref="A41" display="pullClientConfigID4.md" r:id="rId80"/>
+    <hyperlink ref="D41" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId81"/>
+    <hyperlink ref="A42" display="pullClientConfigNames.md" r:id="rId82"/>
+    <hyperlink ref="D42" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId83"/>
+    <hyperlink ref="A43" display="pullServer.md" r:id="rId84"/>
+    <hyperlink ref="D43" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId85"/>
+    <hyperlink ref="A44" display="queryServerNodes.md" r:id="rId86"/>
+    <hyperlink ref="D44" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId87"/>
+    <hyperlink ref="A45" display="registryResource.md" r:id="rId88"/>
+    <hyperlink ref="D45" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId89"/>
+    <hyperlink ref="A46" display="resources.md" r:id="rId90"/>
+    <hyperlink ref="D46" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId91"/>
+    <hyperlink ref="A47" display="scriptResource.md" r:id="rId92"/>
+    <hyperlink ref="D47" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId93"/>
+    <hyperlink ref="A48" display="secureMOF.md" r:id="rId94"/>
+    <hyperlink ref="D48" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId95"/>
+    <hyperlink ref="A49" display="secureServer.md" r:id="rId96"/>
+    <hyperlink ref="D49" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId97"/>
+    <hyperlink ref="A50" display="serviceResource.md" r:id="rId98"/>
+    <hyperlink ref="D50" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId99"/>
+    <hyperlink ref="A51" display="OpenLoc is cool.md" r:id="rId100"/>
+    <hyperlink ref="D51" display="OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf" r:id="rId101"/>
+    <hyperlink ref="A52" display="SonjaFileToo.md" r:id="rId102"/>
+    <hyperlink ref="D52" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf" r:id="rId103"/>
+    <hyperlink ref="A53" display="TOC.md" r:id="rId104"/>
+    <hyperlink ref="D53" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId105"/>
+    <hyperlink ref="A54" display="troubleshooting.md" r:id="rId106"/>
+    <hyperlink ref="D54" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId107"/>
+    <hyperlink ref="A55" display="userResource.md" r:id="rId108"/>
+    <hyperlink ref="D55" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId109"/>
+    <hyperlink ref="A56" display="windowsfeatureResource.md" r:id="rId110"/>
+    <hyperlink ref="D56" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId111"/>
+    <hyperlink ref="A57" display="windowsProcessResource.md" r:id="rId112"/>
+    <hyperlink ref="D57" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId113"/>
+    <hyperlink ref="A58" display="README.md" r:id="rId114"/>
+    <hyperlink ref="D58" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId115"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
@@ -148,7 +148,7 @@
     <t>overview.md</t>
   </si>
   <si>
-    <t>Handback transform failed</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2016-04-12 05:41:03</t>
@@ -466,7 +466,7 @@
     <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf</t>
   </si>
   <si>
-    <t xml:space="preserve">Handback file name:  overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn is different with handoff file name: overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.</t>
+    <t>2016-04-12 06:40:48</t>
   </si>
   <si>
     <t>CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf</t>
@@ -3215,14 +3215,17 @@
       <c r="E2" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="H2" s="2" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="3">
@@ -4529,118 +4532,120 @@
   <hyperlinks>
     <hyperlink ref="A2" display="overview.md" r:id="rId2"/>
     <hyperlink ref="D2" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="CONTRIBUTING.md" r:id="rId4"/>
-    <hyperlink ref="D3" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="archiveResource.md" r:id="rId6"/>
-    <hyperlink ref="D4" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="authoringResource.md" r:id="rId8"/>
-    <hyperlink ref="D5" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="authoringResourceClass.md" r:id="rId10"/>
-    <hyperlink ref="D6" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="authoringResourceComposite.md" r:id="rId12"/>
-    <hyperlink ref="D7" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="authoringResourceMOF.md" r:id="rId14"/>
-    <hyperlink ref="D8" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="authoringResourceMofCS.md" r:id="rId16"/>
-    <hyperlink ref="D9" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="authoringResourceMofDesigner.md" r:id="rId18"/>
-    <hyperlink ref="D10" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="builtInResource.md" r:id="rId20"/>
-    <hyperlink ref="D11" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="configData.md" r:id="rId22"/>
-    <hyperlink ref="D12" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="configurations.md" r:id="rId24"/>
-    <hyperlink ref="D13" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId25"/>
-    <hyperlink ref="A14" display="enactingConfigurations.md" r:id="rId26"/>
-    <hyperlink ref="D14" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId27"/>
-    <hyperlink ref="A15" display="environmentResource.md" r:id="rId28"/>
-    <hyperlink ref="D15" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId29"/>
-    <hyperlink ref="A16" display="fileResource.md" r:id="rId30"/>
-    <hyperlink ref="D16" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId31"/>
-    <hyperlink ref="A17" display="groupResource.md" r:id="rId32"/>
-    <hyperlink ref="D17" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId33"/>
-    <hyperlink ref="A18" display="PartialConfig1.jpg" r:id="rId34"/>
-    <hyperlink ref="D18" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId35"/>
-    <hyperlink ref="A19" display="PartialConfigPullServer.jpg" r:id="rId36"/>
-    <hyperlink ref="D19" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId37"/>
-    <hyperlink ref="A20" display="Pull.png" r:id="rId38"/>
-    <hyperlink ref="D20" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId39"/>
-    <hyperlink ref="A21" display="Push.png" r:id="rId40"/>
-    <hyperlink ref="D21" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId41"/>
-    <hyperlink ref="A22" display="lnxArchiveResource.md" r:id="rId42"/>
-    <hyperlink ref="D22" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId43"/>
-    <hyperlink ref="A23" display="lnxBuiltInResources.md" r:id="rId44"/>
-    <hyperlink ref="D23" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId45"/>
-    <hyperlink ref="A24" display="lnxEnvironmentResource.md" r:id="rId46"/>
-    <hyperlink ref="D24" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId47"/>
-    <hyperlink ref="A25" display="lnxFileLineResource.md" r:id="rId48"/>
-    <hyperlink ref="D25" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId49"/>
-    <hyperlink ref="A26" display="lnxFileResource.md" r:id="rId50"/>
-    <hyperlink ref="D26" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId51"/>
-    <hyperlink ref="A27" display="lnxGettingStarted.md" r:id="rId52"/>
-    <hyperlink ref="D27" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId53"/>
-    <hyperlink ref="A28" display="lnxGroupResource.md" r:id="rId54"/>
-    <hyperlink ref="D28" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId55"/>
-    <hyperlink ref="A29" display="lnxPackageResource.md" r:id="rId56"/>
-    <hyperlink ref="D29" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId57"/>
-    <hyperlink ref="A30" display="lnxScriptResource.md" r:id="rId58"/>
-    <hyperlink ref="D30" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId59"/>
-    <hyperlink ref="A31" display="lnxServiceResource.md" r:id="rId60"/>
-    <hyperlink ref="D31" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId61"/>
-    <hyperlink ref="A32" display="lnxSshAuthorizedKeysResource.md" r:id="rId62"/>
-    <hyperlink ref="D32" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId63"/>
-    <hyperlink ref="A33" display="lnxUserResource.md" r:id="rId64"/>
-    <hyperlink ref="D33" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId65"/>
-    <hyperlink ref="A34" display="logResource.md" r:id="rId66"/>
-    <hyperlink ref="D34" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId67"/>
-    <hyperlink ref="A35" display="metaConfig.md" r:id="rId68"/>
-    <hyperlink ref="D35" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId69"/>
-    <hyperlink ref="A36" display="metaConfig4.md" r:id="rId70"/>
-    <hyperlink ref="D36" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId71"/>
-    <hyperlink ref="A37" display="packageResource.md" r:id="rId72"/>
-    <hyperlink ref="D37" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId73"/>
-    <hyperlink ref="A38" display="partialConfigs.md" r:id="rId74"/>
-    <hyperlink ref="D38" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId75"/>
-    <hyperlink ref="A39" display="pullClient.md" r:id="rId76"/>
-    <hyperlink ref="D39" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId77"/>
-    <hyperlink ref="A40" display="pullClientConfigID.md" r:id="rId78"/>
-    <hyperlink ref="D40" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId79"/>
-    <hyperlink ref="A41" display="pullClientConfigID4.md" r:id="rId80"/>
-    <hyperlink ref="D41" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId81"/>
-    <hyperlink ref="A42" display="pullClientConfigNames.md" r:id="rId82"/>
-    <hyperlink ref="D42" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId83"/>
-    <hyperlink ref="A43" display="pullServer.md" r:id="rId84"/>
-    <hyperlink ref="D43" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId85"/>
-    <hyperlink ref="A44" display="queryServerNodes.md" r:id="rId86"/>
-    <hyperlink ref="D44" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId87"/>
-    <hyperlink ref="A45" display="registryResource.md" r:id="rId88"/>
-    <hyperlink ref="D45" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId89"/>
-    <hyperlink ref="A46" display="resources.md" r:id="rId90"/>
-    <hyperlink ref="D46" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId91"/>
-    <hyperlink ref="A47" display="scriptResource.md" r:id="rId92"/>
-    <hyperlink ref="D47" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId93"/>
-    <hyperlink ref="A48" display="secureMOF.md" r:id="rId94"/>
-    <hyperlink ref="D48" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId95"/>
-    <hyperlink ref="A49" display="secureServer.md" r:id="rId96"/>
-    <hyperlink ref="D49" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId97"/>
-    <hyperlink ref="A50" display="serviceResource.md" r:id="rId98"/>
-    <hyperlink ref="D50" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId99"/>
-    <hyperlink ref="A51" display="OpenLoc is cool.md" r:id="rId100"/>
-    <hyperlink ref="D51" display="OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf" r:id="rId101"/>
-    <hyperlink ref="A52" display="SonjaFileToo.md" r:id="rId102"/>
-    <hyperlink ref="D52" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf" r:id="rId103"/>
-    <hyperlink ref="A53" display="TOC.md" r:id="rId104"/>
-    <hyperlink ref="D53" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId105"/>
-    <hyperlink ref="A54" display="troubleshooting.md" r:id="rId106"/>
-    <hyperlink ref="D54" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId107"/>
-    <hyperlink ref="A55" display="userResource.md" r:id="rId108"/>
-    <hyperlink ref="D55" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId109"/>
-    <hyperlink ref="A56" display="windowsfeatureResource.md" r:id="rId110"/>
-    <hyperlink ref="D56" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId111"/>
-    <hyperlink ref="A57" display="windowsProcessResource.md" r:id="rId112"/>
-    <hyperlink ref="D57" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId113"/>
-    <hyperlink ref="A58" display="README.md" r:id="rId114"/>
-    <hyperlink ref="D58" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId115"/>
+    <hyperlink ref="F2" display="overview.md" r:id="rId4"/>
+    <hyperlink ref="G2" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="CONTRIBUTING.md" r:id="rId6"/>
+    <hyperlink ref="D3" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A4" display="archiveResource.md" r:id="rId8"/>
+    <hyperlink ref="D4" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="authoringResource.md" r:id="rId10"/>
+    <hyperlink ref="D5" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="authoringResourceClass.md" r:id="rId12"/>
+    <hyperlink ref="D6" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A7" display="authoringResourceComposite.md" r:id="rId14"/>
+    <hyperlink ref="D7" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A8" display="authoringResourceMOF.md" r:id="rId16"/>
+    <hyperlink ref="D8" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A9" display="authoringResourceMofCS.md" r:id="rId18"/>
+    <hyperlink ref="D9" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A10" display="authoringResourceMofDesigner.md" r:id="rId20"/>
+    <hyperlink ref="D10" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A11" display="builtInResource.md" r:id="rId22"/>
+    <hyperlink ref="D11" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A12" display="configData.md" r:id="rId24"/>
+    <hyperlink ref="D12" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A13" display="configurations.md" r:id="rId26"/>
+    <hyperlink ref="D13" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="A14" display="enactingConfigurations.md" r:id="rId28"/>
+    <hyperlink ref="D14" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId29"/>
+    <hyperlink ref="A15" display="environmentResource.md" r:id="rId30"/>
+    <hyperlink ref="D15" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId31"/>
+    <hyperlink ref="A16" display="fileResource.md" r:id="rId32"/>
+    <hyperlink ref="D16" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId33"/>
+    <hyperlink ref="A17" display="groupResource.md" r:id="rId34"/>
+    <hyperlink ref="D17" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId35"/>
+    <hyperlink ref="A18" display="PartialConfig1.jpg" r:id="rId36"/>
+    <hyperlink ref="D18" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId37"/>
+    <hyperlink ref="A19" display="PartialConfigPullServer.jpg" r:id="rId38"/>
+    <hyperlink ref="D19" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId39"/>
+    <hyperlink ref="A20" display="Pull.png" r:id="rId40"/>
+    <hyperlink ref="D20" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId41"/>
+    <hyperlink ref="A21" display="Push.png" r:id="rId42"/>
+    <hyperlink ref="D21" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId43"/>
+    <hyperlink ref="A22" display="lnxArchiveResource.md" r:id="rId44"/>
+    <hyperlink ref="D22" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId45"/>
+    <hyperlink ref="A23" display="lnxBuiltInResources.md" r:id="rId46"/>
+    <hyperlink ref="D23" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId47"/>
+    <hyperlink ref="A24" display="lnxEnvironmentResource.md" r:id="rId48"/>
+    <hyperlink ref="D24" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId49"/>
+    <hyperlink ref="A25" display="lnxFileLineResource.md" r:id="rId50"/>
+    <hyperlink ref="D25" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId51"/>
+    <hyperlink ref="A26" display="lnxFileResource.md" r:id="rId52"/>
+    <hyperlink ref="D26" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId53"/>
+    <hyperlink ref="A27" display="lnxGettingStarted.md" r:id="rId54"/>
+    <hyperlink ref="D27" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId55"/>
+    <hyperlink ref="A28" display="lnxGroupResource.md" r:id="rId56"/>
+    <hyperlink ref="D28" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId57"/>
+    <hyperlink ref="A29" display="lnxPackageResource.md" r:id="rId58"/>
+    <hyperlink ref="D29" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId59"/>
+    <hyperlink ref="A30" display="lnxScriptResource.md" r:id="rId60"/>
+    <hyperlink ref="D30" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId61"/>
+    <hyperlink ref="A31" display="lnxServiceResource.md" r:id="rId62"/>
+    <hyperlink ref="D31" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId63"/>
+    <hyperlink ref="A32" display="lnxSshAuthorizedKeysResource.md" r:id="rId64"/>
+    <hyperlink ref="D32" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId65"/>
+    <hyperlink ref="A33" display="lnxUserResource.md" r:id="rId66"/>
+    <hyperlink ref="D33" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId67"/>
+    <hyperlink ref="A34" display="logResource.md" r:id="rId68"/>
+    <hyperlink ref="D34" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId69"/>
+    <hyperlink ref="A35" display="metaConfig.md" r:id="rId70"/>
+    <hyperlink ref="D35" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId71"/>
+    <hyperlink ref="A36" display="metaConfig4.md" r:id="rId72"/>
+    <hyperlink ref="D36" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId73"/>
+    <hyperlink ref="A37" display="packageResource.md" r:id="rId74"/>
+    <hyperlink ref="D37" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId75"/>
+    <hyperlink ref="A38" display="partialConfigs.md" r:id="rId76"/>
+    <hyperlink ref="D38" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId77"/>
+    <hyperlink ref="A39" display="pullClient.md" r:id="rId78"/>
+    <hyperlink ref="D39" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId79"/>
+    <hyperlink ref="A40" display="pullClientConfigID.md" r:id="rId80"/>
+    <hyperlink ref="D40" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId81"/>
+    <hyperlink ref="A41" display="pullClientConfigID4.md" r:id="rId82"/>
+    <hyperlink ref="D41" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId83"/>
+    <hyperlink ref="A42" display="pullClientConfigNames.md" r:id="rId84"/>
+    <hyperlink ref="D42" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId85"/>
+    <hyperlink ref="A43" display="pullServer.md" r:id="rId86"/>
+    <hyperlink ref="D43" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId87"/>
+    <hyperlink ref="A44" display="queryServerNodes.md" r:id="rId88"/>
+    <hyperlink ref="D44" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId89"/>
+    <hyperlink ref="A45" display="registryResource.md" r:id="rId90"/>
+    <hyperlink ref="D45" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId91"/>
+    <hyperlink ref="A46" display="resources.md" r:id="rId92"/>
+    <hyperlink ref="D46" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId93"/>
+    <hyperlink ref="A47" display="scriptResource.md" r:id="rId94"/>
+    <hyperlink ref="D47" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId95"/>
+    <hyperlink ref="A48" display="secureMOF.md" r:id="rId96"/>
+    <hyperlink ref="D48" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId97"/>
+    <hyperlink ref="A49" display="secureServer.md" r:id="rId98"/>
+    <hyperlink ref="D49" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId99"/>
+    <hyperlink ref="A50" display="serviceResource.md" r:id="rId100"/>
+    <hyperlink ref="D50" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId101"/>
+    <hyperlink ref="A51" display="OpenLoc is cool.md" r:id="rId102"/>
+    <hyperlink ref="D51" display="OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf" r:id="rId103"/>
+    <hyperlink ref="A52" display="SonjaFileToo.md" r:id="rId104"/>
+    <hyperlink ref="D52" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf" r:id="rId105"/>
+    <hyperlink ref="A53" display="TOC.md" r:id="rId106"/>
+    <hyperlink ref="D53" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId107"/>
+    <hyperlink ref="A54" display="troubleshooting.md" r:id="rId108"/>
+    <hyperlink ref="D54" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId109"/>
+    <hyperlink ref="A55" display="userResource.md" r:id="rId110"/>
+    <hyperlink ref="D55" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId111"/>
+    <hyperlink ref="A56" display="windowsfeatureResource.md" r:id="rId112"/>
+    <hyperlink ref="D56" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId113"/>
+    <hyperlink ref="A57" display="windowsProcessResource.md" r:id="rId114"/>
+    <hyperlink ref="D57" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId115"/>
+    <hyperlink ref="A58" display="README.md" r:id="rId116"/>
+    <hyperlink ref="D58" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId117"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t>File Name</t>
   </si>
@@ -148,10 +148,7 @@
     <t>overview.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-04-12 05:41:03</t>
+    <t>2016-04-12 06:50:20</t>
   </si>
   <si>
     <t>packageResource.md</t>
@@ -391,7 +388,7 @@
     <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.pt-br.xlf</t>
   </si>
   <si>
-    <t>2016-04-12 05:40:53</t>
+    <t>2016-04-12 06:50:10</t>
   </si>
   <si>
     <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.pt-br.xlf</t>
@@ -463,172 +460,172 @@
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pt-br.xlf</t>
   </si>
   <si>
+    <t>CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-05 07:28:47</t>
+  </si>
+  <si>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 18:17:21</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-04-12 06:40:48</t>
-  </si>
-  <si>
-    <t>CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-05 07:28:47</t>
-  </si>
-  <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 18:17:21</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
   </si>
 </sst>
 </file>
@@ -1251,15 +1248,15 @@
         <v>5</v>
       </c>
       <c r="C36" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>5</v>
@@ -1273,7 +1270,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>5</v>
@@ -1287,7 +1284,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>5</v>
@@ -1301,7 +1298,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>5</v>
@@ -1315,7 +1312,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>5</v>
@@ -1329,7 +1326,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>5</v>
@@ -1343,7 +1340,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>5</v>
@@ -1357,7 +1354,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>5</v>
@@ -1371,7 +1368,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>5</v>
@@ -1385,7 +1382,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>5</v>
@@ -1399,7 +1396,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>5</v>
@@ -1413,7 +1410,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>5</v>
@@ -1427,7 +1424,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>5</v>
@@ -1441,7 +1438,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>5</v>
@@ -1455,21 +1452,21 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>5</v>
@@ -1483,7 +1480,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>5</v>
@@ -1497,7 +1494,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>5</v>
@@ -1511,7 +1508,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>5</v>
@@ -1525,7 +1522,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>5</v>
@@ -1539,7 +1536,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>5</v>
@@ -1553,7 +1550,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>5</v>
@@ -1656,40 +1653,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2">
@@ -1697,22 +1694,22 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -1720,22 +1717,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -1743,22 +1740,22 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -1766,22 +1763,22 @@
         <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -1789,22 +1786,22 @@
         <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -1812,22 +1809,22 @@
         <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -1835,22 +1832,22 @@
         <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
@@ -1858,22 +1855,22 @@
         <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -1881,22 +1878,22 @@
         <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
@@ -1904,22 +1901,22 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
@@ -1927,22 +1924,22 @@
         <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
@@ -1950,22 +1947,22 @@
         <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
@@ -1973,22 +1970,22 @@
         <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
@@ -1996,22 +1993,22 @@
         <v>21</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
@@ -2019,22 +2016,22 @@
         <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
@@ -2042,25 +2039,25 @@
         <v>23</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J17" s="0" t="s">
+      <c r="K17" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18">
@@ -2068,25 +2065,25 @@
         <v>25</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J18" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="K18" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="19">
@@ -2094,25 +2091,25 @@
         <v>26</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="K19" s="0" t="s">
         <v>106</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="20">
@@ -2120,25 +2117,25 @@
         <v>27</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21">
@@ -2146,22 +2143,22 @@
         <v>28</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
@@ -2169,22 +2166,22 @@
         <v>29</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
@@ -2192,22 +2189,22 @@
         <v>30</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
@@ -2215,22 +2212,22 @@
         <v>31</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
@@ -2238,22 +2235,22 @@
         <v>32</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26">
@@ -2261,22 +2258,22 @@
         <v>33</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
@@ -2284,22 +2281,22 @@
         <v>34</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28">
@@ -2307,22 +2304,22 @@
         <v>35</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
@@ -2330,22 +2327,22 @@
         <v>36</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
@@ -2353,22 +2350,22 @@
         <v>37</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31">
@@ -2376,22 +2373,22 @@
         <v>38</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32">
@@ -2399,22 +2396,22 @@
         <v>39</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33">
@@ -2422,22 +2419,22 @@
         <v>40</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34">
@@ -2445,22 +2442,22 @@
         <v>41</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35">
@@ -2468,22 +2465,22 @@
         <v>42</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36">
@@ -2491,528 +2488,528 @@
         <v>43</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="H36" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="H51" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3163,863 +3160,857 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>149</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>84</v>
+        <v>101</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J18" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="K18" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37">
@@ -4027,22 +4018,22 @@
         <v>46</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38">
@@ -4050,22 +4041,22 @@
         <v>47</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39">
@@ -4073,22 +4064,22 @@
         <v>48</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
@@ -4096,22 +4087,22 @@
         <v>49</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41">
@@ -4119,22 +4110,22 @@
         <v>50</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42">
@@ -4142,22 +4133,22 @@
         <v>51</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43">
@@ -4165,22 +4156,22 @@
         <v>52</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44">
@@ -4188,22 +4179,22 @@
         <v>53</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45">
@@ -4211,22 +4202,22 @@
         <v>54</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46">
@@ -4234,22 +4225,22 @@
         <v>55</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47">
@@ -4257,22 +4248,22 @@
         <v>56</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48">
@@ -4280,22 +4271,22 @@
         <v>57</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49">
@@ -4303,22 +4294,22 @@
         <v>58</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50">
@@ -4326,45 +4317,45 @@
         <v>59</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52">
@@ -4372,22 +4363,22 @@
         <v>62</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53">
@@ -4395,22 +4386,22 @@
         <v>63</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54">
@@ -4418,22 +4409,22 @@
         <v>64</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55">
@@ -4441,22 +4432,22 @@
         <v>65</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56">
@@ -4464,22 +4455,22 @@
         <v>66</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57">
@@ -4487,165 +4478,171 @@
         <v>67</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>152</v>
+        <v>44</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>83</v>
+        <v>203</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="overview.md" r:id="rId2"/>
-    <hyperlink ref="D2" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="F2" display="overview.md" r:id="rId4"/>
-    <hyperlink ref="G2" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="CONTRIBUTING.md" r:id="rId6"/>
-    <hyperlink ref="D3" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="archiveResource.md" r:id="rId8"/>
-    <hyperlink ref="D4" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="authoringResource.md" r:id="rId10"/>
-    <hyperlink ref="D5" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="authoringResourceClass.md" r:id="rId12"/>
-    <hyperlink ref="D6" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A7" display="authoringResourceComposite.md" r:id="rId14"/>
-    <hyperlink ref="D7" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A8" display="authoringResourceMOF.md" r:id="rId16"/>
-    <hyperlink ref="D8" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A9" display="authoringResourceMofCS.md" r:id="rId18"/>
-    <hyperlink ref="D9" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A10" display="authoringResourceMofDesigner.md" r:id="rId20"/>
-    <hyperlink ref="D10" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A11" display="builtInResource.md" r:id="rId22"/>
-    <hyperlink ref="D11" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId23"/>
-    <hyperlink ref="A12" display="configData.md" r:id="rId24"/>
-    <hyperlink ref="D12" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId25"/>
-    <hyperlink ref="A13" display="configurations.md" r:id="rId26"/>
-    <hyperlink ref="D13" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId27"/>
-    <hyperlink ref="A14" display="enactingConfigurations.md" r:id="rId28"/>
-    <hyperlink ref="D14" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId29"/>
-    <hyperlink ref="A15" display="environmentResource.md" r:id="rId30"/>
-    <hyperlink ref="D15" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId31"/>
-    <hyperlink ref="A16" display="fileResource.md" r:id="rId32"/>
-    <hyperlink ref="D16" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId33"/>
-    <hyperlink ref="A17" display="groupResource.md" r:id="rId34"/>
-    <hyperlink ref="D17" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId35"/>
-    <hyperlink ref="A18" display="PartialConfig1.jpg" r:id="rId36"/>
-    <hyperlink ref="D18" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId37"/>
-    <hyperlink ref="A19" display="PartialConfigPullServer.jpg" r:id="rId38"/>
-    <hyperlink ref="D19" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId39"/>
-    <hyperlink ref="A20" display="Pull.png" r:id="rId40"/>
-    <hyperlink ref="D20" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId41"/>
-    <hyperlink ref="A21" display="Push.png" r:id="rId42"/>
-    <hyperlink ref="D21" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId43"/>
-    <hyperlink ref="A22" display="lnxArchiveResource.md" r:id="rId44"/>
-    <hyperlink ref="D22" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId45"/>
-    <hyperlink ref="A23" display="lnxBuiltInResources.md" r:id="rId46"/>
-    <hyperlink ref="D23" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId47"/>
-    <hyperlink ref="A24" display="lnxEnvironmentResource.md" r:id="rId48"/>
-    <hyperlink ref="D24" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId49"/>
-    <hyperlink ref="A25" display="lnxFileLineResource.md" r:id="rId50"/>
-    <hyperlink ref="D25" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId51"/>
-    <hyperlink ref="A26" display="lnxFileResource.md" r:id="rId52"/>
-    <hyperlink ref="D26" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId53"/>
-    <hyperlink ref="A27" display="lnxGettingStarted.md" r:id="rId54"/>
-    <hyperlink ref="D27" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId55"/>
-    <hyperlink ref="A28" display="lnxGroupResource.md" r:id="rId56"/>
-    <hyperlink ref="D28" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId57"/>
-    <hyperlink ref="A29" display="lnxPackageResource.md" r:id="rId58"/>
-    <hyperlink ref="D29" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId59"/>
-    <hyperlink ref="A30" display="lnxScriptResource.md" r:id="rId60"/>
-    <hyperlink ref="D30" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId61"/>
-    <hyperlink ref="A31" display="lnxServiceResource.md" r:id="rId62"/>
-    <hyperlink ref="D31" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId63"/>
-    <hyperlink ref="A32" display="lnxSshAuthorizedKeysResource.md" r:id="rId64"/>
-    <hyperlink ref="D32" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId65"/>
-    <hyperlink ref="A33" display="lnxUserResource.md" r:id="rId66"/>
-    <hyperlink ref="D33" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId67"/>
-    <hyperlink ref="A34" display="logResource.md" r:id="rId68"/>
-    <hyperlink ref="D34" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId69"/>
-    <hyperlink ref="A35" display="metaConfig.md" r:id="rId70"/>
-    <hyperlink ref="D35" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId71"/>
-    <hyperlink ref="A36" display="metaConfig4.md" r:id="rId72"/>
-    <hyperlink ref="D36" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId73"/>
-    <hyperlink ref="A37" display="packageResource.md" r:id="rId74"/>
-    <hyperlink ref="D37" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId75"/>
-    <hyperlink ref="A38" display="partialConfigs.md" r:id="rId76"/>
-    <hyperlink ref="D38" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId77"/>
-    <hyperlink ref="A39" display="pullClient.md" r:id="rId78"/>
-    <hyperlink ref="D39" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId79"/>
-    <hyperlink ref="A40" display="pullClientConfigID.md" r:id="rId80"/>
-    <hyperlink ref="D40" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId81"/>
-    <hyperlink ref="A41" display="pullClientConfigID4.md" r:id="rId82"/>
-    <hyperlink ref="D41" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId83"/>
-    <hyperlink ref="A42" display="pullClientConfigNames.md" r:id="rId84"/>
-    <hyperlink ref="D42" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId85"/>
-    <hyperlink ref="A43" display="pullServer.md" r:id="rId86"/>
-    <hyperlink ref="D43" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId87"/>
-    <hyperlink ref="A44" display="queryServerNodes.md" r:id="rId88"/>
-    <hyperlink ref="D44" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId89"/>
-    <hyperlink ref="A45" display="registryResource.md" r:id="rId90"/>
-    <hyperlink ref="D45" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId91"/>
-    <hyperlink ref="A46" display="resources.md" r:id="rId92"/>
-    <hyperlink ref="D46" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId93"/>
-    <hyperlink ref="A47" display="scriptResource.md" r:id="rId94"/>
-    <hyperlink ref="D47" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId95"/>
-    <hyperlink ref="A48" display="secureMOF.md" r:id="rId96"/>
-    <hyperlink ref="D48" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId97"/>
-    <hyperlink ref="A49" display="secureServer.md" r:id="rId98"/>
-    <hyperlink ref="D49" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId99"/>
-    <hyperlink ref="A50" display="serviceResource.md" r:id="rId100"/>
-    <hyperlink ref="D50" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId101"/>
-    <hyperlink ref="A51" display="OpenLoc is cool.md" r:id="rId102"/>
-    <hyperlink ref="D51" display="OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf" r:id="rId103"/>
-    <hyperlink ref="A52" display="SonjaFileToo.md" r:id="rId104"/>
-    <hyperlink ref="D52" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf" r:id="rId105"/>
-    <hyperlink ref="A53" display="TOC.md" r:id="rId106"/>
-    <hyperlink ref="D53" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId107"/>
-    <hyperlink ref="A54" display="troubleshooting.md" r:id="rId108"/>
-    <hyperlink ref="D54" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId109"/>
-    <hyperlink ref="A55" display="userResource.md" r:id="rId110"/>
-    <hyperlink ref="D55" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId111"/>
-    <hyperlink ref="A56" display="windowsfeatureResource.md" r:id="rId112"/>
-    <hyperlink ref="D56" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId113"/>
-    <hyperlink ref="A57" display="windowsProcessResource.md" r:id="rId114"/>
-    <hyperlink ref="D57" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId115"/>
-    <hyperlink ref="A58" display="README.md" r:id="rId116"/>
-    <hyperlink ref="D58" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId117"/>
+    <hyperlink ref="A2" display="CONTRIBUTING.md" r:id="rId2"/>
+    <hyperlink ref="D2" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="archiveResource.md" r:id="rId4"/>
+    <hyperlink ref="D3" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="authoringResource.md" r:id="rId6"/>
+    <hyperlink ref="D4" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="authoringResourceClass.md" r:id="rId8"/>
+    <hyperlink ref="D5" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display="authoringResourceComposite.md" r:id="rId10"/>
+    <hyperlink ref="D6" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="authoringResourceMOF.md" r:id="rId12"/>
+    <hyperlink ref="D7" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="authoringResourceMofCS.md" r:id="rId14"/>
+    <hyperlink ref="D8" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="authoringResourceMofDesigner.md" r:id="rId16"/>
+    <hyperlink ref="D9" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="builtInResource.md" r:id="rId18"/>
+    <hyperlink ref="D10" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="configData.md" r:id="rId20"/>
+    <hyperlink ref="D11" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="configurations.md" r:id="rId22"/>
+    <hyperlink ref="D12" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A13" display="enactingConfigurations.md" r:id="rId24"/>
+    <hyperlink ref="D13" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A14" display="environmentResource.md" r:id="rId26"/>
+    <hyperlink ref="D14" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="A15" display="fileResource.md" r:id="rId28"/>
+    <hyperlink ref="D15" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId29"/>
+    <hyperlink ref="A16" display="groupResource.md" r:id="rId30"/>
+    <hyperlink ref="D16" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId31"/>
+    <hyperlink ref="A17" display="PartialConfig1.jpg" r:id="rId32"/>
+    <hyperlink ref="D17" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId33"/>
+    <hyperlink ref="A18" display="PartialConfigPullServer.jpg" r:id="rId34"/>
+    <hyperlink ref="D18" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId35"/>
+    <hyperlink ref="A19" display="Pull.png" r:id="rId36"/>
+    <hyperlink ref="D19" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId37"/>
+    <hyperlink ref="A20" display="Push.png" r:id="rId38"/>
+    <hyperlink ref="D20" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId39"/>
+    <hyperlink ref="A21" display="lnxArchiveResource.md" r:id="rId40"/>
+    <hyperlink ref="D21" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId41"/>
+    <hyperlink ref="A22" display="lnxBuiltInResources.md" r:id="rId42"/>
+    <hyperlink ref="D22" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId43"/>
+    <hyperlink ref="A23" display="lnxEnvironmentResource.md" r:id="rId44"/>
+    <hyperlink ref="D23" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId45"/>
+    <hyperlink ref="A24" display="lnxFileLineResource.md" r:id="rId46"/>
+    <hyperlink ref="D24" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId47"/>
+    <hyperlink ref="A25" display="lnxFileResource.md" r:id="rId48"/>
+    <hyperlink ref="D25" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId49"/>
+    <hyperlink ref="A26" display="lnxGettingStarted.md" r:id="rId50"/>
+    <hyperlink ref="D26" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId51"/>
+    <hyperlink ref="A27" display="lnxGroupResource.md" r:id="rId52"/>
+    <hyperlink ref="D27" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId53"/>
+    <hyperlink ref="A28" display="lnxPackageResource.md" r:id="rId54"/>
+    <hyperlink ref="D28" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId55"/>
+    <hyperlink ref="A29" display="lnxScriptResource.md" r:id="rId56"/>
+    <hyperlink ref="D29" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId57"/>
+    <hyperlink ref="A30" display="lnxServiceResource.md" r:id="rId58"/>
+    <hyperlink ref="D30" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId59"/>
+    <hyperlink ref="A31" display="lnxSshAuthorizedKeysResource.md" r:id="rId60"/>
+    <hyperlink ref="D31" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId61"/>
+    <hyperlink ref="A32" display="lnxUserResource.md" r:id="rId62"/>
+    <hyperlink ref="D32" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId63"/>
+    <hyperlink ref="A33" display="logResource.md" r:id="rId64"/>
+    <hyperlink ref="D33" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId65"/>
+    <hyperlink ref="A34" display="metaConfig.md" r:id="rId66"/>
+    <hyperlink ref="D34" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId67"/>
+    <hyperlink ref="A35" display="metaConfig4.md" r:id="rId68"/>
+    <hyperlink ref="D35" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId69"/>
+    <hyperlink ref="A36" display="packageResource.md" r:id="rId70"/>
+    <hyperlink ref="D36" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId71"/>
+    <hyperlink ref="A37" display="partialConfigs.md" r:id="rId72"/>
+    <hyperlink ref="D37" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId73"/>
+    <hyperlink ref="A38" display="pullClient.md" r:id="rId74"/>
+    <hyperlink ref="D38" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId75"/>
+    <hyperlink ref="A39" display="pullClientConfigID.md" r:id="rId76"/>
+    <hyperlink ref="D39" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId77"/>
+    <hyperlink ref="A40" display="pullClientConfigID4.md" r:id="rId78"/>
+    <hyperlink ref="D40" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId79"/>
+    <hyperlink ref="A41" display="pullClientConfigNames.md" r:id="rId80"/>
+    <hyperlink ref="D41" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId81"/>
+    <hyperlink ref="A42" display="pullServer.md" r:id="rId82"/>
+    <hyperlink ref="D42" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId83"/>
+    <hyperlink ref="A43" display="queryServerNodes.md" r:id="rId84"/>
+    <hyperlink ref="D43" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId85"/>
+    <hyperlink ref="A44" display="registryResource.md" r:id="rId86"/>
+    <hyperlink ref="D44" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId87"/>
+    <hyperlink ref="A45" display="resources.md" r:id="rId88"/>
+    <hyperlink ref="D45" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId89"/>
+    <hyperlink ref="A46" display="scriptResource.md" r:id="rId90"/>
+    <hyperlink ref="D46" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId91"/>
+    <hyperlink ref="A47" display="secureMOF.md" r:id="rId92"/>
+    <hyperlink ref="D47" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId93"/>
+    <hyperlink ref="A48" display="secureServer.md" r:id="rId94"/>
+    <hyperlink ref="D48" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId95"/>
+    <hyperlink ref="A49" display="serviceResource.md" r:id="rId96"/>
+    <hyperlink ref="D49" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId97"/>
+    <hyperlink ref="A50" display="OpenLoc is cool.md" r:id="rId98"/>
+    <hyperlink ref="D50" display="OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf" r:id="rId99"/>
+    <hyperlink ref="A51" display="SonjaFileToo.md" r:id="rId100"/>
+    <hyperlink ref="D51" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf" r:id="rId101"/>
+    <hyperlink ref="A52" display="TOC.md" r:id="rId102"/>
+    <hyperlink ref="D52" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId103"/>
+    <hyperlink ref="A53" display="troubleshooting.md" r:id="rId104"/>
+    <hyperlink ref="D53" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId105"/>
+    <hyperlink ref="A54" display="userResource.md" r:id="rId106"/>
+    <hyperlink ref="D54" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId107"/>
+    <hyperlink ref="A55" display="windowsfeatureResource.md" r:id="rId108"/>
+    <hyperlink ref="D55" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId109"/>
+    <hyperlink ref="A56" display="windowsProcessResource.md" r:id="rId110"/>
+    <hyperlink ref="D56" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId111"/>
+    <hyperlink ref="A57" display="README.md" r:id="rId112"/>
+    <hyperlink ref="D57" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId113"/>
+    <hyperlink ref="A58" display="overview.md" r:id="rId114"/>
+    <hyperlink ref="D58" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId115"/>
+    <hyperlink ref="F58" display="overview.md" r:id="rId116"/>
+    <hyperlink ref="G58" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId117"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t>File Name</t>
   </si>
@@ -145,63 +145,66 @@
     <t>metaConfig4.md</t>
   </si>
   <si>
+    <t>packageResource.md</t>
+  </si>
+  <si>
+    <t>partialConfigs.md</t>
+  </si>
+  <si>
+    <t>pullClient.md</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.md</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.md</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.md</t>
+  </si>
+  <si>
+    <t>pullServer.md</t>
+  </si>
+  <si>
+    <t>queryServerNodes.md</t>
+  </si>
+  <si>
+    <t>registryResource.md</t>
+  </si>
+  <si>
+    <t>resources.md</t>
+  </si>
+  <si>
+    <t>scriptResource.md</t>
+  </si>
+  <si>
+    <t>secureMOF.md</t>
+  </si>
+  <si>
+    <t>secureServer.md</t>
+  </si>
+  <si>
+    <t>serviceResource.md</t>
+  </si>
+  <si>
+    <t>OpenLoc is cool.md</t>
+  </si>
+  <si>
+    <t>2016-04-01 01:53:15</t>
+  </si>
+  <si>
+    <t>SonjaFileToo.md</t>
+  </si>
+  <si>
     <t>overview.md</t>
   </si>
   <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>2016-04-12 06:50:20</t>
   </si>
   <si>
-    <t>packageResource.md</t>
-  </si>
-  <si>
-    <t>partialConfigs.md</t>
-  </si>
-  <si>
-    <t>pullClient.md</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.md</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.md</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.md</t>
-  </si>
-  <si>
-    <t>pullServer.md</t>
-  </si>
-  <si>
-    <t>queryServerNodes.md</t>
-  </si>
-  <si>
-    <t>registryResource.md</t>
-  </si>
-  <si>
-    <t>resources.md</t>
-  </si>
-  <si>
-    <t>scriptResource.md</t>
-  </si>
-  <si>
-    <t>secureMOF.md</t>
-  </si>
-  <si>
-    <t>secureServer.md</t>
-  </si>
-  <si>
-    <t>serviceResource.md</t>
-  </si>
-  <si>
-    <t>OpenLoc is cool.md</t>
-  </si>
-  <si>
-    <t>2016-04-01 01:53:15</t>
-  </si>
-  <si>
-    <t>SonjaFileToo.md</t>
-  </si>
-  <si>
     <t>TOC.md</t>
   </si>
   <si>
@@ -385,63 +388,63 @@
     <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.pt-br.xlf</t>
   </si>
   <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-01 01:53:06</t>
+  </si>
+  <si>
+    <t>SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.pt-br.xlf</t>
+  </si>
+  <si>
     <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.pt-br.xlf</t>
   </si>
   <si>
     <t>2016-04-12 06:50:10</t>
   </si>
   <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-01 01:53:06</t>
-  </si>
-  <si>
-    <t>SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.pt-br.xlf</t>
-  </si>
-  <si>
     <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.pt-br.xlf</t>
   </si>
   <si>
@@ -460,6 +463,12 @@
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pt-br.xlf</t>
   </si>
   <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-12 16:11:00</t>
+  </si>
+  <si>
     <t>CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf</t>
   </si>
   <si>
@@ -620,12 +629,6 @@
   </si>
   <si>
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-12 06:40:48</t>
   </si>
 </sst>
 </file>
@@ -1248,15 +1251,15 @@
         <v>5</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>5</v>
@@ -1270,7 +1273,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>5</v>
@@ -1284,7 +1287,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>5</v>
@@ -1298,7 +1301,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>5</v>
@@ -1312,7 +1315,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>5</v>
@@ -1326,7 +1329,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>5</v>
@@ -1340,7 +1343,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>5</v>
@@ -1354,7 +1357,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>5</v>
@@ -1368,7 +1371,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>5</v>
@@ -1382,7 +1385,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>5</v>
@@ -1396,7 +1399,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>5</v>
@@ -1410,7 +1413,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>5</v>
@@ -1424,7 +1427,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>5</v>
@@ -1438,16 +1441,16 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -1461,26 +1464,26 @@
         <v>6</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>6</v>
-      </c>
       <c r="D52" s="2" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>5</v>
@@ -1494,7 +1497,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>5</v>
@@ -1508,7 +1511,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>5</v>
@@ -1522,7 +1525,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>5</v>
@@ -1536,7 +1539,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>5</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>5</v>
@@ -1598,23 +1601,23 @@
     <hyperlink ref="A33" display="logResource.md" r:id="rId33"/>
     <hyperlink ref="A34" display="metaConfig.md" r:id="rId34"/>
     <hyperlink ref="A35" display="metaConfig4.md" r:id="rId35"/>
-    <hyperlink ref="A36" display="overview.md" r:id="rId36"/>
-    <hyperlink ref="A37" display="packageResource.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="partialConfigs.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="pullClient.md" r:id="rId39"/>
-    <hyperlink ref="A40" display="pullClientConfigID.md" r:id="rId40"/>
-    <hyperlink ref="A41" display="pullClientConfigID4.md" r:id="rId41"/>
-    <hyperlink ref="A42" display="pullClientConfigNames.md" r:id="rId42"/>
-    <hyperlink ref="A43" display="pullServer.md" r:id="rId43"/>
-    <hyperlink ref="A44" display="queryServerNodes.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="registryResource.md" r:id="rId45"/>
-    <hyperlink ref="A46" display="resources.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="scriptResource.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="secureMOF.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="secureServer.md" r:id="rId49"/>
-    <hyperlink ref="A50" display="serviceResource.md" r:id="rId50"/>
-    <hyperlink ref="A51" display="OpenLoc is cool.md" r:id="rId51"/>
-    <hyperlink ref="A52" display="SonjaFileToo.md" r:id="rId52"/>
+    <hyperlink ref="A36" display="packageResource.md" r:id="rId36"/>
+    <hyperlink ref="A37" display="partialConfigs.md" r:id="rId37"/>
+    <hyperlink ref="A38" display="pullClient.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="pullClientConfigID.md" r:id="rId39"/>
+    <hyperlink ref="A40" display="pullClientConfigID4.md" r:id="rId40"/>
+    <hyperlink ref="A41" display="pullClientConfigNames.md" r:id="rId41"/>
+    <hyperlink ref="A42" display="pullServer.md" r:id="rId42"/>
+    <hyperlink ref="A43" display="queryServerNodes.md" r:id="rId43"/>
+    <hyperlink ref="A44" display="registryResource.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="resources.md" r:id="rId45"/>
+    <hyperlink ref="A46" display="scriptResource.md" r:id="rId46"/>
+    <hyperlink ref="A47" display="secureMOF.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="secureServer.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="serviceResource.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="OpenLoc is cool.md" r:id="rId50"/>
+    <hyperlink ref="A51" display="SonjaFileToo.md" r:id="rId51"/>
+    <hyperlink ref="A52" display="overview.md" r:id="rId52"/>
     <hyperlink ref="A53" display="TOC.md" r:id="rId53"/>
     <hyperlink ref="A54" display="troubleshooting.md" r:id="rId54"/>
     <hyperlink ref="A55" display="userResource.md" r:id="rId55"/>
@@ -1653,40 +1656,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2">
@@ -1694,22 +1697,22 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
@@ -1717,22 +1720,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
@@ -1740,22 +1743,22 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
@@ -1763,22 +1766,22 @@
         <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -1786,22 +1789,22 @@
         <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -1809,22 +1812,22 @@
         <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -1832,22 +1835,22 @@
         <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
@@ -1855,22 +1858,22 @@
         <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10">
@@ -1878,22 +1881,22 @@
         <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
@@ -1901,22 +1904,22 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
@@ -1924,22 +1927,22 @@
         <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
@@ -1947,22 +1950,22 @@
         <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
@@ -1970,22 +1973,22 @@
         <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
@@ -1993,22 +1996,22 @@
         <v>21</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
@@ -2016,22 +2019,22 @@
         <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
@@ -2039,25 +2042,25 @@
         <v>23</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
@@ -2065,25 +2068,25 @@
         <v>25</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="19">
@@ -2091,25 +2094,25 @@
         <v>26</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
@@ -2117,25 +2120,25 @@
         <v>27</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21">
@@ -2143,22 +2146,22 @@
         <v>28</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
@@ -2166,22 +2169,22 @@
         <v>29</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
@@ -2189,22 +2192,22 @@
         <v>30</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
@@ -2212,22 +2215,22 @@
         <v>31</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25">
@@ -2235,22 +2238,22 @@
         <v>32</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
@@ -2258,22 +2261,22 @@
         <v>33</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27">
@@ -2281,22 +2284,22 @@
         <v>34</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
@@ -2304,22 +2307,22 @@
         <v>35</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
@@ -2327,22 +2330,22 @@
         <v>36</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
@@ -2350,22 +2353,22 @@
         <v>37</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
@@ -2373,22 +2376,22 @@
         <v>38</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
@@ -2396,22 +2399,22 @@
         <v>39</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33">
@@ -2419,22 +2422,22 @@
         <v>40</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34">
@@ -2442,22 +2445,22 @@
         <v>41</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35">
@@ -2465,22 +2468,22 @@
         <v>42</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36">
@@ -2488,30 +2491,30 @@
         <v>43</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>5</v>
@@ -2523,18 +2526,18 @@
         <v>7</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>5</v>
@@ -2546,18 +2549,18 @@
         <v>7</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>5</v>
@@ -2569,18 +2572,18 @@
         <v>7</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>5</v>
@@ -2592,18 +2595,18 @@
         <v>7</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>5</v>
@@ -2615,18 +2618,18 @@
         <v>7</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>5</v>
@@ -2638,18 +2641,18 @@
         <v>7</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>5</v>
@@ -2661,18 +2664,18 @@
         <v>7</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>5</v>
@@ -2684,18 +2687,18 @@
         <v>7</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>5</v>
@@ -2707,18 +2710,18 @@
         <v>7</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>5</v>
@@ -2730,18 +2733,18 @@
         <v>7</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>5</v>
@@ -2753,18 +2756,18 @@
         <v>7</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>5</v>
@@ -2776,18 +2779,18 @@
         <v>7</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>5</v>
@@ -2799,18 +2802,18 @@
         <v>7</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>5</v>
@@ -2819,13 +2822,13 @@
         <v>138</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51">
@@ -2833,30 +2836,30 @@
         <v>59</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>5</v>
@@ -2865,151 +2868,151 @@
         <v>141</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>7</v>
+        <v>142</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3082,40 +3085,40 @@
     <hyperlink ref="D34" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.pt-br.xlf" r:id="rId67"/>
     <hyperlink ref="A35" display="metaConfig4.md" r:id="rId68"/>
     <hyperlink ref="D35" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.pt-br.xlf" r:id="rId69"/>
-    <hyperlink ref="A36" display="overview.md" r:id="rId70"/>
-    <hyperlink ref="D36" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.pt-br.xlf" r:id="rId71"/>
-    <hyperlink ref="A37" display="packageResource.md" r:id="rId72"/>
-    <hyperlink ref="D37" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.pt-br.xlf" r:id="rId73"/>
-    <hyperlink ref="A38" display="partialConfigs.md" r:id="rId74"/>
-    <hyperlink ref="D38" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.pt-br.xlf" r:id="rId75"/>
-    <hyperlink ref="A39" display="pullClient.md" r:id="rId76"/>
-    <hyperlink ref="D39" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.pt-br.xlf" r:id="rId77"/>
-    <hyperlink ref="A40" display="pullClientConfigID.md" r:id="rId78"/>
-    <hyperlink ref="D40" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.pt-br.xlf" r:id="rId79"/>
-    <hyperlink ref="A41" display="pullClientConfigID4.md" r:id="rId80"/>
-    <hyperlink ref="D41" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.pt-br.xlf" r:id="rId81"/>
-    <hyperlink ref="A42" display="pullClientConfigNames.md" r:id="rId82"/>
-    <hyperlink ref="D42" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.pt-br.xlf" r:id="rId83"/>
-    <hyperlink ref="A43" display="pullServer.md" r:id="rId84"/>
-    <hyperlink ref="D43" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.pt-br.xlf" r:id="rId85"/>
-    <hyperlink ref="A44" display="queryServerNodes.md" r:id="rId86"/>
-    <hyperlink ref="D44" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.pt-br.xlf" r:id="rId87"/>
-    <hyperlink ref="A45" display="registryResource.md" r:id="rId88"/>
-    <hyperlink ref="D45" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.pt-br.xlf" r:id="rId89"/>
-    <hyperlink ref="A46" display="resources.md" r:id="rId90"/>
-    <hyperlink ref="D46" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.pt-br.xlf" r:id="rId91"/>
-    <hyperlink ref="A47" display="scriptResource.md" r:id="rId92"/>
-    <hyperlink ref="D47" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.pt-br.xlf" r:id="rId93"/>
-    <hyperlink ref="A48" display="secureMOF.md" r:id="rId94"/>
-    <hyperlink ref="D48" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.pt-br.xlf" r:id="rId95"/>
-    <hyperlink ref="A49" display="secureServer.md" r:id="rId96"/>
-    <hyperlink ref="D49" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.pt-br.xlf" r:id="rId97"/>
-    <hyperlink ref="A50" display="serviceResource.md" r:id="rId98"/>
-    <hyperlink ref="D50" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.pt-br.xlf" r:id="rId99"/>
-    <hyperlink ref="A51" display="OpenLoc is cool.md" r:id="rId100"/>
-    <hyperlink ref="D51" display="OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.pt-br.xlf" r:id="rId101"/>
-    <hyperlink ref="A52" display="SonjaFileToo.md" r:id="rId102"/>
-    <hyperlink ref="D52" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.pt-br.xlf" r:id="rId103"/>
+    <hyperlink ref="A36" display="packageResource.md" r:id="rId70"/>
+    <hyperlink ref="D36" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.pt-br.xlf" r:id="rId71"/>
+    <hyperlink ref="A37" display="partialConfigs.md" r:id="rId72"/>
+    <hyperlink ref="D37" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.pt-br.xlf" r:id="rId73"/>
+    <hyperlink ref="A38" display="pullClient.md" r:id="rId74"/>
+    <hyperlink ref="D38" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.pt-br.xlf" r:id="rId75"/>
+    <hyperlink ref="A39" display="pullClientConfigID.md" r:id="rId76"/>
+    <hyperlink ref="D39" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.pt-br.xlf" r:id="rId77"/>
+    <hyperlink ref="A40" display="pullClientConfigID4.md" r:id="rId78"/>
+    <hyperlink ref="D40" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.pt-br.xlf" r:id="rId79"/>
+    <hyperlink ref="A41" display="pullClientConfigNames.md" r:id="rId80"/>
+    <hyperlink ref="D41" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.pt-br.xlf" r:id="rId81"/>
+    <hyperlink ref="A42" display="pullServer.md" r:id="rId82"/>
+    <hyperlink ref="D42" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.pt-br.xlf" r:id="rId83"/>
+    <hyperlink ref="A43" display="queryServerNodes.md" r:id="rId84"/>
+    <hyperlink ref="D43" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.pt-br.xlf" r:id="rId85"/>
+    <hyperlink ref="A44" display="registryResource.md" r:id="rId86"/>
+    <hyperlink ref="D44" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.pt-br.xlf" r:id="rId87"/>
+    <hyperlink ref="A45" display="resources.md" r:id="rId88"/>
+    <hyperlink ref="D45" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.pt-br.xlf" r:id="rId89"/>
+    <hyperlink ref="A46" display="scriptResource.md" r:id="rId90"/>
+    <hyperlink ref="D46" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.pt-br.xlf" r:id="rId91"/>
+    <hyperlink ref="A47" display="secureMOF.md" r:id="rId92"/>
+    <hyperlink ref="D47" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.pt-br.xlf" r:id="rId93"/>
+    <hyperlink ref="A48" display="secureServer.md" r:id="rId94"/>
+    <hyperlink ref="D48" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.pt-br.xlf" r:id="rId95"/>
+    <hyperlink ref="A49" display="serviceResource.md" r:id="rId96"/>
+    <hyperlink ref="D49" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.pt-br.xlf" r:id="rId97"/>
+    <hyperlink ref="A50" display="OpenLoc is cool.md" r:id="rId98"/>
+    <hyperlink ref="D50" display="OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.pt-br.xlf" r:id="rId99"/>
+    <hyperlink ref="A51" display="SonjaFileToo.md" r:id="rId100"/>
+    <hyperlink ref="D51" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.pt-br.xlf" r:id="rId101"/>
+    <hyperlink ref="A52" display="overview.md" r:id="rId102"/>
+    <hyperlink ref="D52" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.pt-br.xlf" r:id="rId103"/>
     <hyperlink ref="A53" display="TOC.md" r:id="rId104"/>
     <hyperlink ref="D53" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.pt-br.xlf" r:id="rId105"/>
     <hyperlink ref="A54" display="troubleshooting.md" r:id="rId106"/>
@@ -3160,1225 +3163,1231 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>149</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>149</v>
+        <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>83</v>
+        <v>102</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53">
@@ -4386,22 +4395,22 @@
         <v>63</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54">
@@ -4409,22 +4418,22 @@
         <v>64</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55">
@@ -4432,22 +4441,22 @@
         <v>65</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56">
@@ -4455,22 +4464,22 @@
         <v>66</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57">
@@ -4478,171 +4487,165 @@
         <v>67</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>203</v>
+        <v>83</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="CONTRIBUTING.md" r:id="rId2"/>
-    <hyperlink ref="D2" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="archiveResource.md" r:id="rId4"/>
-    <hyperlink ref="D3" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="authoringResource.md" r:id="rId6"/>
-    <hyperlink ref="D4" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="authoringResourceClass.md" r:id="rId8"/>
-    <hyperlink ref="D5" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="authoringResourceComposite.md" r:id="rId10"/>
-    <hyperlink ref="D6" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="authoringResourceMOF.md" r:id="rId12"/>
-    <hyperlink ref="D7" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="authoringResourceMofCS.md" r:id="rId14"/>
-    <hyperlink ref="D8" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="authoringResourceMofDesigner.md" r:id="rId16"/>
-    <hyperlink ref="D9" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="builtInResource.md" r:id="rId18"/>
-    <hyperlink ref="D10" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="configData.md" r:id="rId20"/>
-    <hyperlink ref="D11" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="configurations.md" r:id="rId22"/>
-    <hyperlink ref="D12" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="enactingConfigurations.md" r:id="rId24"/>
-    <hyperlink ref="D13" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId25"/>
-    <hyperlink ref="A14" display="environmentResource.md" r:id="rId26"/>
-    <hyperlink ref="D14" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId27"/>
-    <hyperlink ref="A15" display="fileResource.md" r:id="rId28"/>
-    <hyperlink ref="D15" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId29"/>
-    <hyperlink ref="A16" display="groupResource.md" r:id="rId30"/>
-    <hyperlink ref="D16" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId31"/>
-    <hyperlink ref="A17" display="PartialConfig1.jpg" r:id="rId32"/>
-    <hyperlink ref="D17" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId33"/>
-    <hyperlink ref="A18" display="PartialConfigPullServer.jpg" r:id="rId34"/>
-    <hyperlink ref="D18" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId35"/>
-    <hyperlink ref="A19" display="Pull.png" r:id="rId36"/>
-    <hyperlink ref="D19" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId37"/>
-    <hyperlink ref="A20" display="Push.png" r:id="rId38"/>
-    <hyperlink ref="D20" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId39"/>
-    <hyperlink ref="A21" display="lnxArchiveResource.md" r:id="rId40"/>
-    <hyperlink ref="D21" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId41"/>
-    <hyperlink ref="A22" display="lnxBuiltInResources.md" r:id="rId42"/>
-    <hyperlink ref="D22" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId43"/>
-    <hyperlink ref="A23" display="lnxEnvironmentResource.md" r:id="rId44"/>
-    <hyperlink ref="D23" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId45"/>
-    <hyperlink ref="A24" display="lnxFileLineResource.md" r:id="rId46"/>
-    <hyperlink ref="D24" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId47"/>
-    <hyperlink ref="A25" display="lnxFileResource.md" r:id="rId48"/>
-    <hyperlink ref="D25" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId49"/>
-    <hyperlink ref="A26" display="lnxGettingStarted.md" r:id="rId50"/>
-    <hyperlink ref="D26" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId51"/>
-    <hyperlink ref="A27" display="lnxGroupResource.md" r:id="rId52"/>
-    <hyperlink ref="D27" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId53"/>
-    <hyperlink ref="A28" display="lnxPackageResource.md" r:id="rId54"/>
-    <hyperlink ref="D28" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId55"/>
-    <hyperlink ref="A29" display="lnxScriptResource.md" r:id="rId56"/>
-    <hyperlink ref="D29" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId57"/>
-    <hyperlink ref="A30" display="lnxServiceResource.md" r:id="rId58"/>
-    <hyperlink ref="D30" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId59"/>
-    <hyperlink ref="A31" display="lnxSshAuthorizedKeysResource.md" r:id="rId60"/>
-    <hyperlink ref="D31" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId61"/>
-    <hyperlink ref="A32" display="lnxUserResource.md" r:id="rId62"/>
-    <hyperlink ref="D32" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId63"/>
-    <hyperlink ref="A33" display="logResource.md" r:id="rId64"/>
-    <hyperlink ref="D33" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId65"/>
-    <hyperlink ref="A34" display="metaConfig.md" r:id="rId66"/>
-    <hyperlink ref="D34" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId67"/>
-    <hyperlink ref="A35" display="metaConfig4.md" r:id="rId68"/>
-    <hyperlink ref="D35" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId69"/>
-    <hyperlink ref="A36" display="packageResource.md" r:id="rId70"/>
-    <hyperlink ref="D36" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId71"/>
-    <hyperlink ref="A37" display="partialConfigs.md" r:id="rId72"/>
-    <hyperlink ref="D37" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId73"/>
-    <hyperlink ref="A38" display="pullClient.md" r:id="rId74"/>
-    <hyperlink ref="D38" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId75"/>
-    <hyperlink ref="A39" display="pullClientConfigID.md" r:id="rId76"/>
-    <hyperlink ref="D39" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId77"/>
-    <hyperlink ref="A40" display="pullClientConfigID4.md" r:id="rId78"/>
-    <hyperlink ref="D40" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId79"/>
-    <hyperlink ref="A41" display="pullClientConfigNames.md" r:id="rId80"/>
-    <hyperlink ref="D41" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId81"/>
-    <hyperlink ref="A42" display="pullServer.md" r:id="rId82"/>
-    <hyperlink ref="D42" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId83"/>
-    <hyperlink ref="A43" display="queryServerNodes.md" r:id="rId84"/>
-    <hyperlink ref="D43" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId85"/>
-    <hyperlink ref="A44" display="registryResource.md" r:id="rId86"/>
-    <hyperlink ref="D44" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId87"/>
-    <hyperlink ref="A45" display="resources.md" r:id="rId88"/>
-    <hyperlink ref="D45" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId89"/>
-    <hyperlink ref="A46" display="scriptResource.md" r:id="rId90"/>
-    <hyperlink ref="D46" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId91"/>
-    <hyperlink ref="A47" display="secureMOF.md" r:id="rId92"/>
-    <hyperlink ref="D47" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId93"/>
-    <hyperlink ref="A48" display="secureServer.md" r:id="rId94"/>
-    <hyperlink ref="D48" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId95"/>
-    <hyperlink ref="A49" display="serviceResource.md" r:id="rId96"/>
-    <hyperlink ref="D49" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId97"/>
-    <hyperlink ref="A50" display="OpenLoc is cool.md" r:id="rId98"/>
-    <hyperlink ref="D50" display="OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf" r:id="rId99"/>
-    <hyperlink ref="A51" display="SonjaFileToo.md" r:id="rId100"/>
-    <hyperlink ref="D51" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf" r:id="rId101"/>
-    <hyperlink ref="A52" display="TOC.md" r:id="rId102"/>
-    <hyperlink ref="D52" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId103"/>
-    <hyperlink ref="A53" display="troubleshooting.md" r:id="rId104"/>
-    <hyperlink ref="D53" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId105"/>
-    <hyperlink ref="A54" display="userResource.md" r:id="rId106"/>
-    <hyperlink ref="D54" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId107"/>
-    <hyperlink ref="A55" display="windowsfeatureResource.md" r:id="rId108"/>
-    <hyperlink ref="D55" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId109"/>
-    <hyperlink ref="A56" display="windowsProcessResource.md" r:id="rId110"/>
-    <hyperlink ref="D56" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId111"/>
-    <hyperlink ref="A57" display="README.md" r:id="rId112"/>
-    <hyperlink ref="D57" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId113"/>
-    <hyperlink ref="A58" display="overview.md" r:id="rId114"/>
-    <hyperlink ref="D58" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId115"/>
-    <hyperlink ref="F58" display="overview.md" r:id="rId116"/>
-    <hyperlink ref="G58" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId117"/>
+    <hyperlink ref="A2" display="overview.md" r:id="rId2"/>
+    <hyperlink ref="D2" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="F2" display="overview.md" r:id="rId4"/>
+    <hyperlink ref="G2" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="CONTRIBUTING.md" r:id="rId6"/>
+    <hyperlink ref="D3" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A4" display="archiveResource.md" r:id="rId8"/>
+    <hyperlink ref="D4" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="authoringResource.md" r:id="rId10"/>
+    <hyperlink ref="D5" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="authoringResourceClass.md" r:id="rId12"/>
+    <hyperlink ref="D6" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A7" display="authoringResourceComposite.md" r:id="rId14"/>
+    <hyperlink ref="D7" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A8" display="authoringResourceMOF.md" r:id="rId16"/>
+    <hyperlink ref="D8" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A9" display="authoringResourceMofCS.md" r:id="rId18"/>
+    <hyperlink ref="D9" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A10" display="authoringResourceMofDesigner.md" r:id="rId20"/>
+    <hyperlink ref="D10" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A11" display="builtInResource.md" r:id="rId22"/>
+    <hyperlink ref="D11" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A12" display="configData.md" r:id="rId24"/>
+    <hyperlink ref="D12" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A13" display="configurations.md" r:id="rId26"/>
+    <hyperlink ref="D13" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="A14" display="enactingConfigurations.md" r:id="rId28"/>
+    <hyperlink ref="D14" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId29"/>
+    <hyperlink ref="A15" display="environmentResource.md" r:id="rId30"/>
+    <hyperlink ref="D15" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId31"/>
+    <hyperlink ref="A16" display="fileResource.md" r:id="rId32"/>
+    <hyperlink ref="D16" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId33"/>
+    <hyperlink ref="A17" display="groupResource.md" r:id="rId34"/>
+    <hyperlink ref="D17" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId35"/>
+    <hyperlink ref="A18" display="PartialConfig1.jpg" r:id="rId36"/>
+    <hyperlink ref="D18" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId37"/>
+    <hyperlink ref="A19" display="PartialConfigPullServer.jpg" r:id="rId38"/>
+    <hyperlink ref="D19" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId39"/>
+    <hyperlink ref="A20" display="Pull.png" r:id="rId40"/>
+    <hyperlink ref="D20" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId41"/>
+    <hyperlink ref="A21" display="Push.png" r:id="rId42"/>
+    <hyperlink ref="D21" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId43"/>
+    <hyperlink ref="A22" display="lnxArchiveResource.md" r:id="rId44"/>
+    <hyperlink ref="D22" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId45"/>
+    <hyperlink ref="A23" display="lnxBuiltInResources.md" r:id="rId46"/>
+    <hyperlink ref="D23" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId47"/>
+    <hyperlink ref="A24" display="lnxEnvironmentResource.md" r:id="rId48"/>
+    <hyperlink ref="D24" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId49"/>
+    <hyperlink ref="A25" display="lnxFileLineResource.md" r:id="rId50"/>
+    <hyperlink ref="D25" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId51"/>
+    <hyperlink ref="A26" display="lnxFileResource.md" r:id="rId52"/>
+    <hyperlink ref="D26" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId53"/>
+    <hyperlink ref="A27" display="lnxGettingStarted.md" r:id="rId54"/>
+    <hyperlink ref="D27" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId55"/>
+    <hyperlink ref="A28" display="lnxGroupResource.md" r:id="rId56"/>
+    <hyperlink ref="D28" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId57"/>
+    <hyperlink ref="A29" display="lnxPackageResource.md" r:id="rId58"/>
+    <hyperlink ref="D29" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId59"/>
+    <hyperlink ref="A30" display="lnxScriptResource.md" r:id="rId60"/>
+    <hyperlink ref="D30" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId61"/>
+    <hyperlink ref="A31" display="lnxServiceResource.md" r:id="rId62"/>
+    <hyperlink ref="D31" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId63"/>
+    <hyperlink ref="A32" display="lnxSshAuthorizedKeysResource.md" r:id="rId64"/>
+    <hyperlink ref="D32" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId65"/>
+    <hyperlink ref="A33" display="lnxUserResource.md" r:id="rId66"/>
+    <hyperlink ref="D33" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId67"/>
+    <hyperlink ref="A34" display="logResource.md" r:id="rId68"/>
+    <hyperlink ref="D34" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId69"/>
+    <hyperlink ref="A35" display="metaConfig.md" r:id="rId70"/>
+    <hyperlink ref="D35" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId71"/>
+    <hyperlink ref="A36" display="metaConfig4.md" r:id="rId72"/>
+    <hyperlink ref="D36" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId73"/>
+    <hyperlink ref="A37" display="packageResource.md" r:id="rId74"/>
+    <hyperlink ref="D37" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId75"/>
+    <hyperlink ref="A38" display="partialConfigs.md" r:id="rId76"/>
+    <hyperlink ref="D38" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId77"/>
+    <hyperlink ref="A39" display="pullClient.md" r:id="rId78"/>
+    <hyperlink ref="D39" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId79"/>
+    <hyperlink ref="A40" display="pullClientConfigID.md" r:id="rId80"/>
+    <hyperlink ref="D40" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId81"/>
+    <hyperlink ref="A41" display="pullClientConfigID4.md" r:id="rId82"/>
+    <hyperlink ref="D41" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId83"/>
+    <hyperlink ref="A42" display="pullClientConfigNames.md" r:id="rId84"/>
+    <hyperlink ref="D42" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId85"/>
+    <hyperlink ref="A43" display="pullServer.md" r:id="rId86"/>
+    <hyperlink ref="D43" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId87"/>
+    <hyperlink ref="A44" display="queryServerNodes.md" r:id="rId88"/>
+    <hyperlink ref="D44" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId89"/>
+    <hyperlink ref="A45" display="registryResource.md" r:id="rId90"/>
+    <hyperlink ref="D45" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId91"/>
+    <hyperlink ref="A46" display="resources.md" r:id="rId92"/>
+    <hyperlink ref="D46" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId93"/>
+    <hyperlink ref="A47" display="scriptResource.md" r:id="rId94"/>
+    <hyperlink ref="D47" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId95"/>
+    <hyperlink ref="A48" display="secureMOF.md" r:id="rId96"/>
+    <hyperlink ref="D48" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId97"/>
+    <hyperlink ref="A49" display="secureServer.md" r:id="rId98"/>
+    <hyperlink ref="D49" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId99"/>
+    <hyperlink ref="A50" display="serviceResource.md" r:id="rId100"/>
+    <hyperlink ref="D50" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId101"/>
+    <hyperlink ref="A51" display="OpenLoc is cool.md" r:id="rId102"/>
+    <hyperlink ref="D51" display="OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf" r:id="rId103"/>
+    <hyperlink ref="A52" display="SonjaFileToo.md" r:id="rId104"/>
+    <hyperlink ref="D52" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf" r:id="rId105"/>
+    <hyperlink ref="A53" display="TOC.md" r:id="rId106"/>
+    <hyperlink ref="D53" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId107"/>
+    <hyperlink ref="A54" display="troubleshooting.md" r:id="rId108"/>
+    <hyperlink ref="D54" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId109"/>
+    <hyperlink ref="A55" display="userResource.md" r:id="rId110"/>
+    <hyperlink ref="D55" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId111"/>
+    <hyperlink ref="A56" display="windowsfeatureResource.md" r:id="rId112"/>
+    <hyperlink ref="D56" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId113"/>
+    <hyperlink ref="A57" display="windowsProcessResource.md" r:id="rId114"/>
+    <hyperlink ref="D57" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId115"/>
+    <hyperlink ref="A58" display="README.md" r:id="rId116"/>
+    <hyperlink ref="D58" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId117"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t>File Name</t>
   </si>
@@ -49,6 +49,9 @@
     <t>authoringResource.md</t>
   </si>
   <si>
+    <t>2016-04-12 19:20:28</t>
+  </si>
+  <si>
     <t>authoringResourceClass.md</t>
   </si>
   <si>
@@ -196,276 +199,282 @@
     <t>SonjaFileToo.md</t>
   </si>
   <si>
+    <t>overview-test.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-04-12 06:50:20</t>
+  </si>
+  <si>
+    <t>TOC.md</t>
+  </si>
+  <si>
+    <t>troubleshooting.md</t>
+  </si>
+  <si>
+    <t>userResource.md</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.md</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.md</t>
+  </si>
+  <si>
+    <t>README.md</t>
+  </si>
+  <si>
+    <t>Source File Name</t>
+  </si>
+  <si>
+    <t>File Extension</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Latest Handoff File</t>
+  </si>
+  <si>
+    <t>Latest Handoff Datetime</t>
+  </si>
+  <si>
+    <t>Latest Target File</t>
+  </si>
+  <si>
+    <t>Latest Handback File</t>
+  </si>
+  <si>
+    <t>Latest Handback DateTime</t>
+  </si>
+  <si>
+    <t>Reference Tokens</t>
+  </si>
+  <si>
+    <t>Handoff Reason</t>
+  </si>
+  <si>
+    <t>Dependency From</t>
+  </si>
+  <si>
+    <t>Error Detail</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-01 08:28:27</t>
+  </si>
+  <si>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-12 19:20:18</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>.jpg</t>
+  </si>
+  <si>
+    <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
+  </si>
+  <si>
+    <t>IsDependency</t>
+  </si>
+  <si>
+    <t>dsc\partialConfigs.md</t>
+  </si>
+  <si>
+    <t>1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg</t>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
+    <t>86d829b1fcdd41e648ed0594eaf337b3726c143c.png</t>
+  </si>
+  <si>
+    <t>dsc\enactingConfigurations.md</t>
+  </si>
+  <si>
+    <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
+  </si>
+  <si>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-01 01:53:06</t>
+  </si>
+  <si>
+    <t>SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-12 06:50:10</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>overview.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-04-12 06:50:20</t>
-  </si>
-  <si>
-    <t>TOC.md</t>
-  </si>
-  <si>
-    <t>troubleshooting.md</t>
-  </si>
-  <si>
-    <t>userResource.md</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.md</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.md</t>
-  </si>
-  <si>
-    <t>README.md</t>
-  </si>
-  <si>
-    <t>Source File Name</t>
-  </si>
-  <si>
-    <t>File Extension</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Latest Handoff File</t>
-  </si>
-  <si>
-    <t>Latest Handoff Datetime</t>
-  </si>
-  <si>
-    <t>Latest Target File</t>
-  </si>
-  <si>
-    <t>Latest Handback File</t>
-  </si>
-  <si>
-    <t>Latest Handback DateTime</t>
-  </si>
-  <si>
-    <t>Reference Tokens</t>
-  </si>
-  <si>
-    <t>Handoff Reason</t>
-  </si>
-  <si>
-    <t>Dependency From</t>
-  </si>
-  <si>
-    <t>Error Detail</t>
-  </si>
-  <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-01 08:28:27</t>
-  </si>
-  <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>.jpg</t>
-  </si>
-  <si>
-    <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
-  </si>
-  <si>
-    <t>IsDependency</t>
-  </si>
-  <si>
-    <t>dsc\partialConfigs.md</t>
-  </si>
-  <si>
-    <t>1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>86d829b1fcdd41e648ed0594eaf337b3726c143c.png</t>
-  </si>
-  <si>
-    <t>dsc\enactingConfigurations.md</t>
-  </si>
-  <si>
-    <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
-  </si>
-  <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-01 01:53:06</t>
-  </si>
-  <si>
-    <t>SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-12 06:50:10</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>2016-04-12 16:11:00</t>
   </si>
   <si>
@@ -478,157 +487,157 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf</t>
   </si>
   <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 18:17:21</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 18:17:21</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
   </si>
 </sst>
 </file>
@@ -803,15 +812,15 @@
         <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>5</v>
@@ -825,7 +834,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>5</v>
@@ -839,7 +848,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>5</v>
@@ -853,7 +862,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>5</v>
@@ -867,7 +876,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>5</v>
@@ -881,7 +890,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>5</v>
@@ -895,7 +904,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>5</v>
@@ -909,7 +918,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>5</v>
@@ -923,7 +932,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>5</v>
@@ -937,7 +946,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>5</v>
@@ -951,7 +960,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>5</v>
@@ -965,7 +974,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>5</v>
@@ -979,7 +988,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>5</v>
@@ -988,26 +997,26 @@
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>5</v>
@@ -1016,12 +1025,12 @@
         <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>5</v>
@@ -1030,12 +1039,12 @@
         <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>5</v>
@@ -1049,7 +1058,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>5</v>
@@ -1063,7 +1072,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>5</v>
@@ -1077,7 +1086,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>5</v>
@@ -1091,7 +1100,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>5</v>
@@ -1105,7 +1114,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>5</v>
@@ -1119,7 +1128,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>5</v>
@@ -1133,7 +1142,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>5</v>
@@ -1147,7 +1156,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>5</v>
@@ -1161,7 +1170,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>5</v>
@@ -1175,7 +1184,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>5</v>
@@ -1189,7 +1198,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>5</v>
@@ -1203,7 +1212,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>5</v>
@@ -1217,7 +1226,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>5</v>
@@ -1231,7 +1240,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>5</v>
@@ -1245,7 +1254,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>5</v>
@@ -1259,7 +1268,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>5</v>
@@ -1273,7 +1282,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>5</v>
@@ -1287,7 +1296,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>5</v>
@@ -1301,7 +1310,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>5</v>
@@ -1315,7 +1324,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>5</v>
@@ -1329,7 +1338,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>5</v>
@@ -1343,7 +1352,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>5</v>
@@ -1357,7 +1366,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>5</v>
@@ -1371,7 +1380,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>5</v>
@@ -1385,7 +1394,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>5</v>
@@ -1399,7 +1408,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>5</v>
@@ -1413,7 +1422,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>5</v>
@@ -1427,7 +1436,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>5</v>
@@ -1441,7 +1450,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>5</v>
@@ -1450,12 +1459,12 @@
         <v>6</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>5</v>
@@ -1464,26 +1473,26 @@
         <v>6</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>5</v>
@@ -1497,7 +1506,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>5</v>
@@ -1511,7 +1520,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>5</v>
@@ -1525,7 +1534,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>5</v>
@@ -1539,7 +1548,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>5</v>
@@ -1553,7 +1562,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>5</v>
@@ -1617,7 +1626,7 @@
     <hyperlink ref="A49" display="serviceResource.md" r:id="rId49"/>
     <hyperlink ref="A50" display="OpenLoc is cool.md" r:id="rId50"/>
     <hyperlink ref="A51" display="SonjaFileToo.md" r:id="rId51"/>
-    <hyperlink ref="A52" display="overview.md" r:id="rId52"/>
+    <hyperlink ref="A52" display="overview-test.md" r:id="rId52"/>
     <hyperlink ref="A53" display="TOC.md" r:id="rId53"/>
     <hyperlink ref="A54" display="troubleshooting.md" r:id="rId54"/>
     <hyperlink ref="A55" display="userResource.md" r:id="rId55"/>
@@ -1656,40 +1665,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2">
@@ -1697,22 +1706,22 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -1720,22 +1729,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -1743,1276 +1752,1276 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>102</v>
-      </c>
       <c r="K18" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3117,7 +3126,7 @@
     <hyperlink ref="D50" display="OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.pt-br.xlf" r:id="rId99"/>
     <hyperlink ref="A51" display="SonjaFileToo.md" r:id="rId100"/>
     <hyperlink ref="D51" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.pt-br.xlf" r:id="rId101"/>
-    <hyperlink ref="A52" display="overview.md" r:id="rId102"/>
+    <hyperlink ref="A52" display="overview-test.md" r:id="rId102"/>
     <hyperlink ref="D52" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.pt-br.xlf" r:id="rId103"/>
     <hyperlink ref="A53" display="TOC.md" r:id="rId104"/>
     <hyperlink ref="D53" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.pt-br.xlf" r:id="rId105"/>
@@ -3163,69 +3172,69 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -3233,22 +3242,22 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -3256,1281 +3265,1281 @@
         <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>84</v>
+        <v>104</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="H19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>102</v>
-      </c>
       <c r="K19" s="0" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>152</v>
+        <v>59</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="overview.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="overview-test.md" r:id="rId2"/>
     <hyperlink ref="D2" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="F2" display="overview.md" r:id="rId4"/>
     <hyperlink ref="G2" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId5"/>
@@ -4538,114 +4547,114 @@
     <hyperlink ref="D3" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="A4" display="archiveResource.md" r:id="rId8"/>
     <hyperlink ref="D4" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="authoringResource.md" r:id="rId10"/>
-    <hyperlink ref="D5" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="authoringResourceClass.md" r:id="rId12"/>
-    <hyperlink ref="D6" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A7" display="authoringResourceComposite.md" r:id="rId14"/>
-    <hyperlink ref="D7" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A8" display="authoringResourceMOF.md" r:id="rId16"/>
-    <hyperlink ref="D8" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A9" display="authoringResourceMofCS.md" r:id="rId18"/>
-    <hyperlink ref="D9" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A10" display="authoringResourceMofDesigner.md" r:id="rId20"/>
-    <hyperlink ref="D10" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A11" display="builtInResource.md" r:id="rId22"/>
-    <hyperlink ref="D11" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId23"/>
-    <hyperlink ref="A12" display="configData.md" r:id="rId24"/>
-    <hyperlink ref="D12" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId25"/>
-    <hyperlink ref="A13" display="configurations.md" r:id="rId26"/>
-    <hyperlink ref="D13" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId27"/>
-    <hyperlink ref="A14" display="enactingConfigurations.md" r:id="rId28"/>
-    <hyperlink ref="D14" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId29"/>
-    <hyperlink ref="A15" display="environmentResource.md" r:id="rId30"/>
-    <hyperlink ref="D15" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId31"/>
-    <hyperlink ref="A16" display="fileResource.md" r:id="rId32"/>
-    <hyperlink ref="D16" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId33"/>
-    <hyperlink ref="A17" display="groupResource.md" r:id="rId34"/>
-    <hyperlink ref="D17" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId35"/>
-    <hyperlink ref="A18" display="PartialConfig1.jpg" r:id="rId36"/>
-    <hyperlink ref="D18" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId37"/>
-    <hyperlink ref="A19" display="PartialConfigPullServer.jpg" r:id="rId38"/>
-    <hyperlink ref="D19" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId39"/>
-    <hyperlink ref="A20" display="Pull.png" r:id="rId40"/>
-    <hyperlink ref="D20" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId41"/>
-    <hyperlink ref="A21" display="Push.png" r:id="rId42"/>
-    <hyperlink ref="D21" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId43"/>
-    <hyperlink ref="A22" display="lnxArchiveResource.md" r:id="rId44"/>
-    <hyperlink ref="D22" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId45"/>
-    <hyperlink ref="A23" display="lnxBuiltInResources.md" r:id="rId46"/>
-    <hyperlink ref="D23" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId47"/>
-    <hyperlink ref="A24" display="lnxEnvironmentResource.md" r:id="rId48"/>
-    <hyperlink ref="D24" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId49"/>
-    <hyperlink ref="A25" display="lnxFileLineResource.md" r:id="rId50"/>
-    <hyperlink ref="D25" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId51"/>
-    <hyperlink ref="A26" display="lnxFileResource.md" r:id="rId52"/>
-    <hyperlink ref="D26" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId53"/>
-    <hyperlink ref="A27" display="lnxGettingStarted.md" r:id="rId54"/>
-    <hyperlink ref="D27" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId55"/>
-    <hyperlink ref="A28" display="lnxGroupResource.md" r:id="rId56"/>
-    <hyperlink ref="D28" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId57"/>
-    <hyperlink ref="A29" display="lnxPackageResource.md" r:id="rId58"/>
-    <hyperlink ref="D29" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId59"/>
-    <hyperlink ref="A30" display="lnxScriptResource.md" r:id="rId60"/>
-    <hyperlink ref="D30" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId61"/>
-    <hyperlink ref="A31" display="lnxServiceResource.md" r:id="rId62"/>
-    <hyperlink ref="D31" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId63"/>
-    <hyperlink ref="A32" display="lnxSshAuthorizedKeysResource.md" r:id="rId64"/>
-    <hyperlink ref="D32" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId65"/>
-    <hyperlink ref="A33" display="lnxUserResource.md" r:id="rId66"/>
-    <hyperlink ref="D33" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId67"/>
-    <hyperlink ref="A34" display="logResource.md" r:id="rId68"/>
-    <hyperlink ref="D34" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId69"/>
-    <hyperlink ref="A35" display="metaConfig.md" r:id="rId70"/>
-    <hyperlink ref="D35" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId71"/>
-    <hyperlink ref="A36" display="metaConfig4.md" r:id="rId72"/>
-    <hyperlink ref="D36" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId73"/>
-    <hyperlink ref="A37" display="packageResource.md" r:id="rId74"/>
-    <hyperlink ref="D37" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId75"/>
-    <hyperlink ref="A38" display="partialConfigs.md" r:id="rId76"/>
-    <hyperlink ref="D38" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId77"/>
-    <hyperlink ref="A39" display="pullClient.md" r:id="rId78"/>
-    <hyperlink ref="D39" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId79"/>
-    <hyperlink ref="A40" display="pullClientConfigID.md" r:id="rId80"/>
-    <hyperlink ref="D40" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId81"/>
-    <hyperlink ref="A41" display="pullClientConfigID4.md" r:id="rId82"/>
-    <hyperlink ref="D41" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId83"/>
-    <hyperlink ref="A42" display="pullClientConfigNames.md" r:id="rId84"/>
-    <hyperlink ref="D42" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId85"/>
-    <hyperlink ref="A43" display="pullServer.md" r:id="rId86"/>
-    <hyperlink ref="D43" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId87"/>
-    <hyperlink ref="A44" display="queryServerNodes.md" r:id="rId88"/>
-    <hyperlink ref="D44" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId89"/>
-    <hyperlink ref="A45" display="registryResource.md" r:id="rId90"/>
-    <hyperlink ref="D45" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId91"/>
-    <hyperlink ref="A46" display="resources.md" r:id="rId92"/>
-    <hyperlink ref="D46" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId93"/>
-    <hyperlink ref="A47" display="scriptResource.md" r:id="rId94"/>
-    <hyperlink ref="D47" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId95"/>
-    <hyperlink ref="A48" display="secureMOF.md" r:id="rId96"/>
-    <hyperlink ref="D48" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId97"/>
-    <hyperlink ref="A49" display="secureServer.md" r:id="rId98"/>
-    <hyperlink ref="D49" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId99"/>
-    <hyperlink ref="A50" display="serviceResource.md" r:id="rId100"/>
-    <hyperlink ref="D50" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId101"/>
-    <hyperlink ref="A51" display="OpenLoc is cool.md" r:id="rId102"/>
-    <hyperlink ref="D51" display="OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf" r:id="rId103"/>
-    <hyperlink ref="A52" display="SonjaFileToo.md" r:id="rId104"/>
-    <hyperlink ref="D52" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf" r:id="rId105"/>
-    <hyperlink ref="A53" display="TOC.md" r:id="rId106"/>
-    <hyperlink ref="D53" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId107"/>
-    <hyperlink ref="A54" display="troubleshooting.md" r:id="rId108"/>
-    <hyperlink ref="D54" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId109"/>
-    <hyperlink ref="A55" display="userResource.md" r:id="rId110"/>
-    <hyperlink ref="D55" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId111"/>
-    <hyperlink ref="A56" display="windowsfeatureResource.md" r:id="rId112"/>
-    <hyperlink ref="D56" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId113"/>
-    <hyperlink ref="A57" display="windowsProcessResource.md" r:id="rId114"/>
-    <hyperlink ref="D57" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId115"/>
-    <hyperlink ref="A58" display="README.md" r:id="rId116"/>
-    <hyperlink ref="D58" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId117"/>
+    <hyperlink ref="A5" display="authoringResourceClass.md" r:id="rId10"/>
+    <hyperlink ref="D5" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="authoringResourceComposite.md" r:id="rId12"/>
+    <hyperlink ref="D6" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A7" display="authoringResourceMOF.md" r:id="rId14"/>
+    <hyperlink ref="D7" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A8" display="authoringResourceMofCS.md" r:id="rId16"/>
+    <hyperlink ref="D8" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A9" display="authoringResourceMofDesigner.md" r:id="rId18"/>
+    <hyperlink ref="D9" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A10" display="builtInResource.md" r:id="rId20"/>
+    <hyperlink ref="D10" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A11" display="configData.md" r:id="rId22"/>
+    <hyperlink ref="D11" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A12" display="configurations.md" r:id="rId24"/>
+    <hyperlink ref="D12" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A13" display="enactingConfigurations.md" r:id="rId26"/>
+    <hyperlink ref="D13" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="A14" display="environmentResource.md" r:id="rId28"/>
+    <hyperlink ref="D14" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId29"/>
+    <hyperlink ref="A15" display="fileResource.md" r:id="rId30"/>
+    <hyperlink ref="D15" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId31"/>
+    <hyperlink ref="A16" display="groupResource.md" r:id="rId32"/>
+    <hyperlink ref="D16" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId33"/>
+    <hyperlink ref="A17" display="PartialConfig1.jpg" r:id="rId34"/>
+    <hyperlink ref="D17" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId35"/>
+    <hyperlink ref="A18" display="PartialConfigPullServer.jpg" r:id="rId36"/>
+    <hyperlink ref="D18" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId37"/>
+    <hyperlink ref="A19" display="Pull.png" r:id="rId38"/>
+    <hyperlink ref="D19" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId39"/>
+    <hyperlink ref="A20" display="Push.png" r:id="rId40"/>
+    <hyperlink ref="D20" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId41"/>
+    <hyperlink ref="A21" display="lnxArchiveResource.md" r:id="rId42"/>
+    <hyperlink ref="D21" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId43"/>
+    <hyperlink ref="A22" display="lnxBuiltInResources.md" r:id="rId44"/>
+    <hyperlink ref="D22" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId45"/>
+    <hyperlink ref="A23" display="lnxEnvironmentResource.md" r:id="rId46"/>
+    <hyperlink ref="D23" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId47"/>
+    <hyperlink ref="A24" display="lnxFileLineResource.md" r:id="rId48"/>
+    <hyperlink ref="D24" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId49"/>
+    <hyperlink ref="A25" display="lnxFileResource.md" r:id="rId50"/>
+    <hyperlink ref="D25" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId51"/>
+    <hyperlink ref="A26" display="lnxGettingStarted.md" r:id="rId52"/>
+    <hyperlink ref="D26" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId53"/>
+    <hyperlink ref="A27" display="lnxGroupResource.md" r:id="rId54"/>
+    <hyperlink ref="D27" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId55"/>
+    <hyperlink ref="A28" display="lnxPackageResource.md" r:id="rId56"/>
+    <hyperlink ref="D28" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId57"/>
+    <hyperlink ref="A29" display="lnxScriptResource.md" r:id="rId58"/>
+    <hyperlink ref="D29" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId59"/>
+    <hyperlink ref="A30" display="lnxServiceResource.md" r:id="rId60"/>
+    <hyperlink ref="D30" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId61"/>
+    <hyperlink ref="A31" display="lnxSshAuthorizedKeysResource.md" r:id="rId62"/>
+    <hyperlink ref="D31" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId63"/>
+    <hyperlink ref="A32" display="lnxUserResource.md" r:id="rId64"/>
+    <hyperlink ref="D32" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId65"/>
+    <hyperlink ref="A33" display="logResource.md" r:id="rId66"/>
+    <hyperlink ref="D33" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId67"/>
+    <hyperlink ref="A34" display="metaConfig.md" r:id="rId68"/>
+    <hyperlink ref="D34" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId69"/>
+    <hyperlink ref="A35" display="metaConfig4.md" r:id="rId70"/>
+    <hyperlink ref="D35" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId71"/>
+    <hyperlink ref="A36" display="packageResource.md" r:id="rId72"/>
+    <hyperlink ref="D36" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId73"/>
+    <hyperlink ref="A37" display="partialConfigs.md" r:id="rId74"/>
+    <hyperlink ref="D37" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId75"/>
+    <hyperlink ref="A38" display="pullClient.md" r:id="rId76"/>
+    <hyperlink ref="D38" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId77"/>
+    <hyperlink ref="A39" display="pullClientConfigID.md" r:id="rId78"/>
+    <hyperlink ref="D39" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId79"/>
+    <hyperlink ref="A40" display="pullClientConfigID4.md" r:id="rId80"/>
+    <hyperlink ref="D40" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId81"/>
+    <hyperlink ref="A41" display="pullClientConfigNames.md" r:id="rId82"/>
+    <hyperlink ref="D41" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId83"/>
+    <hyperlink ref="A42" display="pullServer.md" r:id="rId84"/>
+    <hyperlink ref="D42" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId85"/>
+    <hyperlink ref="A43" display="queryServerNodes.md" r:id="rId86"/>
+    <hyperlink ref="D43" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId87"/>
+    <hyperlink ref="A44" display="registryResource.md" r:id="rId88"/>
+    <hyperlink ref="D44" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId89"/>
+    <hyperlink ref="A45" display="resources.md" r:id="rId90"/>
+    <hyperlink ref="D45" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId91"/>
+    <hyperlink ref="A46" display="scriptResource.md" r:id="rId92"/>
+    <hyperlink ref="D46" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId93"/>
+    <hyperlink ref="A47" display="secureMOF.md" r:id="rId94"/>
+    <hyperlink ref="D47" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId95"/>
+    <hyperlink ref="A48" display="secureServer.md" r:id="rId96"/>
+    <hyperlink ref="D48" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId97"/>
+    <hyperlink ref="A49" display="serviceResource.md" r:id="rId98"/>
+    <hyperlink ref="D49" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId99"/>
+    <hyperlink ref="A50" display="OpenLoc is cool.md" r:id="rId100"/>
+    <hyperlink ref="D50" display="OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf" r:id="rId101"/>
+    <hyperlink ref="A51" display="SonjaFileToo.md" r:id="rId102"/>
+    <hyperlink ref="D51" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf" r:id="rId103"/>
+    <hyperlink ref="A52" display="TOC.md" r:id="rId104"/>
+    <hyperlink ref="D52" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId105"/>
+    <hyperlink ref="A53" display="troubleshooting.md" r:id="rId106"/>
+    <hyperlink ref="D53" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId107"/>
+    <hyperlink ref="A54" display="userResource.md" r:id="rId108"/>
+    <hyperlink ref="D54" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId109"/>
+    <hyperlink ref="A55" display="windowsfeatureResource.md" r:id="rId110"/>
+    <hyperlink ref="D55" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId111"/>
+    <hyperlink ref="A56" display="windowsProcessResource.md" r:id="rId112"/>
+    <hyperlink ref="D56" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId113"/>
+    <hyperlink ref="A57" display="README.md" r:id="rId114"/>
+    <hyperlink ref="D57" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId115"/>
+    <hyperlink ref="A58" display="authoringResource.md" r:id="rId116"/>
+    <hyperlink ref="D58" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId117"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
@@ -199,13 +199,10 @@
     <t>SonjaFileToo.md</t>
   </si>
   <si>
-    <t>overview-test.md</t>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-04-12 06:50:20</t>
+    <t>overview-test2.md</t>
+  </si>
+  <si>
+    <t>2016-04-12 22:31:06</t>
   </si>
   <si>
     <t>TOC.md</t>
@@ -445,10 +442,10 @@
     <t>SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.pt-br.xlf</t>
   </si>
   <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.pt-br.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-12 06:50:10</t>
+    <t>overview-test2.b82580217442d4533cc66897b1a1a51a6f090168.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-12 22:30:56</t>
   </si>
   <si>
     <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.pt-br.xlf</t>
@@ -469,175 +466,178 @@
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pt-br.xlf</t>
   </si>
   <si>
+    <t>CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-05 07:28:47</t>
+  </si>
+  <si>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 18:17:21</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>overview-test2.b82580217442d4533cc66897b1a1a51a6f090168.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>overview.md</t>
+  </si>
+  <si>
     <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf</t>
   </si>
   <si>
-    <t>overview.md</t>
-  </si>
-  <si>
     <t>2016-04-12 16:11:00</t>
-  </si>
-  <si>
-    <t>CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-05 07:28:47</t>
-  </si>
-  <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 18:17:21</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf</t>
   </si>
 </sst>
 </file>
@@ -1484,15 +1484,15 @@
         <v>5</v>
       </c>
       <c r="C52" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>5</v>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>5</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>5</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>5</v>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>5</v>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>5</v>
@@ -1626,7 +1626,7 @@
     <hyperlink ref="A49" display="serviceResource.md" r:id="rId49"/>
     <hyperlink ref="A50" display="OpenLoc is cool.md" r:id="rId50"/>
     <hyperlink ref="A51" display="SonjaFileToo.md" r:id="rId51"/>
-    <hyperlink ref="A52" display="overview-test.md" r:id="rId52"/>
+    <hyperlink ref="A52" display="overview-test2.md" r:id="rId52"/>
     <hyperlink ref="A53" display="TOC.md" r:id="rId53"/>
     <hyperlink ref="A54" display="troubleshooting.md" r:id="rId54"/>
     <hyperlink ref="A55" display="userResource.md" r:id="rId55"/>
@@ -1665,40 +1665,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>80</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2">
@@ -1706,22 +1706,22 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
@@ -1729,22 +1729,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
@@ -1752,22 +1752,22 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
@@ -1775,22 +1775,22 @@
         <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -1798,22 +1798,22 @@
         <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -1821,22 +1821,22 @@
         <v>14</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -1844,22 +1844,22 @@
         <v>15</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
@@ -1867,22 +1867,22 @@
         <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10">
@@ -1890,22 +1890,22 @@
         <v>17</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
@@ -1913,22 +1913,22 @@
         <v>18</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
@@ -1936,22 +1936,22 @@
         <v>19</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
@@ -1959,22 +1959,22 @@
         <v>20</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
@@ -1982,22 +1982,22 @@
         <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
@@ -2005,22 +2005,22 @@
         <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
@@ -2028,22 +2028,22 @@
         <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
@@ -2051,25 +2051,25 @@
         <v>24</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J17" s="0" t="s">
+      <c r="K17" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -2077,25 +2077,25 @@
         <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J18" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="K18" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="19">
@@ -2103,25 +2103,25 @@
         <v>27</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="20">
@@ -2129,25 +2129,25 @@
         <v>28</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21">
@@ -2155,22 +2155,22 @@
         <v>29</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
@@ -2178,22 +2178,22 @@
         <v>30</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
@@ -2201,22 +2201,22 @@
         <v>31</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
@@ -2224,22 +2224,22 @@
         <v>32</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25">
@@ -2247,22 +2247,22 @@
         <v>33</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
@@ -2270,22 +2270,22 @@
         <v>34</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27">
@@ -2293,22 +2293,22 @@
         <v>35</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
@@ -2316,22 +2316,22 @@
         <v>36</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
@@ -2339,22 +2339,22 @@
         <v>37</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
@@ -2362,22 +2362,22 @@
         <v>38</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
@@ -2385,22 +2385,22 @@
         <v>39</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
@@ -2408,22 +2408,22 @@
         <v>40</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33">
@@ -2431,22 +2431,22 @@
         <v>41</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34">
@@ -2454,22 +2454,22 @@
         <v>42</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35">
@@ -2477,22 +2477,22 @@
         <v>43</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36">
@@ -2500,22 +2500,22 @@
         <v>44</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37">
@@ -2523,22 +2523,22 @@
         <v>45</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
@@ -2546,22 +2546,22 @@
         <v>46</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39">
@@ -2569,22 +2569,22 @@
         <v>47</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40">
@@ -2592,22 +2592,22 @@
         <v>48</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41">
@@ -2615,22 +2615,22 @@
         <v>49</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42">
@@ -2638,22 +2638,22 @@
         <v>50</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
@@ -2661,22 +2661,22 @@
         <v>51</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44">
@@ -2684,22 +2684,22 @@
         <v>52</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45">
@@ -2707,22 +2707,22 @@
         <v>53</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46">
@@ -2730,22 +2730,22 @@
         <v>54</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47">
@@ -2753,22 +2753,22 @@
         <v>55</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48">
@@ -2776,22 +2776,22 @@
         <v>56</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49">
@@ -2799,22 +2799,22 @@
         <v>57</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50">
@@ -2822,22 +2822,22 @@
         <v>58</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="H50" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51">
@@ -2845,22 +2845,22 @@
         <v>60</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52">
@@ -2868,160 +2868,160 @@
         <v>61</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="H52" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3126,8 +3126,8 @@
     <hyperlink ref="D50" display="OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.pt-br.xlf" r:id="rId99"/>
     <hyperlink ref="A51" display="SonjaFileToo.md" r:id="rId100"/>
     <hyperlink ref="D51" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.pt-br.xlf" r:id="rId101"/>
-    <hyperlink ref="A52" display="overview-test.md" r:id="rId102"/>
-    <hyperlink ref="D52" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.pt-br.xlf" r:id="rId103"/>
+    <hyperlink ref="A52" display="overview-test2.md" r:id="rId102"/>
+    <hyperlink ref="D52" display="overview-test2.b82580217442d4533cc66897b1a1a51a6f090168.pt-br.xlf" r:id="rId103"/>
     <hyperlink ref="A53" display="TOC.md" r:id="rId104"/>
     <hyperlink ref="D53" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.pt-br.xlf" r:id="rId105"/>
     <hyperlink ref="A54" display="troubleshooting.md" r:id="rId106"/>
@@ -3172,1208 +3172,1202 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>80</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>85</v>
+        <v>103</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J17" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52">
@@ -4381,22 +4375,22 @@
         <v>64</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53">
@@ -4404,22 +4398,22 @@
         <v>65</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54">
@@ -4427,22 +4421,22 @@
         <v>66</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55">
@@ -4450,22 +4444,22 @@
         <v>67</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56">
@@ -4473,188 +4467,194 @@
         <v>68</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="J58" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="overview-test.md" r:id="rId2"/>
-    <hyperlink ref="D2" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="F2" display="overview.md" r:id="rId4"/>
-    <hyperlink ref="G2" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="CONTRIBUTING.md" r:id="rId6"/>
-    <hyperlink ref="D3" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="archiveResource.md" r:id="rId8"/>
-    <hyperlink ref="D4" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="authoringResourceClass.md" r:id="rId10"/>
-    <hyperlink ref="D5" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="authoringResourceComposite.md" r:id="rId12"/>
-    <hyperlink ref="D6" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A7" display="authoringResourceMOF.md" r:id="rId14"/>
-    <hyperlink ref="D7" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A8" display="authoringResourceMofCS.md" r:id="rId16"/>
-    <hyperlink ref="D8" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A9" display="authoringResourceMofDesigner.md" r:id="rId18"/>
-    <hyperlink ref="D9" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A10" display="builtInResource.md" r:id="rId20"/>
-    <hyperlink ref="D10" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A11" display="configData.md" r:id="rId22"/>
-    <hyperlink ref="D11" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId23"/>
-    <hyperlink ref="A12" display="configurations.md" r:id="rId24"/>
-    <hyperlink ref="D12" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId25"/>
-    <hyperlink ref="A13" display="enactingConfigurations.md" r:id="rId26"/>
-    <hyperlink ref="D13" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId27"/>
-    <hyperlink ref="A14" display="environmentResource.md" r:id="rId28"/>
-    <hyperlink ref="D14" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId29"/>
-    <hyperlink ref="A15" display="fileResource.md" r:id="rId30"/>
-    <hyperlink ref="D15" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId31"/>
-    <hyperlink ref="A16" display="groupResource.md" r:id="rId32"/>
-    <hyperlink ref="D16" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId33"/>
-    <hyperlink ref="A17" display="PartialConfig1.jpg" r:id="rId34"/>
-    <hyperlink ref="D17" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId35"/>
-    <hyperlink ref="A18" display="PartialConfigPullServer.jpg" r:id="rId36"/>
-    <hyperlink ref="D18" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId37"/>
-    <hyperlink ref="A19" display="Pull.png" r:id="rId38"/>
-    <hyperlink ref="D19" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId39"/>
-    <hyperlink ref="A20" display="Push.png" r:id="rId40"/>
-    <hyperlink ref="D20" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId41"/>
-    <hyperlink ref="A21" display="lnxArchiveResource.md" r:id="rId42"/>
-    <hyperlink ref="D21" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId43"/>
-    <hyperlink ref="A22" display="lnxBuiltInResources.md" r:id="rId44"/>
-    <hyperlink ref="D22" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId45"/>
-    <hyperlink ref="A23" display="lnxEnvironmentResource.md" r:id="rId46"/>
-    <hyperlink ref="D23" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId47"/>
-    <hyperlink ref="A24" display="lnxFileLineResource.md" r:id="rId48"/>
-    <hyperlink ref="D24" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId49"/>
-    <hyperlink ref="A25" display="lnxFileResource.md" r:id="rId50"/>
-    <hyperlink ref="D25" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId51"/>
-    <hyperlink ref="A26" display="lnxGettingStarted.md" r:id="rId52"/>
-    <hyperlink ref="D26" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId53"/>
-    <hyperlink ref="A27" display="lnxGroupResource.md" r:id="rId54"/>
-    <hyperlink ref="D27" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId55"/>
-    <hyperlink ref="A28" display="lnxPackageResource.md" r:id="rId56"/>
-    <hyperlink ref="D28" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId57"/>
-    <hyperlink ref="A29" display="lnxScriptResource.md" r:id="rId58"/>
-    <hyperlink ref="D29" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId59"/>
-    <hyperlink ref="A30" display="lnxServiceResource.md" r:id="rId60"/>
-    <hyperlink ref="D30" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId61"/>
-    <hyperlink ref="A31" display="lnxSshAuthorizedKeysResource.md" r:id="rId62"/>
-    <hyperlink ref="D31" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId63"/>
-    <hyperlink ref="A32" display="lnxUserResource.md" r:id="rId64"/>
-    <hyperlink ref="D32" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId65"/>
-    <hyperlink ref="A33" display="logResource.md" r:id="rId66"/>
-    <hyperlink ref="D33" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId67"/>
-    <hyperlink ref="A34" display="metaConfig.md" r:id="rId68"/>
-    <hyperlink ref="D34" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId69"/>
-    <hyperlink ref="A35" display="metaConfig4.md" r:id="rId70"/>
-    <hyperlink ref="D35" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId71"/>
-    <hyperlink ref="A36" display="packageResource.md" r:id="rId72"/>
-    <hyperlink ref="D36" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId73"/>
-    <hyperlink ref="A37" display="partialConfigs.md" r:id="rId74"/>
-    <hyperlink ref="D37" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId75"/>
-    <hyperlink ref="A38" display="pullClient.md" r:id="rId76"/>
-    <hyperlink ref="D38" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId77"/>
-    <hyperlink ref="A39" display="pullClientConfigID.md" r:id="rId78"/>
-    <hyperlink ref="D39" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId79"/>
-    <hyperlink ref="A40" display="pullClientConfigID4.md" r:id="rId80"/>
-    <hyperlink ref="D40" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId81"/>
-    <hyperlink ref="A41" display="pullClientConfigNames.md" r:id="rId82"/>
-    <hyperlink ref="D41" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId83"/>
-    <hyperlink ref="A42" display="pullServer.md" r:id="rId84"/>
-    <hyperlink ref="D42" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId85"/>
-    <hyperlink ref="A43" display="queryServerNodes.md" r:id="rId86"/>
-    <hyperlink ref="D43" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId87"/>
-    <hyperlink ref="A44" display="registryResource.md" r:id="rId88"/>
-    <hyperlink ref="D44" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId89"/>
-    <hyperlink ref="A45" display="resources.md" r:id="rId90"/>
-    <hyperlink ref="D45" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId91"/>
-    <hyperlink ref="A46" display="scriptResource.md" r:id="rId92"/>
-    <hyperlink ref="D46" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId93"/>
-    <hyperlink ref="A47" display="secureMOF.md" r:id="rId94"/>
-    <hyperlink ref="D47" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId95"/>
-    <hyperlink ref="A48" display="secureServer.md" r:id="rId96"/>
-    <hyperlink ref="D48" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId97"/>
-    <hyperlink ref="A49" display="serviceResource.md" r:id="rId98"/>
-    <hyperlink ref="D49" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId99"/>
-    <hyperlink ref="A50" display="OpenLoc is cool.md" r:id="rId100"/>
-    <hyperlink ref="D50" display="OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf" r:id="rId101"/>
-    <hyperlink ref="A51" display="SonjaFileToo.md" r:id="rId102"/>
-    <hyperlink ref="D51" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf" r:id="rId103"/>
-    <hyperlink ref="A52" display="TOC.md" r:id="rId104"/>
-    <hyperlink ref="D52" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId105"/>
-    <hyperlink ref="A53" display="troubleshooting.md" r:id="rId106"/>
-    <hyperlink ref="D53" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId107"/>
-    <hyperlink ref="A54" display="userResource.md" r:id="rId108"/>
-    <hyperlink ref="D54" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId109"/>
-    <hyperlink ref="A55" display="windowsfeatureResource.md" r:id="rId110"/>
-    <hyperlink ref="D55" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId111"/>
-    <hyperlink ref="A56" display="windowsProcessResource.md" r:id="rId112"/>
-    <hyperlink ref="D56" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId113"/>
-    <hyperlink ref="A57" display="README.md" r:id="rId114"/>
-    <hyperlink ref="D57" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId115"/>
-    <hyperlink ref="A58" display="authoringResource.md" r:id="rId116"/>
-    <hyperlink ref="D58" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId117"/>
+    <hyperlink ref="A2" display="CONTRIBUTING.md" r:id="rId2"/>
+    <hyperlink ref="D2" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="archiveResource.md" r:id="rId4"/>
+    <hyperlink ref="D3" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="authoringResourceClass.md" r:id="rId6"/>
+    <hyperlink ref="D4" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="authoringResourceComposite.md" r:id="rId8"/>
+    <hyperlink ref="D5" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display="authoringResourceMOF.md" r:id="rId10"/>
+    <hyperlink ref="D6" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="authoringResourceMofCS.md" r:id="rId12"/>
+    <hyperlink ref="D7" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="authoringResourceMofDesigner.md" r:id="rId14"/>
+    <hyperlink ref="D8" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="builtInResource.md" r:id="rId16"/>
+    <hyperlink ref="D9" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="configData.md" r:id="rId18"/>
+    <hyperlink ref="D10" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="configurations.md" r:id="rId20"/>
+    <hyperlink ref="D11" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="enactingConfigurations.md" r:id="rId22"/>
+    <hyperlink ref="D12" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A13" display="environmentResource.md" r:id="rId24"/>
+    <hyperlink ref="D13" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A14" display="fileResource.md" r:id="rId26"/>
+    <hyperlink ref="D14" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="A15" display="groupResource.md" r:id="rId28"/>
+    <hyperlink ref="D15" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId29"/>
+    <hyperlink ref="A16" display="PartialConfig1.jpg" r:id="rId30"/>
+    <hyperlink ref="D16" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId31"/>
+    <hyperlink ref="A17" display="PartialConfigPullServer.jpg" r:id="rId32"/>
+    <hyperlink ref="D17" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId33"/>
+    <hyperlink ref="A18" display="Pull.png" r:id="rId34"/>
+    <hyperlink ref="D18" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId35"/>
+    <hyperlink ref="A19" display="Push.png" r:id="rId36"/>
+    <hyperlink ref="D19" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId37"/>
+    <hyperlink ref="A20" display="lnxArchiveResource.md" r:id="rId38"/>
+    <hyperlink ref="D20" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId39"/>
+    <hyperlink ref="A21" display="lnxBuiltInResources.md" r:id="rId40"/>
+    <hyperlink ref="D21" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId41"/>
+    <hyperlink ref="A22" display="lnxEnvironmentResource.md" r:id="rId42"/>
+    <hyperlink ref="D22" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId43"/>
+    <hyperlink ref="A23" display="lnxFileLineResource.md" r:id="rId44"/>
+    <hyperlink ref="D23" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId45"/>
+    <hyperlink ref="A24" display="lnxFileResource.md" r:id="rId46"/>
+    <hyperlink ref="D24" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId47"/>
+    <hyperlink ref="A25" display="lnxGettingStarted.md" r:id="rId48"/>
+    <hyperlink ref="D25" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId49"/>
+    <hyperlink ref="A26" display="lnxGroupResource.md" r:id="rId50"/>
+    <hyperlink ref="D26" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId51"/>
+    <hyperlink ref="A27" display="lnxPackageResource.md" r:id="rId52"/>
+    <hyperlink ref="D27" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId53"/>
+    <hyperlink ref="A28" display="lnxScriptResource.md" r:id="rId54"/>
+    <hyperlink ref="D28" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId55"/>
+    <hyperlink ref="A29" display="lnxServiceResource.md" r:id="rId56"/>
+    <hyperlink ref="D29" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId57"/>
+    <hyperlink ref="A30" display="lnxSshAuthorizedKeysResource.md" r:id="rId58"/>
+    <hyperlink ref="D30" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId59"/>
+    <hyperlink ref="A31" display="lnxUserResource.md" r:id="rId60"/>
+    <hyperlink ref="D31" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId61"/>
+    <hyperlink ref="A32" display="logResource.md" r:id="rId62"/>
+    <hyperlink ref="D32" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId63"/>
+    <hyperlink ref="A33" display="metaConfig.md" r:id="rId64"/>
+    <hyperlink ref="D33" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId65"/>
+    <hyperlink ref="A34" display="metaConfig4.md" r:id="rId66"/>
+    <hyperlink ref="D34" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId67"/>
+    <hyperlink ref="A35" display="packageResource.md" r:id="rId68"/>
+    <hyperlink ref="D35" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId69"/>
+    <hyperlink ref="A36" display="partialConfigs.md" r:id="rId70"/>
+    <hyperlink ref="D36" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId71"/>
+    <hyperlink ref="A37" display="pullClient.md" r:id="rId72"/>
+    <hyperlink ref="D37" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId73"/>
+    <hyperlink ref="A38" display="pullClientConfigID.md" r:id="rId74"/>
+    <hyperlink ref="D38" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId75"/>
+    <hyperlink ref="A39" display="pullClientConfigID4.md" r:id="rId76"/>
+    <hyperlink ref="D39" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId77"/>
+    <hyperlink ref="A40" display="pullClientConfigNames.md" r:id="rId78"/>
+    <hyperlink ref="D40" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId79"/>
+    <hyperlink ref="A41" display="pullServer.md" r:id="rId80"/>
+    <hyperlink ref="D41" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId81"/>
+    <hyperlink ref="A42" display="queryServerNodes.md" r:id="rId82"/>
+    <hyperlink ref="D42" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId83"/>
+    <hyperlink ref="A43" display="registryResource.md" r:id="rId84"/>
+    <hyperlink ref="D43" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId85"/>
+    <hyperlink ref="A44" display="resources.md" r:id="rId86"/>
+    <hyperlink ref="D44" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId87"/>
+    <hyperlink ref="A45" display="scriptResource.md" r:id="rId88"/>
+    <hyperlink ref="D45" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId89"/>
+    <hyperlink ref="A46" display="secureMOF.md" r:id="rId90"/>
+    <hyperlink ref="D46" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId91"/>
+    <hyperlink ref="A47" display="secureServer.md" r:id="rId92"/>
+    <hyperlink ref="D47" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId93"/>
+    <hyperlink ref="A48" display="serviceResource.md" r:id="rId94"/>
+    <hyperlink ref="D48" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId95"/>
+    <hyperlink ref="A49" display="OpenLoc is cool.md" r:id="rId96"/>
+    <hyperlink ref="D49" display="OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf" r:id="rId97"/>
+    <hyperlink ref="A50" display="SonjaFileToo.md" r:id="rId98"/>
+    <hyperlink ref="D50" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf" r:id="rId99"/>
+    <hyperlink ref="A51" display="TOC.md" r:id="rId100"/>
+    <hyperlink ref="D51" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId101"/>
+    <hyperlink ref="A52" display="troubleshooting.md" r:id="rId102"/>
+    <hyperlink ref="D52" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId103"/>
+    <hyperlink ref="A53" display="userResource.md" r:id="rId104"/>
+    <hyperlink ref="D53" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId105"/>
+    <hyperlink ref="A54" display="windowsfeatureResource.md" r:id="rId106"/>
+    <hyperlink ref="D54" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId107"/>
+    <hyperlink ref="A55" display="windowsProcessResource.md" r:id="rId108"/>
+    <hyperlink ref="D55" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId109"/>
+    <hyperlink ref="A56" display="README.md" r:id="rId110"/>
+    <hyperlink ref="D56" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId111"/>
+    <hyperlink ref="A57" display="authoringResource.md" r:id="rId112"/>
+    <hyperlink ref="D57" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId113"/>
+    <hyperlink ref="A58" display="overview-test2.md" r:id="rId114"/>
+    <hyperlink ref="D58" display="overview-test2.b82580217442d4533cc66897b1a1a51a6f090168.zh-cn.xlf" r:id="rId115"/>
+    <hyperlink ref="F58" display="overview.md" r:id="rId116"/>
+    <hyperlink ref="G58" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId117"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
   <si>
     <t>File Name</t>
   </si>
@@ -49,6 +49,9 @@
     <t>authoringResource.md</t>
   </si>
   <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>2016-04-12 19:20:28</t>
   </si>
   <si>
@@ -466,6 +469,12 @@
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pt-br.xlf</t>
   </si>
   <si>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-12 22:40:49</t>
+  </si>
+  <si>
     <t>CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf</t>
   </si>
   <si>
@@ -623,9 +632,6 @@
   </si>
   <si>
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf</t>
   </si>
   <si>
     <t>overview-test2.b82580217442d4533cc66897b1a1a51a6f090168.zh-cn.xlf</t>
@@ -812,15 +818,15 @@
         <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>5</v>
@@ -834,7 +840,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>5</v>
@@ -848,7 +854,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>5</v>
@@ -862,7 +868,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>5</v>
@@ -876,7 +882,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>5</v>
@@ -890,7 +896,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>5</v>
@@ -904,7 +910,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>5</v>
@@ -918,7 +924,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>5</v>
@@ -932,7 +938,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>5</v>
@@ -946,7 +952,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>5</v>
@@ -960,7 +966,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>5</v>
@@ -974,7 +980,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>5</v>
@@ -988,7 +994,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>5</v>
@@ -997,26 +1003,26 @@
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>5</v>
@@ -1025,12 +1031,12 @@
         <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>5</v>
@@ -1039,12 +1045,12 @@
         <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>5</v>
@@ -1058,7 +1064,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>5</v>
@@ -1072,7 +1078,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>5</v>
@@ -1086,7 +1092,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>5</v>
@@ -1100,7 +1106,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>5</v>
@@ -1114,7 +1120,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>5</v>
@@ -1128,7 +1134,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>5</v>
@@ -1142,7 +1148,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>5</v>
@@ -1156,7 +1162,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>5</v>
@@ -1170,7 +1176,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>5</v>
@@ -1184,7 +1190,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>5</v>
@@ -1198,7 +1204,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>5</v>
@@ -1212,7 +1218,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>5</v>
@@ -1226,7 +1232,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>5</v>
@@ -1240,7 +1246,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>5</v>
@@ -1254,7 +1260,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>5</v>
@@ -1268,7 +1274,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>5</v>
@@ -1282,7 +1288,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>5</v>
@@ -1296,7 +1302,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>5</v>
@@ -1310,7 +1316,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>5</v>
@@ -1324,7 +1330,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>5</v>
@@ -1338,7 +1344,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>5</v>
@@ -1352,7 +1358,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>5</v>
@@ -1366,7 +1372,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>5</v>
@@ -1380,7 +1386,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>5</v>
@@ -1394,7 +1400,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>5</v>
@@ -1408,7 +1414,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>5</v>
@@ -1422,7 +1428,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>5</v>
@@ -1436,7 +1442,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>5</v>
@@ -1450,7 +1456,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>5</v>
@@ -1459,12 +1465,12 @@
         <v>6</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>5</v>
@@ -1473,12 +1479,12 @@
         <v>6</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>5</v>
@@ -1487,12 +1493,12 @@
         <v>5</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>5</v>
@@ -1506,7 +1512,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>5</v>
@@ -1520,7 +1526,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>5</v>
@@ -1534,7 +1540,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>5</v>
@@ -1548,7 +1554,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>5</v>
@@ -1562,7 +1568,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>5</v>
@@ -1665,40 +1671,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2">
@@ -1706,22 +1712,22 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -1729,22 +1735,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -1752,1276 +1758,1276 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="0" t="s">
         <v>105</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="0" t="s">
         <v>109</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3172,109 +3178,115 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>151</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>154</v>
+        <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -3282,22 +3294,22 @@
         <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -3305,22 +3317,22 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -3328,22 +3340,22 @@
         <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -3351,22 +3363,22 @@
         <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
@@ -3374,22 +3386,22 @@
         <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -3397,22 +3409,22 @@
         <v>18</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -3420,22 +3432,22 @@
         <v>19</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
@@ -3443,22 +3455,22 @@
         <v>20</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -3466,22 +3478,22 @@
         <v>21</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
@@ -3489,22 +3501,22 @@
         <v>22</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -3512,22 +3524,22 @@
         <v>23</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -3535,51 +3547,48 @@
         <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="H17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="0" t="s">
         <v>105</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18">
@@ -3587,25 +3596,25 @@
         <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
@@ -3613,25 +3622,25 @@
         <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" s="0" t="s">
         <v>109</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="20">
@@ -3639,22 +3648,25 @@
         <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>84</v>
+        <v>104</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="21">
@@ -3662,22 +3674,22 @@
         <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -3685,22 +3697,22 @@
         <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
@@ -3708,22 +3720,22 @@
         <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
@@ -3731,22 +3743,22 @@
         <v>33</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
@@ -3754,22 +3766,22 @@
         <v>34</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
@@ -3777,22 +3789,22 @@
         <v>35</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
@@ -3800,22 +3812,22 @@
         <v>36</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
@@ -3823,22 +3835,22 @@
         <v>37</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
@@ -3846,22 +3858,22 @@
         <v>38</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
@@ -3869,22 +3881,22 @@
         <v>39</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
@@ -3892,22 +3904,22 @@
         <v>40</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
@@ -3915,22 +3927,22 @@
         <v>41</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
@@ -3938,22 +3950,22 @@
         <v>42</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
@@ -3961,22 +3973,22 @@
         <v>43</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
@@ -3984,22 +3996,22 @@
         <v>44</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
@@ -4007,22 +4019,22 @@
         <v>45</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
@@ -4030,22 +4042,22 @@
         <v>46</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
@@ -4053,22 +4065,22 @@
         <v>47</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39">
@@ -4076,22 +4088,22 @@
         <v>48</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
@@ -4099,22 +4111,22 @@
         <v>49</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
@@ -4122,22 +4134,22 @@
         <v>50</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>154</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42">
@@ -4145,22 +4157,22 @@
         <v>51</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43">
@@ -4168,22 +4180,22 @@
         <v>52</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44">
@@ -4191,22 +4203,22 @@
         <v>53</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45">
@@ -4214,22 +4226,22 @@
         <v>54</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46">
@@ -4237,22 +4249,22 @@
         <v>55</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47">
@@ -4260,22 +4272,22 @@
         <v>56</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48">
@@ -4283,22 +4295,22 @@
         <v>57</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49">
@@ -4306,68 +4318,68 @@
         <v>58</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="H50" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52">
@@ -4375,22 +4387,22 @@
         <v>64</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53">
@@ -4398,22 +4410,22 @@
         <v>65</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54">
@@ -4421,22 +4433,22 @@
         <v>66</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55">
@@ -4444,22 +4456,22 @@
         <v>67</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56">
@@ -4467,194 +4479,196 @@
         <v>68</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="CONTRIBUTING.md" r:id="rId2"/>
-    <hyperlink ref="D2" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="archiveResource.md" r:id="rId4"/>
-    <hyperlink ref="D3" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="authoringResourceClass.md" r:id="rId6"/>
-    <hyperlink ref="D4" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="authoringResourceComposite.md" r:id="rId8"/>
-    <hyperlink ref="D5" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="authoringResourceMOF.md" r:id="rId10"/>
-    <hyperlink ref="D6" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="authoringResourceMofCS.md" r:id="rId12"/>
-    <hyperlink ref="D7" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="authoringResourceMofDesigner.md" r:id="rId14"/>
-    <hyperlink ref="D8" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="builtInResource.md" r:id="rId16"/>
-    <hyperlink ref="D9" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="configData.md" r:id="rId18"/>
-    <hyperlink ref="D10" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="configurations.md" r:id="rId20"/>
-    <hyperlink ref="D11" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="enactingConfigurations.md" r:id="rId22"/>
-    <hyperlink ref="D12" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="environmentResource.md" r:id="rId24"/>
-    <hyperlink ref="D13" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId25"/>
-    <hyperlink ref="A14" display="fileResource.md" r:id="rId26"/>
-    <hyperlink ref="D14" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId27"/>
-    <hyperlink ref="A15" display="groupResource.md" r:id="rId28"/>
-    <hyperlink ref="D15" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId29"/>
-    <hyperlink ref="A16" display="PartialConfig1.jpg" r:id="rId30"/>
-    <hyperlink ref="D16" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId31"/>
-    <hyperlink ref="A17" display="PartialConfigPullServer.jpg" r:id="rId32"/>
-    <hyperlink ref="D17" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId33"/>
-    <hyperlink ref="A18" display="Pull.png" r:id="rId34"/>
-    <hyperlink ref="D18" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId35"/>
-    <hyperlink ref="A19" display="Push.png" r:id="rId36"/>
-    <hyperlink ref="D19" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId37"/>
-    <hyperlink ref="A20" display="lnxArchiveResource.md" r:id="rId38"/>
-    <hyperlink ref="D20" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId39"/>
-    <hyperlink ref="A21" display="lnxBuiltInResources.md" r:id="rId40"/>
-    <hyperlink ref="D21" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId41"/>
-    <hyperlink ref="A22" display="lnxEnvironmentResource.md" r:id="rId42"/>
-    <hyperlink ref="D22" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId43"/>
-    <hyperlink ref="A23" display="lnxFileLineResource.md" r:id="rId44"/>
-    <hyperlink ref="D23" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId45"/>
-    <hyperlink ref="A24" display="lnxFileResource.md" r:id="rId46"/>
-    <hyperlink ref="D24" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId47"/>
-    <hyperlink ref="A25" display="lnxGettingStarted.md" r:id="rId48"/>
-    <hyperlink ref="D25" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId49"/>
-    <hyperlink ref="A26" display="lnxGroupResource.md" r:id="rId50"/>
-    <hyperlink ref="D26" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId51"/>
-    <hyperlink ref="A27" display="lnxPackageResource.md" r:id="rId52"/>
-    <hyperlink ref="D27" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId53"/>
-    <hyperlink ref="A28" display="lnxScriptResource.md" r:id="rId54"/>
-    <hyperlink ref="D28" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId55"/>
-    <hyperlink ref="A29" display="lnxServiceResource.md" r:id="rId56"/>
-    <hyperlink ref="D29" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId57"/>
-    <hyperlink ref="A30" display="lnxSshAuthorizedKeysResource.md" r:id="rId58"/>
-    <hyperlink ref="D30" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId59"/>
-    <hyperlink ref="A31" display="lnxUserResource.md" r:id="rId60"/>
-    <hyperlink ref="D31" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId61"/>
-    <hyperlink ref="A32" display="logResource.md" r:id="rId62"/>
-    <hyperlink ref="D32" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId63"/>
-    <hyperlink ref="A33" display="metaConfig.md" r:id="rId64"/>
-    <hyperlink ref="D33" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId65"/>
-    <hyperlink ref="A34" display="metaConfig4.md" r:id="rId66"/>
-    <hyperlink ref="D34" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId67"/>
-    <hyperlink ref="A35" display="packageResource.md" r:id="rId68"/>
-    <hyperlink ref="D35" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId69"/>
-    <hyperlink ref="A36" display="partialConfigs.md" r:id="rId70"/>
-    <hyperlink ref="D36" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId71"/>
-    <hyperlink ref="A37" display="pullClient.md" r:id="rId72"/>
-    <hyperlink ref="D37" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId73"/>
-    <hyperlink ref="A38" display="pullClientConfigID.md" r:id="rId74"/>
-    <hyperlink ref="D38" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId75"/>
-    <hyperlink ref="A39" display="pullClientConfigID4.md" r:id="rId76"/>
-    <hyperlink ref="D39" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId77"/>
-    <hyperlink ref="A40" display="pullClientConfigNames.md" r:id="rId78"/>
-    <hyperlink ref="D40" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId79"/>
-    <hyperlink ref="A41" display="pullServer.md" r:id="rId80"/>
-    <hyperlink ref="D41" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId81"/>
-    <hyperlink ref="A42" display="queryServerNodes.md" r:id="rId82"/>
-    <hyperlink ref="D42" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId83"/>
-    <hyperlink ref="A43" display="registryResource.md" r:id="rId84"/>
-    <hyperlink ref="D43" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId85"/>
-    <hyperlink ref="A44" display="resources.md" r:id="rId86"/>
-    <hyperlink ref="D44" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId87"/>
-    <hyperlink ref="A45" display="scriptResource.md" r:id="rId88"/>
-    <hyperlink ref="D45" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId89"/>
-    <hyperlink ref="A46" display="secureMOF.md" r:id="rId90"/>
-    <hyperlink ref="D46" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId91"/>
-    <hyperlink ref="A47" display="secureServer.md" r:id="rId92"/>
-    <hyperlink ref="D47" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId93"/>
-    <hyperlink ref="A48" display="serviceResource.md" r:id="rId94"/>
-    <hyperlink ref="D48" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId95"/>
-    <hyperlink ref="A49" display="OpenLoc is cool.md" r:id="rId96"/>
-    <hyperlink ref="D49" display="OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf" r:id="rId97"/>
-    <hyperlink ref="A50" display="SonjaFileToo.md" r:id="rId98"/>
-    <hyperlink ref="D50" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf" r:id="rId99"/>
-    <hyperlink ref="A51" display="TOC.md" r:id="rId100"/>
-    <hyperlink ref="D51" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId101"/>
-    <hyperlink ref="A52" display="troubleshooting.md" r:id="rId102"/>
-    <hyperlink ref="D52" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId103"/>
-    <hyperlink ref="A53" display="userResource.md" r:id="rId104"/>
-    <hyperlink ref="D53" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId105"/>
-    <hyperlink ref="A54" display="windowsfeatureResource.md" r:id="rId106"/>
-    <hyperlink ref="D54" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId107"/>
-    <hyperlink ref="A55" display="windowsProcessResource.md" r:id="rId108"/>
-    <hyperlink ref="D55" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId109"/>
-    <hyperlink ref="A56" display="README.md" r:id="rId110"/>
-    <hyperlink ref="D56" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId111"/>
-    <hyperlink ref="A57" display="authoringResource.md" r:id="rId112"/>
-    <hyperlink ref="D57" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId113"/>
-    <hyperlink ref="A58" display="overview-test2.md" r:id="rId114"/>
-    <hyperlink ref="D58" display="overview-test2.b82580217442d4533cc66897b1a1a51a6f090168.zh-cn.xlf" r:id="rId115"/>
-    <hyperlink ref="F58" display="overview.md" r:id="rId116"/>
-    <hyperlink ref="G58" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId117"/>
+    <hyperlink ref="A2" display="authoringResource.md" r:id="rId2"/>
+    <hyperlink ref="D2" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="F2" display="authoringResource.md" r:id="rId4"/>
+    <hyperlink ref="G2" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="CONTRIBUTING.md" r:id="rId6"/>
+    <hyperlink ref="D3" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A4" display="archiveResource.md" r:id="rId8"/>
+    <hyperlink ref="D4" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="authoringResourceClass.md" r:id="rId10"/>
+    <hyperlink ref="D5" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="authoringResourceComposite.md" r:id="rId12"/>
+    <hyperlink ref="D6" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A7" display="authoringResourceMOF.md" r:id="rId14"/>
+    <hyperlink ref="D7" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A8" display="authoringResourceMofCS.md" r:id="rId16"/>
+    <hyperlink ref="D8" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A9" display="authoringResourceMofDesigner.md" r:id="rId18"/>
+    <hyperlink ref="D9" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A10" display="builtInResource.md" r:id="rId20"/>
+    <hyperlink ref="D10" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A11" display="configData.md" r:id="rId22"/>
+    <hyperlink ref="D11" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A12" display="configurations.md" r:id="rId24"/>
+    <hyperlink ref="D12" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A13" display="enactingConfigurations.md" r:id="rId26"/>
+    <hyperlink ref="D13" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="A14" display="environmentResource.md" r:id="rId28"/>
+    <hyperlink ref="D14" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId29"/>
+    <hyperlink ref="A15" display="fileResource.md" r:id="rId30"/>
+    <hyperlink ref="D15" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId31"/>
+    <hyperlink ref="A16" display="groupResource.md" r:id="rId32"/>
+    <hyperlink ref="D16" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId33"/>
+    <hyperlink ref="A17" display="PartialConfig1.jpg" r:id="rId34"/>
+    <hyperlink ref="D17" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId35"/>
+    <hyperlink ref="A18" display="PartialConfigPullServer.jpg" r:id="rId36"/>
+    <hyperlink ref="D18" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId37"/>
+    <hyperlink ref="A19" display="Pull.png" r:id="rId38"/>
+    <hyperlink ref="D19" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId39"/>
+    <hyperlink ref="A20" display="Push.png" r:id="rId40"/>
+    <hyperlink ref="D20" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId41"/>
+    <hyperlink ref="A21" display="lnxArchiveResource.md" r:id="rId42"/>
+    <hyperlink ref="D21" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId43"/>
+    <hyperlink ref="A22" display="lnxBuiltInResources.md" r:id="rId44"/>
+    <hyperlink ref="D22" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId45"/>
+    <hyperlink ref="A23" display="lnxEnvironmentResource.md" r:id="rId46"/>
+    <hyperlink ref="D23" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId47"/>
+    <hyperlink ref="A24" display="lnxFileLineResource.md" r:id="rId48"/>
+    <hyperlink ref="D24" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId49"/>
+    <hyperlink ref="A25" display="lnxFileResource.md" r:id="rId50"/>
+    <hyperlink ref="D25" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId51"/>
+    <hyperlink ref="A26" display="lnxGettingStarted.md" r:id="rId52"/>
+    <hyperlink ref="D26" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId53"/>
+    <hyperlink ref="A27" display="lnxGroupResource.md" r:id="rId54"/>
+    <hyperlink ref="D27" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId55"/>
+    <hyperlink ref="A28" display="lnxPackageResource.md" r:id="rId56"/>
+    <hyperlink ref="D28" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId57"/>
+    <hyperlink ref="A29" display="lnxScriptResource.md" r:id="rId58"/>
+    <hyperlink ref="D29" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId59"/>
+    <hyperlink ref="A30" display="lnxServiceResource.md" r:id="rId60"/>
+    <hyperlink ref="D30" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId61"/>
+    <hyperlink ref="A31" display="lnxSshAuthorizedKeysResource.md" r:id="rId62"/>
+    <hyperlink ref="D31" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId63"/>
+    <hyperlink ref="A32" display="lnxUserResource.md" r:id="rId64"/>
+    <hyperlink ref="D32" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId65"/>
+    <hyperlink ref="A33" display="logResource.md" r:id="rId66"/>
+    <hyperlink ref="D33" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId67"/>
+    <hyperlink ref="A34" display="metaConfig.md" r:id="rId68"/>
+    <hyperlink ref="D34" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId69"/>
+    <hyperlink ref="A35" display="metaConfig4.md" r:id="rId70"/>
+    <hyperlink ref="D35" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId71"/>
+    <hyperlink ref="A36" display="packageResource.md" r:id="rId72"/>
+    <hyperlink ref="D36" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId73"/>
+    <hyperlink ref="A37" display="partialConfigs.md" r:id="rId74"/>
+    <hyperlink ref="D37" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId75"/>
+    <hyperlink ref="A38" display="pullClient.md" r:id="rId76"/>
+    <hyperlink ref="D38" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId77"/>
+    <hyperlink ref="A39" display="pullClientConfigID.md" r:id="rId78"/>
+    <hyperlink ref="D39" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId79"/>
+    <hyperlink ref="A40" display="pullClientConfigID4.md" r:id="rId80"/>
+    <hyperlink ref="D40" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId81"/>
+    <hyperlink ref="A41" display="pullClientConfigNames.md" r:id="rId82"/>
+    <hyperlink ref="D41" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId83"/>
+    <hyperlink ref="A42" display="pullServer.md" r:id="rId84"/>
+    <hyperlink ref="D42" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId85"/>
+    <hyperlink ref="A43" display="queryServerNodes.md" r:id="rId86"/>
+    <hyperlink ref="D43" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId87"/>
+    <hyperlink ref="A44" display="registryResource.md" r:id="rId88"/>
+    <hyperlink ref="D44" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId89"/>
+    <hyperlink ref="A45" display="resources.md" r:id="rId90"/>
+    <hyperlink ref="D45" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId91"/>
+    <hyperlink ref="A46" display="scriptResource.md" r:id="rId92"/>
+    <hyperlink ref="D46" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId93"/>
+    <hyperlink ref="A47" display="secureMOF.md" r:id="rId94"/>
+    <hyperlink ref="D47" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId95"/>
+    <hyperlink ref="A48" display="secureServer.md" r:id="rId96"/>
+    <hyperlink ref="D48" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId97"/>
+    <hyperlink ref="A49" display="serviceResource.md" r:id="rId98"/>
+    <hyperlink ref="D49" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId99"/>
+    <hyperlink ref="A50" display="OpenLoc is cool.md" r:id="rId100"/>
+    <hyperlink ref="D50" display="OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf" r:id="rId101"/>
+    <hyperlink ref="A51" display="SonjaFileToo.md" r:id="rId102"/>
+    <hyperlink ref="D51" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf" r:id="rId103"/>
+    <hyperlink ref="A52" display="TOC.md" r:id="rId104"/>
+    <hyperlink ref="D52" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId105"/>
+    <hyperlink ref="A53" display="troubleshooting.md" r:id="rId106"/>
+    <hyperlink ref="D53" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId107"/>
+    <hyperlink ref="A54" display="userResource.md" r:id="rId108"/>
+    <hyperlink ref="D54" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId109"/>
+    <hyperlink ref="A55" display="windowsfeatureResource.md" r:id="rId110"/>
+    <hyperlink ref="D55" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId111"/>
+    <hyperlink ref="A56" display="windowsProcessResource.md" r:id="rId112"/>
+    <hyperlink ref="D56" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId113"/>
+    <hyperlink ref="A57" display="README.md" r:id="rId114"/>
+    <hyperlink ref="D57" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId115"/>
+    <hyperlink ref="A58" display="overview-test2.md" r:id="rId116"/>
+    <hyperlink ref="D58" display="overview-test2.b82580217442d4533cc66897b1a1a51a6f090168.zh-cn.xlf" r:id="rId117"/>
+    <hyperlink ref="F58" display="overview.md" r:id="rId118"/>
+    <hyperlink ref="G58" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId119"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
   <si>
     <t>File Name</t>
   </si>
@@ -157,6 +157,9 @@
     <t>partialConfigs.md</t>
   </si>
   <si>
+    <t>2016-04-13 00:30:55</t>
+  </si>
+  <si>
     <t>pullClient.md</t>
   </si>
   <si>
@@ -343,12 +346,16 @@
     <t>86d829b1fcdd41e648ed0594eaf337b3726c143c.png</t>
   </si>
   <si>
+    <t>dsc\enactingConfigurations.md,
+dsc\partialConfigs.md</t>
+  </si>
+  <si>
+    <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
+  </si>
+  <si>
     <t>dsc\enactingConfigurations.md</t>
   </si>
   <si>
-    <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
-  </si>
-  <si>
     <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.pt-br.xlf</t>
   </si>
   <si>
@@ -400,6 +407,9 @@
     <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.pt-br.xlf</t>
   </si>
   <si>
+    <t>2016-04-13 00:30:45</t>
+  </si>
+  <si>
     <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.pt-br.xlf</t>
   </si>
   <si>
@@ -571,67 +581,67 @@
     <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf</t>
   </si>
   <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
   </si>
   <si>
     <t>overview-test2.b82580217442d4533cc66897b1a1a51a6f090168.zh-cn.xlf</t>
@@ -1280,15 +1290,15 @@
         <v>5</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>5</v>
@@ -1302,7 +1312,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>5</v>
@@ -1316,7 +1326,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>5</v>
@@ -1330,7 +1340,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>5</v>
@@ -1344,7 +1354,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>5</v>
@@ -1358,7 +1368,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>5</v>
@@ -1372,7 +1382,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>5</v>
@@ -1386,7 +1396,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>5</v>
@@ -1400,7 +1410,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>5</v>
@@ -1414,7 +1424,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>5</v>
@@ -1428,7 +1438,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>5</v>
@@ -1442,7 +1452,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>5</v>
@@ -1456,7 +1466,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>5</v>
@@ -1465,12 +1475,12 @@
         <v>6</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>5</v>
@@ -1484,7 +1494,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>5</v>
@@ -1493,12 +1503,12 @@
         <v>5</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>5</v>
@@ -1512,7 +1522,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>5</v>
@@ -1526,7 +1536,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>5</v>
@@ -1540,7 +1550,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>5</v>
@@ -1554,7 +1564,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>5</v>
@@ -1568,7 +1578,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>5</v>
@@ -1671,40 +1681,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
@@ -1712,22 +1722,22 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
@@ -1735,22 +1745,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -1758,22 +1768,22 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
@@ -1781,22 +1791,22 @@
         <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
@@ -1804,22 +1814,22 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
@@ -1827,22 +1837,22 @@
         <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -1850,22 +1860,22 @@
         <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
@@ -1873,22 +1883,22 @@
         <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
@@ -1896,22 +1906,22 @@
         <v>18</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
@@ -1919,22 +1929,22 @@
         <v>19</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
@@ -1942,22 +1952,22 @@
         <v>20</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
@@ -1965,22 +1975,22 @@
         <v>21</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
@@ -1988,22 +1998,22 @@
         <v>22</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
@@ -2011,22 +2021,22 @@
         <v>23</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
@@ -2034,22 +2044,22 @@
         <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
@@ -2057,25 +2067,25 @@
         <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18">
@@ -2083,25 +2093,25 @@
         <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="K18" s="0" t="s">
         <v>106</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="19">
@@ -2109,25 +2119,25 @@
         <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20">
@@ -2135,25 +2145,25 @@
         <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21">
@@ -2161,22 +2171,22 @@
         <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
@@ -2184,22 +2194,22 @@
         <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
@@ -2207,22 +2217,22 @@
         <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
@@ -2230,22 +2240,22 @@
         <v>33</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
@@ -2253,22 +2263,22 @@
         <v>34</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
@@ -2276,22 +2286,22 @@
         <v>35</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27">
@@ -2299,22 +2309,22 @@
         <v>36</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
@@ -2322,22 +2332,22 @@
         <v>37</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29">
@@ -2345,22 +2355,22 @@
         <v>38</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
@@ -2368,22 +2378,22 @@
         <v>39</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
@@ -2391,22 +2401,22 @@
         <v>40</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
@@ -2414,22 +2424,22 @@
         <v>41</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33">
@@ -2437,22 +2447,22 @@
         <v>42</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34">
@@ -2460,22 +2470,22 @@
         <v>43</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35">
@@ -2483,22 +2493,22 @@
         <v>44</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36">
@@ -2506,22 +2516,22 @@
         <v>45</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37">
@@ -2529,505 +2539,505 @@
         <v>46</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3178,40 +3188,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
@@ -3219,13 +3229,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -3234,13 +3244,13 @@
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
@@ -3248,22 +3258,22 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -3271,22 +3281,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
@@ -3294,22 +3304,22 @@
         <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
@@ -3317,22 +3327,22 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
@@ -3340,22 +3350,22 @@
         <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -3363,22 +3373,22 @@
         <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
@@ -3386,22 +3396,22 @@
         <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
@@ -3409,22 +3419,22 @@
         <v>18</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
@@ -3432,22 +3442,22 @@
         <v>19</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
@@ -3455,22 +3465,22 @@
         <v>20</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
@@ -3478,22 +3488,22 @@
         <v>21</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
@@ -3501,22 +3511,22 @@
         <v>22</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
@@ -3524,22 +3534,22 @@
         <v>23</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
@@ -3547,22 +3557,22 @@
         <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
@@ -3570,25 +3580,25 @@
         <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18">
@@ -3596,25 +3606,25 @@
         <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
@@ -3622,25 +3632,25 @@
         <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20">
@@ -3648,25 +3658,25 @@
         <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21">
@@ -3674,22 +3684,22 @@
         <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
@@ -3697,22 +3707,22 @@
         <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
@@ -3720,22 +3730,22 @@
         <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
@@ -3743,22 +3753,22 @@
         <v>33</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
@@ -3766,22 +3776,22 @@
         <v>34</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
@@ -3789,22 +3799,22 @@
         <v>35</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27">
@@ -3812,22 +3822,22 @@
         <v>36</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
@@ -3835,22 +3845,22 @@
         <v>37</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29">
@@ -3858,22 +3868,22 @@
         <v>38</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
@@ -3881,22 +3891,22 @@
         <v>39</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
@@ -3904,22 +3914,22 @@
         <v>40</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
@@ -3927,22 +3937,22 @@
         <v>41</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33">
@@ -3950,22 +3960,22 @@
         <v>42</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34">
@@ -3973,22 +3983,22 @@
         <v>43</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35">
@@ -3996,22 +4006,22 @@
         <v>44</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36">
@@ -4019,534 +4029,534 @@
         <v>45</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>157</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4623,48 +4633,48 @@
     <hyperlink ref="D35" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId71"/>
     <hyperlink ref="A36" display="packageResource.md" r:id="rId72"/>
     <hyperlink ref="D36" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId73"/>
-    <hyperlink ref="A37" display="partialConfigs.md" r:id="rId74"/>
-    <hyperlink ref="D37" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId75"/>
-    <hyperlink ref="A38" display="pullClient.md" r:id="rId76"/>
-    <hyperlink ref="D38" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId77"/>
-    <hyperlink ref="A39" display="pullClientConfigID.md" r:id="rId78"/>
-    <hyperlink ref="D39" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId79"/>
-    <hyperlink ref="A40" display="pullClientConfigID4.md" r:id="rId80"/>
-    <hyperlink ref="D40" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId81"/>
-    <hyperlink ref="A41" display="pullClientConfigNames.md" r:id="rId82"/>
-    <hyperlink ref="D41" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId83"/>
-    <hyperlink ref="A42" display="pullServer.md" r:id="rId84"/>
-    <hyperlink ref="D42" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId85"/>
-    <hyperlink ref="A43" display="queryServerNodes.md" r:id="rId86"/>
-    <hyperlink ref="D43" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId87"/>
-    <hyperlink ref="A44" display="registryResource.md" r:id="rId88"/>
-    <hyperlink ref="D44" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId89"/>
-    <hyperlink ref="A45" display="resources.md" r:id="rId90"/>
-    <hyperlink ref="D45" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId91"/>
-    <hyperlink ref="A46" display="scriptResource.md" r:id="rId92"/>
-    <hyperlink ref="D46" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId93"/>
-    <hyperlink ref="A47" display="secureMOF.md" r:id="rId94"/>
-    <hyperlink ref="D47" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId95"/>
-    <hyperlink ref="A48" display="secureServer.md" r:id="rId96"/>
-    <hyperlink ref="D48" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId97"/>
-    <hyperlink ref="A49" display="serviceResource.md" r:id="rId98"/>
-    <hyperlink ref="D49" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId99"/>
-    <hyperlink ref="A50" display="OpenLoc is cool.md" r:id="rId100"/>
-    <hyperlink ref="D50" display="OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf" r:id="rId101"/>
-    <hyperlink ref="A51" display="SonjaFileToo.md" r:id="rId102"/>
-    <hyperlink ref="D51" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf" r:id="rId103"/>
-    <hyperlink ref="A52" display="TOC.md" r:id="rId104"/>
-    <hyperlink ref="D52" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId105"/>
-    <hyperlink ref="A53" display="troubleshooting.md" r:id="rId106"/>
-    <hyperlink ref="D53" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId107"/>
-    <hyperlink ref="A54" display="userResource.md" r:id="rId108"/>
-    <hyperlink ref="D54" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId109"/>
-    <hyperlink ref="A55" display="windowsfeatureResource.md" r:id="rId110"/>
-    <hyperlink ref="D55" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId111"/>
-    <hyperlink ref="A56" display="windowsProcessResource.md" r:id="rId112"/>
-    <hyperlink ref="D56" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId113"/>
-    <hyperlink ref="A57" display="README.md" r:id="rId114"/>
-    <hyperlink ref="D57" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId115"/>
+    <hyperlink ref="A37" display="pullClient.md" r:id="rId74"/>
+    <hyperlink ref="D37" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId75"/>
+    <hyperlink ref="A38" display="pullClientConfigID.md" r:id="rId76"/>
+    <hyperlink ref="D38" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId77"/>
+    <hyperlink ref="A39" display="pullClientConfigID4.md" r:id="rId78"/>
+    <hyperlink ref="D39" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId79"/>
+    <hyperlink ref="A40" display="pullClientConfigNames.md" r:id="rId80"/>
+    <hyperlink ref="D40" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId81"/>
+    <hyperlink ref="A41" display="pullServer.md" r:id="rId82"/>
+    <hyperlink ref="D41" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId83"/>
+    <hyperlink ref="A42" display="queryServerNodes.md" r:id="rId84"/>
+    <hyperlink ref="D42" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId85"/>
+    <hyperlink ref="A43" display="registryResource.md" r:id="rId86"/>
+    <hyperlink ref="D43" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId87"/>
+    <hyperlink ref="A44" display="resources.md" r:id="rId88"/>
+    <hyperlink ref="D44" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId89"/>
+    <hyperlink ref="A45" display="scriptResource.md" r:id="rId90"/>
+    <hyperlink ref="D45" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId91"/>
+    <hyperlink ref="A46" display="secureMOF.md" r:id="rId92"/>
+    <hyperlink ref="D46" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId93"/>
+    <hyperlink ref="A47" display="secureServer.md" r:id="rId94"/>
+    <hyperlink ref="D47" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId95"/>
+    <hyperlink ref="A48" display="serviceResource.md" r:id="rId96"/>
+    <hyperlink ref="D48" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId97"/>
+    <hyperlink ref="A49" display="OpenLoc is cool.md" r:id="rId98"/>
+    <hyperlink ref="D49" display="OpenLoc is cool.e253b4bff54b0434cc180a6770a453af141b2a53.zh-cn.xlf" r:id="rId99"/>
+    <hyperlink ref="A50" display="SonjaFileToo.md" r:id="rId100"/>
+    <hyperlink ref="D50" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf" r:id="rId101"/>
+    <hyperlink ref="A51" display="TOC.md" r:id="rId102"/>
+    <hyperlink ref="D51" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId103"/>
+    <hyperlink ref="A52" display="troubleshooting.md" r:id="rId104"/>
+    <hyperlink ref="D52" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId105"/>
+    <hyperlink ref="A53" display="userResource.md" r:id="rId106"/>
+    <hyperlink ref="D53" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId107"/>
+    <hyperlink ref="A54" display="windowsfeatureResource.md" r:id="rId108"/>
+    <hyperlink ref="D54" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId109"/>
+    <hyperlink ref="A55" display="windowsProcessResource.md" r:id="rId110"/>
+    <hyperlink ref="D55" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId111"/>
+    <hyperlink ref="A56" display="README.md" r:id="rId112"/>
+    <hyperlink ref="D56" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId113"/>
+    <hyperlink ref="A57" display="partialConfigs.md" r:id="rId114"/>
+    <hyperlink ref="D57" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId115"/>
     <hyperlink ref="A58" display="overview-test2.md" r:id="rId116"/>
     <hyperlink ref="D58" display="overview-test2.b82580217442d4533cc66897b1a1a51a6f090168.zh-cn.xlf" r:id="rId117"/>
     <hyperlink ref="F58" display="overview.md" r:id="rId118"/>

--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
@@ -200,7 +200,7 @@
     <t>archiveResource.md</t>
   </si>
   <si>
-    <t>2016-04-13 03:32:20</t>
+    <t>2016-04-13 05:42:10</t>
   </si>
   <si>
     <t>authoringResource.md</t>
@@ -434,7 +434,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-04-13 03:30:48</t>
+    <t>2016-04-13 05:40:36</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf</t>
@@ -672,7 +672,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-04-13 03:30:59</t>
+    <t>2016-04-13 05:40:48</t>
   </si>
   <si>
     <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf</t>
@@ -711,7 +711,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-tw.xlf</t>
   </si>
   <si>
-    <t>2016-04-13 03:31:12</t>
+    <t>2016-04-13 05:40:59</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-tw.xlf</t>
@@ -885,7 +885,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.pt-br.xlf</t>
   </si>
   <si>
-    <t>2016-04-13 03:31:24</t>
+    <t>2016-04-13 05:41:12</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.pt-br.xlf</t>
@@ -1200,7 +1200,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.vi-vn.xlf</t>
   </si>
   <si>
-    <t>2016-04-13 03:31:35</t>
+    <t>2016-04-13 05:41:23</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.vi-vn.xlf</t>
@@ -1245,7 +1245,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf</t>
   </si>
   <si>
-    <t>2016-04-13 03:31:46</t>
+    <t>2016-04-13 05:41:35</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.fr-fr.xlf</t>
@@ -1419,7 +1419,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.es-es.xlf</t>
   </si>
   <si>
-    <t>2016-04-13 03:31:57</t>
+    <t>2016-04-13 05:41:46</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.es-es.xlf</t>
@@ -1596,7 +1596,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ko-kr.xlf</t>
   </si>
   <si>
-    <t>2016-04-13 03:32:08</t>
+    <t>2016-04-13 05:41:58</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ko-kr.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
@@ -200,7 +200,7 @@
     <t>archiveResource.md</t>
   </si>
   <si>
-    <t>2016-04-13 05:42:10</t>
+    <t>2016-04-13 06:12:09</t>
   </si>
   <si>
     <t>authoringResource.md</t>
@@ -434,7 +434,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-04-13 05:40:36</t>
+    <t>2016-04-13 06:10:42</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf</t>
@@ -672,7 +672,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-04-13 05:40:48</t>
+    <t>2016-04-13 06:10:53</t>
   </si>
   <si>
     <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf</t>
@@ -711,7 +711,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-tw.xlf</t>
   </si>
   <si>
-    <t>2016-04-13 05:40:59</t>
+    <t>2016-04-13 06:11:04</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-tw.xlf</t>
@@ -885,7 +885,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.pt-br.xlf</t>
   </si>
   <si>
-    <t>2016-04-13 05:41:12</t>
+    <t>2016-04-13 06:11:15</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.pt-br.xlf</t>
@@ -1200,7 +1200,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.vi-vn.xlf</t>
   </si>
   <si>
-    <t>2016-04-13 05:41:23</t>
+    <t>2016-04-13 06:11:26</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.vi-vn.xlf</t>
@@ -1245,7 +1245,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf</t>
   </si>
   <si>
-    <t>2016-04-13 05:41:35</t>
+    <t>2016-04-13 06:11:36</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.fr-fr.xlf</t>
@@ -1419,7 +1419,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.es-es.xlf</t>
   </si>
   <si>
-    <t>2016-04-13 05:41:46</t>
+    <t>2016-04-13 06:11:47</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.es-es.xlf</t>
@@ -1596,7 +1596,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ko-kr.xlf</t>
   </si>
   <si>
-    <t>2016-04-13 05:41:58</t>
+    <t>2016-04-13 06:11:58</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ko-kr.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
@@ -200,7 +200,7 @@
     <t>archiveResource.md</t>
   </si>
   <si>
-    <t>2016-04-13 06:12:09</t>
+    <t>2016-04-13 06:21:52</t>
   </si>
   <si>
     <t>authoringResource.md</t>
@@ -434,7 +434,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-04-13 06:10:42</t>
+    <t>2016-04-13 06:20:21</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf</t>
@@ -672,7 +672,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-04-13 06:10:53</t>
+    <t>2016-04-13 06:20:32</t>
   </si>
   <si>
     <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf</t>
@@ -711,7 +711,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-tw.xlf</t>
   </si>
   <si>
-    <t>2016-04-13 06:11:04</t>
+    <t>2016-04-13 06:20:43</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-tw.xlf</t>
@@ -885,7 +885,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.pt-br.xlf</t>
   </si>
   <si>
-    <t>2016-04-13 06:11:15</t>
+    <t>2016-04-13 06:20:57</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.pt-br.xlf</t>
@@ -1200,7 +1200,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.vi-vn.xlf</t>
   </si>
   <si>
-    <t>2016-04-13 06:11:26</t>
+    <t>2016-04-13 06:21:08</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.vi-vn.xlf</t>
@@ -1245,7 +1245,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf</t>
   </si>
   <si>
-    <t>2016-04-13 06:11:36</t>
+    <t>2016-04-13 06:21:19</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.fr-fr.xlf</t>
@@ -1419,7 +1419,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.es-es.xlf</t>
   </si>
   <si>
-    <t>2016-04-13 06:11:47</t>
+    <t>2016-04-13 06:21:30</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.es-es.xlf</t>
@@ -1596,7 +1596,7 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ko-kr.xlf</t>
   </si>
   <si>
-    <t>2016-04-13 06:11:58</t>
+    <t>2016-04-13 06:21:41</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ko-kr.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="640">
   <si>
     <t>File Name</t>
   </si>
@@ -513,6 +513,15 @@
     <t>2016-01-05 07:26:32</t>
   </si>
   <si>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-13 06:20:32</t>
+  </si>
+  <si>
+    <t>2016-04-13 06:40:29</t>
+  </si>
+  <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf</t>
   </si>
   <si>
@@ -667,12 +676,6 @@
   </si>
   <si>
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-13 06:20:32</t>
   </si>
   <si>
     <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf</t>
@@ -3772,7 +3775,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>14</v>
@@ -4392,19 +4395,19 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>93</v>
@@ -4421,19 +4424,19 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>583</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>582</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>93</v>
@@ -4450,19 +4453,19 @@
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>93</v>
@@ -4479,19 +4482,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>93</v>
@@ -4508,19 +4511,19 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>93</v>
@@ -4537,19 +4540,19 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>93</v>
@@ -4566,19 +4569,19 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>93</v>
@@ -4595,19 +4598,19 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>93</v>
@@ -4624,19 +4627,19 @@
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>93</v>
@@ -4653,19 +4656,19 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>93</v>
@@ -4682,19 +4685,19 @@
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>93</v>
@@ -4714,7 +4717,7 @@
         <v>144</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>64</v>
@@ -4723,7 +4726,7 @@
         <v>144</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>146</v>
@@ -4732,7 +4735,7 @@
         <v>147</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14">
@@ -4749,7 +4752,7 @@
         <v>148</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>65</v>
@@ -4758,7 +4761,7 @@
         <v>148</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>146</v>
@@ -4767,7 +4770,7 @@
         <v>147</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15">
@@ -4784,7 +4787,7 @@
         <v>150</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>67</v>
@@ -4793,7 +4796,7 @@
         <v>150</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>146</v>
@@ -4802,7 +4805,7 @@
         <v>151</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16">
@@ -4819,7 +4822,7 @@
         <v>152</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>68</v>
@@ -4828,7 +4831,7 @@
         <v>152</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>146</v>
@@ -4837,7 +4840,7 @@
         <v>153</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17">
@@ -4851,19 +4854,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>93</v>
@@ -4880,19 +4883,19 @@
         <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>93</v>
@@ -4909,19 +4912,19 @@
         <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>93</v>
@@ -4938,19 +4941,19 @@
         <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>93</v>
@@ -4967,19 +4970,19 @@
         <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>93</v>
@@ -4996,19 +4999,19 @@
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>93</v>
@@ -5025,19 +5028,19 @@
         <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>93</v>
@@ -5054,19 +5057,19 @@
         <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>93</v>
@@ -5083,19 +5086,19 @@
         <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>93</v>
@@ -5112,19 +5115,19 @@
         <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>93</v>
@@ -5141,19 +5144,19 @@
         <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>93</v>
@@ -5170,19 +5173,19 @@
         <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>93</v>
@@ -5199,19 +5202,19 @@
         <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>93</v>
@@ -5228,19 +5231,19 @@
         <v>12</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>93</v>
@@ -5257,19 +5260,19 @@
         <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>93</v>
@@ -5286,19 +5289,19 @@
         <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>93</v>
@@ -5315,19 +5318,19 @@
         <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>93</v>
@@ -5344,19 +5347,19 @@
         <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>93</v>
@@ -5373,19 +5376,19 @@
         <v>12</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>93</v>
@@ -5402,19 +5405,19 @@
         <v>12</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>93</v>
@@ -5431,19 +5434,19 @@
         <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>93</v>
@@ -5460,19 +5463,19 @@
         <v>12</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>93</v>
@@ -5489,19 +5492,19 @@
         <v>12</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>93</v>
@@ -5518,19 +5521,19 @@
         <v>12</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>93</v>
@@ -5547,19 +5550,19 @@
         <v>12</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>93</v>
@@ -5576,19 +5579,19 @@
         <v>12</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>93</v>
@@ -5605,19 +5608,19 @@
         <v>12</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>93</v>
@@ -5634,19 +5637,19 @@
         <v>12</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>93</v>
@@ -5663,19 +5666,19 @@
         <v>12</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J45" s="0" t="s">
         <v>93</v>
@@ -5692,19 +5695,19 @@
         <v>12</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>93</v>
@@ -5721,19 +5724,19 @@
         <v>12</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>93</v>
@@ -5750,19 +5753,19 @@
         <v>12</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>93</v>
@@ -5779,19 +5782,19 @@
         <v>13</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>93</v>
@@ -5808,19 +5811,19 @@
         <v>13</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>628</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>63</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>93</v>
@@ -5837,19 +5840,19 @@
         <v>13</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J51" s="0" t="s">
         <v>93</v>
@@ -5866,19 +5869,19 @@
         <v>13</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J52" s="0" t="s">
         <v>93</v>
@@ -5895,7 +5898,7 @@
         <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>59</v>
@@ -5904,10 +5907,10 @@
         <v>58</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J53" s="0" t="s">
         <v>93</v>
@@ -5924,7 +5927,7 @@
         <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>61</v>
@@ -5933,10 +5936,10 @@
         <v>60</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J54" s="0" t="s">
         <v>93</v>
@@ -5953,7 +5956,7 @@
         <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>61</v>
@@ -5962,10 +5965,10 @@
         <v>69</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J55" s="0" t="s">
         <v>93</v>
@@ -5982,7 +5985,7 @@
         <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>72</v>
@@ -6005,7 +6008,7 @@
         <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>74</v>
@@ -6028,7 +6031,7 @@
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>61</v>
@@ -8241,7 +8244,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>89</v>
@@ -8256,7 +8259,7 @@
         <v>164</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>163</v>
@@ -8270,13 +8273,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>89</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>166</v>
@@ -8284,8 +8287,14 @@
       <c r="E3" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="H3" s="2" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>93</v>
@@ -8293,7 +8302,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>89</v>
@@ -8302,10 +8311,10 @@
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>145</v>
@@ -8316,7 +8325,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>89</v>
@@ -8325,10 +8334,10 @@
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>145</v>
@@ -8339,7 +8348,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>89</v>
@@ -8348,10 +8357,10 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>145</v>
@@ -8362,7 +8371,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>89</v>
@@ -8371,10 +8380,10 @@
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>145</v>
@@ -8385,7 +8394,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>89</v>
@@ -8394,10 +8403,10 @@
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>145</v>
@@ -8408,7 +8417,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>89</v>
@@ -8417,10 +8426,10 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>145</v>
@@ -8431,7 +8440,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>89</v>
@@ -8440,10 +8449,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>145</v>
@@ -8454,7 +8463,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>89</v>
@@ -8463,10 +8472,10 @@
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>145</v>
@@ -8477,7 +8486,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>89</v>
@@ -8486,10 +8495,10 @@
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>145</v>
@@ -8500,7 +8509,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>89</v>
@@ -8509,10 +8518,10 @@
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>145</v>
@@ -8523,7 +8532,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>89</v>
@@ -8532,10 +8541,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>145</v>
@@ -8546,7 +8555,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>89</v>
@@ -8555,10 +8564,10 @@
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>145</v>
@@ -8569,33 +8578,30 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>145</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>143</v>
@@ -8604,7 +8610,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>66</v>
@@ -8621,16 +8627,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>66</v>
@@ -8642,12 +8648,12 @@
         <v>146</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>149</v>
@@ -8656,7 +8662,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>66</v>
@@ -8668,35 +8674,38 @@
         <v>146</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>145</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>93</v>
+        <v>146</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>89</v>
@@ -8705,10 +8714,10 @@
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>145</v>
@@ -8719,7 +8728,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>89</v>
@@ -8728,10 +8737,10 @@
         <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>145</v>
@@ -8742,7 +8751,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>89</v>
@@ -8751,10 +8760,10 @@
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>145</v>
@@ -8765,7 +8774,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>89</v>
@@ -8774,10 +8783,10 @@
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>145</v>
@@ -8788,7 +8797,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>89</v>
@@ -8797,10 +8806,10 @@
         <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>145</v>
@@ -8811,7 +8820,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>89</v>
@@ -8820,10 +8829,10 @@
         <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>145</v>
@@ -8834,7 +8843,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>89</v>
@@ -8843,10 +8852,10 @@
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>145</v>
@@ -8857,7 +8866,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>89</v>
@@ -8866,10 +8875,10 @@
         <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>145</v>
@@ -8880,7 +8889,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>89</v>
@@ -8889,10 +8898,10 @@
         <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>145</v>
@@ -8903,7 +8912,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>89</v>
@@ -8912,10 +8921,10 @@
         <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>145</v>
@@ -8926,7 +8935,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>89</v>
@@ -8935,10 +8944,10 @@
         <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>145</v>
@@ -8949,7 +8958,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>89</v>
@@ -8958,10 +8967,10 @@
         <v>13</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>145</v>
@@ -8972,7 +8981,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>89</v>
@@ -8981,10 +8990,10 @@
         <v>13</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>145</v>
@@ -8995,7 +9004,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>89</v>
@@ -9004,10 +9013,10 @@
         <v>13</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>145</v>
@@ -9018,7 +9027,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>89</v>
@@ -9027,10 +9036,10 @@
         <v>13</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>145</v>
@@ -9041,7 +9050,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>89</v>
@@ -9050,10 +9059,10 @@
         <v>13</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>145</v>
@@ -9064,7 +9073,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>89</v>
@@ -9073,10 +9082,10 @@
         <v>13</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>145</v>
@@ -9087,7 +9096,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>89</v>
@@ -9096,10 +9105,10 @@
         <v>13</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>145</v>
@@ -9110,7 +9119,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>89</v>
@@ -9119,10 +9128,10 @@
         <v>13</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>145</v>
@@ -9133,7 +9142,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>89</v>
@@ -9142,10 +9151,10 @@
         <v>13</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>145</v>
@@ -9156,7 +9165,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>89</v>
@@ -9165,10 +9174,10 @@
         <v>13</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>145</v>
@@ -9179,7 +9188,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>89</v>
@@ -9188,10 +9197,10 @@
         <v>13</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>145</v>
@@ -9202,7 +9211,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>89</v>
@@ -9211,10 +9220,10 @@
         <v>13</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>145</v>
@@ -9225,7 +9234,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>89</v>
@@ -9234,10 +9243,10 @@
         <v>13</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>145</v>
@@ -9248,7 +9257,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>89</v>
@@ -9257,10 +9266,10 @@
         <v>13</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>145</v>
@@ -9271,7 +9280,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>89</v>
@@ -9280,10 +9289,10 @@
         <v>13</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>145</v>
@@ -9294,7 +9303,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>89</v>
@@ -9303,10 +9312,10 @@
         <v>13</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>145</v>
@@ -9317,7 +9326,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>89</v>
@@ -9326,10 +9335,10 @@
         <v>13</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>145</v>
@@ -9340,7 +9349,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>89</v>
@@ -9349,10 +9358,10 @@
         <v>13</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>145</v>
@@ -9363,7 +9372,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>89</v>
@@ -9372,10 +9381,10 @@
         <v>13</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>145</v>
@@ -9386,7 +9395,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>89</v>
@@ -9395,10 +9404,10 @@
         <v>13</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>145</v>
@@ -9409,7 +9418,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>89</v>
@@ -9418,10 +9427,10 @@
         <v>13</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>145</v>
@@ -9432,7 +9441,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>89</v>
@@ -9441,10 +9450,10 @@
         <v>13</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>145</v>
@@ -9455,19 +9464,19 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>89</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>145</v>
@@ -9487,10 +9496,10 @@
         <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>145</v>
@@ -9510,10 +9519,10 @@
         <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>145</v>
@@ -9533,10 +9542,10 @@
         <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>145</v>
@@ -9556,19 +9565,19 @@
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J58" s="0" t="s">
         <v>93</v>
@@ -9576,124 +9585,126 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="authoringResource.md" r:id="rId2"/>
-    <hyperlink ref="D2" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="F2" display="authoringResource.md" r:id="rId4"/>
-    <hyperlink ref="G2" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="CONTRIBUTING.md" r:id="rId6"/>
-    <hyperlink ref="D3" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="authoringResourceClass.md" r:id="rId8"/>
-    <hyperlink ref="D4" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="authoringResourceComposite.md" r:id="rId10"/>
-    <hyperlink ref="D5" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="authoringResourceMOF.md" r:id="rId12"/>
-    <hyperlink ref="D6" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A7" display="authoringResourceMofCS.md" r:id="rId14"/>
-    <hyperlink ref="D7" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A8" display="authoringResourceMofDesigner.md" r:id="rId16"/>
-    <hyperlink ref="D8" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A9" display="builtInResource.md" r:id="rId18"/>
-    <hyperlink ref="D9" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A10" display="configData.md" r:id="rId20"/>
-    <hyperlink ref="D10" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A11" display="configurations.md" r:id="rId22"/>
-    <hyperlink ref="D11" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId23"/>
-    <hyperlink ref="A12" display="enactingConfigurations.md" r:id="rId24"/>
-    <hyperlink ref="D12" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId25"/>
-    <hyperlink ref="A13" display="environmentResource.md" r:id="rId26"/>
-    <hyperlink ref="D13" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId27"/>
-    <hyperlink ref="A14" display="fileResource.md" r:id="rId28"/>
-    <hyperlink ref="D14" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId29"/>
-    <hyperlink ref="A15" display="groupResource.md" r:id="rId30"/>
-    <hyperlink ref="D15" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId31"/>
-    <hyperlink ref="A16" display="PartialConfig1.jpg" r:id="rId32"/>
-    <hyperlink ref="D16" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId33"/>
-    <hyperlink ref="A17" display="PartialConfigPullServer.jpg" r:id="rId34"/>
-    <hyperlink ref="D17" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId35"/>
-    <hyperlink ref="A18" display="Pull.png" r:id="rId36"/>
-    <hyperlink ref="D18" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId37"/>
-    <hyperlink ref="A19" display="Push.png" r:id="rId38"/>
-    <hyperlink ref="D19" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId39"/>
-    <hyperlink ref="A20" display="lnxArchiveResource.md" r:id="rId40"/>
-    <hyperlink ref="D20" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId41"/>
-    <hyperlink ref="A21" display="lnxBuiltInResources.md" r:id="rId42"/>
-    <hyperlink ref="D21" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId43"/>
-    <hyperlink ref="A22" display="lnxEnvironmentResource.md" r:id="rId44"/>
-    <hyperlink ref="D22" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId45"/>
-    <hyperlink ref="A23" display="lnxFileLineResource.md" r:id="rId46"/>
-    <hyperlink ref="D23" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId47"/>
-    <hyperlink ref="A24" display="lnxFileResource.md" r:id="rId48"/>
-    <hyperlink ref="D24" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId49"/>
-    <hyperlink ref="A25" display="lnxGettingStarted.md" r:id="rId50"/>
-    <hyperlink ref="D25" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId51"/>
-    <hyperlink ref="A26" display="lnxGroupResource.md" r:id="rId52"/>
-    <hyperlink ref="D26" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId53"/>
-    <hyperlink ref="A27" display="lnxPackageResource.md" r:id="rId54"/>
-    <hyperlink ref="D27" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId55"/>
-    <hyperlink ref="A28" display="lnxScriptResource.md" r:id="rId56"/>
-    <hyperlink ref="D28" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId57"/>
-    <hyperlink ref="A29" display="lnxServiceResource.md" r:id="rId58"/>
-    <hyperlink ref="D29" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId59"/>
-    <hyperlink ref="A30" display="lnxSshAuthorizedKeysResource.md" r:id="rId60"/>
-    <hyperlink ref="D30" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId61"/>
-    <hyperlink ref="A31" display="lnxUserResource.md" r:id="rId62"/>
-    <hyperlink ref="D31" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId63"/>
-    <hyperlink ref="A32" display="logResource.md" r:id="rId64"/>
-    <hyperlink ref="D32" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId65"/>
-    <hyperlink ref="A33" display="metaConfig.md" r:id="rId66"/>
-    <hyperlink ref="D33" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId67"/>
-    <hyperlink ref="A34" display="metaConfig4.md" r:id="rId68"/>
-    <hyperlink ref="D34" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId69"/>
-    <hyperlink ref="A35" display="packageResource.md" r:id="rId70"/>
-    <hyperlink ref="D35" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId71"/>
-    <hyperlink ref="A36" display="pullClient.md" r:id="rId72"/>
-    <hyperlink ref="D36" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId73"/>
-    <hyperlink ref="A37" display="pullClientConfigID.md" r:id="rId74"/>
-    <hyperlink ref="D37" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId75"/>
-    <hyperlink ref="A38" display="pullClientConfigID4.md" r:id="rId76"/>
-    <hyperlink ref="D38" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId77"/>
-    <hyperlink ref="A39" display="pullClientConfigNames.md" r:id="rId78"/>
-    <hyperlink ref="D39" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId79"/>
-    <hyperlink ref="A40" display="pullServer.md" r:id="rId80"/>
-    <hyperlink ref="D40" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId81"/>
-    <hyperlink ref="A41" display="queryServerNodes.md" r:id="rId82"/>
-    <hyperlink ref="D41" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId83"/>
-    <hyperlink ref="A42" display="registryResource.md" r:id="rId84"/>
-    <hyperlink ref="D42" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId85"/>
-    <hyperlink ref="A43" display="resources.md" r:id="rId86"/>
-    <hyperlink ref="D43" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId87"/>
-    <hyperlink ref="A44" display="scriptResource.md" r:id="rId88"/>
-    <hyperlink ref="D44" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId89"/>
-    <hyperlink ref="A45" display="secureMOF.md" r:id="rId90"/>
-    <hyperlink ref="D45" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId91"/>
-    <hyperlink ref="A46" display="secureServer.md" r:id="rId92"/>
-    <hyperlink ref="D46" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId93"/>
-    <hyperlink ref="A47" display="serviceResource.md" r:id="rId94"/>
-    <hyperlink ref="D47" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId95"/>
-    <hyperlink ref="A48" display="TOC.md" r:id="rId96"/>
-    <hyperlink ref="D48" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId97"/>
-    <hyperlink ref="A49" display="troubleshooting.md" r:id="rId98"/>
-    <hyperlink ref="D49" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId99"/>
-    <hyperlink ref="A50" display="userResource.md" r:id="rId100"/>
-    <hyperlink ref="D50" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId101"/>
-    <hyperlink ref="A51" display="windowsfeatureResource.md" r:id="rId102"/>
-    <hyperlink ref="D51" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId103"/>
-    <hyperlink ref="A52" display="windowsProcessResource.md" r:id="rId104"/>
-    <hyperlink ref="D52" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId105"/>
-    <hyperlink ref="A53" display="README.md" r:id="rId106"/>
-    <hyperlink ref="D53" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId107"/>
-    <hyperlink ref="A54" display="archiveResource.md" r:id="rId108"/>
-    <hyperlink ref="D54" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId109"/>
-    <hyperlink ref="A55" display="partialConfigs.md" r:id="rId110"/>
-    <hyperlink ref="D55" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId111"/>
-    <hyperlink ref="A56" display="OpenLoc ROCKS.md" r:id="rId112"/>
-    <hyperlink ref="D56" display="OpenLoc ROCKS.ac3ecff61703b5a6c0e8f6ae2b1e10c3a845cc67.zh-cn.xlf" r:id="rId113"/>
-    <hyperlink ref="A57" display="SonjaFileToo.md" r:id="rId114"/>
-    <hyperlink ref="D57" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf" r:id="rId115"/>
-    <hyperlink ref="A58" display="overview-test2.md" r:id="rId116"/>
-    <hyperlink ref="D58" display="overview-test2.b82580217442d4533cc66897b1a1a51a6f090168.zh-cn.xlf" r:id="rId117"/>
-    <hyperlink ref="F58" display="overview.md" r:id="rId118"/>
-    <hyperlink ref="G58" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId119"/>
+    <hyperlink ref="A2" display="archiveResource.md" r:id="rId2"/>
+    <hyperlink ref="D2" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="F2" display="archiveResource.md" r:id="rId4"/>
+    <hyperlink ref="G2" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="authoringResource.md" r:id="rId6"/>
+    <hyperlink ref="D3" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="F3" display="authoringResource.md" r:id="rId8"/>
+    <hyperlink ref="G3" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="CONTRIBUTING.md" r:id="rId10"/>
+    <hyperlink ref="D4" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A5" display="authoringResourceClass.md" r:id="rId12"/>
+    <hyperlink ref="D5" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="authoringResourceComposite.md" r:id="rId14"/>
+    <hyperlink ref="D6" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A7" display="authoringResourceMOF.md" r:id="rId16"/>
+    <hyperlink ref="D7" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A8" display="authoringResourceMofCS.md" r:id="rId18"/>
+    <hyperlink ref="D8" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A9" display="authoringResourceMofDesigner.md" r:id="rId20"/>
+    <hyperlink ref="D9" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A10" display="builtInResource.md" r:id="rId22"/>
+    <hyperlink ref="D10" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A11" display="configData.md" r:id="rId24"/>
+    <hyperlink ref="D11" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A12" display="configurations.md" r:id="rId26"/>
+    <hyperlink ref="D12" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="A13" display="enactingConfigurations.md" r:id="rId28"/>
+    <hyperlink ref="D13" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId29"/>
+    <hyperlink ref="A14" display="environmentResource.md" r:id="rId30"/>
+    <hyperlink ref="D14" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId31"/>
+    <hyperlink ref="A15" display="fileResource.md" r:id="rId32"/>
+    <hyperlink ref="D15" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId33"/>
+    <hyperlink ref="A16" display="groupResource.md" r:id="rId34"/>
+    <hyperlink ref="D16" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId35"/>
+    <hyperlink ref="A17" display="PartialConfig1.jpg" r:id="rId36"/>
+    <hyperlink ref="D17" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId37"/>
+    <hyperlink ref="A18" display="PartialConfigPullServer.jpg" r:id="rId38"/>
+    <hyperlink ref="D18" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId39"/>
+    <hyperlink ref="A19" display="Pull.png" r:id="rId40"/>
+    <hyperlink ref="D19" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId41"/>
+    <hyperlink ref="A20" display="Push.png" r:id="rId42"/>
+    <hyperlink ref="D20" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId43"/>
+    <hyperlink ref="A21" display="lnxArchiveResource.md" r:id="rId44"/>
+    <hyperlink ref="D21" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId45"/>
+    <hyperlink ref="A22" display="lnxBuiltInResources.md" r:id="rId46"/>
+    <hyperlink ref="D22" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId47"/>
+    <hyperlink ref="A23" display="lnxEnvironmentResource.md" r:id="rId48"/>
+    <hyperlink ref="D23" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId49"/>
+    <hyperlink ref="A24" display="lnxFileLineResource.md" r:id="rId50"/>
+    <hyperlink ref="D24" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId51"/>
+    <hyperlink ref="A25" display="lnxFileResource.md" r:id="rId52"/>
+    <hyperlink ref="D25" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId53"/>
+    <hyperlink ref="A26" display="lnxGettingStarted.md" r:id="rId54"/>
+    <hyperlink ref="D26" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId55"/>
+    <hyperlink ref="A27" display="lnxGroupResource.md" r:id="rId56"/>
+    <hyperlink ref="D27" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId57"/>
+    <hyperlink ref="A28" display="lnxPackageResource.md" r:id="rId58"/>
+    <hyperlink ref="D28" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId59"/>
+    <hyperlink ref="A29" display="lnxScriptResource.md" r:id="rId60"/>
+    <hyperlink ref="D29" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId61"/>
+    <hyperlink ref="A30" display="lnxServiceResource.md" r:id="rId62"/>
+    <hyperlink ref="D30" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId63"/>
+    <hyperlink ref="A31" display="lnxSshAuthorizedKeysResource.md" r:id="rId64"/>
+    <hyperlink ref="D31" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId65"/>
+    <hyperlink ref="A32" display="lnxUserResource.md" r:id="rId66"/>
+    <hyperlink ref="D32" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId67"/>
+    <hyperlink ref="A33" display="logResource.md" r:id="rId68"/>
+    <hyperlink ref="D33" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId69"/>
+    <hyperlink ref="A34" display="metaConfig.md" r:id="rId70"/>
+    <hyperlink ref="D34" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId71"/>
+    <hyperlink ref="A35" display="metaConfig4.md" r:id="rId72"/>
+    <hyperlink ref="D35" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId73"/>
+    <hyperlink ref="A36" display="packageResource.md" r:id="rId74"/>
+    <hyperlink ref="D36" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId75"/>
+    <hyperlink ref="A37" display="pullClient.md" r:id="rId76"/>
+    <hyperlink ref="D37" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId77"/>
+    <hyperlink ref="A38" display="pullClientConfigID.md" r:id="rId78"/>
+    <hyperlink ref="D38" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId79"/>
+    <hyperlink ref="A39" display="pullClientConfigID4.md" r:id="rId80"/>
+    <hyperlink ref="D39" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId81"/>
+    <hyperlink ref="A40" display="pullClientConfigNames.md" r:id="rId82"/>
+    <hyperlink ref="D40" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId83"/>
+    <hyperlink ref="A41" display="pullServer.md" r:id="rId84"/>
+    <hyperlink ref="D41" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId85"/>
+    <hyperlink ref="A42" display="queryServerNodes.md" r:id="rId86"/>
+    <hyperlink ref="D42" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId87"/>
+    <hyperlink ref="A43" display="registryResource.md" r:id="rId88"/>
+    <hyperlink ref="D43" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId89"/>
+    <hyperlink ref="A44" display="resources.md" r:id="rId90"/>
+    <hyperlink ref="D44" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId91"/>
+    <hyperlink ref="A45" display="scriptResource.md" r:id="rId92"/>
+    <hyperlink ref="D45" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId93"/>
+    <hyperlink ref="A46" display="secureMOF.md" r:id="rId94"/>
+    <hyperlink ref="D46" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId95"/>
+    <hyperlink ref="A47" display="secureServer.md" r:id="rId96"/>
+    <hyperlink ref="D47" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId97"/>
+    <hyperlink ref="A48" display="serviceResource.md" r:id="rId98"/>
+    <hyperlink ref="D48" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId99"/>
+    <hyperlink ref="A49" display="TOC.md" r:id="rId100"/>
+    <hyperlink ref="D49" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId101"/>
+    <hyperlink ref="A50" display="troubleshooting.md" r:id="rId102"/>
+    <hyperlink ref="D50" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId103"/>
+    <hyperlink ref="A51" display="userResource.md" r:id="rId104"/>
+    <hyperlink ref="D51" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId105"/>
+    <hyperlink ref="A52" display="windowsfeatureResource.md" r:id="rId106"/>
+    <hyperlink ref="D52" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId107"/>
+    <hyperlink ref="A53" display="windowsProcessResource.md" r:id="rId108"/>
+    <hyperlink ref="D53" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId109"/>
+    <hyperlink ref="A54" display="README.md" r:id="rId110"/>
+    <hyperlink ref="D54" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId111"/>
+    <hyperlink ref="A55" display="partialConfigs.md" r:id="rId112"/>
+    <hyperlink ref="D55" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId113"/>
+    <hyperlink ref="A56" display="OpenLoc ROCKS.md" r:id="rId114"/>
+    <hyperlink ref="D56" display="OpenLoc ROCKS.ac3ecff61703b5a6c0e8f6ae2b1e10c3a845cc67.zh-cn.xlf" r:id="rId115"/>
+    <hyperlink ref="A57" display="SonjaFileToo.md" r:id="rId116"/>
+    <hyperlink ref="D57" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf" r:id="rId117"/>
+    <hyperlink ref="A58" display="overview-test2.md" r:id="rId118"/>
+    <hyperlink ref="D58" display="overview-test2.b82580217442d4533cc66897b1a1a51a6f090168.zh-cn.xlf" r:id="rId119"/>
+    <hyperlink ref="F58" display="overview.md" r:id="rId120"/>
+    <hyperlink ref="G58" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId121"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -9773,10 +9784,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>145</v>
@@ -9796,10 +9807,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>145</v>
@@ -9819,10 +9830,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>145</v>
@@ -9842,10 +9853,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>145</v>
@@ -9865,10 +9876,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>145</v>
@@ -9888,10 +9899,10 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>145</v>
@@ -9911,10 +9922,10 @@
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>145</v>
@@ -9934,10 +9945,10 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>145</v>
@@ -9957,10 +9968,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>145</v>
@@ -9980,10 +9991,10 @@
         <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>145</v>
@@ -10003,10 +10014,10 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>145</v>
@@ -10026,10 +10037,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>145</v>
@@ -10049,10 +10060,10 @@
         <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>145</v>
@@ -10072,10 +10083,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>145</v>
@@ -10095,10 +10106,10 @@
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>145</v>
@@ -10121,7 +10132,7 @@
         <v>144</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>145</v>
@@ -10147,7 +10158,7 @@
         <v>148</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>145</v>
@@ -10173,7 +10184,7 @@
         <v>150</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>145</v>
@@ -10199,7 +10210,7 @@
         <v>152</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>145</v>
@@ -10222,10 +10233,10 @@
         <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>145</v>
@@ -10245,10 +10256,10 @@
         <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>145</v>
@@ -10268,10 +10279,10 @@
         <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>145</v>
@@ -10291,10 +10302,10 @@
         <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>145</v>
@@ -10314,10 +10325,10 @@
         <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>145</v>
@@ -10337,10 +10348,10 @@
         <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>145</v>
@@ -10360,10 +10371,10 @@
         <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>145</v>
@@ -10383,10 +10394,10 @@
         <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>145</v>
@@ -10406,10 +10417,10 @@
         <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>145</v>
@@ -10429,10 +10440,10 @@
         <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>145</v>
@@ -10452,10 +10463,10 @@
         <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>145</v>
@@ -10475,10 +10486,10 @@
         <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>145</v>
@@ -10498,10 +10509,10 @@
         <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>145</v>
@@ -10521,10 +10532,10 @@
         <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>145</v>
@@ -10544,10 +10555,10 @@
         <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>145</v>
@@ -10567,10 +10578,10 @@
         <v>14</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>145</v>
@@ -10590,10 +10601,10 @@
         <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>145</v>
@@ -10613,10 +10624,10 @@
         <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>145</v>
@@ -10636,10 +10647,10 @@
         <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>145</v>
@@ -10659,10 +10670,10 @@
         <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>145</v>
@@ -10682,10 +10693,10 @@
         <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>145</v>
@@ -10705,10 +10716,10 @@
         <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>145</v>
@@ -10728,10 +10739,10 @@
         <v>14</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>145</v>
@@ -10751,10 +10762,10 @@
         <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>145</v>
@@ -10774,10 +10785,10 @@
         <v>14</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>145</v>
@@ -10797,10 +10808,10 @@
         <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>145</v>
@@ -10820,10 +10831,10 @@
         <v>14</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>145</v>
@@ -10843,10 +10854,10 @@
         <v>14</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>145</v>
@@ -10866,10 +10877,10 @@
         <v>14</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>145</v>
@@ -10889,10 +10900,10 @@
         <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>145</v>
@@ -10912,10 +10923,10 @@
         <v>14</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>145</v>
@@ -10935,10 +10946,10 @@
         <v>14</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>145</v>
@@ -10958,10 +10969,10 @@
         <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>145</v>
@@ -10981,10 +10992,10 @@
         <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>145</v>
@@ -11004,10 +11015,10 @@
         <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>145</v>
@@ -11027,10 +11038,10 @@
         <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>145</v>
@@ -11050,10 +11061,10 @@
         <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>145</v>
@@ -11073,10 +11084,10 @@
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>145</v>
@@ -11280,7 +11291,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
@@ -11303,10 +11314,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>145</v>
@@ -11326,7 +11337,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>15</v>
@@ -11349,7 +11360,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
@@ -11372,7 +11383,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
@@ -11395,7 +11406,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>15</v>
@@ -11418,7 +11429,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>15</v>
@@ -11441,7 +11452,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
@@ -11464,7 +11475,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>15</v>
@@ -11487,7 +11498,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
@@ -11510,7 +11521,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>15</v>
@@ -11533,7 +11544,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
@@ -11556,7 +11567,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>15</v>
@@ -11579,7 +11590,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>15</v>
@@ -11602,7 +11613,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>15</v>
@@ -11654,7 +11665,7 @@
         <v>148</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>145</v>
@@ -11729,7 +11740,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>15</v>
@@ -11752,7 +11763,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>15</v>
@@ -11775,7 +11786,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>15</v>
@@ -11798,7 +11809,7 @@
         <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>15</v>
@@ -11821,7 +11832,7 @@
         <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>15</v>
@@ -11844,7 +11855,7 @@
         <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>15</v>
@@ -11867,7 +11878,7 @@
         <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>15</v>
@@ -11890,7 +11901,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>15</v>
@@ -11913,7 +11924,7 @@
         <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>15</v>
@@ -11936,7 +11947,7 @@
         <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>15</v>
@@ -11959,7 +11970,7 @@
         <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>15</v>
@@ -11982,7 +11993,7 @@
         <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>15</v>
@@ -12005,7 +12016,7 @@
         <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>15</v>
@@ -12028,7 +12039,7 @@
         <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>15</v>
@@ -12051,7 +12062,7 @@
         <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>15</v>
@@ -12074,7 +12085,7 @@
         <v>14</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>15</v>
@@ -12097,7 +12108,7 @@
         <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>15</v>
@@ -12120,7 +12131,7 @@
         <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>15</v>
@@ -12143,7 +12154,7 @@
         <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>15</v>
@@ -12166,7 +12177,7 @@
         <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>15</v>
@@ -12189,7 +12200,7 @@
         <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>15</v>
@@ -12212,7 +12223,7 @@
         <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>15</v>
@@ -12235,7 +12246,7 @@
         <v>14</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>15</v>
@@ -12258,7 +12269,7 @@
         <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>15</v>
@@ -12281,7 +12292,7 @@
         <v>14</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>15</v>
@@ -12304,7 +12315,7 @@
         <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>15</v>
@@ -12327,7 +12338,7 @@
         <v>14</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>15</v>
@@ -12350,7 +12361,7 @@
         <v>14</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>15</v>
@@ -12373,7 +12384,7 @@
         <v>14</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>15</v>
@@ -12396,10 +12407,10 @@
         <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>145</v>
@@ -12419,10 +12430,10 @@
         <v>14</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>145</v>
@@ -12442,7 +12453,7 @@
         <v>14</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>15</v>
@@ -12465,7 +12476,7 @@
         <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>15</v>
@@ -12488,7 +12499,7 @@
         <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>15</v>
@@ -12511,7 +12522,7 @@
         <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>15</v>
@@ -12534,7 +12545,7 @@
         <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>15</v>
@@ -12557,7 +12568,7 @@
         <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>15</v>
@@ -12580,7 +12591,7 @@
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>15</v>
@@ -12787,19 +12798,19 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>93</v>
@@ -12816,19 +12827,19 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>93</v>
@@ -12845,19 +12856,19 @@
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>63</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>93</v>
@@ -12874,19 +12885,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>93</v>
@@ -12903,19 +12914,19 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>93</v>
@@ -12932,19 +12943,19 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>93</v>
@@ -12961,19 +12972,19 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>93</v>
@@ -12990,19 +13001,19 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>93</v>
@@ -13019,19 +13030,19 @@
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>93</v>
@@ -13048,19 +13059,19 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>93</v>
@@ -13077,19 +13088,19 @@
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>93</v>
@@ -13106,19 +13117,19 @@
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>93</v>
@@ -13135,19 +13146,19 @@
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>93</v>
@@ -13167,7 +13178,7 @@
         <v>144</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>64</v>
@@ -13176,7 +13187,7 @@
         <v>144</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>146</v>
@@ -13199,7 +13210,7 @@
         <v>148</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>65</v>
@@ -13208,7 +13219,7 @@
         <v>148</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>146</v>
@@ -13231,7 +13242,7 @@
         <v>150</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>67</v>
@@ -13240,7 +13251,7 @@
         <v>150</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>146</v>
@@ -13263,7 +13274,7 @@
         <v>152</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>68</v>
@@ -13272,7 +13283,7 @@
         <v>152</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>146</v>
@@ -13292,19 +13303,19 @@
         <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>93</v>
@@ -13321,19 +13332,19 @@
         <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>93</v>
@@ -13350,19 +13361,19 @@
         <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>93</v>
@@ -13379,19 +13390,19 @@
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>93</v>
@@ -13408,19 +13419,19 @@
         <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>93</v>
@@ -13437,19 +13448,19 @@
         <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>93</v>
@@ -13466,19 +13477,19 @@
         <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>93</v>
@@ -13495,19 +13506,19 @@
         <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>93</v>
@@ -13524,19 +13535,19 @@
         <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>93</v>
@@ -13553,19 +13564,19 @@
         <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>93</v>
@@ -13582,19 +13593,19 @@
         <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>93</v>
@@ -13611,19 +13622,19 @@
         <v>12</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>93</v>
@@ -13640,19 +13651,19 @@
         <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>93</v>
@@ -13669,19 +13680,19 @@
         <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>93</v>
@@ -13698,19 +13709,19 @@
         <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>93</v>
@@ -13727,19 +13738,19 @@
         <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>93</v>
@@ -13756,19 +13767,19 @@
         <v>12</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>93</v>
@@ -13785,19 +13796,19 @@
         <v>12</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>93</v>
@@ -13814,19 +13825,19 @@
         <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>93</v>
@@ -13843,19 +13854,19 @@
         <v>12</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>93</v>
@@ -13872,19 +13883,19 @@
         <v>12</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>93</v>
@@ -13901,19 +13912,19 @@
         <v>12</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>93</v>
@@ -13930,19 +13941,19 @@
         <v>12</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>93</v>
@@ -13959,19 +13970,19 @@
         <v>12</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>93</v>
@@ -13988,19 +13999,19 @@
         <v>12</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>93</v>
@@ -14017,19 +14028,19 @@
         <v>12</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>93</v>
@@ -14046,19 +14057,19 @@
         <v>12</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J45" s="0" t="s">
         <v>93</v>
@@ -14075,19 +14086,19 @@
         <v>12</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>93</v>
@@ -14104,19 +14115,19 @@
         <v>12</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>93</v>
@@ -14133,19 +14144,19 @@
         <v>12</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>93</v>
@@ -14162,19 +14173,19 @@
         <v>12</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>93</v>
@@ -14191,19 +14202,19 @@
         <v>12</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>93</v>
@@ -14220,19 +14231,19 @@
         <v>12</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J51" s="0" t="s">
         <v>93</v>
@@ -14249,19 +14260,19 @@
         <v>12</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J52" s="0" t="s">
         <v>93</v>
@@ -14278,19 +14289,19 @@
         <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J53" s="0" t="s">
         <v>93</v>
@@ -14307,19 +14318,19 @@
         <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>60</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J54" s="0" t="s">
         <v>93</v>
@@ -14336,19 +14347,19 @@
         <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J55" s="0" t="s">
         <v>93</v>
@@ -14365,10 +14376,10 @@
         <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>145</v>
@@ -14388,10 +14399,10 @@
         <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>145</v>
@@ -14411,10 +14422,10 @@
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>145</v>
@@ -14726,25 +14737,25 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>93</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3">
@@ -14758,10 +14769,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>145</v>
@@ -14781,10 +14792,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>145</v>
@@ -14804,10 +14815,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>145</v>
@@ -14827,10 +14838,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>145</v>
@@ -14850,10 +14861,10 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>145</v>
@@ -14873,10 +14884,10 @@
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>145</v>
@@ -14896,10 +14907,10 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>145</v>
@@ -14919,10 +14930,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>145</v>
@@ -14942,10 +14953,10 @@
         <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>145</v>
@@ -14965,10 +14976,10 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>145</v>
@@ -14988,10 +14999,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>145</v>
@@ -15011,10 +15022,10 @@
         <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>145</v>
@@ -15034,10 +15045,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>145</v>
@@ -15057,10 +15068,10 @@
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>145</v>
@@ -15083,7 +15094,7 @@
         <v>144</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>145</v>
@@ -15109,7 +15120,7 @@
         <v>148</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>145</v>
@@ -15135,7 +15146,7 @@
         <v>150</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>145</v>
@@ -15161,7 +15172,7 @@
         <v>152</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>145</v>
@@ -15184,10 +15195,10 @@
         <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>145</v>
@@ -15207,10 +15218,10 @@
         <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>145</v>
@@ -15230,10 +15241,10 @@
         <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>145</v>
@@ -15253,10 +15264,10 @@
         <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>145</v>
@@ -15276,10 +15287,10 @@
         <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>145</v>
@@ -15299,10 +15310,10 @@
         <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>145</v>
@@ -15322,10 +15333,10 @@
         <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>145</v>
@@ -15345,10 +15356,10 @@
         <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>145</v>
@@ -15368,10 +15379,10 @@
         <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>145</v>
@@ -15391,10 +15402,10 @@
         <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>145</v>
@@ -15414,10 +15425,10 @@
         <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>145</v>
@@ -15437,10 +15448,10 @@
         <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>145</v>
@@ -15460,10 +15471,10 @@
         <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>145</v>
@@ -15483,10 +15494,10 @@
         <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>145</v>
@@ -15506,10 +15517,10 @@
         <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>145</v>
@@ -15529,10 +15540,10 @@
         <v>14</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>145</v>
@@ -15552,10 +15563,10 @@
         <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>145</v>
@@ -15575,10 +15586,10 @@
         <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>145</v>
@@ -15598,10 +15609,10 @@
         <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>145</v>
@@ -15621,10 +15632,10 @@
         <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>145</v>
@@ -15644,10 +15655,10 @@
         <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>145</v>
@@ -15667,10 +15678,10 @@
         <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>145</v>
@@ -15690,10 +15701,10 @@
         <v>14</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>145</v>
@@ -15713,10 +15724,10 @@
         <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>145</v>
@@ -15736,10 +15747,10 @@
         <v>14</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>145</v>
@@ -15759,10 +15770,10 @@
         <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>145</v>
@@ -15782,10 +15793,10 @@
         <v>14</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>145</v>
@@ -15805,10 +15816,10 @@
         <v>14</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>145</v>
@@ -15828,10 +15839,10 @@
         <v>14</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>145</v>
@@ -15851,10 +15862,10 @@
         <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>145</v>
@@ -15874,10 +15885,10 @@
         <v>14</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>145</v>
@@ -15897,10 +15908,10 @@
         <v>14</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>145</v>
@@ -15920,10 +15931,10 @@
         <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>145</v>
@@ -15943,10 +15954,10 @@
         <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>145</v>
@@ -15966,10 +15977,10 @@
         <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>145</v>
@@ -15989,10 +16000,10 @@
         <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>145</v>
@@ -16012,10 +16023,10 @@
         <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>145</v>
@@ -16035,10 +16046,10 @@
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>145</v>
@@ -16244,10 +16255,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>145</v>
@@ -16267,10 +16278,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>145</v>
@@ -16290,10 +16301,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>145</v>
@@ -16313,10 +16324,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>145</v>
@@ -16336,10 +16347,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>145</v>
@@ -16359,10 +16370,10 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>145</v>
@@ -16382,10 +16393,10 @@
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>145</v>
@@ -16405,10 +16416,10 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>145</v>
@@ -16428,10 +16439,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>145</v>
@@ -16451,10 +16462,10 @@
         <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>145</v>
@@ -16474,10 +16485,10 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>145</v>
@@ -16497,10 +16508,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>145</v>
@@ -16520,10 +16531,10 @@
         <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>145</v>
@@ -16543,10 +16554,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>145</v>
@@ -16566,10 +16577,10 @@
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>145</v>
@@ -16592,7 +16603,7 @@
         <v>144</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>145</v>
@@ -16618,7 +16629,7 @@
         <v>148</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>145</v>
@@ -16644,7 +16655,7 @@
         <v>150</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>145</v>
@@ -16670,7 +16681,7 @@
         <v>152</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>145</v>
@@ -16693,10 +16704,10 @@
         <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>145</v>
@@ -16716,10 +16727,10 @@
         <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>145</v>
@@ -16739,10 +16750,10 @@
         <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>145</v>
@@ -16762,10 +16773,10 @@
         <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>145</v>
@@ -16785,10 +16796,10 @@
         <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>145</v>
@@ -16808,10 +16819,10 @@
         <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>145</v>
@@ -16831,10 +16842,10 @@
         <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>145</v>
@@ -16854,10 +16865,10 @@
         <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>145</v>
@@ -16877,10 +16888,10 @@
         <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>145</v>
@@ -16900,10 +16911,10 @@
         <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>145</v>
@@ -16923,10 +16934,10 @@
         <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>145</v>
@@ -16946,10 +16957,10 @@
         <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>145</v>
@@ -16969,10 +16980,10 @@
         <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>145</v>
@@ -16992,10 +17003,10 @@
         <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>145</v>
@@ -17015,10 +17026,10 @@
         <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>145</v>
@@ -17038,10 +17049,10 @@
         <v>14</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>145</v>
@@ -17061,10 +17072,10 @@
         <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>145</v>
@@ -17084,10 +17095,10 @@
         <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>145</v>
@@ -17107,10 +17118,10 @@
         <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>145</v>
@@ -17130,10 +17141,10 @@
         <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>145</v>
@@ -17153,10 +17164,10 @@
         <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>145</v>
@@ -17176,10 +17187,10 @@
         <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>145</v>
@@ -17199,10 +17210,10 @@
         <v>14</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>145</v>
@@ -17222,10 +17233,10 @@
         <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>145</v>
@@ -17245,10 +17256,10 @@
         <v>14</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>145</v>
@@ -17268,10 +17279,10 @@
         <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>145</v>
@@ -17291,10 +17302,10 @@
         <v>14</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>145</v>
@@ -17314,10 +17325,10 @@
         <v>14</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>145</v>
@@ -17337,10 +17348,10 @@
         <v>14</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>145</v>
@@ -17360,10 +17371,10 @@
         <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>145</v>
@@ -17383,10 +17394,10 @@
         <v>14</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>145</v>
@@ -17406,10 +17417,10 @@
         <v>14</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>145</v>
@@ -17429,10 +17440,10 @@
         <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>145</v>
@@ -17452,10 +17463,10 @@
         <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>145</v>
@@ -17475,10 +17486,10 @@
         <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>145</v>
@@ -17498,10 +17509,10 @@
         <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>145</v>
@@ -17521,10 +17532,10 @@
         <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>145</v>
@@ -17544,10 +17555,10 @@
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>145</v>
@@ -17751,10 +17762,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>145</v>
@@ -17774,10 +17785,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>145</v>
@@ -17797,10 +17808,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>145</v>
@@ -17820,10 +17831,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>145</v>
@@ -17843,10 +17854,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>528</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>145</v>
@@ -17866,10 +17877,10 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>145</v>
@@ -17889,10 +17900,10 @@
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>145</v>
@@ -17912,10 +17923,10 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>145</v>
@@ -17935,10 +17946,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>145</v>
@@ -17958,10 +17969,10 @@
         <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>145</v>
@@ -17981,10 +17992,10 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>145</v>
@@ -18004,10 +18015,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>145</v>
@@ -18027,10 +18038,10 @@
         <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>145</v>
@@ -18050,10 +18061,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>145</v>
@@ -18073,10 +18084,10 @@
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>145</v>
@@ -18099,7 +18110,7 @@
         <v>144</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>145</v>
@@ -18125,7 +18136,7 @@
         <v>148</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>145</v>
@@ -18151,7 +18162,7 @@
         <v>150</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>145</v>
@@ -18177,7 +18188,7 @@
         <v>152</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>145</v>
@@ -18200,10 +18211,10 @@
         <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>145</v>
@@ -18223,10 +18234,10 @@
         <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>145</v>
@@ -18246,10 +18257,10 @@
         <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>145</v>
@@ -18269,10 +18280,10 @@
         <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>145</v>
@@ -18292,10 +18303,10 @@
         <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>145</v>
@@ -18315,10 +18326,10 @@
         <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>145</v>
@@ -18338,10 +18349,10 @@
         <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>145</v>
@@ -18361,10 +18372,10 @@
         <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>145</v>
@@ -18384,10 +18395,10 @@
         <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>145</v>
@@ -18407,10 +18418,10 @@
         <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>145</v>
@@ -18430,10 +18441,10 @@
         <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>145</v>
@@ -18453,10 +18464,10 @@
         <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>145</v>
@@ -18476,10 +18487,10 @@
         <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>145</v>
@@ -18499,10 +18510,10 @@
         <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>145</v>
@@ -18522,10 +18533,10 @@
         <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>145</v>
@@ -18545,10 +18556,10 @@
         <v>14</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>145</v>
@@ -18568,10 +18579,10 @@
         <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>145</v>
@@ -18591,10 +18602,10 @@
         <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>145</v>
@@ -18614,10 +18625,10 @@
         <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>145</v>
@@ -18637,10 +18648,10 @@
         <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>145</v>
@@ -18660,10 +18671,10 @@
         <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>145</v>
@@ -18683,10 +18694,10 @@
         <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>145</v>
@@ -18706,10 +18717,10 @@
         <v>14</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>145</v>
@@ -18729,10 +18740,10 @@
         <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>145</v>
@@ -18752,10 +18763,10 @@
         <v>14</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>145</v>
@@ -18775,10 +18786,10 @@
         <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>145</v>
@@ -18798,10 +18809,10 @@
         <v>14</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>145</v>
@@ -18821,10 +18832,10 @@
         <v>14</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>145</v>
@@ -18844,10 +18855,10 @@
         <v>14</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>145</v>
@@ -18867,10 +18878,10 @@
         <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>145</v>
@@ -18890,10 +18901,10 @@
         <v>14</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>145</v>
@@ -18913,10 +18924,10 @@
         <v>14</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>145</v>
@@ -18936,10 +18947,10 @@
         <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>145</v>
@@ -18959,10 +18970,10 @@
         <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>145</v>
@@ -18982,10 +18993,10 @@
         <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>145</v>
@@ -19005,10 +19016,10 @@
         <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>145</v>
@@ -19028,10 +19039,10 @@
         <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>145</v>
@@ -19051,10 +19062,10 @@
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>145</v>

--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="641">
   <si>
     <t>File Name</t>
   </si>
@@ -531,6 +531,12 @@
     <t>2016-04-12 22:40:49</t>
   </si>
   <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-13 15:57:58</t>
+  </si>
+  <si>
     <t>CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf</t>
   </si>
   <si>
@@ -676,9 +682,6 @@
   </si>
   <si>
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf</t>
   </si>
   <si>
     <t>OpenLoc ROCKS.ac3ecff61703b5a6c0e8f6ae2b1e10c3a845cc67.zh-cn.xlf</t>
@@ -4055,7 +4058,7 @@
         <v>14</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>14</v>
@@ -4395,19 +4398,19 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>93</v>
@@ -4424,19 +4427,19 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>583</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>93</v>
@@ -4453,19 +4456,19 @@
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>93</v>
@@ -4482,19 +4485,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>93</v>
@@ -4511,19 +4514,19 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>93</v>
@@ -4540,19 +4543,19 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>93</v>
@@ -4569,19 +4572,19 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>93</v>
@@ -4598,19 +4601,19 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>93</v>
@@ -4627,19 +4630,19 @@
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>93</v>
@@ -4656,19 +4659,19 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>93</v>
@@ -4685,19 +4688,19 @@
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>93</v>
@@ -4717,7 +4720,7 @@
         <v>144</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>64</v>
@@ -4726,7 +4729,7 @@
         <v>144</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>146</v>
@@ -4735,7 +4738,7 @@
         <v>147</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14">
@@ -4752,7 +4755,7 @@
         <v>148</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>65</v>
@@ -4761,7 +4764,7 @@
         <v>148</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>146</v>
@@ -4770,7 +4773,7 @@
         <v>147</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15">
@@ -4787,7 +4790,7 @@
         <v>150</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>67</v>
@@ -4796,7 +4799,7 @@
         <v>150</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>146</v>
@@ -4805,7 +4808,7 @@
         <v>151</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16">
@@ -4822,7 +4825,7 @@
         <v>152</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>68</v>
@@ -4831,7 +4834,7 @@
         <v>152</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>146</v>
@@ -4840,7 +4843,7 @@
         <v>153</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17">
@@ -4854,19 +4857,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>93</v>
@@ -4883,19 +4886,19 @@
         <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>93</v>
@@ -4912,19 +4915,19 @@
         <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>93</v>
@@ -4941,19 +4944,19 @@
         <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>93</v>
@@ -4970,19 +4973,19 @@
         <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>93</v>
@@ -4999,19 +5002,19 @@
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>93</v>
@@ -5028,19 +5031,19 @@
         <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>93</v>
@@ -5057,19 +5060,19 @@
         <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>93</v>
@@ -5086,19 +5089,19 @@
         <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>93</v>
@@ -5115,19 +5118,19 @@
         <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>93</v>
@@ -5144,19 +5147,19 @@
         <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>93</v>
@@ -5173,19 +5176,19 @@
         <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>93</v>
@@ -5202,19 +5205,19 @@
         <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>93</v>
@@ -5231,19 +5234,19 @@
         <v>12</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>93</v>
@@ -5260,19 +5263,19 @@
         <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>93</v>
@@ -5289,19 +5292,19 @@
         <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>93</v>
@@ -5318,19 +5321,19 @@
         <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>93</v>
@@ -5347,19 +5350,19 @@
         <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>93</v>
@@ -5376,19 +5379,19 @@
         <v>12</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>93</v>
@@ -5405,19 +5408,19 @@
         <v>12</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>93</v>
@@ -5434,19 +5437,19 @@
         <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>93</v>
@@ -5463,19 +5466,19 @@
         <v>12</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>93</v>
@@ -5492,19 +5495,19 @@
         <v>12</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>93</v>
@@ -5521,19 +5524,19 @@
         <v>12</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>93</v>
@@ -5550,19 +5553,19 @@
         <v>12</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>93</v>
@@ -5579,19 +5582,19 @@
         <v>12</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>93</v>
@@ -5608,19 +5611,19 @@
         <v>12</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>93</v>
@@ -5637,19 +5640,19 @@
         <v>12</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>93</v>
@@ -5666,19 +5669,19 @@
         <v>12</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J45" s="0" t="s">
         <v>93</v>
@@ -5695,19 +5698,19 @@
         <v>12</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>93</v>
@@ -5724,19 +5727,19 @@
         <v>12</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>93</v>
@@ -5753,19 +5756,19 @@
         <v>12</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>93</v>
@@ -5782,19 +5785,19 @@
         <v>13</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>93</v>
@@ -5811,19 +5814,19 @@
         <v>13</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>629</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>63</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>93</v>
@@ -5840,19 +5843,19 @@
         <v>13</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J51" s="0" t="s">
         <v>93</v>
@@ -5869,19 +5872,19 @@
         <v>13</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J52" s="0" t="s">
         <v>93</v>
@@ -5898,7 +5901,7 @@
         <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>59</v>
@@ -5907,10 +5910,10 @@
         <v>58</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J53" s="0" t="s">
         <v>93</v>
@@ -5927,7 +5930,7 @@
         <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>61</v>
@@ -5936,10 +5939,10 @@
         <v>60</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J54" s="0" t="s">
         <v>93</v>
@@ -5956,7 +5959,7 @@
         <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>61</v>
@@ -5965,10 +5968,10 @@
         <v>69</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J55" s="0" t="s">
         <v>93</v>
@@ -5985,7 +5988,7 @@
         <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>72</v>
@@ -6008,7 +6011,7 @@
         <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>74</v>
@@ -6031,7 +6034,7 @@
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>61</v>
@@ -8302,22 +8305,28 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>89</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>169</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>93</v>
@@ -8325,7 +8334,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>89</v>
@@ -8348,7 +8357,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>89</v>
@@ -8360,7 +8369,7 @@
         <v>173</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>145</v>
@@ -8371,7 +8380,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>89</v>
@@ -8380,10 +8389,10 @@
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>145</v>
@@ -8394,7 +8403,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>89</v>
@@ -8403,10 +8412,10 @@
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>145</v>
@@ -8417,7 +8426,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>89</v>
@@ -8426,10 +8435,10 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>145</v>
@@ -8440,7 +8449,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>89</v>
@@ -8449,10 +8458,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>145</v>
@@ -8463,7 +8472,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>89</v>
@@ -8472,10 +8481,10 @@
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>145</v>
@@ -8486,7 +8495,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>89</v>
@@ -8495,10 +8504,10 @@
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>145</v>
@@ -8509,7 +8518,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>89</v>
@@ -8518,10 +8527,10 @@
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>145</v>
@@ -8532,7 +8541,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>89</v>
@@ -8541,10 +8550,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>145</v>
@@ -8555,7 +8564,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>89</v>
@@ -8564,10 +8573,10 @@
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>145</v>
@@ -8578,7 +8587,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>89</v>
@@ -8587,10 +8596,10 @@
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>145</v>
@@ -8601,33 +8610,30 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>145</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>143</v>
@@ -8636,7 +8642,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>66</v>
@@ -8653,16 +8659,16 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>66</v>
@@ -8674,12 +8680,12 @@
         <v>146</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>149</v>
@@ -8688,7 +8694,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>66</v>
@@ -8700,35 +8706,38 @@
         <v>146</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>145</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>93</v>
+        <v>146</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>89</v>
@@ -8737,10 +8746,10 @@
         <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>145</v>
@@ -8751,7 +8760,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>89</v>
@@ -8760,10 +8769,10 @@
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>145</v>
@@ -8774,7 +8783,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>89</v>
@@ -8783,10 +8792,10 @@
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>145</v>
@@ -8797,7 +8806,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>89</v>
@@ -8806,10 +8815,10 @@
         <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>145</v>
@@ -8820,7 +8829,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>89</v>
@@ -8829,10 +8838,10 @@
         <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>145</v>
@@ -8843,7 +8852,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>89</v>
@@ -8852,10 +8861,10 @@
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>145</v>
@@ -8866,7 +8875,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>89</v>
@@ -8875,10 +8884,10 @@
         <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>145</v>
@@ -8889,7 +8898,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>89</v>
@@ -8898,10 +8907,10 @@
         <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>145</v>
@@ -8912,7 +8921,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>89</v>
@@ -8921,10 +8930,10 @@
         <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>145</v>
@@ -8935,7 +8944,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>89</v>
@@ -8944,10 +8953,10 @@
         <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>145</v>
@@ -8958,7 +8967,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>89</v>
@@ -8967,10 +8976,10 @@
         <v>13</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>145</v>
@@ -8981,7 +8990,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>89</v>
@@ -8990,10 +8999,10 @@
         <v>13</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>145</v>
@@ -9004,7 +9013,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>89</v>
@@ -9013,10 +9022,10 @@
         <v>13</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>145</v>
@@ -9027,7 +9036,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>89</v>
@@ -9036,10 +9045,10 @@
         <v>13</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>145</v>
@@ -9050,7 +9059,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>89</v>
@@ -9059,10 +9068,10 @@
         <v>13</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>145</v>
@@ -9073,7 +9082,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>89</v>
@@ -9082,10 +9091,10 @@
         <v>13</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>145</v>
@@ -9096,7 +9105,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>89</v>
@@ -9105,10 +9114,10 @@
         <v>13</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>145</v>
@@ -9119,7 +9128,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>89</v>
@@ -9128,10 +9137,10 @@
         <v>13</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>145</v>
@@ -9142,7 +9151,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>89</v>
@@ -9151,10 +9160,10 @@
         <v>13</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>145</v>
@@ -9165,7 +9174,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>89</v>
@@ -9174,7 +9183,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>172</v>
@@ -9188,7 +9197,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>89</v>
@@ -9197,10 +9206,10 @@
         <v>13</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>145</v>
@@ -9211,7 +9220,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>89</v>
@@ -9220,10 +9229,10 @@
         <v>13</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>145</v>
@@ -9234,7 +9243,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>89</v>
@@ -9243,10 +9252,10 @@
         <v>13</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>145</v>
@@ -9257,7 +9266,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>89</v>
@@ -9266,10 +9275,10 @@
         <v>13</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>145</v>
@@ -9280,7 +9289,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>89</v>
@@ -9289,10 +9298,10 @@
         <v>13</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>145</v>
@@ -9303,7 +9312,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>89</v>
@@ -9312,10 +9321,10 @@
         <v>13</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>145</v>
@@ -9326,7 +9335,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>89</v>
@@ -9335,10 +9344,10 @@
         <v>13</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>145</v>
@@ -9349,7 +9358,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>89</v>
@@ -9358,10 +9367,10 @@
         <v>13</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>145</v>
@@ -9372,7 +9381,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>89</v>
@@ -9381,10 +9390,10 @@
         <v>13</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>145</v>
@@ -9395,7 +9404,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>89</v>
@@ -9404,10 +9413,10 @@
         <v>13</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>145</v>
@@ -9418,7 +9427,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>89</v>
@@ -9427,10 +9436,10 @@
         <v>13</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>145</v>
@@ -9441,7 +9450,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>89</v>
@@ -9450,10 +9459,10 @@
         <v>13</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>145</v>
@@ -9464,7 +9473,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>89</v>
@@ -9473,10 +9482,10 @@
         <v>13</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>145</v>
@@ -9487,19 +9496,19 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>89</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>145</v>
@@ -9519,10 +9528,10 @@
         <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>145</v>
@@ -9542,10 +9551,10 @@
         <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>145</v>
@@ -9565,19 +9574,19 @@
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>167</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J58" s="0" t="s">
         <v>93</v>
@@ -9593,118 +9602,120 @@
     <hyperlink ref="D3" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="F3" display="authoringResource.md" r:id="rId8"/>
     <hyperlink ref="G3" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="CONTRIBUTING.md" r:id="rId10"/>
-    <hyperlink ref="D4" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="authoringResourceClass.md" r:id="rId12"/>
-    <hyperlink ref="D5" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="authoringResourceComposite.md" r:id="rId14"/>
-    <hyperlink ref="D6" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="authoringResourceMOF.md" r:id="rId16"/>
-    <hyperlink ref="D7" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="authoringResourceMofCS.md" r:id="rId18"/>
-    <hyperlink ref="D8" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display="authoringResourceMofDesigner.md" r:id="rId20"/>
-    <hyperlink ref="D9" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A10" display="builtInResource.md" r:id="rId22"/>
-    <hyperlink ref="D10" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId23"/>
-    <hyperlink ref="A11" display="configData.md" r:id="rId24"/>
-    <hyperlink ref="D11" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId25"/>
-    <hyperlink ref="A12" display="configurations.md" r:id="rId26"/>
-    <hyperlink ref="D12" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId27"/>
-    <hyperlink ref="A13" display="enactingConfigurations.md" r:id="rId28"/>
-    <hyperlink ref="D13" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId29"/>
-    <hyperlink ref="A14" display="environmentResource.md" r:id="rId30"/>
-    <hyperlink ref="D14" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId31"/>
-    <hyperlink ref="A15" display="fileResource.md" r:id="rId32"/>
-    <hyperlink ref="D15" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId33"/>
-    <hyperlink ref="A16" display="groupResource.md" r:id="rId34"/>
-    <hyperlink ref="D16" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId35"/>
-    <hyperlink ref="A17" display="PartialConfig1.jpg" r:id="rId36"/>
-    <hyperlink ref="D17" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId37"/>
-    <hyperlink ref="A18" display="PartialConfigPullServer.jpg" r:id="rId38"/>
-    <hyperlink ref="D18" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId39"/>
-    <hyperlink ref="A19" display="Pull.png" r:id="rId40"/>
-    <hyperlink ref="D19" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId41"/>
-    <hyperlink ref="A20" display="Push.png" r:id="rId42"/>
-    <hyperlink ref="D20" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId43"/>
-    <hyperlink ref="A21" display="lnxArchiveResource.md" r:id="rId44"/>
-    <hyperlink ref="D21" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId45"/>
-    <hyperlink ref="A22" display="lnxBuiltInResources.md" r:id="rId46"/>
-    <hyperlink ref="D22" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId47"/>
-    <hyperlink ref="A23" display="lnxEnvironmentResource.md" r:id="rId48"/>
-    <hyperlink ref="D23" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId49"/>
-    <hyperlink ref="A24" display="lnxFileLineResource.md" r:id="rId50"/>
-    <hyperlink ref="D24" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId51"/>
-    <hyperlink ref="A25" display="lnxFileResource.md" r:id="rId52"/>
-    <hyperlink ref="D25" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId53"/>
-    <hyperlink ref="A26" display="lnxGettingStarted.md" r:id="rId54"/>
-    <hyperlink ref="D26" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId55"/>
-    <hyperlink ref="A27" display="lnxGroupResource.md" r:id="rId56"/>
-    <hyperlink ref="D27" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId57"/>
-    <hyperlink ref="A28" display="lnxPackageResource.md" r:id="rId58"/>
-    <hyperlink ref="D28" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId59"/>
-    <hyperlink ref="A29" display="lnxScriptResource.md" r:id="rId60"/>
-    <hyperlink ref="D29" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId61"/>
-    <hyperlink ref="A30" display="lnxServiceResource.md" r:id="rId62"/>
-    <hyperlink ref="D30" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId63"/>
-    <hyperlink ref="A31" display="lnxSshAuthorizedKeysResource.md" r:id="rId64"/>
-    <hyperlink ref="D31" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId65"/>
-    <hyperlink ref="A32" display="lnxUserResource.md" r:id="rId66"/>
-    <hyperlink ref="D32" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId67"/>
-    <hyperlink ref="A33" display="logResource.md" r:id="rId68"/>
-    <hyperlink ref="D33" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId69"/>
-    <hyperlink ref="A34" display="metaConfig.md" r:id="rId70"/>
-    <hyperlink ref="D34" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId71"/>
-    <hyperlink ref="A35" display="metaConfig4.md" r:id="rId72"/>
-    <hyperlink ref="D35" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId73"/>
-    <hyperlink ref="A36" display="packageResource.md" r:id="rId74"/>
-    <hyperlink ref="D36" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId75"/>
-    <hyperlink ref="A37" display="pullClient.md" r:id="rId76"/>
-    <hyperlink ref="D37" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId77"/>
-    <hyperlink ref="A38" display="pullClientConfigID.md" r:id="rId78"/>
-    <hyperlink ref="D38" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId79"/>
-    <hyperlink ref="A39" display="pullClientConfigID4.md" r:id="rId80"/>
-    <hyperlink ref="D39" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId81"/>
-    <hyperlink ref="A40" display="pullClientConfigNames.md" r:id="rId82"/>
-    <hyperlink ref="D40" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId83"/>
-    <hyperlink ref="A41" display="pullServer.md" r:id="rId84"/>
-    <hyperlink ref="D41" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId85"/>
-    <hyperlink ref="A42" display="queryServerNodes.md" r:id="rId86"/>
-    <hyperlink ref="D42" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId87"/>
-    <hyperlink ref="A43" display="registryResource.md" r:id="rId88"/>
-    <hyperlink ref="D43" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId89"/>
-    <hyperlink ref="A44" display="resources.md" r:id="rId90"/>
-    <hyperlink ref="D44" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId91"/>
-    <hyperlink ref="A45" display="scriptResource.md" r:id="rId92"/>
-    <hyperlink ref="D45" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId93"/>
-    <hyperlink ref="A46" display="secureMOF.md" r:id="rId94"/>
-    <hyperlink ref="D46" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId95"/>
-    <hyperlink ref="A47" display="secureServer.md" r:id="rId96"/>
-    <hyperlink ref="D47" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId97"/>
-    <hyperlink ref="A48" display="serviceResource.md" r:id="rId98"/>
-    <hyperlink ref="D48" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId99"/>
-    <hyperlink ref="A49" display="TOC.md" r:id="rId100"/>
-    <hyperlink ref="D49" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId101"/>
-    <hyperlink ref="A50" display="troubleshooting.md" r:id="rId102"/>
-    <hyperlink ref="D50" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId103"/>
-    <hyperlink ref="A51" display="userResource.md" r:id="rId104"/>
-    <hyperlink ref="D51" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId105"/>
-    <hyperlink ref="A52" display="windowsfeatureResource.md" r:id="rId106"/>
-    <hyperlink ref="D52" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId107"/>
-    <hyperlink ref="A53" display="windowsProcessResource.md" r:id="rId108"/>
-    <hyperlink ref="D53" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId109"/>
-    <hyperlink ref="A54" display="README.md" r:id="rId110"/>
-    <hyperlink ref="D54" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId111"/>
-    <hyperlink ref="A55" display="partialConfigs.md" r:id="rId112"/>
-    <hyperlink ref="D55" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId113"/>
-    <hyperlink ref="A56" display="OpenLoc ROCKS.md" r:id="rId114"/>
-    <hyperlink ref="D56" display="OpenLoc ROCKS.ac3ecff61703b5a6c0e8f6ae2b1e10c3a845cc67.zh-cn.xlf" r:id="rId115"/>
-    <hyperlink ref="A57" display="SonjaFileToo.md" r:id="rId116"/>
-    <hyperlink ref="D57" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf" r:id="rId117"/>
-    <hyperlink ref="A58" display="overview-test2.md" r:id="rId118"/>
-    <hyperlink ref="D58" display="overview-test2.b82580217442d4533cc66897b1a1a51a6f090168.zh-cn.xlf" r:id="rId119"/>
-    <hyperlink ref="F58" display="overview.md" r:id="rId120"/>
-    <hyperlink ref="G58" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId121"/>
+    <hyperlink ref="A4" display="partialConfigs.md" r:id="rId10"/>
+    <hyperlink ref="D4" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="F4" display="partialConfigs.md" r:id="rId12"/>
+    <hyperlink ref="G4" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="CONTRIBUTING.md" r:id="rId14"/>
+    <hyperlink ref="D5" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A6" display="authoringResourceClass.md" r:id="rId16"/>
+    <hyperlink ref="D6" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A7" display="authoringResourceComposite.md" r:id="rId18"/>
+    <hyperlink ref="D7" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A8" display="authoringResourceMOF.md" r:id="rId20"/>
+    <hyperlink ref="D8" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A9" display="authoringResourceMofCS.md" r:id="rId22"/>
+    <hyperlink ref="D9" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A10" display="authoringResourceMofDesigner.md" r:id="rId24"/>
+    <hyperlink ref="D10" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A11" display="builtInResource.md" r:id="rId26"/>
+    <hyperlink ref="D11" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="A12" display="configData.md" r:id="rId28"/>
+    <hyperlink ref="D12" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId29"/>
+    <hyperlink ref="A13" display="configurations.md" r:id="rId30"/>
+    <hyperlink ref="D13" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId31"/>
+    <hyperlink ref="A14" display="enactingConfigurations.md" r:id="rId32"/>
+    <hyperlink ref="D14" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId33"/>
+    <hyperlink ref="A15" display="environmentResource.md" r:id="rId34"/>
+    <hyperlink ref="D15" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId35"/>
+    <hyperlink ref="A16" display="fileResource.md" r:id="rId36"/>
+    <hyperlink ref="D16" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId37"/>
+    <hyperlink ref="A17" display="groupResource.md" r:id="rId38"/>
+    <hyperlink ref="D17" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId39"/>
+    <hyperlink ref="A18" display="PartialConfig1.jpg" r:id="rId40"/>
+    <hyperlink ref="D18" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId41"/>
+    <hyperlink ref="A19" display="PartialConfigPullServer.jpg" r:id="rId42"/>
+    <hyperlink ref="D19" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId43"/>
+    <hyperlink ref="A20" display="Pull.png" r:id="rId44"/>
+    <hyperlink ref="D20" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId45"/>
+    <hyperlink ref="A21" display="Push.png" r:id="rId46"/>
+    <hyperlink ref="D21" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId47"/>
+    <hyperlink ref="A22" display="lnxArchiveResource.md" r:id="rId48"/>
+    <hyperlink ref="D22" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId49"/>
+    <hyperlink ref="A23" display="lnxBuiltInResources.md" r:id="rId50"/>
+    <hyperlink ref="D23" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId51"/>
+    <hyperlink ref="A24" display="lnxEnvironmentResource.md" r:id="rId52"/>
+    <hyperlink ref="D24" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId53"/>
+    <hyperlink ref="A25" display="lnxFileLineResource.md" r:id="rId54"/>
+    <hyperlink ref="D25" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId55"/>
+    <hyperlink ref="A26" display="lnxFileResource.md" r:id="rId56"/>
+    <hyperlink ref="D26" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId57"/>
+    <hyperlink ref="A27" display="lnxGettingStarted.md" r:id="rId58"/>
+    <hyperlink ref="D27" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId59"/>
+    <hyperlink ref="A28" display="lnxGroupResource.md" r:id="rId60"/>
+    <hyperlink ref="D28" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId61"/>
+    <hyperlink ref="A29" display="lnxPackageResource.md" r:id="rId62"/>
+    <hyperlink ref="D29" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId63"/>
+    <hyperlink ref="A30" display="lnxScriptResource.md" r:id="rId64"/>
+    <hyperlink ref="D30" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId65"/>
+    <hyperlink ref="A31" display="lnxServiceResource.md" r:id="rId66"/>
+    <hyperlink ref="D31" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId67"/>
+    <hyperlink ref="A32" display="lnxSshAuthorizedKeysResource.md" r:id="rId68"/>
+    <hyperlink ref="D32" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId69"/>
+    <hyperlink ref="A33" display="lnxUserResource.md" r:id="rId70"/>
+    <hyperlink ref="D33" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId71"/>
+    <hyperlink ref="A34" display="logResource.md" r:id="rId72"/>
+    <hyperlink ref="D34" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId73"/>
+    <hyperlink ref="A35" display="metaConfig.md" r:id="rId74"/>
+    <hyperlink ref="D35" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId75"/>
+    <hyperlink ref="A36" display="metaConfig4.md" r:id="rId76"/>
+    <hyperlink ref="D36" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId77"/>
+    <hyperlink ref="A37" display="packageResource.md" r:id="rId78"/>
+    <hyperlink ref="D37" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId79"/>
+    <hyperlink ref="A38" display="pullClient.md" r:id="rId80"/>
+    <hyperlink ref="D38" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId81"/>
+    <hyperlink ref="A39" display="pullClientConfigID.md" r:id="rId82"/>
+    <hyperlink ref="D39" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId83"/>
+    <hyperlink ref="A40" display="pullClientConfigID4.md" r:id="rId84"/>
+    <hyperlink ref="D40" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId85"/>
+    <hyperlink ref="A41" display="pullClientConfigNames.md" r:id="rId86"/>
+    <hyperlink ref="D41" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId87"/>
+    <hyperlink ref="A42" display="pullServer.md" r:id="rId88"/>
+    <hyperlink ref="D42" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId89"/>
+    <hyperlink ref="A43" display="queryServerNodes.md" r:id="rId90"/>
+    <hyperlink ref="D43" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId91"/>
+    <hyperlink ref="A44" display="registryResource.md" r:id="rId92"/>
+    <hyperlink ref="D44" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId93"/>
+    <hyperlink ref="A45" display="resources.md" r:id="rId94"/>
+    <hyperlink ref="D45" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId95"/>
+    <hyperlink ref="A46" display="scriptResource.md" r:id="rId96"/>
+    <hyperlink ref="D46" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId97"/>
+    <hyperlink ref="A47" display="secureMOF.md" r:id="rId98"/>
+    <hyperlink ref="D47" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId99"/>
+    <hyperlink ref="A48" display="secureServer.md" r:id="rId100"/>
+    <hyperlink ref="D48" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId101"/>
+    <hyperlink ref="A49" display="serviceResource.md" r:id="rId102"/>
+    <hyperlink ref="D49" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId103"/>
+    <hyperlink ref="A50" display="TOC.md" r:id="rId104"/>
+    <hyperlink ref="D50" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId105"/>
+    <hyperlink ref="A51" display="troubleshooting.md" r:id="rId106"/>
+    <hyperlink ref="D51" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId107"/>
+    <hyperlink ref="A52" display="userResource.md" r:id="rId108"/>
+    <hyperlink ref="D52" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId109"/>
+    <hyperlink ref="A53" display="windowsfeatureResource.md" r:id="rId110"/>
+    <hyperlink ref="D53" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId111"/>
+    <hyperlink ref="A54" display="windowsProcessResource.md" r:id="rId112"/>
+    <hyperlink ref="D54" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId113"/>
+    <hyperlink ref="A55" display="README.md" r:id="rId114"/>
+    <hyperlink ref="D55" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId115"/>
+    <hyperlink ref="A56" display="OpenLoc ROCKS.md" r:id="rId116"/>
+    <hyperlink ref="D56" display="OpenLoc ROCKS.ac3ecff61703b5a6c0e8f6ae2b1e10c3a845cc67.zh-cn.xlf" r:id="rId117"/>
+    <hyperlink ref="A57" display="SonjaFileToo.md" r:id="rId118"/>
+    <hyperlink ref="D57" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf" r:id="rId119"/>
+    <hyperlink ref="A58" display="overview-test2.md" r:id="rId120"/>
+    <hyperlink ref="D58" display="overview-test2.b82580217442d4533cc66897b1a1a51a6f090168.zh-cn.xlf" r:id="rId121"/>
+    <hyperlink ref="F58" display="overview.md" r:id="rId122"/>
+    <hyperlink ref="G58" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId123"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -9784,10 +9795,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>145</v>
@@ -9807,10 +9818,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>145</v>
@@ -9830,10 +9841,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>145</v>
@@ -9853,10 +9864,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>145</v>
@@ -9876,10 +9887,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>145</v>
@@ -9899,10 +9910,10 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>145</v>
@@ -9922,10 +9933,10 @@
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>145</v>
@@ -9945,10 +9956,10 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>145</v>
@@ -9968,10 +9979,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>145</v>
@@ -9991,10 +10002,10 @@
         <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>145</v>
@@ -10014,10 +10025,10 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>145</v>
@@ -10037,10 +10048,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>145</v>
@@ -10060,10 +10071,10 @@
         <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>145</v>
@@ -10083,10 +10094,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>145</v>
@@ -10106,10 +10117,10 @@
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>145</v>
@@ -10132,7 +10143,7 @@
         <v>144</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>145</v>
@@ -10158,7 +10169,7 @@
         <v>148</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>145</v>
@@ -10184,7 +10195,7 @@
         <v>150</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>145</v>
@@ -10210,7 +10221,7 @@
         <v>152</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>145</v>
@@ -10233,10 +10244,10 @@
         <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>145</v>
@@ -10256,10 +10267,10 @@
         <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>145</v>
@@ -10279,10 +10290,10 @@
         <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>145</v>
@@ -10302,10 +10313,10 @@
         <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>145</v>
@@ -10325,10 +10336,10 @@
         <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>145</v>
@@ -10348,10 +10359,10 @@
         <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>145</v>
@@ -10371,10 +10382,10 @@
         <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>145</v>
@@ -10394,10 +10405,10 @@
         <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>145</v>
@@ -10417,10 +10428,10 @@
         <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>145</v>
@@ -10440,10 +10451,10 @@
         <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>145</v>
@@ -10463,10 +10474,10 @@
         <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>145</v>
@@ -10486,10 +10497,10 @@
         <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>145</v>
@@ -10509,10 +10520,10 @@
         <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>145</v>
@@ -10532,10 +10543,10 @@
         <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>145</v>
@@ -10555,10 +10566,10 @@
         <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>145</v>
@@ -10578,10 +10589,10 @@
         <v>14</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>145</v>
@@ -10601,10 +10612,10 @@
         <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>145</v>
@@ -10624,10 +10635,10 @@
         <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>145</v>
@@ -10647,10 +10658,10 @@
         <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>145</v>
@@ -10670,10 +10681,10 @@
         <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>145</v>
@@ -10693,10 +10704,10 @@
         <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>145</v>
@@ -10716,10 +10727,10 @@
         <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>145</v>
@@ -10739,10 +10750,10 @@
         <v>14</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>145</v>
@@ -10762,10 +10773,10 @@
         <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>145</v>
@@ -10785,10 +10796,10 @@
         <v>14</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>145</v>
@@ -10808,10 +10819,10 @@
         <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>145</v>
@@ -10831,10 +10842,10 @@
         <v>14</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>145</v>
@@ -10854,10 +10865,10 @@
         <v>14</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>145</v>
@@ -10877,10 +10888,10 @@
         <v>14</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>145</v>
@@ -10900,10 +10911,10 @@
         <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>145</v>
@@ -10923,10 +10934,10 @@
         <v>14</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>145</v>
@@ -10946,10 +10957,10 @@
         <v>14</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>145</v>
@@ -10969,10 +10980,10 @@
         <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>145</v>
@@ -10992,10 +11003,10 @@
         <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>145</v>
@@ -11015,10 +11026,10 @@
         <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>145</v>
@@ -11038,10 +11049,10 @@
         <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>145</v>
@@ -11061,10 +11072,10 @@
         <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>145</v>
@@ -11084,10 +11095,10 @@
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>145</v>
@@ -11291,7 +11302,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
@@ -11314,10 +11325,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>145</v>
@@ -11337,7 +11348,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>15</v>
@@ -11360,7 +11371,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
@@ -11383,7 +11394,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
@@ -11406,7 +11417,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>15</v>
@@ -11429,7 +11440,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>15</v>
@@ -11452,7 +11463,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
@@ -11475,7 +11486,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>15</v>
@@ -11498,7 +11509,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
@@ -11521,7 +11532,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>15</v>
@@ -11544,7 +11555,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
@@ -11567,7 +11578,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>15</v>
@@ -11590,7 +11601,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>15</v>
@@ -11613,7 +11624,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>15</v>
@@ -11665,7 +11676,7 @@
         <v>148</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>145</v>
@@ -11740,7 +11751,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>15</v>
@@ -11763,7 +11774,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>15</v>
@@ -11786,7 +11797,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>15</v>
@@ -11809,7 +11820,7 @@
         <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>15</v>
@@ -11832,7 +11843,7 @@
         <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>15</v>
@@ -11855,7 +11866,7 @@
         <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>15</v>
@@ -11878,7 +11889,7 @@
         <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>15</v>
@@ -11901,7 +11912,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>15</v>
@@ -11924,7 +11935,7 @@
         <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>15</v>
@@ -11947,7 +11958,7 @@
         <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>15</v>
@@ -11970,7 +11981,7 @@
         <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>15</v>
@@ -11993,7 +12004,7 @@
         <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>15</v>
@@ -12016,7 +12027,7 @@
         <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>15</v>
@@ -12039,7 +12050,7 @@
         <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>15</v>
@@ -12062,7 +12073,7 @@
         <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>15</v>
@@ -12085,7 +12096,7 @@
         <v>14</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>15</v>
@@ -12108,7 +12119,7 @@
         <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>15</v>
@@ -12131,7 +12142,7 @@
         <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>15</v>
@@ -12154,7 +12165,7 @@
         <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>15</v>
@@ -12177,7 +12188,7 @@
         <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>15</v>
@@ -12200,7 +12211,7 @@
         <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>15</v>
@@ -12223,7 +12234,7 @@
         <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>15</v>
@@ -12246,7 +12257,7 @@
         <v>14</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>15</v>
@@ -12269,7 +12280,7 @@
         <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>15</v>
@@ -12292,7 +12303,7 @@
         <v>14</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>15</v>
@@ -12315,7 +12326,7 @@
         <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>15</v>
@@ -12338,7 +12349,7 @@
         <v>14</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>15</v>
@@ -12361,7 +12372,7 @@
         <v>14</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>15</v>
@@ -12384,7 +12395,7 @@
         <v>14</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>15</v>
@@ -12407,10 +12418,10 @@
         <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>145</v>
@@ -12430,10 +12441,10 @@
         <v>14</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>145</v>
@@ -12453,7 +12464,7 @@
         <v>14</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>15</v>
@@ -12476,7 +12487,7 @@
         <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>15</v>
@@ -12499,7 +12510,7 @@
         <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>15</v>
@@ -12522,7 +12533,7 @@
         <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>15</v>
@@ -12545,7 +12556,7 @@
         <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>15</v>
@@ -12568,7 +12579,7 @@
         <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>15</v>
@@ -12591,7 +12602,7 @@
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>15</v>
@@ -12798,19 +12809,19 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>93</v>
@@ -12827,19 +12838,19 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>93</v>
@@ -12856,19 +12867,19 @@
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>63</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>93</v>
@@ -12885,19 +12896,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>93</v>
@@ -12914,19 +12925,19 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>93</v>
@@ -12943,19 +12954,19 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>93</v>
@@ -12972,19 +12983,19 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>93</v>
@@ -13001,19 +13012,19 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>93</v>
@@ -13030,19 +13041,19 @@
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>93</v>
@@ -13059,19 +13070,19 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>93</v>
@@ -13088,19 +13099,19 @@
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>93</v>
@@ -13117,19 +13128,19 @@
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>93</v>
@@ -13146,19 +13157,19 @@
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>93</v>
@@ -13178,7 +13189,7 @@
         <v>144</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>64</v>
@@ -13187,7 +13198,7 @@
         <v>144</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>146</v>
@@ -13210,7 +13221,7 @@
         <v>148</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>65</v>
@@ -13219,7 +13230,7 @@
         <v>148</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>146</v>
@@ -13242,7 +13253,7 @@
         <v>150</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>67</v>
@@ -13251,7 +13262,7 @@
         <v>150</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>146</v>
@@ -13274,7 +13285,7 @@
         <v>152</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>68</v>
@@ -13283,7 +13294,7 @@
         <v>152</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>146</v>
@@ -13303,19 +13314,19 @@
         <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>93</v>
@@ -13332,19 +13343,19 @@
         <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>93</v>
@@ -13361,19 +13372,19 @@
         <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>93</v>
@@ -13390,19 +13401,19 @@
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>93</v>
@@ -13419,19 +13430,19 @@
         <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>93</v>
@@ -13448,19 +13459,19 @@
         <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>93</v>
@@ -13477,19 +13488,19 @@
         <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>93</v>
@@ -13506,19 +13517,19 @@
         <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>93</v>
@@ -13535,19 +13546,19 @@
         <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>93</v>
@@ -13564,19 +13575,19 @@
         <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>93</v>
@@ -13593,19 +13604,19 @@
         <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>93</v>
@@ -13622,19 +13633,19 @@
         <v>12</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>93</v>
@@ -13651,19 +13662,19 @@
         <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>93</v>
@@ -13680,19 +13691,19 @@
         <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>93</v>
@@ -13709,19 +13720,19 @@
         <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>93</v>
@@ -13738,19 +13749,19 @@
         <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>93</v>
@@ -13767,19 +13778,19 @@
         <v>12</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>93</v>
@@ -13796,19 +13807,19 @@
         <v>12</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>93</v>
@@ -13825,19 +13836,19 @@
         <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>93</v>
@@ -13854,19 +13865,19 @@
         <v>12</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>93</v>
@@ -13883,19 +13894,19 @@
         <v>12</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>93</v>
@@ -13912,19 +13923,19 @@
         <v>12</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>93</v>
@@ -13941,19 +13952,19 @@
         <v>12</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>93</v>
@@ -13970,19 +13981,19 @@
         <v>12</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>93</v>
@@ -13999,19 +14010,19 @@
         <v>12</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>93</v>
@@ -14028,19 +14039,19 @@
         <v>12</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>93</v>
@@ -14057,19 +14068,19 @@
         <v>12</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J45" s="0" t="s">
         <v>93</v>
@@ -14086,19 +14097,19 @@
         <v>12</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>93</v>
@@ -14115,19 +14126,19 @@
         <v>12</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>93</v>
@@ -14144,19 +14155,19 @@
         <v>12</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>93</v>
@@ -14173,19 +14184,19 @@
         <v>12</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>93</v>
@@ -14202,19 +14213,19 @@
         <v>12</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>93</v>
@@ -14231,19 +14242,19 @@
         <v>12</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J51" s="0" t="s">
         <v>93</v>
@@ -14260,19 +14271,19 @@
         <v>12</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J52" s="0" t="s">
         <v>93</v>
@@ -14289,19 +14300,19 @@
         <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J53" s="0" t="s">
         <v>93</v>
@@ -14318,19 +14329,19 @@
         <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>60</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J54" s="0" t="s">
         <v>93</v>
@@ -14347,19 +14358,19 @@
         <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J55" s="0" t="s">
         <v>93</v>
@@ -14376,10 +14387,10 @@
         <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>145</v>
@@ -14399,10 +14410,10 @@
         <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>145</v>
@@ -14422,10 +14433,10 @@
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>145</v>
@@ -14737,25 +14748,25 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>93</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3">
@@ -14769,10 +14780,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>145</v>
@@ -14792,10 +14803,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>145</v>
@@ -14815,10 +14826,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>145</v>
@@ -14838,10 +14849,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>145</v>
@@ -14861,10 +14872,10 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>145</v>
@@ -14884,10 +14895,10 @@
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>145</v>
@@ -14907,10 +14918,10 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>145</v>
@@ -14930,10 +14941,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>145</v>
@@ -14953,10 +14964,10 @@
         <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>145</v>
@@ -14976,10 +14987,10 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>145</v>
@@ -14999,10 +15010,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>145</v>
@@ -15022,10 +15033,10 @@
         <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>145</v>
@@ -15045,10 +15056,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>145</v>
@@ -15068,10 +15079,10 @@
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>145</v>
@@ -15094,7 +15105,7 @@
         <v>144</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>145</v>
@@ -15120,7 +15131,7 @@
         <v>148</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>145</v>
@@ -15146,7 +15157,7 @@
         <v>150</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>145</v>
@@ -15172,7 +15183,7 @@
         <v>152</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>145</v>
@@ -15195,10 +15206,10 @@
         <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>145</v>
@@ -15218,10 +15229,10 @@
         <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>145</v>
@@ -15241,10 +15252,10 @@
         <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>145</v>
@@ -15264,10 +15275,10 @@
         <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>145</v>
@@ -15287,10 +15298,10 @@
         <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>145</v>
@@ -15310,10 +15321,10 @@
         <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>145</v>
@@ -15333,10 +15344,10 @@
         <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>145</v>
@@ -15356,10 +15367,10 @@
         <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>145</v>
@@ -15379,10 +15390,10 @@
         <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>145</v>
@@ -15402,10 +15413,10 @@
         <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>145</v>
@@ -15425,10 +15436,10 @@
         <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>145</v>
@@ -15448,10 +15459,10 @@
         <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>145</v>
@@ -15471,10 +15482,10 @@
         <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>145</v>
@@ -15494,10 +15505,10 @@
         <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>145</v>
@@ -15517,10 +15528,10 @@
         <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>145</v>
@@ -15540,10 +15551,10 @@
         <v>14</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>145</v>
@@ -15563,10 +15574,10 @@
         <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>145</v>
@@ -15586,10 +15597,10 @@
         <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>145</v>
@@ -15609,10 +15620,10 @@
         <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>145</v>
@@ -15632,10 +15643,10 @@
         <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>145</v>
@@ -15655,10 +15666,10 @@
         <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>145</v>
@@ -15678,10 +15689,10 @@
         <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>145</v>
@@ -15701,10 +15712,10 @@
         <v>14</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>145</v>
@@ -15724,10 +15735,10 @@
         <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>145</v>
@@ -15747,10 +15758,10 @@
         <v>14</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>145</v>
@@ -15770,10 +15781,10 @@
         <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>145</v>
@@ -15793,10 +15804,10 @@
         <v>14</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>145</v>
@@ -15816,10 +15827,10 @@
         <v>14</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>145</v>
@@ -15839,10 +15850,10 @@
         <v>14</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>145</v>
@@ -15862,10 +15873,10 @@
         <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>145</v>
@@ -15885,10 +15896,10 @@
         <v>14</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>145</v>
@@ -15908,10 +15919,10 @@
         <v>14</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>145</v>
@@ -15931,10 +15942,10 @@
         <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>145</v>
@@ -15954,10 +15965,10 @@
         <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>145</v>
@@ -15977,10 +15988,10 @@
         <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>145</v>
@@ -16000,10 +16011,10 @@
         <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>145</v>
@@ -16023,10 +16034,10 @@
         <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>145</v>
@@ -16046,10 +16057,10 @@
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>145</v>
@@ -16255,10 +16266,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>145</v>
@@ -16278,10 +16289,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>145</v>
@@ -16301,10 +16312,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>145</v>
@@ -16324,10 +16335,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>145</v>
@@ -16347,10 +16358,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>470</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>145</v>
@@ -16370,10 +16381,10 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>145</v>
@@ -16393,10 +16404,10 @@
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>145</v>
@@ -16416,10 +16427,10 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>145</v>
@@ -16439,10 +16450,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>145</v>
@@ -16462,10 +16473,10 @@
         <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>145</v>
@@ -16485,10 +16496,10 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>145</v>
@@ -16508,10 +16519,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>145</v>
@@ -16531,10 +16542,10 @@
         <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>145</v>
@@ -16554,10 +16565,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>145</v>
@@ -16577,10 +16588,10 @@
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>145</v>
@@ -16603,7 +16614,7 @@
         <v>144</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>145</v>
@@ -16629,7 +16640,7 @@
         <v>148</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>145</v>
@@ -16655,7 +16666,7 @@
         <v>150</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>145</v>
@@ -16681,7 +16692,7 @@
         <v>152</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>145</v>
@@ -16704,10 +16715,10 @@
         <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>145</v>
@@ -16727,10 +16738,10 @@
         <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>145</v>
@@ -16750,10 +16761,10 @@
         <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>145</v>
@@ -16773,10 +16784,10 @@
         <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>145</v>
@@ -16796,10 +16807,10 @@
         <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>145</v>
@@ -16819,10 +16830,10 @@
         <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>145</v>
@@ -16842,10 +16853,10 @@
         <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>145</v>
@@ -16865,10 +16876,10 @@
         <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>145</v>
@@ -16888,10 +16899,10 @@
         <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>145</v>
@@ -16911,10 +16922,10 @@
         <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>145</v>
@@ -16934,10 +16945,10 @@
         <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>145</v>
@@ -16957,10 +16968,10 @@
         <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>145</v>
@@ -16980,10 +16991,10 @@
         <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>145</v>
@@ -17003,10 +17014,10 @@
         <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>145</v>
@@ -17026,10 +17037,10 @@
         <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>145</v>
@@ -17049,10 +17060,10 @@
         <v>14</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>145</v>
@@ -17072,10 +17083,10 @@
         <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>145</v>
@@ -17095,10 +17106,10 @@
         <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>145</v>
@@ -17118,10 +17129,10 @@
         <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>145</v>
@@ -17141,10 +17152,10 @@
         <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>145</v>
@@ -17164,10 +17175,10 @@
         <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>145</v>
@@ -17187,10 +17198,10 @@
         <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>145</v>
@@ -17210,10 +17221,10 @@
         <v>14</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>145</v>
@@ -17233,10 +17244,10 @@
         <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>145</v>
@@ -17256,10 +17267,10 @@
         <v>14</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>145</v>
@@ -17279,10 +17290,10 @@
         <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>145</v>
@@ -17302,10 +17313,10 @@
         <v>14</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>145</v>
@@ -17325,10 +17336,10 @@
         <v>14</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>145</v>
@@ -17348,10 +17359,10 @@
         <v>14</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>145</v>
@@ -17371,10 +17382,10 @@
         <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>145</v>
@@ -17394,10 +17405,10 @@
         <v>14</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>145</v>
@@ -17417,10 +17428,10 @@
         <v>14</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>145</v>
@@ -17440,10 +17451,10 @@
         <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>145</v>
@@ -17463,10 +17474,10 @@
         <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>145</v>
@@ -17486,10 +17497,10 @@
         <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>145</v>
@@ -17509,10 +17520,10 @@
         <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>145</v>
@@ -17532,10 +17543,10 @@
         <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>145</v>
@@ -17555,10 +17566,10 @@
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>145</v>
@@ -17762,10 +17773,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>145</v>
@@ -17785,10 +17796,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>145</v>
@@ -17808,10 +17819,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>145</v>
@@ -17831,10 +17842,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>145</v>
@@ -17854,10 +17865,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>529</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>145</v>
@@ -17877,10 +17888,10 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>145</v>
@@ -17900,10 +17911,10 @@
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>145</v>
@@ -17923,10 +17934,10 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>145</v>
@@ -17946,10 +17957,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>145</v>
@@ -17969,10 +17980,10 @@
         <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>145</v>
@@ -17992,10 +18003,10 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>145</v>
@@ -18015,10 +18026,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>145</v>
@@ -18038,10 +18049,10 @@
         <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>145</v>
@@ -18061,10 +18072,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>145</v>
@@ -18084,10 +18095,10 @@
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>145</v>
@@ -18110,7 +18121,7 @@
         <v>144</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>145</v>
@@ -18136,7 +18147,7 @@
         <v>148</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>145</v>
@@ -18162,7 +18173,7 @@
         <v>150</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>145</v>
@@ -18188,7 +18199,7 @@
         <v>152</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>145</v>
@@ -18211,10 +18222,10 @@
         <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>145</v>
@@ -18234,10 +18245,10 @@
         <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>145</v>
@@ -18257,10 +18268,10 @@
         <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>145</v>
@@ -18280,10 +18291,10 @@
         <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>145</v>
@@ -18303,10 +18314,10 @@
         <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>145</v>
@@ -18326,10 +18337,10 @@
         <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>145</v>
@@ -18349,10 +18360,10 @@
         <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>145</v>
@@ -18372,10 +18383,10 @@
         <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>145</v>
@@ -18395,10 +18406,10 @@
         <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>145</v>
@@ -18418,10 +18429,10 @@
         <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>145</v>
@@ -18441,10 +18452,10 @@
         <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>145</v>
@@ -18464,10 +18475,10 @@
         <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>145</v>
@@ -18487,10 +18498,10 @@
         <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>145</v>
@@ -18510,10 +18521,10 @@
         <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>145</v>
@@ -18533,10 +18544,10 @@
         <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>145</v>
@@ -18556,10 +18567,10 @@
         <v>14</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>145</v>
@@ -18579,10 +18590,10 @@
         <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>145</v>
@@ -18602,10 +18613,10 @@
         <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>145</v>
@@ -18625,10 +18636,10 @@
         <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>145</v>
@@ -18648,10 +18659,10 @@
         <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>145</v>
@@ -18671,10 +18682,10 @@
         <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>145</v>
@@ -18694,10 +18705,10 @@
         <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>145</v>
@@ -18717,10 +18728,10 @@
         <v>14</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>145</v>
@@ -18740,10 +18751,10 @@
         <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>145</v>
@@ -18763,10 +18774,10 @@
         <v>14</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>145</v>
@@ -18786,10 +18797,10 @@
         <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>145</v>
@@ -18809,10 +18820,10 @@
         <v>14</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>145</v>
@@ -18832,10 +18843,10 @@
         <v>14</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>145</v>
@@ -18855,10 +18866,10 @@
         <v>14</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>145</v>
@@ -18878,10 +18889,10 @@
         <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>145</v>
@@ -18901,10 +18912,10 @@
         <v>14</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>145</v>
@@ -18924,10 +18935,10 @@
         <v>14</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>145</v>
@@ -18947,10 +18958,10 @@
         <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>145</v>
@@ -18970,10 +18981,10 @@
         <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>145</v>
@@ -18993,10 +19004,10 @@
         <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>145</v>
@@ -19016,10 +19027,10 @@
         <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>145</v>
@@ -19039,10 +19050,10 @@
         <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>145</v>
@@ -19062,10 +19073,10 @@
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>145</v>

--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="653">
   <si>
     <t>File Name</t>
   </si>
@@ -543,6 +543,12 @@
     <t>2016-04-12 22:40:49</t>
   </si>
   <si>
+    <t>2016-04-13 18:47:50</t>
+  </si>
+  <si>
+    <t>2016-04-13 18:57:42</t>
+  </si>
+  <si>
     <t>CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf</t>
   </si>
   <si>
@@ -688,9 +694,6 @@
   </si>
   <si>
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-13 18:47:50</t>
   </si>
   <si>
     <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf</t>
@@ -4056,7 +4059,7 @@
         <v>14</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>14</v>
@@ -4467,19 +4470,19 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>95</v>
@@ -4496,19 +4499,19 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>596</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>595</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>95</v>
@@ -4525,19 +4528,19 @@
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>95</v>
@@ -4554,19 +4557,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>95</v>
@@ -4583,19 +4586,19 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>95</v>
@@ -4612,19 +4615,19 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>95</v>
@@ -4641,19 +4644,19 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>95</v>
@@ -4670,19 +4673,19 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>95</v>
@@ -4699,19 +4702,19 @@
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>95</v>
@@ -4728,19 +4731,19 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>95</v>
@@ -4757,19 +4760,19 @@
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>95</v>
@@ -4789,7 +4792,7 @@
         <v>146</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>64</v>
@@ -4798,7 +4801,7 @@
         <v>146</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>148</v>
@@ -4807,7 +4810,7 @@
         <v>149</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14">
@@ -4824,7 +4827,7 @@
         <v>150</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>65</v>
@@ -4833,7 +4836,7 @@
         <v>150</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>148</v>
@@ -4842,7 +4845,7 @@
         <v>149</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15">
@@ -4859,7 +4862,7 @@
         <v>152</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>67</v>
@@ -4868,7 +4871,7 @@
         <v>152</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>148</v>
@@ -4877,7 +4880,7 @@
         <v>153</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16">
@@ -4894,7 +4897,7 @@
         <v>156</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>70</v>
@@ -4903,7 +4906,7 @@
         <v>156</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>148</v>
@@ -4912,7 +4915,7 @@
         <v>157</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17">
@@ -4926,19 +4929,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>95</v>
@@ -4955,19 +4958,19 @@
         <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>95</v>
@@ -4984,19 +4987,19 @@
         <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>95</v>
@@ -5013,19 +5016,19 @@
         <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>95</v>
@@ -5042,19 +5045,19 @@
         <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>95</v>
@@ -5071,19 +5074,19 @@
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>95</v>
@@ -5100,19 +5103,19 @@
         <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>95</v>
@@ -5129,19 +5132,19 @@
         <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>95</v>
@@ -5158,19 +5161,19 @@
         <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>95</v>
@@ -5187,19 +5190,19 @@
         <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>95</v>
@@ -5216,19 +5219,19 @@
         <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>95</v>
@@ -5245,19 +5248,19 @@
         <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>95</v>
@@ -5274,19 +5277,19 @@
         <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>95</v>
@@ -5303,19 +5306,19 @@
         <v>12</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>95</v>
@@ -5332,19 +5335,19 @@
         <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>95</v>
@@ -5361,19 +5364,19 @@
         <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>95</v>
@@ -5390,19 +5393,19 @@
         <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>95</v>
@@ -5419,19 +5422,19 @@
         <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>95</v>
@@ -5448,19 +5451,19 @@
         <v>12</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>95</v>
@@ -5477,19 +5480,19 @@
         <v>12</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>95</v>
@@ -5506,19 +5509,19 @@
         <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>95</v>
@@ -5535,19 +5538,19 @@
         <v>12</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>95</v>
@@ -5564,19 +5567,19 @@
         <v>12</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>95</v>
@@ -5593,19 +5596,19 @@
         <v>12</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>95</v>
@@ -5622,19 +5625,19 @@
         <v>12</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>95</v>
@@ -5651,19 +5654,19 @@
         <v>12</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>95</v>
@@ -5680,19 +5683,19 @@
         <v>12</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>95</v>
@@ -5709,19 +5712,19 @@
         <v>12</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>95</v>
@@ -5738,19 +5741,19 @@
         <v>12</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J45" s="0" t="s">
         <v>95</v>
@@ -5767,19 +5770,19 @@
         <v>12</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>95</v>
@@ -5796,19 +5799,19 @@
         <v>12</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>95</v>
@@ -5825,19 +5828,19 @@
         <v>12</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>95</v>
@@ -5854,19 +5857,19 @@
         <v>13</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>95</v>
@@ -5883,19 +5886,19 @@
         <v>13</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>641</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>63</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>95</v>
@@ -5912,19 +5915,19 @@
         <v>13</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J51" s="0" t="s">
         <v>95</v>
@@ -5941,19 +5944,19 @@
         <v>13</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J52" s="0" t="s">
         <v>95</v>
@@ -5970,7 +5973,7 @@
         <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>59</v>
@@ -5979,10 +5982,10 @@
         <v>58</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J53" s="0" t="s">
         <v>95</v>
@@ -5999,7 +6002,7 @@
         <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>61</v>
@@ -6008,10 +6011,10 @@
         <v>60</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J54" s="0" t="s">
         <v>95</v>
@@ -6054,7 +6057,7 @@
         <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>69</v>
@@ -6063,10 +6066,10 @@
         <v>71</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J56" s="0" t="s">
         <v>95</v>
@@ -6083,7 +6086,7 @@
         <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>74</v>
@@ -6106,7 +6109,7 @@
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>76</v>
@@ -6129,7 +6132,7 @@
         <v>14</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>61</v>
@@ -8430,30 +8433,39 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="J4" s="0" t="s">
-        <v>95</v>
+        <v>148</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>91</v>
@@ -8476,7 +8488,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>91</v>
@@ -8488,7 +8500,7 @@
         <v>177</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>147</v>
@@ -8499,7 +8511,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>91</v>
@@ -8508,10 +8520,10 @@
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>147</v>
@@ -8522,7 +8534,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>91</v>
@@ -8531,10 +8543,10 @@
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>147</v>
@@ -8545,7 +8557,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>91</v>
@@ -8554,10 +8566,10 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>147</v>
@@ -8568,7 +8580,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>91</v>
@@ -8577,10 +8589,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>147</v>
@@ -8591,7 +8603,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>91</v>
@@ -8600,10 +8612,10 @@
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>147</v>
@@ -8614,7 +8626,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>91</v>
@@ -8623,10 +8635,10 @@
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>147</v>
@@ -8637,7 +8649,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>91</v>
@@ -8646,10 +8658,10 @@
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>147</v>
@@ -8660,7 +8672,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>91</v>
@@ -8669,10 +8681,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>147</v>
@@ -8683,7 +8695,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>91</v>
@@ -8692,10 +8704,10 @@
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>147</v>
@@ -8706,7 +8718,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>91</v>
@@ -8715,10 +8727,10 @@
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>147</v>
@@ -8729,33 +8741,30 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>66</v>
+        <v>176</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>147</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>145</v>
@@ -8764,7 +8773,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>66</v>
@@ -8781,16 +8790,16 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>66</v>
@@ -8802,12 +8811,12 @@
         <v>148</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>151</v>
@@ -8816,7 +8825,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>66</v>
@@ -8828,35 +8837,38 @@
         <v>148</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>147</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>95</v>
+        <v>148</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>91</v>
@@ -8865,10 +8877,10 @@
         <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>147</v>
@@ -8879,7 +8891,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>91</v>
@@ -8888,10 +8900,10 @@
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>147</v>
@@ -8902,7 +8914,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>91</v>
@@ -8911,10 +8923,10 @@
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>147</v>
@@ -8925,7 +8937,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>91</v>
@@ -8934,10 +8946,10 @@
         <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>147</v>
@@ -8948,7 +8960,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>91</v>
@@ -8957,10 +8969,10 @@
         <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>147</v>
@@ -8971,7 +8983,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>91</v>
@@ -8980,10 +8992,10 @@
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>147</v>
@@ -8994,7 +9006,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>91</v>
@@ -9003,10 +9015,10 @@
         <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>147</v>
@@ -9017,7 +9029,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>91</v>
@@ -9026,10 +9038,10 @@
         <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>147</v>
@@ -9040,7 +9052,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>91</v>
@@ -9049,10 +9061,10 @@
         <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>147</v>
@@ -9063,7 +9075,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>91</v>
@@ -9072,10 +9084,10 @@
         <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>147</v>
@@ -9086,7 +9098,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>91</v>
@@ -9095,10 +9107,10 @@
         <v>13</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>147</v>
@@ -9109,7 +9121,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>91</v>
@@ -9118,10 +9130,10 @@
         <v>13</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>147</v>
@@ -9132,7 +9144,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>91</v>
@@ -9141,10 +9153,10 @@
         <v>13</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>147</v>
@@ -9155,7 +9167,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>91</v>
@@ -9164,10 +9176,10 @@
         <v>13</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>147</v>
@@ -9178,7 +9190,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>91</v>
@@ -9187,10 +9199,10 @@
         <v>13</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>147</v>
@@ -9201,7 +9213,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>91</v>
@@ -9210,10 +9222,10 @@
         <v>13</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>147</v>
@@ -9224,7 +9236,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>91</v>
@@ -9233,10 +9245,10 @@
         <v>13</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>147</v>
@@ -9247,7 +9259,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>91</v>
@@ -9256,10 +9268,10 @@
         <v>13</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>147</v>
@@ -9270,7 +9282,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>91</v>
@@ -9279,10 +9291,10 @@
         <v>13</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>147</v>
@@ -9293,7 +9305,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>91</v>
@@ -9302,7 +9314,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>176</v>
@@ -9316,7 +9328,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>91</v>
@@ -9325,10 +9337,10 @@
         <v>13</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>147</v>
@@ -9339,7 +9351,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>91</v>
@@ -9348,10 +9360,10 @@
         <v>13</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>147</v>
@@ -9362,7 +9374,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>91</v>
@@ -9371,10 +9383,10 @@
         <v>13</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>147</v>
@@ -9385,7 +9397,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>91</v>
@@ -9394,10 +9406,10 @@
         <v>13</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>147</v>
@@ -9408,7 +9420,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>91</v>
@@ -9417,10 +9429,10 @@
         <v>13</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>147</v>
@@ -9431,7 +9443,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>91</v>
@@ -9440,10 +9452,10 @@
         <v>13</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>147</v>
@@ -9454,7 +9466,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>91</v>
@@ -9463,10 +9475,10 @@
         <v>13</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>147</v>
@@ -9477,7 +9489,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>91</v>
@@ -9486,10 +9498,10 @@
         <v>13</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>147</v>
@@ -9500,7 +9512,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>91</v>
@@ -9509,10 +9521,10 @@
         <v>13</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>147</v>
@@ -9523,7 +9535,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>91</v>
@@ -9532,10 +9544,10 @@
         <v>13</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>147</v>
@@ -9546,7 +9558,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>91</v>
@@ -9555,10 +9567,10 @@
         <v>13</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>147</v>
@@ -9569,7 +9581,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>91</v>
@@ -9578,10 +9590,10 @@
         <v>13</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>147</v>
@@ -9592,7 +9604,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>91</v>
@@ -9601,10 +9613,10 @@
         <v>13</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>147</v>
@@ -9615,28 +9627,25 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>154</v>
+        <v>223</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>147</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="K55" s="0" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56">
@@ -9650,19 +9659,19 @@
         <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J56" s="0" t="s">
         <v>95</v>
@@ -9679,10 +9688,10 @@
         <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>147</v>
@@ -9702,10 +9711,10 @@
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>147</v>
@@ -9725,19 +9734,19 @@
         <v>14</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J59" s="0" t="s">
         <v>95</v>
@@ -9753,122 +9762,124 @@
     <hyperlink ref="D3" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="F3" display="authoringResource.md" r:id="rId8"/>
     <hyperlink ref="G3" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="CONTRIBUTING.md" r:id="rId10"/>
-    <hyperlink ref="D4" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="authoringResourceClass.md" r:id="rId12"/>
-    <hyperlink ref="D5" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="authoringResourceComposite.md" r:id="rId14"/>
-    <hyperlink ref="D6" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="authoringResourceMOF.md" r:id="rId16"/>
-    <hyperlink ref="D7" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display="authoringResourceMofCS.md" r:id="rId18"/>
-    <hyperlink ref="D8" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A9" display="authoringResourceMofDesigner.md" r:id="rId20"/>
-    <hyperlink ref="D9" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A10" display="builtInResource.md" r:id="rId22"/>
-    <hyperlink ref="D10" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId23"/>
-    <hyperlink ref="A11" display="configData.md" r:id="rId24"/>
-    <hyperlink ref="D11" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId25"/>
-    <hyperlink ref="A12" display="configurations.md" r:id="rId26"/>
-    <hyperlink ref="D12" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId27"/>
-    <hyperlink ref="A13" display="enactingConfigurations.md" r:id="rId28"/>
-    <hyperlink ref="D13" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId29"/>
-    <hyperlink ref="A14" display="environmentResource.md" r:id="rId30"/>
-    <hyperlink ref="D14" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId31"/>
-    <hyperlink ref="A15" display="fileResource.md" r:id="rId32"/>
-    <hyperlink ref="D15" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId33"/>
-    <hyperlink ref="A16" display="groupResource.md" r:id="rId34"/>
-    <hyperlink ref="D16" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId35"/>
-    <hyperlink ref="A17" display="PartialConfig1.jpg" r:id="rId36"/>
-    <hyperlink ref="D17" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId37"/>
-    <hyperlink ref="A18" display="PartialConfigPullServer.jpg" r:id="rId38"/>
-    <hyperlink ref="D18" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId39"/>
-    <hyperlink ref="A19" display="Pull.png" r:id="rId40"/>
-    <hyperlink ref="D19" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId41"/>
-    <hyperlink ref="A20" display="Push.png" r:id="rId42"/>
-    <hyperlink ref="D20" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId43"/>
-    <hyperlink ref="A21" display="lnxArchiveResource.md" r:id="rId44"/>
-    <hyperlink ref="D21" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId45"/>
-    <hyperlink ref="A22" display="lnxBuiltInResources.md" r:id="rId46"/>
-    <hyperlink ref="D22" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId47"/>
-    <hyperlink ref="A23" display="lnxEnvironmentResource.md" r:id="rId48"/>
-    <hyperlink ref="D23" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId49"/>
-    <hyperlink ref="A24" display="lnxFileLineResource.md" r:id="rId50"/>
-    <hyperlink ref="D24" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId51"/>
-    <hyperlink ref="A25" display="lnxFileResource.md" r:id="rId52"/>
-    <hyperlink ref="D25" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId53"/>
-    <hyperlink ref="A26" display="lnxGettingStarted.md" r:id="rId54"/>
-    <hyperlink ref="D26" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId55"/>
-    <hyperlink ref="A27" display="lnxGroupResource.md" r:id="rId56"/>
-    <hyperlink ref="D27" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId57"/>
-    <hyperlink ref="A28" display="lnxPackageResource.md" r:id="rId58"/>
-    <hyperlink ref="D28" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId59"/>
-    <hyperlink ref="A29" display="lnxScriptResource.md" r:id="rId60"/>
-    <hyperlink ref="D29" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId61"/>
-    <hyperlink ref="A30" display="lnxServiceResource.md" r:id="rId62"/>
-    <hyperlink ref="D30" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId63"/>
-    <hyperlink ref="A31" display="lnxSshAuthorizedKeysResource.md" r:id="rId64"/>
-    <hyperlink ref="D31" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId65"/>
-    <hyperlink ref="A32" display="lnxUserResource.md" r:id="rId66"/>
-    <hyperlink ref="D32" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId67"/>
-    <hyperlink ref="A33" display="logResource.md" r:id="rId68"/>
-    <hyperlink ref="D33" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId69"/>
-    <hyperlink ref="A34" display="metaConfig.md" r:id="rId70"/>
-    <hyperlink ref="D34" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId71"/>
-    <hyperlink ref="A35" display="metaConfig4.md" r:id="rId72"/>
-    <hyperlink ref="D35" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId73"/>
-    <hyperlink ref="A36" display="packageResource.md" r:id="rId74"/>
-    <hyperlink ref="D36" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId75"/>
-    <hyperlink ref="A37" display="pullClient.md" r:id="rId76"/>
-    <hyperlink ref="D37" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId77"/>
-    <hyperlink ref="A38" display="pullClientConfigID.md" r:id="rId78"/>
-    <hyperlink ref="D38" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId79"/>
-    <hyperlink ref="A39" display="pullClientConfigID4.md" r:id="rId80"/>
-    <hyperlink ref="D39" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId81"/>
-    <hyperlink ref="A40" display="pullClientConfigNames.md" r:id="rId82"/>
-    <hyperlink ref="D40" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId83"/>
-    <hyperlink ref="A41" display="pullServer.md" r:id="rId84"/>
-    <hyperlink ref="D41" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId85"/>
-    <hyperlink ref="A42" display="queryServerNodes.md" r:id="rId86"/>
-    <hyperlink ref="D42" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId87"/>
-    <hyperlink ref="A43" display="registryResource.md" r:id="rId88"/>
-    <hyperlink ref="D43" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId89"/>
-    <hyperlink ref="A44" display="resources.md" r:id="rId90"/>
-    <hyperlink ref="D44" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId91"/>
-    <hyperlink ref="A45" display="scriptResource.md" r:id="rId92"/>
-    <hyperlink ref="D45" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId93"/>
-    <hyperlink ref="A46" display="secureMOF.md" r:id="rId94"/>
-    <hyperlink ref="D46" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId95"/>
-    <hyperlink ref="A47" display="secureServer.md" r:id="rId96"/>
-    <hyperlink ref="D47" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId97"/>
-    <hyperlink ref="A48" display="serviceResource.md" r:id="rId98"/>
-    <hyperlink ref="D48" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId99"/>
-    <hyperlink ref="A49" display="TOC.md" r:id="rId100"/>
-    <hyperlink ref="D49" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId101"/>
-    <hyperlink ref="A50" display="troubleshooting.md" r:id="rId102"/>
-    <hyperlink ref="D50" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId103"/>
-    <hyperlink ref="A51" display="userResource.md" r:id="rId104"/>
-    <hyperlink ref="D51" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId105"/>
-    <hyperlink ref="A52" display="windowsfeatureResource.md" r:id="rId106"/>
-    <hyperlink ref="D52" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId107"/>
-    <hyperlink ref="A53" display="windowsProcessResource.md" r:id="rId108"/>
-    <hyperlink ref="D53" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId109"/>
-    <hyperlink ref="A54" display="README.md" r:id="rId110"/>
-    <hyperlink ref="D54" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId111"/>
-    <hyperlink ref="A55" display="Pull1.png" r:id="rId112"/>
-    <hyperlink ref="D55" display="a20dd5927999cbb3c1125bd4ff8944954abc84a9.png" r:id="rId113"/>
-    <hyperlink ref="A56" display="partialConfigs.md" r:id="rId114"/>
-    <hyperlink ref="D56" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId115"/>
-    <hyperlink ref="F56" display="partialConfigs.md" r:id="rId116"/>
-    <hyperlink ref="G56" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId117"/>
-    <hyperlink ref="A57" display="OpenLoc ROCKS.md" r:id="rId118"/>
-    <hyperlink ref="D57" display="OpenLoc ROCKS.ac3ecff61703b5a6c0e8f6ae2b1e10c3a845cc67.zh-cn.xlf" r:id="rId119"/>
-    <hyperlink ref="A58" display="SonjaFileToo.md" r:id="rId120"/>
-    <hyperlink ref="D58" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf" r:id="rId121"/>
-    <hyperlink ref="A59" display="overview-test2.md" r:id="rId122"/>
-    <hyperlink ref="D59" display="overview-test2.b82580217442d4533cc66897b1a1a51a6f090168.zh-cn.xlf" r:id="rId123"/>
-    <hyperlink ref="F59" display="overview.md" r:id="rId124"/>
-    <hyperlink ref="G59" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId125"/>
+    <hyperlink ref="A4" display="Pull1.png" r:id="rId10"/>
+    <hyperlink ref="D4" display="a20dd5927999cbb3c1125bd4ff8944954abc84a9.png" r:id="rId11"/>
+    <hyperlink ref="F4" display="Pull1.png" r:id="rId12"/>
+    <hyperlink ref="G4" display="a20dd5927999cbb3c1125bd4ff8944954abc84a9.png" r:id="rId13"/>
+    <hyperlink ref="A5" display="CONTRIBUTING.md" r:id="rId14"/>
+    <hyperlink ref="D5" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A6" display="authoringResourceClass.md" r:id="rId16"/>
+    <hyperlink ref="D6" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A7" display="authoringResourceComposite.md" r:id="rId18"/>
+    <hyperlink ref="D7" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A8" display="authoringResourceMOF.md" r:id="rId20"/>
+    <hyperlink ref="D8" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A9" display="authoringResourceMofCS.md" r:id="rId22"/>
+    <hyperlink ref="D9" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A10" display="authoringResourceMofDesigner.md" r:id="rId24"/>
+    <hyperlink ref="D10" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A11" display="builtInResource.md" r:id="rId26"/>
+    <hyperlink ref="D11" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="A12" display="configData.md" r:id="rId28"/>
+    <hyperlink ref="D12" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId29"/>
+    <hyperlink ref="A13" display="configurations.md" r:id="rId30"/>
+    <hyperlink ref="D13" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId31"/>
+    <hyperlink ref="A14" display="enactingConfigurations.md" r:id="rId32"/>
+    <hyperlink ref="D14" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId33"/>
+    <hyperlink ref="A15" display="environmentResource.md" r:id="rId34"/>
+    <hyperlink ref="D15" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId35"/>
+    <hyperlink ref="A16" display="fileResource.md" r:id="rId36"/>
+    <hyperlink ref="D16" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId37"/>
+    <hyperlink ref="A17" display="groupResource.md" r:id="rId38"/>
+    <hyperlink ref="D17" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId39"/>
+    <hyperlink ref="A18" display="PartialConfig1.jpg" r:id="rId40"/>
+    <hyperlink ref="D18" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId41"/>
+    <hyperlink ref="A19" display="PartialConfigPullServer.jpg" r:id="rId42"/>
+    <hyperlink ref="D19" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId43"/>
+    <hyperlink ref="A20" display="Pull.png" r:id="rId44"/>
+    <hyperlink ref="D20" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId45"/>
+    <hyperlink ref="A21" display="Push.png" r:id="rId46"/>
+    <hyperlink ref="D21" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId47"/>
+    <hyperlink ref="A22" display="lnxArchiveResource.md" r:id="rId48"/>
+    <hyperlink ref="D22" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId49"/>
+    <hyperlink ref="A23" display="lnxBuiltInResources.md" r:id="rId50"/>
+    <hyperlink ref="D23" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId51"/>
+    <hyperlink ref="A24" display="lnxEnvironmentResource.md" r:id="rId52"/>
+    <hyperlink ref="D24" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId53"/>
+    <hyperlink ref="A25" display="lnxFileLineResource.md" r:id="rId54"/>
+    <hyperlink ref="D25" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId55"/>
+    <hyperlink ref="A26" display="lnxFileResource.md" r:id="rId56"/>
+    <hyperlink ref="D26" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId57"/>
+    <hyperlink ref="A27" display="lnxGettingStarted.md" r:id="rId58"/>
+    <hyperlink ref="D27" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId59"/>
+    <hyperlink ref="A28" display="lnxGroupResource.md" r:id="rId60"/>
+    <hyperlink ref="D28" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId61"/>
+    <hyperlink ref="A29" display="lnxPackageResource.md" r:id="rId62"/>
+    <hyperlink ref="D29" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId63"/>
+    <hyperlink ref="A30" display="lnxScriptResource.md" r:id="rId64"/>
+    <hyperlink ref="D30" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId65"/>
+    <hyperlink ref="A31" display="lnxServiceResource.md" r:id="rId66"/>
+    <hyperlink ref="D31" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId67"/>
+    <hyperlink ref="A32" display="lnxSshAuthorizedKeysResource.md" r:id="rId68"/>
+    <hyperlink ref="D32" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId69"/>
+    <hyperlink ref="A33" display="lnxUserResource.md" r:id="rId70"/>
+    <hyperlink ref="D33" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId71"/>
+    <hyperlink ref="A34" display="logResource.md" r:id="rId72"/>
+    <hyperlink ref="D34" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId73"/>
+    <hyperlink ref="A35" display="metaConfig.md" r:id="rId74"/>
+    <hyperlink ref="D35" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId75"/>
+    <hyperlink ref="A36" display="metaConfig4.md" r:id="rId76"/>
+    <hyperlink ref="D36" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId77"/>
+    <hyperlink ref="A37" display="packageResource.md" r:id="rId78"/>
+    <hyperlink ref="D37" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId79"/>
+    <hyperlink ref="A38" display="pullClient.md" r:id="rId80"/>
+    <hyperlink ref="D38" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId81"/>
+    <hyperlink ref="A39" display="pullClientConfigID.md" r:id="rId82"/>
+    <hyperlink ref="D39" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId83"/>
+    <hyperlink ref="A40" display="pullClientConfigID4.md" r:id="rId84"/>
+    <hyperlink ref="D40" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId85"/>
+    <hyperlink ref="A41" display="pullClientConfigNames.md" r:id="rId86"/>
+    <hyperlink ref="D41" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId87"/>
+    <hyperlink ref="A42" display="pullServer.md" r:id="rId88"/>
+    <hyperlink ref="D42" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId89"/>
+    <hyperlink ref="A43" display="queryServerNodes.md" r:id="rId90"/>
+    <hyperlink ref="D43" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId91"/>
+    <hyperlink ref="A44" display="registryResource.md" r:id="rId92"/>
+    <hyperlink ref="D44" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId93"/>
+    <hyperlink ref="A45" display="resources.md" r:id="rId94"/>
+    <hyperlink ref="D45" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId95"/>
+    <hyperlink ref="A46" display="scriptResource.md" r:id="rId96"/>
+    <hyperlink ref="D46" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId97"/>
+    <hyperlink ref="A47" display="secureMOF.md" r:id="rId98"/>
+    <hyperlink ref="D47" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId99"/>
+    <hyperlink ref="A48" display="secureServer.md" r:id="rId100"/>
+    <hyperlink ref="D48" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId101"/>
+    <hyperlink ref="A49" display="serviceResource.md" r:id="rId102"/>
+    <hyperlink ref="D49" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId103"/>
+    <hyperlink ref="A50" display="TOC.md" r:id="rId104"/>
+    <hyperlink ref="D50" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId105"/>
+    <hyperlink ref="A51" display="troubleshooting.md" r:id="rId106"/>
+    <hyperlink ref="D51" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId107"/>
+    <hyperlink ref="A52" display="userResource.md" r:id="rId108"/>
+    <hyperlink ref="D52" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId109"/>
+    <hyperlink ref="A53" display="windowsfeatureResource.md" r:id="rId110"/>
+    <hyperlink ref="D53" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId111"/>
+    <hyperlink ref="A54" display="windowsProcessResource.md" r:id="rId112"/>
+    <hyperlink ref="D54" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId113"/>
+    <hyperlink ref="A55" display="README.md" r:id="rId114"/>
+    <hyperlink ref="D55" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId115"/>
+    <hyperlink ref="A56" display="partialConfigs.md" r:id="rId116"/>
+    <hyperlink ref="D56" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId117"/>
+    <hyperlink ref="F56" display="partialConfigs.md" r:id="rId118"/>
+    <hyperlink ref="G56" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId119"/>
+    <hyperlink ref="A57" display="OpenLoc ROCKS.md" r:id="rId120"/>
+    <hyperlink ref="D57" display="OpenLoc ROCKS.ac3ecff61703b5a6c0e8f6ae2b1e10c3a845cc67.zh-cn.xlf" r:id="rId121"/>
+    <hyperlink ref="A58" display="SonjaFileToo.md" r:id="rId122"/>
+    <hyperlink ref="D58" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.zh-cn.xlf" r:id="rId123"/>
+    <hyperlink ref="A59" display="overview-test2.md" r:id="rId124"/>
+    <hyperlink ref="D59" display="overview-test2.b82580217442d4533cc66897b1a1a51a6f090168.zh-cn.xlf" r:id="rId125"/>
+    <hyperlink ref="F59" display="overview.md" r:id="rId126"/>
+    <hyperlink ref="G59" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.zh-cn.xlf" r:id="rId127"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -9948,10 +9959,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>147</v>
@@ -9971,10 +9982,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>147</v>
@@ -9994,10 +10005,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>147</v>
@@ -10017,10 +10028,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>147</v>
@@ -10040,10 +10051,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>147</v>
@@ -10063,10 +10074,10 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>147</v>
@@ -10086,10 +10097,10 @@
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>147</v>
@@ -10109,10 +10120,10 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>147</v>
@@ -10132,10 +10143,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>147</v>
@@ -10155,10 +10166,10 @@
         <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>147</v>
@@ -10178,10 +10189,10 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>147</v>
@@ -10201,10 +10212,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>147</v>
@@ -10224,10 +10235,10 @@
         <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>147</v>
@@ -10247,10 +10258,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>147</v>
@@ -10270,10 +10281,10 @@
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>147</v>
@@ -10296,7 +10307,7 @@
         <v>146</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>147</v>
@@ -10322,7 +10333,7 @@
         <v>150</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>147</v>
@@ -10348,7 +10359,7 @@
         <v>152</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>147</v>
@@ -10374,7 +10385,7 @@
         <v>154</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>147</v>
@@ -10400,7 +10411,7 @@
         <v>156</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>147</v>
@@ -10423,10 +10434,10 @@
         <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>147</v>
@@ -10446,10 +10457,10 @@
         <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>147</v>
@@ -10469,10 +10480,10 @@
         <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>147</v>
@@ -10492,10 +10503,10 @@
         <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>147</v>
@@ -10515,10 +10526,10 @@
         <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>147</v>
@@ -10538,10 +10549,10 @@
         <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>147</v>
@@ -10561,10 +10572,10 @@
         <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>147</v>
@@ -10584,10 +10595,10 @@
         <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>147</v>
@@ -10607,10 +10618,10 @@
         <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>147</v>
@@ -10630,10 +10641,10 @@
         <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>147</v>
@@ -10653,10 +10664,10 @@
         <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>147</v>
@@ -10676,10 +10687,10 @@
         <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>147</v>
@@ -10699,10 +10710,10 @@
         <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>147</v>
@@ -10722,10 +10733,10 @@
         <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>147</v>
@@ -10745,10 +10756,10 @@
         <v>14</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>147</v>
@@ -10768,10 +10779,10 @@
         <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>147</v>
@@ -10791,10 +10802,10 @@
         <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>147</v>
@@ -10814,10 +10825,10 @@
         <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>147</v>
@@ -10837,10 +10848,10 @@
         <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>147</v>
@@ -10860,10 +10871,10 @@
         <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>147</v>
@@ -10883,10 +10894,10 @@
         <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>147</v>
@@ -10906,10 +10917,10 @@
         <v>14</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>147</v>
@@ -10929,10 +10940,10 @@
         <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>147</v>
@@ -10952,10 +10963,10 @@
         <v>14</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>147</v>
@@ -10975,10 +10986,10 @@
         <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>147</v>
@@ -10998,10 +11009,10 @@
         <v>14</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>147</v>
@@ -11021,10 +11032,10 @@
         <v>14</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>147</v>
@@ -11044,10 +11055,10 @@
         <v>14</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>147</v>
@@ -11067,10 +11078,10 @@
         <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>147</v>
@@ -11090,10 +11101,10 @@
         <v>14</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>147</v>
@@ -11113,10 +11124,10 @@
         <v>14</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>147</v>
@@ -11136,10 +11147,10 @@
         <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>147</v>
@@ -11159,10 +11170,10 @@
         <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>147</v>
@@ -11182,10 +11193,10 @@
         <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>147</v>
@@ -11205,10 +11216,10 @@
         <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>147</v>
@@ -11228,10 +11239,10 @@
         <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>147</v>
@@ -11251,10 +11262,10 @@
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>147</v>
@@ -11274,10 +11285,10 @@
         <v>14</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>147</v>
@@ -11483,7 +11494,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
@@ -11506,10 +11517,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>147</v>
@@ -11529,7 +11540,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>15</v>
@@ -11552,7 +11563,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
@@ -11575,7 +11586,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
@@ -11598,7 +11609,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>15</v>
@@ -11621,7 +11632,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>15</v>
@@ -11644,7 +11655,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
@@ -11667,7 +11678,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>15</v>
@@ -11690,7 +11701,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
@@ -11713,7 +11724,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>15</v>
@@ -11736,7 +11747,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
@@ -11759,7 +11770,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>15</v>
@@ -11782,7 +11793,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>15</v>
@@ -11805,7 +11816,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>15</v>
@@ -11857,7 +11868,7 @@
         <v>150</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>147</v>
@@ -11909,7 +11920,7 @@
         <v>154</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>147</v>
@@ -11958,7 +11969,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>15</v>
@@ -11981,7 +11992,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>15</v>
@@ -12004,7 +12015,7 @@
         <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>15</v>
@@ -12027,7 +12038,7 @@
         <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>15</v>
@@ -12050,7 +12061,7 @@
         <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>15</v>
@@ -12073,7 +12084,7 @@
         <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>15</v>
@@ -12096,7 +12107,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>15</v>
@@ -12119,7 +12130,7 @@
         <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>15</v>
@@ -12142,7 +12153,7 @@
         <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>15</v>
@@ -12165,7 +12176,7 @@
         <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>15</v>
@@ -12188,7 +12199,7 @@
         <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>15</v>
@@ -12211,7 +12222,7 @@
         <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>15</v>
@@ -12234,7 +12245,7 @@
         <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>15</v>
@@ -12257,7 +12268,7 @@
         <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>15</v>
@@ -12280,7 +12291,7 @@
         <v>14</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>15</v>
@@ -12303,7 +12314,7 @@
         <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>15</v>
@@ -12326,10 +12337,10 @@
         <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>147</v>
@@ -12349,7 +12360,7 @@
         <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>15</v>
@@ -12372,7 +12383,7 @@
         <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>15</v>
@@ -12395,7 +12406,7 @@
         <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>15</v>
@@ -12418,7 +12429,7 @@
         <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>15</v>
@@ -12441,7 +12452,7 @@
         <v>14</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>15</v>
@@ -12464,7 +12475,7 @@
         <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>15</v>
@@ -12487,7 +12498,7 @@
         <v>14</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>15</v>
@@ -12510,7 +12521,7 @@
         <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>15</v>
@@ -12533,7 +12544,7 @@
         <v>14</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>15</v>
@@ -12556,7 +12567,7 @@
         <v>14</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>15</v>
@@ -12579,7 +12590,7 @@
         <v>14</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>15</v>
@@ -12602,7 +12613,7 @@
         <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>15</v>
@@ -12625,10 +12636,10 @@
         <v>14</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>147</v>
@@ -12648,10 +12659,10 @@
         <v>14</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>147</v>
@@ -12671,7 +12682,7 @@
         <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>15</v>
@@ -12694,7 +12705,7 @@
         <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>15</v>
@@ -12717,7 +12728,7 @@
         <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>15</v>
@@ -12740,7 +12751,7 @@
         <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>15</v>
@@ -12763,7 +12774,7 @@
         <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>15</v>
@@ -12786,7 +12797,7 @@
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>15</v>
@@ -12809,7 +12820,7 @@
         <v>14</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>15</v>
@@ -13018,19 +13029,19 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>95</v>
@@ -13047,19 +13058,19 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>95</v>
@@ -13076,19 +13087,19 @@
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>63</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>95</v>
@@ -13105,19 +13116,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>95</v>
@@ -13134,19 +13145,19 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>95</v>
@@ -13163,19 +13174,19 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>95</v>
@@ -13192,19 +13203,19 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>95</v>
@@ -13221,19 +13232,19 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>95</v>
@@ -13250,19 +13261,19 @@
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>95</v>
@@ -13279,19 +13290,19 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>95</v>
@@ -13308,19 +13319,19 @@
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>95</v>
@@ -13337,19 +13348,19 @@
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>95</v>
@@ -13366,19 +13377,19 @@
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>95</v>
@@ -13398,7 +13409,7 @@
         <v>146</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>64</v>
@@ -13407,7 +13418,7 @@
         <v>146</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>148</v>
@@ -13430,7 +13441,7 @@
         <v>150</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>65</v>
@@ -13439,7 +13450,7 @@
         <v>150</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>148</v>
@@ -13462,7 +13473,7 @@
         <v>152</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>67</v>
@@ -13471,7 +13482,7 @@
         <v>152</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>148</v>
@@ -13494,7 +13505,7 @@
         <v>156</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>70</v>
@@ -13503,7 +13514,7 @@
         <v>156</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>148</v>
@@ -13523,19 +13534,19 @@
         <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>95</v>
@@ -13552,19 +13563,19 @@
         <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>95</v>
@@ -13581,19 +13592,19 @@
         <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>95</v>
@@ -13610,19 +13621,19 @@
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>95</v>
@@ -13639,19 +13650,19 @@
         <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>95</v>
@@ -13668,19 +13679,19 @@
         <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>95</v>
@@ -13697,19 +13708,19 @@
         <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>95</v>
@@ -13726,19 +13737,19 @@
         <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>95</v>
@@ -13755,19 +13766,19 @@
         <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>95</v>
@@ -13784,19 +13795,19 @@
         <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>95</v>
@@ -13813,19 +13824,19 @@
         <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>95</v>
@@ -13842,19 +13853,19 @@
         <v>12</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>95</v>
@@ -13871,19 +13882,19 @@
         <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>95</v>
@@ -13900,19 +13911,19 @@
         <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>95</v>
@@ -13929,19 +13940,19 @@
         <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>95</v>
@@ -13958,19 +13969,19 @@
         <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>95</v>
@@ -13987,19 +13998,19 @@
         <v>12</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>95</v>
@@ -14016,19 +14027,19 @@
         <v>12</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>95</v>
@@ -14045,19 +14056,19 @@
         <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>95</v>
@@ -14074,19 +14085,19 @@
         <v>12</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>95</v>
@@ -14103,19 +14114,19 @@
         <v>12</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>95</v>
@@ -14132,19 +14143,19 @@
         <v>12</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>95</v>
@@ -14161,19 +14172,19 @@
         <v>12</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>95</v>
@@ -14190,19 +14201,19 @@
         <v>12</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>95</v>
@@ -14219,19 +14230,19 @@
         <v>12</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>95</v>
@@ -14248,19 +14259,19 @@
         <v>12</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>95</v>
@@ -14277,19 +14288,19 @@
         <v>12</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J45" s="0" t="s">
         <v>95</v>
@@ -14306,19 +14317,19 @@
         <v>12</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>95</v>
@@ -14335,19 +14346,19 @@
         <v>12</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>95</v>
@@ -14364,19 +14375,19 @@
         <v>12</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>95</v>
@@ -14393,19 +14404,19 @@
         <v>12</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>95</v>
@@ -14422,19 +14433,19 @@
         <v>12</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>95</v>
@@ -14451,19 +14462,19 @@
         <v>12</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J51" s="0" t="s">
         <v>95</v>
@@ -14480,19 +14491,19 @@
         <v>12</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J52" s="0" t="s">
         <v>95</v>
@@ -14509,19 +14520,19 @@
         <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J53" s="0" t="s">
         <v>95</v>
@@ -14538,19 +14549,19 @@
         <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>60</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J54" s="0" t="s">
         <v>95</v>
@@ -14570,7 +14581,7 @@
         <v>154</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>147</v>
@@ -14593,19 +14604,19 @@
         <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J56" s="0" t="s">
         <v>95</v>
@@ -14622,10 +14633,10 @@
         <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>147</v>
@@ -14645,10 +14656,10 @@
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>147</v>
@@ -14668,10 +14679,10 @@
         <v>14</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>147</v>
@@ -14985,25 +14996,25 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>95</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3">
@@ -15017,10 +15028,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>147</v>
@@ -15040,10 +15051,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>147</v>
@@ -15063,10 +15074,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>147</v>
@@ -15086,10 +15097,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>147</v>
@@ -15109,10 +15120,10 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>147</v>
@@ -15132,10 +15143,10 @@
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>147</v>
@@ -15155,10 +15166,10 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>147</v>
@@ -15178,10 +15189,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>147</v>
@@ -15201,10 +15212,10 @@
         <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>147</v>
@@ -15224,10 +15235,10 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>147</v>
@@ -15247,10 +15258,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>147</v>
@@ -15270,10 +15281,10 @@
         <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>147</v>
@@ -15293,10 +15304,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>147</v>
@@ -15316,10 +15327,10 @@
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>147</v>
@@ -15342,7 +15353,7 @@
         <v>146</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>147</v>
@@ -15368,7 +15379,7 @@
         <v>150</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>147</v>
@@ -15394,7 +15405,7 @@
         <v>152</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>147</v>
@@ -15420,7 +15431,7 @@
         <v>154</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>147</v>
@@ -15446,7 +15457,7 @@
         <v>156</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>147</v>
@@ -15469,10 +15480,10 @@
         <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>147</v>
@@ -15492,10 +15503,10 @@
         <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>147</v>
@@ -15515,10 +15526,10 @@
         <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>147</v>
@@ -15538,10 +15549,10 @@
         <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>147</v>
@@ -15561,10 +15572,10 @@
         <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>147</v>
@@ -15584,10 +15595,10 @@
         <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>147</v>
@@ -15607,10 +15618,10 @@
         <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>147</v>
@@ -15630,10 +15641,10 @@
         <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>147</v>
@@ -15653,10 +15664,10 @@
         <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>147</v>
@@ -15676,10 +15687,10 @@
         <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>147</v>
@@ -15699,10 +15710,10 @@
         <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>147</v>
@@ -15722,10 +15733,10 @@
         <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>147</v>
@@ -15745,10 +15756,10 @@
         <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>147</v>
@@ -15768,10 +15779,10 @@
         <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>147</v>
@@ -15791,10 +15802,10 @@
         <v>14</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>147</v>
@@ -15814,10 +15825,10 @@
         <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>147</v>
@@ -15837,10 +15848,10 @@
         <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>147</v>
@@ -15860,10 +15871,10 @@
         <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>147</v>
@@ -15883,10 +15894,10 @@
         <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>147</v>
@@ -15906,10 +15917,10 @@
         <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>147</v>
@@ -15929,10 +15940,10 @@
         <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>147</v>
@@ -15952,10 +15963,10 @@
         <v>14</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>147</v>
@@ -15975,10 +15986,10 @@
         <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>147</v>
@@ -15998,10 +16009,10 @@
         <v>14</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>147</v>
@@ -16021,10 +16032,10 @@
         <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>147</v>
@@ -16044,10 +16055,10 @@
         <v>14</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>147</v>
@@ -16067,10 +16078,10 @@
         <v>14</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>147</v>
@@ -16090,10 +16101,10 @@
         <v>14</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>147</v>
@@ -16113,10 +16124,10 @@
         <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>147</v>
@@ -16136,10 +16147,10 @@
         <v>14</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>147</v>
@@ -16159,10 +16170,10 @@
         <v>14</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>147</v>
@@ -16182,10 +16193,10 @@
         <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>147</v>
@@ -16205,10 +16216,10 @@
         <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>147</v>
@@ -16228,10 +16239,10 @@
         <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>147</v>
@@ -16251,10 +16262,10 @@
         <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>147</v>
@@ -16274,10 +16285,10 @@
         <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>147</v>
@@ -16297,10 +16308,10 @@
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>147</v>
@@ -16320,10 +16331,10 @@
         <v>14</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>147</v>
@@ -16531,10 +16542,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>147</v>
@@ -16554,10 +16565,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>147</v>
@@ -16577,10 +16588,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>147</v>
@@ -16600,10 +16611,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>147</v>
@@ -16623,10 +16634,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>480</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>147</v>
@@ -16646,10 +16657,10 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>147</v>
@@ -16669,10 +16680,10 @@
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>147</v>
@@ -16692,10 +16703,10 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>147</v>
@@ -16715,10 +16726,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>147</v>
@@ -16738,10 +16749,10 @@
         <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>147</v>
@@ -16761,10 +16772,10 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>147</v>
@@ -16784,10 +16795,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>147</v>
@@ -16807,10 +16818,10 @@
         <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>147</v>
@@ -16830,10 +16841,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>147</v>
@@ -16853,10 +16864,10 @@
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>147</v>
@@ -16879,7 +16890,7 @@
         <v>146</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>147</v>
@@ -16905,7 +16916,7 @@
         <v>150</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>147</v>
@@ -16931,7 +16942,7 @@
         <v>152</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>147</v>
@@ -16957,7 +16968,7 @@
         <v>154</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>147</v>
@@ -16983,7 +16994,7 @@
         <v>156</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>147</v>
@@ -17006,10 +17017,10 @@
         <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>147</v>
@@ -17029,10 +17040,10 @@
         <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>147</v>
@@ -17052,10 +17063,10 @@
         <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>147</v>
@@ -17075,10 +17086,10 @@
         <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>147</v>
@@ -17098,10 +17109,10 @@
         <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>147</v>
@@ -17121,10 +17132,10 @@
         <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>147</v>
@@ -17144,10 +17155,10 @@
         <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>147</v>
@@ -17167,10 +17178,10 @@
         <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>147</v>
@@ -17190,10 +17201,10 @@
         <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>147</v>
@@ -17213,10 +17224,10 @@
         <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>147</v>
@@ -17236,10 +17247,10 @@
         <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>147</v>
@@ -17259,10 +17270,10 @@
         <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>147</v>
@@ -17282,10 +17293,10 @@
         <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>147</v>
@@ -17305,10 +17316,10 @@
         <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>147</v>
@@ -17328,10 +17339,10 @@
         <v>14</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>147</v>
@@ -17351,10 +17362,10 @@
         <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>147</v>
@@ -17374,10 +17385,10 @@
         <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>147</v>
@@ -17397,10 +17408,10 @@
         <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>147</v>
@@ -17420,10 +17431,10 @@
         <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>147</v>
@@ -17443,10 +17454,10 @@
         <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>147</v>
@@ -17466,10 +17477,10 @@
         <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>147</v>
@@ -17489,10 +17500,10 @@
         <v>14</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>147</v>
@@ -17512,10 +17523,10 @@
         <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>147</v>
@@ -17535,10 +17546,10 @@
         <v>14</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>147</v>
@@ -17558,10 +17569,10 @@
         <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>147</v>
@@ -17581,10 +17592,10 @@
         <v>14</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>147</v>
@@ -17604,10 +17615,10 @@
         <v>14</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>147</v>
@@ -17627,10 +17638,10 @@
         <v>14</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>147</v>
@@ -17650,10 +17661,10 @@
         <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>147</v>
@@ -17673,10 +17684,10 @@
         <v>14</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>147</v>
@@ -17696,10 +17707,10 @@
         <v>14</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>147</v>
@@ -17719,10 +17730,10 @@
         <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>147</v>
@@ -17742,10 +17753,10 @@
         <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>147</v>
@@ -17765,10 +17776,10 @@
         <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>147</v>
@@ -17788,10 +17799,10 @@
         <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>147</v>
@@ -17811,10 +17822,10 @@
         <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>147</v>
@@ -17834,10 +17845,10 @@
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>147</v>
@@ -17857,10 +17868,10 @@
         <v>14</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>147</v>
@@ -18066,10 +18077,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>147</v>
@@ -18089,10 +18100,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>147</v>
@@ -18112,10 +18123,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>147</v>
@@ -18135,10 +18146,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>147</v>
@@ -18158,10 +18169,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>540</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>147</v>
@@ -18181,10 +18192,10 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>147</v>
@@ -18204,10 +18215,10 @@
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>147</v>
@@ -18227,10 +18238,10 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>147</v>
@@ -18250,10 +18261,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>147</v>
@@ -18273,10 +18284,10 @@
         <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>147</v>
@@ -18296,10 +18307,10 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>147</v>
@@ -18319,10 +18330,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>147</v>
@@ -18342,10 +18353,10 @@
         <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>147</v>
@@ -18365,10 +18376,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>147</v>
@@ -18388,10 +18399,10 @@
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>147</v>
@@ -18414,7 +18425,7 @@
         <v>146</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>147</v>
@@ -18440,7 +18451,7 @@
         <v>150</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>147</v>
@@ -18466,7 +18477,7 @@
         <v>152</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>147</v>
@@ -18492,7 +18503,7 @@
         <v>154</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>147</v>
@@ -18518,7 +18529,7 @@
         <v>156</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>147</v>
@@ -18541,10 +18552,10 @@
         <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>147</v>
@@ -18564,10 +18575,10 @@
         <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>147</v>
@@ -18587,10 +18598,10 @@
         <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>147</v>
@@ -18610,10 +18621,10 @@
         <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>147</v>
@@ -18633,10 +18644,10 @@
         <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>147</v>
@@ -18656,10 +18667,10 @@
         <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>147</v>
@@ -18679,10 +18690,10 @@
         <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>147</v>
@@ -18702,10 +18713,10 @@
         <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>147</v>
@@ -18725,10 +18736,10 @@
         <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>147</v>
@@ -18748,10 +18759,10 @@
         <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>147</v>
@@ -18771,10 +18782,10 @@
         <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>147</v>
@@ -18794,10 +18805,10 @@
         <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>147</v>
@@ -18817,10 +18828,10 @@
         <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>147</v>
@@ -18840,10 +18851,10 @@
         <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>147</v>
@@ -18863,10 +18874,10 @@
         <v>14</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>147</v>
@@ -18886,10 +18897,10 @@
         <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>147</v>
@@ -18909,10 +18920,10 @@
         <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>147</v>
@@ -18932,10 +18943,10 @@
         <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>147</v>
@@ -18955,10 +18966,10 @@
         <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>147</v>
@@ -18978,10 +18989,10 @@
         <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>147</v>
@@ -19001,10 +19012,10 @@
         <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>147</v>
@@ -19024,10 +19035,10 @@
         <v>14</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>147</v>
@@ -19047,10 +19058,10 @@
         <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>147</v>
@@ -19070,10 +19081,10 @@
         <v>14</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>147</v>
@@ -19093,10 +19104,10 @@
         <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>147</v>
@@ -19116,10 +19127,10 @@
         <v>14</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>147</v>
@@ -19139,10 +19150,10 @@
         <v>14</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>147</v>
@@ -19162,10 +19173,10 @@
         <v>14</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>147</v>
@@ -19185,10 +19196,10 @@
         <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>147</v>
@@ -19208,10 +19219,10 @@
         <v>14</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>147</v>
@@ -19231,10 +19242,10 @@
         <v>14</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>147</v>
@@ -19254,10 +19265,10 @@
         <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>147</v>
@@ -19277,10 +19288,10 @@
         <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>147</v>
@@ -19300,10 +19311,10 @@
         <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>147</v>
@@ -19323,10 +19334,10 @@
         <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>147</v>
@@ -19346,10 +19357,10 @@
         <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>147</v>
@@ -19369,10 +19380,10 @@
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>147</v>
@@ -19392,10 +19403,10 @@
         <v>14</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>147</v>

--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
@@ -549,6 +549,12 @@
     <t>2016-04-13 18:57:42</t>
   </si>
   <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-13 21:37:43</t>
+  </si>
+  <si>
     <t>CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf</t>
   </si>
   <si>
@@ -694,12 +700,6 @@
   </si>
   <si>
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-13 15:57:58</t>
   </si>
   <si>
     <t>OpenLoc ROCKS.ac3ecff61703b5a6c0e8f6ae2b1e10c3a845cc67.zh-cn.xlf</t>
@@ -4129,7 +4129,7 @@
         <v>14</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>14</v>
@@ -8465,22 +8465,28 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>91</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>175</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>95</v>
@@ -8488,7 +8494,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>91</v>
@@ -8511,7 +8517,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>91</v>
@@ -8523,7 +8529,7 @@
         <v>179</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>147</v>
@@ -8534,7 +8540,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>91</v>
@@ -8543,10 +8549,10 @@
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>147</v>
@@ -8557,7 +8563,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>91</v>
@@ -8566,10 +8572,10 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>147</v>
@@ -8580,7 +8586,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>91</v>
@@ -8589,10 +8595,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>147</v>
@@ -8603,7 +8609,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>91</v>
@@ -8612,10 +8618,10 @@
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>147</v>
@@ -8626,7 +8632,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>91</v>
@@ -8635,10 +8641,10 @@
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>147</v>
@@ -8649,7 +8655,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>91</v>
@@ -8658,10 +8664,10 @@
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>147</v>
@@ -8672,7 +8678,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>91</v>
@@ -8681,10 +8687,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>147</v>
@@ -8695,7 +8701,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>91</v>
@@ -8704,10 +8710,10 @@
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>147</v>
@@ -8718,7 +8724,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>91</v>
@@ -8727,10 +8733,10 @@
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>147</v>
@@ -8741,7 +8747,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>91</v>
@@ -8750,10 +8756,10 @@
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>147</v>
@@ -8764,33 +8770,30 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>147</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>145</v>
@@ -8799,7 +8802,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>66</v>
@@ -8816,16 +8819,16 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>66</v>
@@ -8837,12 +8840,12 @@
         <v>148</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>151</v>
@@ -8851,7 +8854,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>66</v>
@@ -8863,35 +8866,38 @@
         <v>148</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>147</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>95</v>
+        <v>148</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>91</v>
@@ -8900,10 +8906,10 @@
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>147</v>
@@ -8914,7 +8920,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>91</v>
@@ -8923,10 +8929,10 @@
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>147</v>
@@ -8937,7 +8943,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>91</v>
@@ -8946,10 +8952,10 @@
         <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>147</v>
@@ -8960,7 +8966,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>91</v>
@@ -8969,10 +8975,10 @@
         <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>147</v>
@@ -8983,7 +8989,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>91</v>
@@ -8992,10 +8998,10 @@
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>147</v>
@@ -9006,7 +9012,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>91</v>
@@ -9015,10 +9021,10 @@
         <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>147</v>
@@ -9029,7 +9035,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>91</v>
@@ -9038,10 +9044,10 @@
         <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>147</v>
@@ -9052,7 +9058,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>91</v>
@@ -9061,10 +9067,10 @@
         <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>147</v>
@@ -9075,7 +9081,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>91</v>
@@ -9084,10 +9090,10 @@
         <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>147</v>
@@ -9098,7 +9104,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>91</v>
@@ -9107,10 +9113,10 @@
         <v>13</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>147</v>
@@ -9121,7 +9127,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>91</v>
@@ -9130,10 +9136,10 @@
         <v>13</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>147</v>
@@ -9144,7 +9150,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>91</v>
@@ -9153,10 +9159,10 @@
         <v>13</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>147</v>
@@ -9167,7 +9173,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>91</v>
@@ -9176,10 +9182,10 @@
         <v>13</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>147</v>
@@ -9190,7 +9196,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>91</v>
@@ -9199,10 +9205,10 @@
         <v>13</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>147</v>
@@ -9213,7 +9219,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>91</v>
@@ -9222,10 +9228,10 @@
         <v>13</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>147</v>
@@ -9236,7 +9242,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>91</v>
@@ -9245,10 +9251,10 @@
         <v>13</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>147</v>
@@ -9259,7 +9265,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>91</v>
@@ -9268,10 +9274,10 @@
         <v>13</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>147</v>
@@ -9282,7 +9288,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>91</v>
@@ -9291,10 +9297,10 @@
         <v>13</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>147</v>
@@ -9305,7 +9311,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>91</v>
@@ -9314,10 +9320,10 @@
         <v>13</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>147</v>
@@ -9328,7 +9334,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>91</v>
@@ -9337,7 +9343,7 @@
         <v>13</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>178</v>
@@ -9351,7 +9357,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>91</v>
@@ -9360,10 +9366,10 @@
         <v>13</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>147</v>
@@ -9374,7 +9380,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>91</v>
@@ -9383,10 +9389,10 @@
         <v>13</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>147</v>
@@ -9397,7 +9403,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>91</v>
@@ -9406,10 +9412,10 @@
         <v>13</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>147</v>
@@ -9420,7 +9426,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>91</v>
@@ -9429,10 +9435,10 @@
         <v>13</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>147</v>
@@ -9443,7 +9449,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>91</v>
@@ -9452,10 +9458,10 @@
         <v>13</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>147</v>
@@ -9466,7 +9472,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>91</v>
@@ -9475,10 +9481,10 @@
         <v>13</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>147</v>
@@ -9489,7 +9495,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>91</v>
@@ -9498,10 +9504,10 @@
         <v>13</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>147</v>
@@ -9512,7 +9518,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>91</v>
@@ -9521,10 +9527,10 @@
         <v>13</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>147</v>
@@ -9535,7 +9541,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>91</v>
@@ -9544,10 +9550,10 @@
         <v>13</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>147</v>
@@ -9558,7 +9564,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>91</v>
@@ -9567,10 +9573,10 @@
         <v>13</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>147</v>
@@ -9581,7 +9587,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>91</v>
@@ -9590,10 +9596,10 @@
         <v>13</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>147</v>
@@ -9604,7 +9610,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>91</v>
@@ -9613,10 +9619,10 @@
         <v>13</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>147</v>
@@ -9627,7 +9633,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>91</v>
@@ -9636,10 +9642,10 @@
         <v>13</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>147</v>
@@ -9650,28 +9656,22 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>91</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>225</v>
+        <v>147</v>
       </c>
       <c r="J56" s="0" t="s">
         <v>95</v>
@@ -9766,112 +9766,112 @@
     <hyperlink ref="D4" display="a20dd5927999cbb3c1125bd4ff8944954abc84a9.png" r:id="rId11"/>
     <hyperlink ref="F4" display="Pull1.png" r:id="rId12"/>
     <hyperlink ref="G4" display="a20dd5927999cbb3c1125bd4ff8944954abc84a9.png" r:id="rId13"/>
-    <hyperlink ref="A5" display="CONTRIBUTING.md" r:id="rId14"/>
-    <hyperlink ref="D5" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A6" display="authoringResourceClass.md" r:id="rId16"/>
-    <hyperlink ref="D6" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A7" display="authoringResourceComposite.md" r:id="rId18"/>
-    <hyperlink ref="D7" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A8" display="authoringResourceMOF.md" r:id="rId20"/>
-    <hyperlink ref="D8" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A9" display="authoringResourceMofCS.md" r:id="rId22"/>
-    <hyperlink ref="D9" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId23"/>
-    <hyperlink ref="A10" display="authoringResourceMofDesigner.md" r:id="rId24"/>
-    <hyperlink ref="D10" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId25"/>
-    <hyperlink ref="A11" display="builtInResource.md" r:id="rId26"/>
-    <hyperlink ref="D11" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId27"/>
-    <hyperlink ref="A12" display="configData.md" r:id="rId28"/>
-    <hyperlink ref="D12" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId29"/>
-    <hyperlink ref="A13" display="configurations.md" r:id="rId30"/>
-    <hyperlink ref="D13" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId31"/>
-    <hyperlink ref="A14" display="enactingConfigurations.md" r:id="rId32"/>
-    <hyperlink ref="D14" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId33"/>
-    <hyperlink ref="A15" display="environmentResource.md" r:id="rId34"/>
-    <hyperlink ref="D15" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId35"/>
-    <hyperlink ref="A16" display="fileResource.md" r:id="rId36"/>
-    <hyperlink ref="D16" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId37"/>
-    <hyperlink ref="A17" display="groupResource.md" r:id="rId38"/>
-    <hyperlink ref="D17" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId39"/>
-    <hyperlink ref="A18" display="PartialConfig1.jpg" r:id="rId40"/>
-    <hyperlink ref="D18" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId41"/>
-    <hyperlink ref="A19" display="PartialConfigPullServer.jpg" r:id="rId42"/>
-    <hyperlink ref="D19" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId43"/>
-    <hyperlink ref="A20" display="Pull.png" r:id="rId44"/>
-    <hyperlink ref="D20" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId45"/>
-    <hyperlink ref="A21" display="Push.png" r:id="rId46"/>
-    <hyperlink ref="D21" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId47"/>
-    <hyperlink ref="A22" display="lnxArchiveResource.md" r:id="rId48"/>
-    <hyperlink ref="D22" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId49"/>
-    <hyperlink ref="A23" display="lnxBuiltInResources.md" r:id="rId50"/>
-    <hyperlink ref="D23" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId51"/>
-    <hyperlink ref="A24" display="lnxEnvironmentResource.md" r:id="rId52"/>
-    <hyperlink ref="D24" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId53"/>
-    <hyperlink ref="A25" display="lnxFileLineResource.md" r:id="rId54"/>
-    <hyperlink ref="D25" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId55"/>
-    <hyperlink ref="A26" display="lnxFileResource.md" r:id="rId56"/>
-    <hyperlink ref="D26" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId57"/>
-    <hyperlink ref="A27" display="lnxGettingStarted.md" r:id="rId58"/>
-    <hyperlink ref="D27" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId59"/>
-    <hyperlink ref="A28" display="lnxGroupResource.md" r:id="rId60"/>
-    <hyperlink ref="D28" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId61"/>
-    <hyperlink ref="A29" display="lnxPackageResource.md" r:id="rId62"/>
-    <hyperlink ref="D29" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId63"/>
-    <hyperlink ref="A30" display="lnxScriptResource.md" r:id="rId64"/>
-    <hyperlink ref="D30" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId65"/>
-    <hyperlink ref="A31" display="lnxServiceResource.md" r:id="rId66"/>
-    <hyperlink ref="D31" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId67"/>
-    <hyperlink ref="A32" display="lnxSshAuthorizedKeysResource.md" r:id="rId68"/>
-    <hyperlink ref="D32" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId69"/>
-    <hyperlink ref="A33" display="lnxUserResource.md" r:id="rId70"/>
-    <hyperlink ref="D33" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId71"/>
-    <hyperlink ref="A34" display="logResource.md" r:id="rId72"/>
-    <hyperlink ref="D34" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId73"/>
-    <hyperlink ref="A35" display="metaConfig.md" r:id="rId74"/>
-    <hyperlink ref="D35" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId75"/>
-    <hyperlink ref="A36" display="metaConfig4.md" r:id="rId76"/>
-    <hyperlink ref="D36" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId77"/>
-    <hyperlink ref="A37" display="packageResource.md" r:id="rId78"/>
-    <hyperlink ref="D37" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId79"/>
-    <hyperlink ref="A38" display="pullClient.md" r:id="rId80"/>
-    <hyperlink ref="D38" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId81"/>
-    <hyperlink ref="A39" display="pullClientConfigID.md" r:id="rId82"/>
-    <hyperlink ref="D39" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId83"/>
-    <hyperlink ref="A40" display="pullClientConfigID4.md" r:id="rId84"/>
-    <hyperlink ref="D40" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId85"/>
-    <hyperlink ref="A41" display="pullClientConfigNames.md" r:id="rId86"/>
-    <hyperlink ref="D41" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId87"/>
-    <hyperlink ref="A42" display="pullServer.md" r:id="rId88"/>
-    <hyperlink ref="D42" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId89"/>
-    <hyperlink ref="A43" display="queryServerNodes.md" r:id="rId90"/>
-    <hyperlink ref="D43" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId91"/>
-    <hyperlink ref="A44" display="registryResource.md" r:id="rId92"/>
-    <hyperlink ref="D44" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId93"/>
-    <hyperlink ref="A45" display="resources.md" r:id="rId94"/>
-    <hyperlink ref="D45" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId95"/>
-    <hyperlink ref="A46" display="scriptResource.md" r:id="rId96"/>
-    <hyperlink ref="D46" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId97"/>
-    <hyperlink ref="A47" display="secureMOF.md" r:id="rId98"/>
-    <hyperlink ref="D47" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId99"/>
-    <hyperlink ref="A48" display="secureServer.md" r:id="rId100"/>
-    <hyperlink ref="D48" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId101"/>
-    <hyperlink ref="A49" display="serviceResource.md" r:id="rId102"/>
-    <hyperlink ref="D49" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId103"/>
-    <hyperlink ref="A50" display="TOC.md" r:id="rId104"/>
-    <hyperlink ref="D50" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId105"/>
-    <hyperlink ref="A51" display="troubleshooting.md" r:id="rId106"/>
-    <hyperlink ref="D51" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId107"/>
-    <hyperlink ref="A52" display="userResource.md" r:id="rId108"/>
-    <hyperlink ref="D52" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId109"/>
-    <hyperlink ref="A53" display="windowsfeatureResource.md" r:id="rId110"/>
-    <hyperlink ref="D53" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId111"/>
-    <hyperlink ref="A54" display="windowsProcessResource.md" r:id="rId112"/>
-    <hyperlink ref="D54" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId113"/>
-    <hyperlink ref="A55" display="README.md" r:id="rId114"/>
-    <hyperlink ref="D55" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId115"/>
-    <hyperlink ref="A56" display="partialConfigs.md" r:id="rId116"/>
-    <hyperlink ref="D56" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId117"/>
-    <hyperlink ref="F56" display="partialConfigs.md" r:id="rId118"/>
-    <hyperlink ref="G56" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId119"/>
+    <hyperlink ref="A5" display="partialConfigs.md" r:id="rId14"/>
+    <hyperlink ref="D5" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="F5" display="partialConfigs.md" r:id="rId16"/>
+    <hyperlink ref="G5" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="CONTRIBUTING.md" r:id="rId18"/>
+    <hyperlink ref="D6" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A7" display="authoringResourceClass.md" r:id="rId20"/>
+    <hyperlink ref="D7" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A8" display="authoringResourceComposite.md" r:id="rId22"/>
+    <hyperlink ref="D8" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A9" display="authoringResourceMOF.md" r:id="rId24"/>
+    <hyperlink ref="D9" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A10" display="authoringResourceMofCS.md" r:id="rId26"/>
+    <hyperlink ref="D10" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="A11" display="authoringResourceMofDesigner.md" r:id="rId28"/>
+    <hyperlink ref="D11" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId29"/>
+    <hyperlink ref="A12" display="builtInResource.md" r:id="rId30"/>
+    <hyperlink ref="D12" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId31"/>
+    <hyperlink ref="A13" display="configData.md" r:id="rId32"/>
+    <hyperlink ref="D13" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId33"/>
+    <hyperlink ref="A14" display="configurations.md" r:id="rId34"/>
+    <hyperlink ref="D14" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId35"/>
+    <hyperlink ref="A15" display="enactingConfigurations.md" r:id="rId36"/>
+    <hyperlink ref="D15" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId37"/>
+    <hyperlink ref="A16" display="environmentResource.md" r:id="rId38"/>
+    <hyperlink ref="D16" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId39"/>
+    <hyperlink ref="A17" display="fileResource.md" r:id="rId40"/>
+    <hyperlink ref="D17" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId41"/>
+    <hyperlink ref="A18" display="groupResource.md" r:id="rId42"/>
+    <hyperlink ref="D18" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId43"/>
+    <hyperlink ref="A19" display="PartialConfig1.jpg" r:id="rId44"/>
+    <hyperlink ref="D19" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId45"/>
+    <hyperlink ref="A20" display="PartialConfigPullServer.jpg" r:id="rId46"/>
+    <hyperlink ref="D20" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId47"/>
+    <hyperlink ref="A21" display="Pull.png" r:id="rId48"/>
+    <hyperlink ref="D21" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId49"/>
+    <hyperlink ref="A22" display="Push.png" r:id="rId50"/>
+    <hyperlink ref="D22" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId51"/>
+    <hyperlink ref="A23" display="lnxArchiveResource.md" r:id="rId52"/>
+    <hyperlink ref="D23" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId53"/>
+    <hyperlink ref="A24" display="lnxBuiltInResources.md" r:id="rId54"/>
+    <hyperlink ref="D24" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId55"/>
+    <hyperlink ref="A25" display="lnxEnvironmentResource.md" r:id="rId56"/>
+    <hyperlink ref="D25" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId57"/>
+    <hyperlink ref="A26" display="lnxFileLineResource.md" r:id="rId58"/>
+    <hyperlink ref="D26" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId59"/>
+    <hyperlink ref="A27" display="lnxFileResource.md" r:id="rId60"/>
+    <hyperlink ref="D27" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId61"/>
+    <hyperlink ref="A28" display="lnxGettingStarted.md" r:id="rId62"/>
+    <hyperlink ref="D28" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId63"/>
+    <hyperlink ref="A29" display="lnxGroupResource.md" r:id="rId64"/>
+    <hyperlink ref="D29" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId65"/>
+    <hyperlink ref="A30" display="lnxPackageResource.md" r:id="rId66"/>
+    <hyperlink ref="D30" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId67"/>
+    <hyperlink ref="A31" display="lnxScriptResource.md" r:id="rId68"/>
+    <hyperlink ref="D31" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId69"/>
+    <hyperlink ref="A32" display="lnxServiceResource.md" r:id="rId70"/>
+    <hyperlink ref="D32" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId71"/>
+    <hyperlink ref="A33" display="lnxSshAuthorizedKeysResource.md" r:id="rId72"/>
+    <hyperlink ref="D33" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId73"/>
+    <hyperlink ref="A34" display="lnxUserResource.md" r:id="rId74"/>
+    <hyperlink ref="D34" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId75"/>
+    <hyperlink ref="A35" display="logResource.md" r:id="rId76"/>
+    <hyperlink ref="D35" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId77"/>
+    <hyperlink ref="A36" display="metaConfig.md" r:id="rId78"/>
+    <hyperlink ref="D36" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId79"/>
+    <hyperlink ref="A37" display="metaConfig4.md" r:id="rId80"/>
+    <hyperlink ref="D37" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId81"/>
+    <hyperlink ref="A38" display="packageResource.md" r:id="rId82"/>
+    <hyperlink ref="D38" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId83"/>
+    <hyperlink ref="A39" display="pullClient.md" r:id="rId84"/>
+    <hyperlink ref="D39" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId85"/>
+    <hyperlink ref="A40" display="pullClientConfigID.md" r:id="rId86"/>
+    <hyperlink ref="D40" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId87"/>
+    <hyperlink ref="A41" display="pullClientConfigID4.md" r:id="rId88"/>
+    <hyperlink ref="D41" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId89"/>
+    <hyperlink ref="A42" display="pullClientConfigNames.md" r:id="rId90"/>
+    <hyperlink ref="D42" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId91"/>
+    <hyperlink ref="A43" display="pullServer.md" r:id="rId92"/>
+    <hyperlink ref="D43" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId93"/>
+    <hyperlink ref="A44" display="queryServerNodes.md" r:id="rId94"/>
+    <hyperlink ref="D44" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId95"/>
+    <hyperlink ref="A45" display="registryResource.md" r:id="rId96"/>
+    <hyperlink ref="D45" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId97"/>
+    <hyperlink ref="A46" display="resources.md" r:id="rId98"/>
+    <hyperlink ref="D46" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId99"/>
+    <hyperlink ref="A47" display="scriptResource.md" r:id="rId100"/>
+    <hyperlink ref="D47" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId101"/>
+    <hyperlink ref="A48" display="secureMOF.md" r:id="rId102"/>
+    <hyperlink ref="D48" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId103"/>
+    <hyperlink ref="A49" display="secureServer.md" r:id="rId104"/>
+    <hyperlink ref="D49" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId105"/>
+    <hyperlink ref="A50" display="serviceResource.md" r:id="rId106"/>
+    <hyperlink ref="D50" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId107"/>
+    <hyperlink ref="A51" display="TOC.md" r:id="rId108"/>
+    <hyperlink ref="D51" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId109"/>
+    <hyperlink ref="A52" display="troubleshooting.md" r:id="rId110"/>
+    <hyperlink ref="D52" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId111"/>
+    <hyperlink ref="A53" display="userResource.md" r:id="rId112"/>
+    <hyperlink ref="D53" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId113"/>
+    <hyperlink ref="A54" display="windowsfeatureResource.md" r:id="rId114"/>
+    <hyperlink ref="D54" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId115"/>
+    <hyperlink ref="A55" display="windowsProcessResource.md" r:id="rId116"/>
+    <hyperlink ref="D55" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId117"/>
+    <hyperlink ref="A56" display="README.md" r:id="rId118"/>
+    <hyperlink ref="D56" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId119"/>
     <hyperlink ref="A57" display="OpenLoc ROCKS.md" r:id="rId120"/>
     <hyperlink ref="D57" display="OpenLoc ROCKS.ac3ecff61703b5a6c0e8f6ae2b1e10c3a845cc67.zh-cn.xlf" r:id="rId121"/>
     <hyperlink ref="A58" display="SonjaFileToo.md" r:id="rId122"/>

--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="664">
   <si>
     <t>File Name</t>
   </si>
@@ -1965,6 +1965,12 @@
     <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ja-jp.xlf</t>
   </si>
   <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-18 02:30:58</t>
+  </si>
+  <si>
     <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ja-jp.xlf</t>
   </si>
   <si>
@@ -2008,9 +2014,6 @@
   </si>
   <si>
     <t>overview-test2.b82580217442d4533cc66897b1a1a51a6f090168.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ja-jp.xlf</t>
   </si>
 </sst>
 </file>
@@ -4320,7 +4323,7 @@
         <v>14</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>71</v>
@@ -5762,7 +5765,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>92</v>
@@ -5774,16 +5777,16 @@
         <v>647</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>605</v>
+        <v>71</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>647</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>606</v>
+        <v>648</v>
       </c>
       <c r="J45" s="0" t="s">
         <v>96</v>
@@ -5791,7 +5794,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>92</v>
@@ -5800,16 +5803,16 @@
         <v>12</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>605</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>606</v>
@@ -5820,7 +5823,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>92</v>
@@ -5829,16 +5832,16 @@
         <v>12</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>605</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>606</v>
@@ -5849,25 +5852,25 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>92</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>651</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>650</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>606</v>
@@ -5878,7 +5881,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>92</v>
@@ -5890,10 +5893,10 @@
         <v>652</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>652</v>
@@ -5907,7 +5910,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>92</v>
@@ -5916,16 +5919,16 @@
         <v>13</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>651</v>
-      </c>
       <c r="F50" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>606</v>
@@ -5936,7 +5939,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>92</v>
@@ -5945,16 +5948,16 @@
         <v>13</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E51" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>655</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>654</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>606</v>
@@ -5965,22 +5968,22 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>92</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>656</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>657</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>656</v>
@@ -5994,62 +5997,62 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>152</v>
+        <v>658</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>658</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>145</v>
+        <v>606</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="K53" s="0" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>657</v>
+        <v>152</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>657</v>
-      </c>
       <c r="H54" s="2" t="s">
-        <v>606</v>
+        <v>145</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>96</v>
+        <v>146</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>92</v>
@@ -6058,13 +6061,19 @@
         <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>659</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>145</v>
+        <v>606</v>
       </c>
       <c r="J55" s="0" t="s">
         <v>96</v>
@@ -6072,7 +6081,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>92</v>
@@ -6081,10 +6090,10 @@
         <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>145</v>
@@ -6095,7 +6104,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>92</v>
@@ -6104,10 +6113,10 @@
         <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>145</v>
@@ -6118,7 +6127,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>92</v>
@@ -6127,10 +6136,10 @@
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>145</v>
@@ -6141,7 +6150,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>92</v>
@@ -6150,19 +6159,13 @@
         <v>14</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>662</v>
+        <v>77</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>606</v>
+        <v>145</v>
       </c>
       <c r="J59" s="0" t="s">
         <v>96</v>
@@ -6342,56 +6345,56 @@
     <hyperlink ref="D44" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ja-jp.xlf" r:id="rId171"/>
     <hyperlink ref="F44" display="TOC.md" r:id="rId172"/>
     <hyperlink ref="G44" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ja-jp.xlf" r:id="rId173"/>
-    <hyperlink ref="A45" display="userResource.md" r:id="rId174"/>
-    <hyperlink ref="D45" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ja-jp.xlf" r:id="rId175"/>
-    <hyperlink ref="F45" display="userResource.md" r:id="rId176"/>
-    <hyperlink ref="G45" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ja-jp.xlf" r:id="rId177"/>
-    <hyperlink ref="A46" display="windowsfeatureResource.md" r:id="rId178"/>
-    <hyperlink ref="D46" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ja-jp.xlf" r:id="rId179"/>
-    <hyperlink ref="F46" display="windowsfeatureResource.md" r:id="rId180"/>
-    <hyperlink ref="G46" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ja-jp.xlf" r:id="rId181"/>
-    <hyperlink ref="A47" display="windowsProcessResource.md" r:id="rId182"/>
-    <hyperlink ref="D47" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ja-jp.xlf" r:id="rId183"/>
-    <hyperlink ref="F47" display="windowsProcessResource.md" r:id="rId184"/>
-    <hyperlink ref="G47" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ja-jp.xlf" r:id="rId185"/>
-    <hyperlink ref="A48" display="authoringResourceClass.md" r:id="rId186"/>
-    <hyperlink ref="D48" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ja-jp.xlf" r:id="rId187"/>
-    <hyperlink ref="F48" display="authoringResourceClass.md" r:id="rId188"/>
-    <hyperlink ref="G48" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ja-jp.xlf" r:id="rId189"/>
-    <hyperlink ref="A49" display="authoringResourceComposite.md" r:id="rId190"/>
-    <hyperlink ref="D49" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ja-jp.xlf" r:id="rId191"/>
-    <hyperlink ref="F49" display="authoringResourceComposite.md" r:id="rId192"/>
-    <hyperlink ref="G49" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ja-jp.xlf" r:id="rId193"/>
-    <hyperlink ref="A50" display="pullServer.md" r:id="rId194"/>
-    <hyperlink ref="D50" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ja-jp.xlf" r:id="rId195"/>
-    <hyperlink ref="F50" display="pullServer.md" r:id="rId196"/>
-    <hyperlink ref="G50" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ja-jp.xlf" r:id="rId197"/>
-    <hyperlink ref="A51" display="README.md" r:id="rId198"/>
-    <hyperlink ref="D51" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.ja-jp.xlf" r:id="rId199"/>
-    <hyperlink ref="F51" display="README.md" r:id="rId200"/>
-    <hyperlink ref="G51" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.ja-jp.xlf" r:id="rId201"/>
-    <hyperlink ref="A52" display="authoringResource.md" r:id="rId202"/>
-    <hyperlink ref="D52" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ja-jp.xlf" r:id="rId203"/>
-    <hyperlink ref="F52" display="authoringResource.md" r:id="rId204"/>
-    <hyperlink ref="G52" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ja-jp.xlf" r:id="rId205"/>
-    <hyperlink ref="A53" display="Pull1.png" r:id="rId206"/>
-    <hyperlink ref="D53" display="a20dd5927999cbb3c1125bd4ff8944954abc84a9.png" r:id="rId207"/>
-    <hyperlink ref="A54" display="partialConfigs.md" r:id="rId208"/>
-    <hyperlink ref="D54" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ja-jp.xlf" r:id="rId209"/>
-    <hyperlink ref="F54" display="partialConfigs.md" r:id="rId210"/>
-    <hyperlink ref="G54" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ja-jp.xlf" r:id="rId211"/>
-    <hyperlink ref="A55" display="archiveResource.md" r:id="rId212"/>
-    <hyperlink ref="D55" display="archiveResource.9f32c8aa8982eaf123d5f16d5ad76459150e3e62.ja-jp.xlf" r:id="rId213"/>
-    <hyperlink ref="A56" display="OpenLoc ROCKS.md" r:id="rId214"/>
-    <hyperlink ref="D56" display="OpenLoc ROCKS.ac3ecff61703b5a6c0e8f6ae2b1e10c3a845cc67.ja-jp.xlf" r:id="rId215"/>
-    <hyperlink ref="A57" display="SonjaFileToo.md" r:id="rId216"/>
-    <hyperlink ref="D57" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.ja-jp.xlf" r:id="rId217"/>
-    <hyperlink ref="A58" display="overview-test2.md" r:id="rId218"/>
-    <hyperlink ref="D58" display="overview-test2.b82580217442d4533cc66897b1a1a51a6f090168.ja-jp.xlf" r:id="rId219"/>
-    <hyperlink ref="A59" display="troubleshooting.md" r:id="rId220"/>
-    <hyperlink ref="D59" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ja-jp.xlf" r:id="rId221"/>
-    <hyperlink ref="F59" display="troubleshooting.md" r:id="rId222"/>
-    <hyperlink ref="G59" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ja-jp.xlf" r:id="rId223"/>
+    <hyperlink ref="A45" display="troubleshooting.md" r:id="rId174"/>
+    <hyperlink ref="D45" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ja-jp.xlf" r:id="rId175"/>
+    <hyperlink ref="F45" display="troubleshooting.md" r:id="rId176"/>
+    <hyperlink ref="G45" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ja-jp.xlf" r:id="rId177"/>
+    <hyperlink ref="A46" display="userResource.md" r:id="rId178"/>
+    <hyperlink ref="D46" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ja-jp.xlf" r:id="rId179"/>
+    <hyperlink ref="F46" display="userResource.md" r:id="rId180"/>
+    <hyperlink ref="G46" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ja-jp.xlf" r:id="rId181"/>
+    <hyperlink ref="A47" display="windowsfeatureResource.md" r:id="rId182"/>
+    <hyperlink ref="D47" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ja-jp.xlf" r:id="rId183"/>
+    <hyperlink ref="F47" display="windowsfeatureResource.md" r:id="rId184"/>
+    <hyperlink ref="G47" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ja-jp.xlf" r:id="rId185"/>
+    <hyperlink ref="A48" display="windowsProcessResource.md" r:id="rId186"/>
+    <hyperlink ref="D48" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ja-jp.xlf" r:id="rId187"/>
+    <hyperlink ref="F48" display="windowsProcessResource.md" r:id="rId188"/>
+    <hyperlink ref="G48" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ja-jp.xlf" r:id="rId189"/>
+    <hyperlink ref="A49" display="authoringResourceClass.md" r:id="rId190"/>
+    <hyperlink ref="D49" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ja-jp.xlf" r:id="rId191"/>
+    <hyperlink ref="F49" display="authoringResourceClass.md" r:id="rId192"/>
+    <hyperlink ref="G49" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ja-jp.xlf" r:id="rId193"/>
+    <hyperlink ref="A50" display="authoringResourceComposite.md" r:id="rId194"/>
+    <hyperlink ref="D50" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ja-jp.xlf" r:id="rId195"/>
+    <hyperlink ref="F50" display="authoringResourceComposite.md" r:id="rId196"/>
+    <hyperlink ref="G50" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ja-jp.xlf" r:id="rId197"/>
+    <hyperlink ref="A51" display="pullServer.md" r:id="rId198"/>
+    <hyperlink ref="D51" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ja-jp.xlf" r:id="rId199"/>
+    <hyperlink ref="F51" display="pullServer.md" r:id="rId200"/>
+    <hyperlink ref="G51" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ja-jp.xlf" r:id="rId201"/>
+    <hyperlink ref="A52" display="README.md" r:id="rId202"/>
+    <hyperlink ref="D52" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.ja-jp.xlf" r:id="rId203"/>
+    <hyperlink ref="F52" display="README.md" r:id="rId204"/>
+    <hyperlink ref="G52" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.ja-jp.xlf" r:id="rId205"/>
+    <hyperlink ref="A53" display="authoringResource.md" r:id="rId206"/>
+    <hyperlink ref="D53" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ja-jp.xlf" r:id="rId207"/>
+    <hyperlink ref="F53" display="authoringResource.md" r:id="rId208"/>
+    <hyperlink ref="G53" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ja-jp.xlf" r:id="rId209"/>
+    <hyperlink ref="A54" display="Pull1.png" r:id="rId210"/>
+    <hyperlink ref="D54" display="a20dd5927999cbb3c1125bd4ff8944954abc84a9.png" r:id="rId211"/>
+    <hyperlink ref="A55" display="partialConfigs.md" r:id="rId212"/>
+    <hyperlink ref="D55" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ja-jp.xlf" r:id="rId213"/>
+    <hyperlink ref="F55" display="partialConfigs.md" r:id="rId214"/>
+    <hyperlink ref="G55" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ja-jp.xlf" r:id="rId215"/>
+    <hyperlink ref="A56" display="archiveResource.md" r:id="rId216"/>
+    <hyperlink ref="D56" display="archiveResource.9f32c8aa8982eaf123d5f16d5ad76459150e3e62.ja-jp.xlf" r:id="rId217"/>
+    <hyperlink ref="A57" display="OpenLoc ROCKS.md" r:id="rId218"/>
+    <hyperlink ref="D57" display="OpenLoc ROCKS.ac3ecff61703b5a6c0e8f6ae2b1e10c3a845cc67.ja-jp.xlf" r:id="rId219"/>
+    <hyperlink ref="A58" display="SonjaFileToo.md" r:id="rId220"/>
+    <hyperlink ref="D58" display="SonjaFileToo.200fe5c96e02b06bc5f8a666c8090d57bedd4415.ja-jp.xlf" r:id="rId221"/>
+    <hyperlink ref="A59" display="overview-test2.md" r:id="rId222"/>
+    <hyperlink ref="D59" display="overview-test2.b82580217442d4533cc66897b1a1a51a6f090168.ja-jp.xlf" r:id="rId223"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
@@ -537,6 +537,15 @@
     <t>2016-01-05 07:26:32</t>
   </si>
   <si>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-14 22:15:58</t>
+  </si>
+  <si>
+    <t>2016-04-19 05:41:16</t>
+  </si>
+  <si>
     <t>2016-04-13 18:47:50</t>
   </si>
   <si>
@@ -700,15 +709,6 @@
   </si>
   <si>
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-14 22:15:58</t>
-  </si>
-  <si>
-    <t>2016-04-12 22:40:49</t>
   </si>
   <si>
     <t>rename_troubleshooting.4c130a5165c494568ef17f0cc6e7c9fc0caf31bc.zh-cn.xlf</t>
@@ -3836,7 +3836,7 @@
         <v>14</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>14</v>
@@ -8408,68 +8408,68 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>97</v>
+        <v>147</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>93</v>
@@ -8478,16 +8478,16 @@
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>177</v>
@@ -8498,13 +8498,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>93</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>178</v>
@@ -8512,8 +8512,14 @@
       <c r="E5" s="2" t="s">
         <v>179</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="H5" s="2" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>97</v>
@@ -8521,7 +8527,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>93</v>
@@ -8530,10 +8536,10 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>146</v>
@@ -8544,7 +8550,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>93</v>
@@ -8553,10 +8559,10 @@
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>146</v>
@@ -8567,7 +8573,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>93</v>
@@ -8576,10 +8582,10 @@
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>146</v>
@@ -8590,7 +8596,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>93</v>
@@ -8599,10 +8605,10 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>146</v>
@@ -8613,7 +8619,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>93</v>
@@ -8622,10 +8628,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>146</v>
@@ -8636,7 +8642,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>93</v>
@@ -8645,10 +8651,10 @@
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>146</v>
@@ -8659,7 +8665,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>93</v>
@@ -8668,10 +8674,10 @@
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>146</v>
@@ -8682,7 +8688,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>93</v>
@@ -8691,10 +8697,10 @@
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>146</v>
@@ -8705,7 +8711,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>93</v>
@@ -8714,10 +8720,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>146</v>
@@ -8728,7 +8734,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>93</v>
@@ -8737,10 +8743,10 @@
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>146</v>
@@ -8751,7 +8757,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>93</v>
@@ -8760,10 +8766,10 @@
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>146</v>
@@ -8774,7 +8780,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>93</v>
@@ -8783,10 +8789,10 @@
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>146</v>
@@ -8797,33 +8803,30 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>63</v>
+        <v>182</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>146</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>144</v>
@@ -8832,7 +8835,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>63</v>
@@ -8849,16 +8852,16 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>63</v>
@@ -8870,12 +8873,12 @@
         <v>147</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>150</v>
@@ -8884,7 +8887,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>63</v>
@@ -8896,35 +8899,38 @@
         <v>147</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>146</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>97</v>
+        <v>147</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>93</v>
@@ -8933,10 +8939,10 @@
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>146</v>
@@ -8947,7 +8953,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>93</v>
@@ -8956,10 +8962,10 @@
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>146</v>
@@ -8970,7 +8976,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>93</v>
@@ -8979,10 +8985,10 @@
         <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>146</v>
@@ -8993,7 +8999,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>93</v>
@@ -9002,10 +9008,10 @@
         <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>146</v>
@@ -9016,7 +9022,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>93</v>
@@ -9025,10 +9031,10 @@
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>146</v>
@@ -9039,7 +9045,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>93</v>
@@ -9048,10 +9054,10 @@
         <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>146</v>
@@ -9062,7 +9068,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>93</v>
@@ -9071,10 +9077,10 @@
         <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>146</v>
@@ -9085,7 +9091,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>93</v>
@@ -9094,10 +9100,10 @@
         <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>146</v>
@@ -9108,7 +9114,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>93</v>
@@ -9117,10 +9123,10 @@
         <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>146</v>
@@ -9131,7 +9137,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>93</v>
@@ -9140,10 +9146,10 @@
         <v>13</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>146</v>
@@ -9154,7 +9160,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>93</v>
@@ -9163,10 +9169,10 @@
         <v>13</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>146</v>
@@ -9177,7 +9183,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>93</v>
@@ -9186,10 +9192,10 @@
         <v>13</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>146</v>
@@ -9200,7 +9206,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>93</v>
@@ -9209,10 +9215,10 @@
         <v>13</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>146</v>
@@ -9223,7 +9229,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>93</v>
@@ -9232,10 +9238,10 @@
         <v>13</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>146</v>
@@ -9246,7 +9252,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>93</v>
@@ -9255,10 +9261,10 @@
         <v>13</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>146</v>
@@ -9269,7 +9275,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>93</v>
@@ -9278,10 +9284,10 @@
         <v>13</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>146</v>
@@ -9292,7 +9298,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>93</v>
@@ -9301,10 +9307,10 @@
         <v>13</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>146</v>
@@ -9315,7 +9321,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>93</v>
@@ -9324,10 +9330,10 @@
         <v>13</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>146</v>
@@ -9338,7 +9344,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>93</v>
@@ -9347,10 +9353,10 @@
         <v>13</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>146</v>
@@ -9361,7 +9367,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>93</v>
@@ -9370,10 +9376,10 @@
         <v>13</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>146</v>
@@ -9384,7 +9390,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>93</v>
@@ -9393,10 +9399,10 @@
         <v>13</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>146</v>
@@ -9407,7 +9413,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>93</v>
@@ -9416,10 +9422,10 @@
         <v>13</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>146</v>
@@ -9430,7 +9436,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>93</v>
@@ -9439,10 +9445,10 @@
         <v>13</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>146</v>
@@ -9453,7 +9459,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>93</v>
@@ -9462,10 +9468,10 @@
         <v>13</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>146</v>
@@ -9476,7 +9482,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>93</v>
@@ -9485,10 +9491,10 @@
         <v>13</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>146</v>
@@ -9499,7 +9505,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>93</v>
@@ -9508,10 +9514,10 @@
         <v>13</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>146</v>
@@ -9522,7 +9528,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>93</v>
@@ -9531,10 +9537,10 @@
         <v>13</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>146</v>
@@ -9545,7 +9551,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>93</v>
@@ -9554,10 +9560,10 @@
         <v>13</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>146</v>
@@ -9568,7 +9574,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>93</v>
@@ -9577,10 +9583,10 @@
         <v>13</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>146</v>
@@ -9591,7 +9597,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>93</v>
@@ -9600,10 +9606,10 @@
         <v>13</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>146</v>
@@ -9614,7 +9620,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>93</v>
@@ -9623,10 +9629,10 @@
         <v>13</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>146</v>
@@ -9637,7 +9643,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>93</v>
@@ -9646,10 +9652,10 @@
         <v>13</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>146</v>
@@ -9660,28 +9666,22 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>93</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>228</v>
+        <v>146</v>
       </c>
       <c r="J55" s="0" t="s">
         <v>97</v>
@@ -9787,122 +9787,122 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="Pull1.png" r:id="rId2"/>
-    <hyperlink ref="D2" display="a20dd5927999cbb3c1125bd4ff8944954abc84a9.png" r:id="rId3"/>
-    <hyperlink ref="F2" display="Pull1.png" r:id="rId4"/>
-    <hyperlink ref="G2" display="a20dd5927999cbb3c1125bd4ff8944954abc84a9.png" r:id="rId5"/>
-    <hyperlink ref="A3" display="partialConfigs.md" r:id="rId6"/>
-    <hyperlink ref="D3" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="F3" display="partialConfigs.md" r:id="rId8"/>
-    <hyperlink ref="G3" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="archiveResource.md" r:id="rId10"/>
-    <hyperlink ref="D4" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="F4" display="archiveResource.md" r:id="rId12"/>
-    <hyperlink ref="G4" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="CONTRIBUTING.md" r:id="rId14"/>
-    <hyperlink ref="D5" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A6" display="authoringResourceClass.md" r:id="rId16"/>
-    <hyperlink ref="D6" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A7" display="authoringResourceComposite.md" r:id="rId18"/>
-    <hyperlink ref="D7" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A8" display="authoringResourceMOF.md" r:id="rId20"/>
-    <hyperlink ref="D8" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A9" display="authoringResourceMofCS.md" r:id="rId22"/>
-    <hyperlink ref="D9" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId23"/>
-    <hyperlink ref="A10" display="authoringResourceMofDesigner.md" r:id="rId24"/>
-    <hyperlink ref="D10" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId25"/>
-    <hyperlink ref="A11" display="builtInResource.md" r:id="rId26"/>
-    <hyperlink ref="D11" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId27"/>
-    <hyperlink ref="A12" display="configData.md" r:id="rId28"/>
-    <hyperlink ref="D12" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId29"/>
-    <hyperlink ref="A13" display="configurations.md" r:id="rId30"/>
-    <hyperlink ref="D13" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId31"/>
-    <hyperlink ref="A14" display="enactingConfigurations.md" r:id="rId32"/>
-    <hyperlink ref="D14" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId33"/>
-    <hyperlink ref="A15" display="environmentResource.md" r:id="rId34"/>
-    <hyperlink ref="D15" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId35"/>
-    <hyperlink ref="A16" display="fileResource.md" r:id="rId36"/>
-    <hyperlink ref="D16" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId37"/>
-    <hyperlink ref="A17" display="groupResource.md" r:id="rId38"/>
-    <hyperlink ref="D17" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId39"/>
-    <hyperlink ref="A18" display="PartialConfig1.jpg" r:id="rId40"/>
-    <hyperlink ref="D18" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId41"/>
-    <hyperlink ref="A19" display="PartialConfigPullServer.jpg" r:id="rId42"/>
-    <hyperlink ref="D19" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId43"/>
-    <hyperlink ref="A20" display="Pull.png" r:id="rId44"/>
-    <hyperlink ref="D20" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId45"/>
-    <hyperlink ref="A21" display="Push.png" r:id="rId46"/>
-    <hyperlink ref="D21" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId47"/>
-    <hyperlink ref="A22" display="lnxArchiveResource.md" r:id="rId48"/>
-    <hyperlink ref="D22" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId49"/>
-    <hyperlink ref="A23" display="lnxBuiltInResources.md" r:id="rId50"/>
-    <hyperlink ref="D23" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId51"/>
-    <hyperlink ref="A24" display="lnxEnvironmentResource.md" r:id="rId52"/>
-    <hyperlink ref="D24" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId53"/>
-    <hyperlink ref="A25" display="lnxFileLineResource.md" r:id="rId54"/>
-    <hyperlink ref="D25" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId55"/>
-    <hyperlink ref="A26" display="lnxFileResource.md" r:id="rId56"/>
-    <hyperlink ref="D26" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId57"/>
-    <hyperlink ref="A27" display="lnxGettingStarted.md" r:id="rId58"/>
-    <hyperlink ref="D27" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId59"/>
-    <hyperlink ref="A28" display="lnxGroupResource.md" r:id="rId60"/>
-    <hyperlink ref="D28" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId61"/>
-    <hyperlink ref="A29" display="lnxPackageResource.md" r:id="rId62"/>
-    <hyperlink ref="D29" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId63"/>
-    <hyperlink ref="A30" display="lnxScriptResource.md" r:id="rId64"/>
-    <hyperlink ref="D30" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId65"/>
-    <hyperlink ref="A31" display="lnxServiceResource.md" r:id="rId66"/>
-    <hyperlink ref="D31" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId67"/>
-    <hyperlink ref="A32" display="lnxSshAuthorizedKeysResource.md" r:id="rId68"/>
-    <hyperlink ref="D32" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId69"/>
-    <hyperlink ref="A33" display="lnxUserResource.md" r:id="rId70"/>
-    <hyperlink ref="D33" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId71"/>
-    <hyperlink ref="A34" display="logResource.md" r:id="rId72"/>
-    <hyperlink ref="D34" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId73"/>
-    <hyperlink ref="A35" display="metaConfig.md" r:id="rId74"/>
-    <hyperlink ref="D35" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId75"/>
-    <hyperlink ref="A36" display="metaConfig4.md" r:id="rId76"/>
-    <hyperlink ref="D36" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId77"/>
-    <hyperlink ref="A37" display="packageResource.md" r:id="rId78"/>
-    <hyperlink ref="D37" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId79"/>
-    <hyperlink ref="A38" display="pullClient.md" r:id="rId80"/>
-    <hyperlink ref="D38" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId81"/>
-    <hyperlink ref="A39" display="pullClientConfigID.md" r:id="rId82"/>
-    <hyperlink ref="D39" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId83"/>
-    <hyperlink ref="A40" display="pullClientConfigID4.md" r:id="rId84"/>
-    <hyperlink ref="D40" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId85"/>
-    <hyperlink ref="A41" display="pullClientConfigNames.md" r:id="rId86"/>
-    <hyperlink ref="D41" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId87"/>
-    <hyperlink ref="A42" display="pullServer.md" r:id="rId88"/>
-    <hyperlink ref="D42" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId89"/>
-    <hyperlink ref="A43" display="queryServerNodes.md" r:id="rId90"/>
-    <hyperlink ref="D43" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId91"/>
-    <hyperlink ref="A44" display="registryResource.md" r:id="rId92"/>
-    <hyperlink ref="D44" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId93"/>
-    <hyperlink ref="A45" display="resources.md" r:id="rId94"/>
-    <hyperlink ref="D45" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId95"/>
-    <hyperlink ref="A46" display="scriptResource.md" r:id="rId96"/>
-    <hyperlink ref="D46" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId97"/>
-    <hyperlink ref="A47" display="secureMOF.md" r:id="rId98"/>
-    <hyperlink ref="D47" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId99"/>
-    <hyperlink ref="A48" display="secureServer.md" r:id="rId100"/>
-    <hyperlink ref="D48" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId101"/>
-    <hyperlink ref="A49" display="serviceResource.md" r:id="rId102"/>
-    <hyperlink ref="D49" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId103"/>
-    <hyperlink ref="A50" display="TOC.md" r:id="rId104"/>
-    <hyperlink ref="D50" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId105"/>
-    <hyperlink ref="A51" display="userResource.md" r:id="rId106"/>
-    <hyperlink ref="D51" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId107"/>
-    <hyperlink ref="A52" display="windowsfeatureResource.md" r:id="rId108"/>
-    <hyperlink ref="D52" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId109"/>
-    <hyperlink ref="A53" display="windowsProcessResource.md" r:id="rId110"/>
-    <hyperlink ref="D53" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId111"/>
-    <hyperlink ref="A54" display="README.md" r:id="rId112"/>
-    <hyperlink ref="D54" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId113"/>
-    <hyperlink ref="A55" display="authoringResource.md" r:id="rId114"/>
-    <hyperlink ref="D55" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId115"/>
-    <hyperlink ref="F55" display="authoringResource.md" r:id="rId116"/>
-    <hyperlink ref="G55" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId117"/>
+    <hyperlink ref="A2" display="authoringResource.md" r:id="rId2"/>
+    <hyperlink ref="D2" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="F2" display="authoringResource.md" r:id="rId4"/>
+    <hyperlink ref="G2" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="Pull1.png" r:id="rId6"/>
+    <hyperlink ref="D3" display="a20dd5927999cbb3c1125bd4ff8944954abc84a9.png" r:id="rId7"/>
+    <hyperlink ref="F3" display="Pull1.png" r:id="rId8"/>
+    <hyperlink ref="G3" display="a20dd5927999cbb3c1125bd4ff8944954abc84a9.png" r:id="rId9"/>
+    <hyperlink ref="A4" display="partialConfigs.md" r:id="rId10"/>
+    <hyperlink ref="D4" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="F4" display="partialConfigs.md" r:id="rId12"/>
+    <hyperlink ref="G4" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="archiveResource.md" r:id="rId14"/>
+    <hyperlink ref="D5" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="F5" display="archiveResource.md" r:id="rId16"/>
+    <hyperlink ref="G5" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="CONTRIBUTING.md" r:id="rId18"/>
+    <hyperlink ref="D6" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A7" display="authoringResourceClass.md" r:id="rId20"/>
+    <hyperlink ref="D7" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A8" display="authoringResourceComposite.md" r:id="rId22"/>
+    <hyperlink ref="D8" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A9" display="authoringResourceMOF.md" r:id="rId24"/>
+    <hyperlink ref="D9" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A10" display="authoringResourceMofCS.md" r:id="rId26"/>
+    <hyperlink ref="D10" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="A11" display="authoringResourceMofDesigner.md" r:id="rId28"/>
+    <hyperlink ref="D11" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId29"/>
+    <hyperlink ref="A12" display="builtInResource.md" r:id="rId30"/>
+    <hyperlink ref="D12" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId31"/>
+    <hyperlink ref="A13" display="configData.md" r:id="rId32"/>
+    <hyperlink ref="D13" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId33"/>
+    <hyperlink ref="A14" display="configurations.md" r:id="rId34"/>
+    <hyperlink ref="D14" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId35"/>
+    <hyperlink ref="A15" display="enactingConfigurations.md" r:id="rId36"/>
+    <hyperlink ref="D15" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId37"/>
+    <hyperlink ref="A16" display="environmentResource.md" r:id="rId38"/>
+    <hyperlink ref="D16" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId39"/>
+    <hyperlink ref="A17" display="fileResource.md" r:id="rId40"/>
+    <hyperlink ref="D17" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId41"/>
+    <hyperlink ref="A18" display="groupResource.md" r:id="rId42"/>
+    <hyperlink ref="D18" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId43"/>
+    <hyperlink ref="A19" display="PartialConfig1.jpg" r:id="rId44"/>
+    <hyperlink ref="D19" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId45"/>
+    <hyperlink ref="A20" display="PartialConfigPullServer.jpg" r:id="rId46"/>
+    <hyperlink ref="D20" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId47"/>
+    <hyperlink ref="A21" display="Pull.png" r:id="rId48"/>
+    <hyperlink ref="D21" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId49"/>
+    <hyperlink ref="A22" display="Push.png" r:id="rId50"/>
+    <hyperlink ref="D22" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId51"/>
+    <hyperlink ref="A23" display="lnxArchiveResource.md" r:id="rId52"/>
+    <hyperlink ref="D23" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId53"/>
+    <hyperlink ref="A24" display="lnxBuiltInResources.md" r:id="rId54"/>
+    <hyperlink ref="D24" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId55"/>
+    <hyperlink ref="A25" display="lnxEnvironmentResource.md" r:id="rId56"/>
+    <hyperlink ref="D25" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId57"/>
+    <hyperlink ref="A26" display="lnxFileLineResource.md" r:id="rId58"/>
+    <hyperlink ref="D26" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId59"/>
+    <hyperlink ref="A27" display="lnxFileResource.md" r:id="rId60"/>
+    <hyperlink ref="D27" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId61"/>
+    <hyperlink ref="A28" display="lnxGettingStarted.md" r:id="rId62"/>
+    <hyperlink ref="D28" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId63"/>
+    <hyperlink ref="A29" display="lnxGroupResource.md" r:id="rId64"/>
+    <hyperlink ref="D29" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId65"/>
+    <hyperlink ref="A30" display="lnxPackageResource.md" r:id="rId66"/>
+    <hyperlink ref="D30" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId67"/>
+    <hyperlink ref="A31" display="lnxScriptResource.md" r:id="rId68"/>
+    <hyperlink ref="D31" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId69"/>
+    <hyperlink ref="A32" display="lnxServiceResource.md" r:id="rId70"/>
+    <hyperlink ref="D32" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId71"/>
+    <hyperlink ref="A33" display="lnxSshAuthorizedKeysResource.md" r:id="rId72"/>
+    <hyperlink ref="D33" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId73"/>
+    <hyperlink ref="A34" display="lnxUserResource.md" r:id="rId74"/>
+    <hyperlink ref="D34" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId75"/>
+    <hyperlink ref="A35" display="logResource.md" r:id="rId76"/>
+    <hyperlink ref="D35" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId77"/>
+    <hyperlink ref="A36" display="metaConfig.md" r:id="rId78"/>
+    <hyperlink ref="D36" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId79"/>
+    <hyperlink ref="A37" display="metaConfig4.md" r:id="rId80"/>
+    <hyperlink ref="D37" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId81"/>
+    <hyperlink ref="A38" display="packageResource.md" r:id="rId82"/>
+    <hyperlink ref="D38" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId83"/>
+    <hyperlink ref="A39" display="pullClient.md" r:id="rId84"/>
+    <hyperlink ref="D39" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId85"/>
+    <hyperlink ref="A40" display="pullClientConfigID.md" r:id="rId86"/>
+    <hyperlink ref="D40" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId87"/>
+    <hyperlink ref="A41" display="pullClientConfigID4.md" r:id="rId88"/>
+    <hyperlink ref="D41" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId89"/>
+    <hyperlink ref="A42" display="pullClientConfigNames.md" r:id="rId90"/>
+    <hyperlink ref="D42" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId91"/>
+    <hyperlink ref="A43" display="pullServer.md" r:id="rId92"/>
+    <hyperlink ref="D43" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId93"/>
+    <hyperlink ref="A44" display="queryServerNodes.md" r:id="rId94"/>
+    <hyperlink ref="D44" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId95"/>
+    <hyperlink ref="A45" display="registryResource.md" r:id="rId96"/>
+    <hyperlink ref="D45" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId97"/>
+    <hyperlink ref="A46" display="resources.md" r:id="rId98"/>
+    <hyperlink ref="D46" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId99"/>
+    <hyperlink ref="A47" display="scriptResource.md" r:id="rId100"/>
+    <hyperlink ref="D47" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId101"/>
+    <hyperlink ref="A48" display="secureMOF.md" r:id="rId102"/>
+    <hyperlink ref="D48" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId103"/>
+    <hyperlink ref="A49" display="secureServer.md" r:id="rId104"/>
+    <hyperlink ref="D49" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId105"/>
+    <hyperlink ref="A50" display="serviceResource.md" r:id="rId106"/>
+    <hyperlink ref="D50" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId107"/>
+    <hyperlink ref="A51" display="TOC.md" r:id="rId108"/>
+    <hyperlink ref="D51" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId109"/>
+    <hyperlink ref="A52" display="userResource.md" r:id="rId110"/>
+    <hyperlink ref="D52" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId111"/>
+    <hyperlink ref="A53" display="windowsfeatureResource.md" r:id="rId112"/>
+    <hyperlink ref="D53" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId113"/>
+    <hyperlink ref="A54" display="windowsProcessResource.md" r:id="rId114"/>
+    <hyperlink ref="D54" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId115"/>
+    <hyperlink ref="A55" display="README.md" r:id="rId116"/>
+    <hyperlink ref="D55" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId117"/>
     <hyperlink ref="A56" display="rename_troubleshooting.md" r:id="rId118"/>
     <hyperlink ref="D56" display="rename_troubleshooting.4c130a5165c494568ef17f0cc6e7c9fc0caf31bc.zh-cn.xlf" r:id="rId119"/>
     <hyperlink ref="A57" display="OpenLoc ROCKS.md" r:id="rId120"/>

--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
@@ -197,7 +197,7 @@
     <t>authoringResource.md</t>
   </si>
   <si>
-    <t>2016-04-14 22:17:23</t>
+    <t>2016-04-19 17:45:27</t>
   </si>
   <si>
     <t>authoringResourceClass.md</t>
@@ -452,7 +452,7 @@
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-04-14 22:15:47</t>
+    <t>2016-04-19 17:44:02</t>
   </si>
   <si>
     <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.de-de.xlf</t>
@@ -549,180 +549,180 @@
     <t>dsc\Test1\MoraviaDemo.md file with commit id b55a68d179ab003b414a0ab6459fdd2923ab108c can not be found</t>
   </si>
   <si>
+    <t>2016-04-13 18:47:50</t>
+  </si>
+  <si>
+    <t>2016-04-13 18:57:42</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-13 21:37:43</t>
+  </si>
+  <si>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-13 06:20:32</t>
+  </si>
+  <si>
+    <t>2016-04-13 06:40:29</t>
+  </si>
+  <si>
+    <t>CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-05 07:28:47</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 18:17:21</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-04-14 22:15:58</t>
+    <t>2016-04-19 17:44:13</t>
   </si>
   <si>
     <t>2016-04-19 05:41:16</t>
   </si>
   <si>
-    <t>2016-04-13 18:47:50</t>
-  </si>
-  <si>
-    <t>2016-04-13 18:57:42</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-13 21:37:43</t>
-  </si>
-  <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-13 06:20:32</t>
-  </si>
-  <si>
-    <t>2016-04-13 06:40:29</t>
-  </si>
-  <si>
-    <t>CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-05 07:28:47</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 18:17:21</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>rename_troubleshooting.4c130a5165c494568ef17f0cc6e7c9fc0caf31bc.zh-cn.xlf</t>
   </si>
   <si>
@@ -765,7 +765,7 @@
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-tw.xlf</t>
   </si>
   <si>
-    <t>2016-04-14 22:16:12</t>
+    <t>2016-04-19 17:44:24</t>
   </si>
   <si>
     <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-tw.xlf</t>
@@ -948,7 +948,7 @@
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.pt-br.xlf</t>
   </si>
   <si>
-    <t>2016-04-14 22:16:24</t>
+    <t>2016-04-19 17:44:34</t>
   </si>
   <si>
     <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.pt-br.xlf</t>
@@ -1269,7 +1269,7 @@
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.vi-vn.xlf</t>
   </si>
   <si>
-    <t>2016-04-14 22:16:35</t>
+    <t>2016-04-19 17:44:45</t>
   </si>
   <si>
     <t>2016-04-13 18:48:27</t>
@@ -1326,7 +1326,7 @@
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.fr-fr.xlf</t>
   </si>
   <si>
-    <t>2016-04-14 22:16:47</t>
+    <t>2016-04-19 17:44:55</t>
   </si>
   <si>
     <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf</t>
@@ -1509,7 +1509,7 @@
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.es-es.xlf</t>
   </si>
   <si>
-    <t>2016-04-14 22:16:58</t>
+    <t>2016-04-19 17:45:06</t>
   </si>
   <si>
     <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.es-es.xlf</t>
@@ -1695,7 +1695,7 @@
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ko-kr.xlf</t>
   </si>
   <si>
-    <t>2016-04-14 22:17:12</t>
+    <t>2016-04-19 17:45:17</t>
   </si>
   <si>
     <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ko-kr.xlf</t>
@@ -3848,7 +3848,7 @@
         <v>14</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>14</v>
@@ -8504,68 +8504,68 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="J2" s="0" t="s">
-        <v>100</v>
+        <v>149</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="J3" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>96</v>
@@ -8574,16 +8574,16 @@
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>181</v>
@@ -8594,13 +8594,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>96</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>182</v>
@@ -8608,14 +8608,8 @@
       <c r="E5" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>100</v>
@@ -8623,7 +8617,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>96</v>
@@ -8632,10 +8626,10 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>83</v>
@@ -8646,7 +8640,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>96</v>
@@ -8655,10 +8649,10 @@
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>83</v>
@@ -8669,7 +8663,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>96</v>
@@ -8678,10 +8672,10 @@
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>83</v>
@@ -8692,7 +8686,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>96</v>
@@ -8701,10 +8695,10 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>83</v>
@@ -8715,7 +8709,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>96</v>
@@ -8724,10 +8718,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>83</v>
@@ -8738,7 +8732,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>96</v>
@@ -8747,10 +8741,10 @@
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>83</v>
@@ -8761,7 +8755,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>96</v>
@@ -8770,10 +8764,10 @@
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>83</v>
@@ -8784,7 +8778,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>96</v>
@@ -8793,10 +8787,10 @@
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>83</v>
@@ -8807,7 +8801,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>96</v>
@@ -8816,10 +8810,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>83</v>
@@ -8830,7 +8824,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>96</v>
@@ -8839,10 +8833,10 @@
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>83</v>
@@ -8853,7 +8847,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>96</v>
@@ -8862,10 +8856,10 @@
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>83</v>
@@ -8876,7 +8870,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>96</v>
@@ -8885,10 +8879,10 @@
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>83</v>
@@ -8899,30 +8893,33 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>83</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>100</v>
+        <v>149</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>147</v>
@@ -8931,7 +8928,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>63</v>
@@ -8948,16 +8945,16 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>63</v>
@@ -8969,12 +8966,12 @@
         <v>149</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>152</v>
@@ -8983,7 +8980,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>63</v>
@@ -8995,38 +8992,35 @@
         <v>149</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>83</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>96</v>
@@ -9035,10 +9029,10 @@
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>83</v>
@@ -9049,7 +9043,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>96</v>
@@ -9058,10 +9052,10 @@
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>83</v>
@@ -9072,7 +9066,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>96</v>
@@ -9081,10 +9075,10 @@
         <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>83</v>
@@ -9095,7 +9089,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>96</v>
@@ -9104,10 +9098,10 @@
         <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>83</v>
@@ -9118,7 +9112,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>96</v>
@@ -9127,10 +9121,10 @@
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>83</v>
@@ -9141,7 +9135,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>96</v>
@@ -9150,10 +9144,10 @@
         <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>83</v>
@@ -9164,7 +9158,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>96</v>
@@ -9173,10 +9167,10 @@
         <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>83</v>
@@ -9187,7 +9181,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>96</v>
@@ -9196,10 +9190,10 @@
         <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>83</v>
@@ -9210,7 +9204,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>96</v>
@@ -9219,10 +9213,10 @@
         <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>83</v>
@@ -9233,7 +9227,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>96</v>
@@ -9242,10 +9236,10 @@
         <v>13</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>83</v>
@@ -9256,7 +9250,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>96</v>
@@ -9265,10 +9259,10 @@
         <v>13</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>83</v>
@@ -9279,7 +9273,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>96</v>
@@ -9288,10 +9282,10 @@
         <v>13</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>83</v>
@@ -9302,7 +9296,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>96</v>
@@ -9311,10 +9305,10 @@
         <v>13</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>83</v>
@@ -9325,7 +9319,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>96</v>
@@ -9334,10 +9328,10 @@
         <v>13</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>83</v>
@@ -9348,7 +9342,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>96</v>
@@ -9357,10 +9351,10 @@
         <v>13</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>83</v>
@@ -9371,7 +9365,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>96</v>
@@ -9380,10 +9374,10 @@
         <v>13</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>83</v>
@@ -9394,7 +9388,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>96</v>
@@ -9403,10 +9397,10 @@
         <v>13</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>83</v>
@@ -9417,7 +9411,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>96</v>
@@ -9426,10 +9420,10 @@
         <v>13</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>83</v>
@@ -9440,7 +9434,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>96</v>
@@ -9449,10 +9443,10 @@
         <v>13</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>83</v>
@@ -9463,7 +9457,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>96</v>
@@ -9472,10 +9466,10 @@
         <v>13</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>83</v>
@@ -9486,7 +9480,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>96</v>
@@ -9495,10 +9489,10 @@
         <v>13</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>83</v>
@@ -9509,7 +9503,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>96</v>
@@ -9518,10 +9512,10 @@
         <v>13</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>83</v>
@@ -9532,7 +9526,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>96</v>
@@ -9541,10 +9535,10 @@
         <v>13</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>83</v>
@@ -9555,7 +9549,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>96</v>
@@ -9564,10 +9558,10 @@
         <v>13</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>83</v>
@@ -9578,7 +9572,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>96</v>
@@ -9587,10 +9581,10 @@
         <v>13</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>83</v>
@@ -9601,7 +9595,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>96</v>
@@ -9610,10 +9604,10 @@
         <v>13</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>83</v>
@@ -9624,7 +9618,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>96</v>
@@ -9633,10 +9627,10 @@
         <v>13</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>83</v>
@@ -9647,7 +9641,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>96</v>
@@ -9656,10 +9650,10 @@
         <v>13</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>83</v>
@@ -9670,7 +9664,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>96</v>
@@ -9679,10 +9673,10 @@
         <v>13</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>83</v>
@@ -9693,7 +9687,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>96</v>
@@ -9702,10 +9696,10 @@
         <v>13</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>83</v>
@@ -9716,7 +9710,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>96</v>
@@ -9725,10 +9719,10 @@
         <v>13</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>83</v>
@@ -9739,7 +9733,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>96</v>
@@ -9748,10 +9742,10 @@
         <v>13</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>83</v>
@@ -9762,22 +9756,28 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>96</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="J55" s="0" t="s">
         <v>100</v>
@@ -9906,122 +9906,122 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="authoringResource.md" r:id="rId2"/>
-    <hyperlink ref="D2" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="F2" display="authoringResource.md" r:id="rId4"/>
-    <hyperlink ref="G2" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="Pull1.png" r:id="rId6"/>
-    <hyperlink ref="D3" display="a20dd5927999cbb3c1125bd4ff8944954abc84a9.png" r:id="rId7"/>
-    <hyperlink ref="F3" display="Pull1.png" r:id="rId8"/>
-    <hyperlink ref="G3" display="a20dd5927999cbb3c1125bd4ff8944954abc84a9.png" r:id="rId9"/>
-    <hyperlink ref="A4" display="partialConfigs.md" r:id="rId10"/>
-    <hyperlink ref="D4" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="F4" display="partialConfigs.md" r:id="rId12"/>
-    <hyperlink ref="G4" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="archiveResource.md" r:id="rId14"/>
-    <hyperlink ref="D5" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="F5" display="archiveResource.md" r:id="rId16"/>
-    <hyperlink ref="G5" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A6" display="CONTRIBUTING.md" r:id="rId18"/>
-    <hyperlink ref="D6" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A7" display="authoringResourceClass.md" r:id="rId20"/>
-    <hyperlink ref="D7" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A8" display="authoringResourceComposite.md" r:id="rId22"/>
-    <hyperlink ref="D8" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId23"/>
-    <hyperlink ref="A9" display="authoringResourceMOF.md" r:id="rId24"/>
-    <hyperlink ref="D9" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId25"/>
-    <hyperlink ref="A10" display="authoringResourceMofCS.md" r:id="rId26"/>
-    <hyperlink ref="D10" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId27"/>
-    <hyperlink ref="A11" display="authoringResourceMofDesigner.md" r:id="rId28"/>
-    <hyperlink ref="D11" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId29"/>
-    <hyperlink ref="A12" display="builtInResource.md" r:id="rId30"/>
-    <hyperlink ref="D12" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId31"/>
-    <hyperlink ref="A13" display="configData.md" r:id="rId32"/>
-    <hyperlink ref="D13" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId33"/>
-    <hyperlink ref="A14" display="configurations.md" r:id="rId34"/>
-    <hyperlink ref="D14" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId35"/>
-    <hyperlink ref="A15" display="enactingConfigurations.md" r:id="rId36"/>
-    <hyperlink ref="D15" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId37"/>
-    <hyperlink ref="A16" display="environmentResource.md" r:id="rId38"/>
-    <hyperlink ref="D16" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId39"/>
-    <hyperlink ref="A17" display="fileResource.md" r:id="rId40"/>
-    <hyperlink ref="D17" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId41"/>
-    <hyperlink ref="A18" display="groupResource.md" r:id="rId42"/>
-    <hyperlink ref="D18" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId43"/>
-    <hyperlink ref="A19" display="PartialConfig1.jpg" r:id="rId44"/>
-    <hyperlink ref="D19" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId45"/>
-    <hyperlink ref="A20" display="PartialConfigPullServer.jpg" r:id="rId46"/>
-    <hyperlink ref="D20" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId47"/>
-    <hyperlink ref="A21" display="Pull.png" r:id="rId48"/>
-    <hyperlink ref="D21" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId49"/>
-    <hyperlink ref="A22" display="Push.png" r:id="rId50"/>
-    <hyperlink ref="D22" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId51"/>
-    <hyperlink ref="A23" display="lnxArchiveResource.md" r:id="rId52"/>
-    <hyperlink ref="D23" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId53"/>
-    <hyperlink ref="A24" display="lnxBuiltInResources.md" r:id="rId54"/>
-    <hyperlink ref="D24" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId55"/>
-    <hyperlink ref="A25" display="lnxEnvironmentResource.md" r:id="rId56"/>
-    <hyperlink ref="D25" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId57"/>
-    <hyperlink ref="A26" display="lnxFileLineResource.md" r:id="rId58"/>
-    <hyperlink ref="D26" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId59"/>
-    <hyperlink ref="A27" display="lnxFileResource.md" r:id="rId60"/>
-    <hyperlink ref="D27" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId61"/>
-    <hyperlink ref="A28" display="lnxGettingStarted.md" r:id="rId62"/>
-    <hyperlink ref="D28" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId63"/>
-    <hyperlink ref="A29" display="lnxGroupResource.md" r:id="rId64"/>
-    <hyperlink ref="D29" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId65"/>
-    <hyperlink ref="A30" display="lnxPackageResource.md" r:id="rId66"/>
-    <hyperlink ref="D30" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId67"/>
-    <hyperlink ref="A31" display="lnxScriptResource.md" r:id="rId68"/>
-    <hyperlink ref="D31" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId69"/>
-    <hyperlink ref="A32" display="lnxServiceResource.md" r:id="rId70"/>
-    <hyperlink ref="D32" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId71"/>
-    <hyperlink ref="A33" display="lnxSshAuthorizedKeysResource.md" r:id="rId72"/>
-    <hyperlink ref="D33" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId73"/>
-    <hyperlink ref="A34" display="lnxUserResource.md" r:id="rId74"/>
-    <hyperlink ref="D34" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId75"/>
-    <hyperlink ref="A35" display="logResource.md" r:id="rId76"/>
-    <hyperlink ref="D35" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId77"/>
-    <hyperlink ref="A36" display="metaConfig.md" r:id="rId78"/>
-    <hyperlink ref="D36" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId79"/>
-    <hyperlink ref="A37" display="metaConfig4.md" r:id="rId80"/>
-    <hyperlink ref="D37" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId81"/>
-    <hyperlink ref="A38" display="packageResource.md" r:id="rId82"/>
-    <hyperlink ref="D38" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId83"/>
-    <hyperlink ref="A39" display="pullClient.md" r:id="rId84"/>
-    <hyperlink ref="D39" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId85"/>
-    <hyperlink ref="A40" display="pullClientConfigID.md" r:id="rId86"/>
-    <hyperlink ref="D40" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId87"/>
-    <hyperlink ref="A41" display="pullClientConfigID4.md" r:id="rId88"/>
-    <hyperlink ref="D41" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId89"/>
-    <hyperlink ref="A42" display="pullClientConfigNames.md" r:id="rId90"/>
-    <hyperlink ref="D42" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId91"/>
-    <hyperlink ref="A43" display="pullServer.md" r:id="rId92"/>
-    <hyperlink ref="D43" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId93"/>
-    <hyperlink ref="A44" display="queryServerNodes.md" r:id="rId94"/>
-    <hyperlink ref="D44" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId95"/>
-    <hyperlink ref="A45" display="registryResource.md" r:id="rId96"/>
-    <hyperlink ref="D45" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId97"/>
-    <hyperlink ref="A46" display="resources.md" r:id="rId98"/>
-    <hyperlink ref="D46" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId99"/>
-    <hyperlink ref="A47" display="scriptResource.md" r:id="rId100"/>
-    <hyperlink ref="D47" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId101"/>
-    <hyperlink ref="A48" display="secureMOF.md" r:id="rId102"/>
-    <hyperlink ref="D48" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId103"/>
-    <hyperlink ref="A49" display="secureServer.md" r:id="rId104"/>
-    <hyperlink ref="D49" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId105"/>
-    <hyperlink ref="A50" display="serviceResource.md" r:id="rId106"/>
-    <hyperlink ref="D50" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId107"/>
-    <hyperlink ref="A51" display="TOC.md" r:id="rId108"/>
-    <hyperlink ref="D51" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId109"/>
-    <hyperlink ref="A52" display="userResource.md" r:id="rId110"/>
-    <hyperlink ref="D52" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId111"/>
-    <hyperlink ref="A53" display="windowsfeatureResource.md" r:id="rId112"/>
-    <hyperlink ref="D53" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId113"/>
-    <hyperlink ref="A54" display="windowsProcessResource.md" r:id="rId114"/>
-    <hyperlink ref="D54" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId115"/>
-    <hyperlink ref="A55" display="README.md" r:id="rId116"/>
-    <hyperlink ref="D55" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId117"/>
+    <hyperlink ref="A2" display="Pull1.png" r:id="rId2"/>
+    <hyperlink ref="D2" display="a20dd5927999cbb3c1125bd4ff8944954abc84a9.png" r:id="rId3"/>
+    <hyperlink ref="F2" display="Pull1.png" r:id="rId4"/>
+    <hyperlink ref="G2" display="a20dd5927999cbb3c1125bd4ff8944954abc84a9.png" r:id="rId5"/>
+    <hyperlink ref="A3" display="partialConfigs.md" r:id="rId6"/>
+    <hyperlink ref="D3" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="F3" display="partialConfigs.md" r:id="rId8"/>
+    <hyperlink ref="G3" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="archiveResource.md" r:id="rId10"/>
+    <hyperlink ref="D4" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="F4" display="archiveResource.md" r:id="rId12"/>
+    <hyperlink ref="G4" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="CONTRIBUTING.md" r:id="rId14"/>
+    <hyperlink ref="D5" display="CONTRIBUTING.3f454a98e586d1aa0d322e19afd5e67e08f2d3c8.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A6" display="authoringResourceClass.md" r:id="rId16"/>
+    <hyperlink ref="D6" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A7" display="authoringResourceComposite.md" r:id="rId18"/>
+    <hyperlink ref="D7" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A8" display="authoringResourceMOF.md" r:id="rId20"/>
+    <hyperlink ref="D8" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A9" display="authoringResourceMofCS.md" r:id="rId22"/>
+    <hyperlink ref="D9" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A10" display="authoringResourceMofDesigner.md" r:id="rId24"/>
+    <hyperlink ref="D10" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A11" display="builtInResource.md" r:id="rId26"/>
+    <hyperlink ref="D11" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="A12" display="configData.md" r:id="rId28"/>
+    <hyperlink ref="D12" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.zh-cn.xlf" r:id="rId29"/>
+    <hyperlink ref="A13" display="configurations.md" r:id="rId30"/>
+    <hyperlink ref="D13" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId31"/>
+    <hyperlink ref="A14" display="enactingConfigurations.md" r:id="rId32"/>
+    <hyperlink ref="D14" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId33"/>
+    <hyperlink ref="A15" display="environmentResource.md" r:id="rId34"/>
+    <hyperlink ref="D15" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId35"/>
+    <hyperlink ref="A16" display="fileResource.md" r:id="rId36"/>
+    <hyperlink ref="D16" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.zh-cn.xlf" r:id="rId37"/>
+    <hyperlink ref="A17" display="groupResource.md" r:id="rId38"/>
+    <hyperlink ref="D17" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId39"/>
+    <hyperlink ref="A18" display="PartialConfig1.jpg" r:id="rId40"/>
+    <hyperlink ref="D18" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId41"/>
+    <hyperlink ref="A19" display="PartialConfigPullServer.jpg" r:id="rId42"/>
+    <hyperlink ref="D19" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId43"/>
+    <hyperlink ref="A20" display="Pull.png" r:id="rId44"/>
+    <hyperlink ref="D20" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId45"/>
+    <hyperlink ref="A21" display="Push.png" r:id="rId46"/>
+    <hyperlink ref="D21" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId47"/>
+    <hyperlink ref="A22" display="lnxArchiveResource.md" r:id="rId48"/>
+    <hyperlink ref="D22" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.zh-cn.xlf" r:id="rId49"/>
+    <hyperlink ref="A23" display="lnxBuiltInResources.md" r:id="rId50"/>
+    <hyperlink ref="D23" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.zh-cn.xlf" r:id="rId51"/>
+    <hyperlink ref="A24" display="lnxEnvironmentResource.md" r:id="rId52"/>
+    <hyperlink ref="D24" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId53"/>
+    <hyperlink ref="A25" display="lnxFileLineResource.md" r:id="rId54"/>
+    <hyperlink ref="D25" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId55"/>
+    <hyperlink ref="A26" display="lnxFileResource.md" r:id="rId56"/>
+    <hyperlink ref="D26" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId57"/>
+    <hyperlink ref="A27" display="lnxGettingStarted.md" r:id="rId58"/>
+    <hyperlink ref="D27" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId59"/>
+    <hyperlink ref="A28" display="lnxGroupResource.md" r:id="rId60"/>
+    <hyperlink ref="D28" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.zh-cn.xlf" r:id="rId61"/>
+    <hyperlink ref="A29" display="lnxPackageResource.md" r:id="rId62"/>
+    <hyperlink ref="D29" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId63"/>
+    <hyperlink ref="A30" display="lnxScriptResource.md" r:id="rId64"/>
+    <hyperlink ref="D30" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.zh-cn.xlf" r:id="rId65"/>
+    <hyperlink ref="A31" display="lnxServiceResource.md" r:id="rId66"/>
+    <hyperlink ref="D31" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.zh-cn.xlf" r:id="rId67"/>
+    <hyperlink ref="A32" display="lnxSshAuthorizedKeysResource.md" r:id="rId68"/>
+    <hyperlink ref="D32" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId69"/>
+    <hyperlink ref="A33" display="lnxUserResource.md" r:id="rId70"/>
+    <hyperlink ref="D33" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId71"/>
+    <hyperlink ref="A34" display="logResource.md" r:id="rId72"/>
+    <hyperlink ref="D34" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.zh-cn.xlf" r:id="rId73"/>
+    <hyperlink ref="A35" display="metaConfig.md" r:id="rId74"/>
+    <hyperlink ref="D35" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId75"/>
+    <hyperlink ref="A36" display="metaConfig4.md" r:id="rId76"/>
+    <hyperlink ref="D36" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId77"/>
+    <hyperlink ref="A37" display="packageResource.md" r:id="rId78"/>
+    <hyperlink ref="D37" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId79"/>
+    <hyperlink ref="A38" display="pullClient.md" r:id="rId80"/>
+    <hyperlink ref="D38" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId81"/>
+    <hyperlink ref="A39" display="pullClientConfigID.md" r:id="rId82"/>
+    <hyperlink ref="D39" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.zh-cn.xlf" r:id="rId83"/>
+    <hyperlink ref="A40" display="pullClientConfigID4.md" r:id="rId84"/>
+    <hyperlink ref="D40" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.zh-cn.xlf" r:id="rId85"/>
+    <hyperlink ref="A41" display="pullClientConfigNames.md" r:id="rId86"/>
+    <hyperlink ref="D41" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId87"/>
+    <hyperlink ref="A42" display="pullServer.md" r:id="rId88"/>
+    <hyperlink ref="D42" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId89"/>
+    <hyperlink ref="A43" display="queryServerNodes.md" r:id="rId90"/>
+    <hyperlink ref="D43" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.zh-cn.xlf" r:id="rId91"/>
+    <hyperlink ref="A44" display="registryResource.md" r:id="rId92"/>
+    <hyperlink ref="D44" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId93"/>
+    <hyperlink ref="A45" display="resources.md" r:id="rId94"/>
+    <hyperlink ref="D45" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.zh-cn.xlf" r:id="rId95"/>
+    <hyperlink ref="A46" display="scriptResource.md" r:id="rId96"/>
+    <hyperlink ref="D46" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId97"/>
+    <hyperlink ref="A47" display="secureMOF.md" r:id="rId98"/>
+    <hyperlink ref="D47" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId99"/>
+    <hyperlink ref="A48" display="secureServer.md" r:id="rId100"/>
+    <hyperlink ref="D48" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.zh-cn.xlf" r:id="rId101"/>
+    <hyperlink ref="A49" display="serviceResource.md" r:id="rId102"/>
+    <hyperlink ref="D49" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId103"/>
+    <hyperlink ref="A50" display="TOC.md" r:id="rId104"/>
+    <hyperlink ref="D50" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId105"/>
+    <hyperlink ref="A51" display="userResource.md" r:id="rId106"/>
+    <hyperlink ref="D51" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId107"/>
+    <hyperlink ref="A52" display="windowsfeatureResource.md" r:id="rId108"/>
+    <hyperlink ref="D52" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId109"/>
+    <hyperlink ref="A53" display="windowsProcessResource.md" r:id="rId110"/>
+    <hyperlink ref="D53" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId111"/>
+    <hyperlink ref="A54" display="README.md" r:id="rId112"/>
+    <hyperlink ref="D54" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId113"/>
+    <hyperlink ref="A55" display="authoringResource.md" r:id="rId114"/>
+    <hyperlink ref="D55" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId115"/>
+    <hyperlink ref="F55" display="authoringResource.md" r:id="rId116"/>
+    <hyperlink ref="G55" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId117"/>
     <hyperlink ref="A56" display="rename_troubleshooting.md" r:id="rId118"/>
     <hyperlink ref="D56" display="rename_troubleshooting.4c130a5165c494568ef17f0cc6e7c9fc0caf31bc.zh-cn.xlf" r:id="rId119"/>
     <hyperlink ref="A57" display="OpenLoc ROCKS.md" r:id="rId120"/>

--- a/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/PowerShell-Docs/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
   <si>
     <t>File Name</t>
   </si>
@@ -169,12 +169,18 @@
     <t>windowsProcessResource.md</t>
   </si>
   <si>
+    <t>Exclude.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-04-25 21:43:37</t>
+  </si>
+  <si>
     <t>authoringResource.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>2016-04-20 18:40:52</t>
   </si>
   <si>
@@ -436,6 +442,12 @@
     <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.de-de.xlf</t>
   </si>
   <si>
+    <t>Exclude.8062154e3e7f8b504bfcefa7b1ec65857d6c6c72.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-25 21:43:27</t>
+  </si>
+  <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf</t>
   </si>
   <si>
@@ -680,6 +692,9 @@
   </si>
   <si>
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>Exclude.8062154e3e7f8b504bfcefa7b1ec65857d6c6c72.zh-cn.xlf</t>
   </si>
   <si>
     <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf</t>
@@ -763,8 +778,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:L60" headerRowCount="1">
-  <autoFilter ref="A1:L60"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:L61" headerRowCount="1">
+  <autoFilter ref="A1:L61"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -784,8 +799,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="zh-cn" displayName="zh_cn" ref="A1:L60" headerRowCount="1">
-  <autoFilter ref="A1:L60"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="zh-cn" displayName="zh_cn" ref="A1:L61" headerRowCount="1">
+  <autoFilter ref="A1:L61"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -805,8 +820,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:E60" headerRowCount="1">
-  <autoFilter ref="A1:E60"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:E61" headerRowCount="1">
+  <autoFilter ref="A1:E61"/>
   <tableColumns count="5">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Extension"/>
@@ -820,7 +835,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1592,7 +1607,7 @@
         <v>52</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>55</v>
@@ -1612,15 +1627,15 @@
         <v>8</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>52</v>
@@ -1629,15 +1644,15 @@
         <v>8</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>58</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>52</v>
@@ -1646,15 +1661,15 @@
         <v>8</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>52</v>
@@ -1663,7 +1678,7 @@
         <v>8</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50">
@@ -1671,16 +1686,16 @@
         <v>63</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>52</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51">
@@ -1688,33 +1703,33 @@
         <v>65</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>52</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>52</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53">
@@ -1728,15 +1743,15 @@
         <v>52</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>6</v>
@@ -1745,15 +1760,15 @@
         <v>52</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>6</v>
@@ -1762,10 +1777,10 @@
         <v>52</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56">
@@ -1779,7 +1794,7 @@
         <v>52</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>73</v>
@@ -1830,27 +1845,44 @@
         <v>52</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
         <v>81</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1897,23 +1929,24 @@
     <hyperlink ref="A41" display="userResource.md" r:id="rId41"/>
     <hyperlink ref="A42" display="windowsfeatureResource.md" r:id="rId42"/>
     <hyperlink ref="A43" display="windowsProcessResource.md" r:id="rId43"/>
-    <hyperlink ref="A44" display="authoringResource.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="authoringResourceClass.md" r:id="rId45"/>
-    <hyperlink ref="A46" display="authoringResourceComposite.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="PartialConfig1.jpg" r:id="rId47"/>
-    <hyperlink ref="A48" display="PartialConfigPullServer.jpg" r:id="rId48"/>
-    <hyperlink ref="A49" display="Pull.png" r:id="rId49"/>
-    <hyperlink ref="A50" display="Pull1.png" r:id="rId50"/>
-    <hyperlink ref="A51" display="Push.png" r:id="rId51"/>
-    <hyperlink ref="A52" display="rename_troubleshooting.md" r:id="rId52"/>
-    <hyperlink ref="A53" display="partialConfigs.md" r:id="rId53"/>
-    <hyperlink ref="A54" display="pullServer.md" r:id="rId54"/>
-    <hyperlink ref="A55" display="archiveResource.md" r:id="rId55"/>
-    <hyperlink ref="A56" display="OpenLoc ROCKS.md" r:id="rId56"/>
-    <hyperlink ref="A57" display="SonjaFileToo.md" r:id="rId57"/>
-    <hyperlink ref="A58" display="overview-test2.md" r:id="rId58"/>
-    <hyperlink ref="A59" display="README.md" r:id="rId59"/>
-    <hyperlink ref="A60" display="MoraviaDemo.md" r:id="rId60"/>
+    <hyperlink ref="A44" display="Exclude.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="authoringResource.md" r:id="rId45"/>
+    <hyperlink ref="A46" display="authoringResourceClass.md" r:id="rId46"/>
+    <hyperlink ref="A47" display="authoringResourceComposite.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="PartialConfig1.jpg" r:id="rId48"/>
+    <hyperlink ref="A49" display="PartialConfigPullServer.jpg" r:id="rId49"/>
+    <hyperlink ref="A50" display="Pull.png" r:id="rId50"/>
+    <hyperlink ref="A51" display="Pull1.png" r:id="rId51"/>
+    <hyperlink ref="A52" display="Push.png" r:id="rId52"/>
+    <hyperlink ref="A53" display="rename_troubleshooting.md" r:id="rId53"/>
+    <hyperlink ref="A54" display="partialConfigs.md" r:id="rId54"/>
+    <hyperlink ref="A55" display="pullServer.md" r:id="rId55"/>
+    <hyperlink ref="A56" display="archiveResource.md" r:id="rId56"/>
+    <hyperlink ref="A57" display="OpenLoc ROCKS.md" r:id="rId57"/>
+    <hyperlink ref="A58" display="SonjaFileToo.md" r:id="rId58"/>
+    <hyperlink ref="A59" display="overview-test2.md" r:id="rId59"/>
+    <hyperlink ref="A60" display="README.md" r:id="rId60"/>
+    <hyperlink ref="A61" display="MoraviaDemo.md" r:id="rId61"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1924,7 +1957,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1946,40 +1979,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
@@ -1993,31 +2026,31 @@
         <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3">
@@ -2031,31 +2064,31 @@
         <v>7</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4">
@@ -2069,31 +2102,31 @@
         <v>7</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
      